--- a/1-CONTROL/2-TAREO/TAREO-JUNIO.xlsx
+++ b/1-CONTROL/2-TAREO/TAREO-JUNIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\1-CONTROL\2-TAREO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA585335-2771-43B0-8A5A-9346F9AEDF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EFAFE3-9C48-44FB-8A1F-444DEB8FE58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{100E3196-77E0-4FB0-BD0A-F462B801CA56}"/>
   </bookViews>
@@ -2365,22 +2365,31 @@
     <xf numFmtId="2" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2443,32 +2452,23 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3756,8 +3756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0760EAB-CC3D-40AE-A29A-AB65FF61DEFD}">
   <dimension ref="A1:FK167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T166" sqref="T166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3836,25 +3836,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:167" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
       <c r="V1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AF1" s="2"/>
@@ -4039,36 +4039,36 @@
       <c r="FK2" s="2"/>
     </row>
     <row r="3" spans="1:167" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="77"/>
+      <c r="A3" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="106"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="78" t="s">
+      <c r="X3" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="79"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="108"/>
       <c r="AA3" s="5">
         <v>30</v>
       </c>
@@ -4237,11 +4237,11 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="78" t="s">
+      <c r="X4" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="79"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="108"/>
       <c r="AA4" s="5">
         <v>240</v>
       </c>
@@ -4387,25 +4387,25 @@
       <c r="FK4" s="1"/>
     </row>
     <row r="5" spans="1:167" s="13" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="85"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
@@ -4744,703 +4744,703 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:167" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="91" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="100" t="s">
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="101"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="101"/>
-      <c r="Y8" s="101"/>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="101"/>
-      <c r="AB8" s="101"/>
-      <c r="AC8" s="101"/>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="101"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="101"/>
-      <c r="AI8" s="101"/>
-      <c r="AJ8" s="101"/>
-      <c r="AK8" s="101"/>
-      <c r="AL8" s="101"/>
-      <c r="AM8" s="101"/>
-      <c r="AN8" s="101"/>
-      <c r="AO8" s="101"/>
-      <c r="AP8" s="101"/>
-      <c r="AQ8" s="101"/>
-      <c r="AR8" s="101"/>
-      <c r="AS8" s="101"/>
-      <c r="AT8" s="101"/>
-      <c r="AU8" s="101"/>
-      <c r="AV8" s="101"/>
-      <c r="AW8" s="101"/>
-      <c r="AX8" s="101"/>
-      <c r="AY8" s="101"/>
-      <c r="AZ8" s="102"/>
-      <c r="BA8" s="100" t="s">
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="81"/>
+      <c r="AC8" s="81"/>
+      <c r="AD8" s="81"/>
+      <c r="AE8" s="81"/>
+      <c r="AF8" s="81"/>
+      <c r="AG8" s="81"/>
+      <c r="AH8" s="81"/>
+      <c r="AI8" s="81"/>
+      <c r="AJ8" s="81"/>
+      <c r="AK8" s="81"/>
+      <c r="AL8" s="81"/>
+      <c r="AM8" s="81"/>
+      <c r="AN8" s="81"/>
+      <c r="AO8" s="81"/>
+      <c r="AP8" s="81"/>
+      <c r="AQ8" s="81"/>
+      <c r="AR8" s="81"/>
+      <c r="AS8" s="81"/>
+      <c r="AT8" s="81"/>
+      <c r="AU8" s="81"/>
+      <c r="AV8" s="81"/>
+      <c r="AW8" s="81"/>
+      <c r="AX8" s="81"/>
+      <c r="AY8" s="81"/>
+      <c r="AZ8" s="82"/>
+      <c r="BA8" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="BB8" s="101"/>
-      <c r="BC8" s="101"/>
-      <c r="BD8" s="101"/>
-      <c r="BE8" s="101"/>
-      <c r="BF8" s="101"/>
-      <c r="BG8" s="101"/>
-      <c r="BH8" s="101"/>
-      <c r="BI8" s="101"/>
-      <c r="BJ8" s="101"/>
-      <c r="BK8" s="101"/>
-      <c r="BL8" s="101"/>
-      <c r="BM8" s="101"/>
-      <c r="BN8" s="101"/>
-      <c r="BO8" s="101"/>
-      <c r="BP8" s="101"/>
-      <c r="BQ8" s="101"/>
-      <c r="BR8" s="101"/>
-      <c r="BS8" s="101"/>
-      <c r="BT8" s="101"/>
-      <c r="BU8" s="101"/>
-      <c r="BV8" s="101"/>
-      <c r="BW8" s="101"/>
-      <c r="BX8" s="101"/>
-      <c r="BY8" s="101"/>
-      <c r="BZ8" s="101"/>
-      <c r="CA8" s="101"/>
-      <c r="CB8" s="101"/>
-      <c r="CC8" s="101"/>
-      <c r="CD8" s="101"/>
-      <c r="CE8" s="101"/>
-      <c r="CF8" s="101"/>
-      <c r="CG8" s="101"/>
-      <c r="CH8" s="101"/>
-      <c r="CI8" s="101"/>
-      <c r="CJ8" s="101"/>
-      <c r="CK8" s="101"/>
-      <c r="CL8" s="101"/>
-      <c r="CM8" s="101"/>
-      <c r="CN8" s="101"/>
-      <c r="CO8" s="101"/>
-      <c r="CP8" s="101"/>
-      <c r="CQ8" s="101"/>
-      <c r="CR8" s="101"/>
-      <c r="CS8" s="101"/>
-      <c r="CT8" s="101"/>
-      <c r="CU8" s="101"/>
-      <c r="CV8" s="101"/>
-      <c r="CW8" s="101"/>
-      <c r="CX8" s="101"/>
-      <c r="CY8" s="101"/>
-      <c r="CZ8" s="101"/>
-      <c r="DA8" s="101"/>
-      <c r="DB8" s="101"/>
-      <c r="DC8" s="101"/>
-      <c r="DD8" s="101"/>
-      <c r="DE8" s="101"/>
-      <c r="DF8" s="101"/>
-      <c r="DG8" s="101"/>
-      <c r="DH8" s="101"/>
-      <c r="DI8" s="101"/>
-      <c r="DJ8" s="101"/>
-      <c r="DK8" s="101"/>
-      <c r="DL8" s="101"/>
-      <c r="DM8" s="101"/>
-      <c r="DN8" s="101"/>
-      <c r="DO8" s="101"/>
-      <c r="DP8" s="101"/>
-      <c r="DQ8" s="101"/>
-      <c r="DR8" s="101"/>
-      <c r="DS8" s="101"/>
-      <c r="DT8" s="101"/>
-      <c r="DU8" s="101"/>
-      <c r="DV8" s="101"/>
-      <c r="DW8" s="101"/>
-      <c r="DX8" s="101"/>
-      <c r="DY8" s="101"/>
-      <c r="DZ8" s="101"/>
-      <c r="EA8" s="101"/>
-      <c r="EB8" s="101"/>
-      <c r="EC8" s="101"/>
-      <c r="ED8" s="101"/>
-      <c r="EE8" s="101"/>
-      <c r="EF8" s="101"/>
-      <c r="EG8" s="101"/>
-      <c r="EH8" s="101"/>
-      <c r="EI8" s="101"/>
-      <c r="EJ8" s="101"/>
-      <c r="EK8" s="101"/>
-      <c r="EL8" s="101"/>
-      <c r="EM8" s="101"/>
-      <c r="EN8" s="101"/>
-      <c r="EO8" s="101"/>
-      <c r="EP8" s="101"/>
-      <c r="EQ8" s="101"/>
-      <c r="ER8" s="101"/>
-      <c r="ES8" s="101"/>
-      <c r="ET8" s="101"/>
-      <c r="EU8" s="101"/>
-      <c r="EV8" s="101"/>
-      <c r="EW8" s="101"/>
-      <c r="EX8" s="101"/>
-      <c r="EY8" s="101"/>
-      <c r="EZ8" s="101"/>
-      <c r="FA8" s="101"/>
-      <c r="FB8" s="101"/>
-      <c r="FC8" s="101"/>
-      <c r="FD8" s="101"/>
-      <c r="FE8" s="101"/>
-      <c r="FF8" s="101"/>
-      <c r="FG8" s="101"/>
-      <c r="FH8" s="101"/>
-      <c r="FI8" s="101"/>
-      <c r="FJ8" s="101"/>
-      <c r="FK8" s="102"/>
+      <c r="BB8" s="81"/>
+      <c r="BC8" s="81"/>
+      <c r="BD8" s="81"/>
+      <c r="BE8" s="81"/>
+      <c r="BF8" s="81"/>
+      <c r="BG8" s="81"/>
+      <c r="BH8" s="81"/>
+      <c r="BI8" s="81"/>
+      <c r="BJ8" s="81"/>
+      <c r="BK8" s="81"/>
+      <c r="BL8" s="81"/>
+      <c r="BM8" s="81"/>
+      <c r="BN8" s="81"/>
+      <c r="BO8" s="81"/>
+      <c r="BP8" s="81"/>
+      <c r="BQ8" s="81"/>
+      <c r="BR8" s="81"/>
+      <c r="BS8" s="81"/>
+      <c r="BT8" s="81"/>
+      <c r="BU8" s="81"/>
+      <c r="BV8" s="81"/>
+      <c r="BW8" s="81"/>
+      <c r="BX8" s="81"/>
+      <c r="BY8" s="81"/>
+      <c r="BZ8" s="81"/>
+      <c r="CA8" s="81"/>
+      <c r="CB8" s="81"/>
+      <c r="CC8" s="81"/>
+      <c r="CD8" s="81"/>
+      <c r="CE8" s="81"/>
+      <c r="CF8" s="81"/>
+      <c r="CG8" s="81"/>
+      <c r="CH8" s="81"/>
+      <c r="CI8" s="81"/>
+      <c r="CJ8" s="81"/>
+      <c r="CK8" s="81"/>
+      <c r="CL8" s="81"/>
+      <c r="CM8" s="81"/>
+      <c r="CN8" s="81"/>
+      <c r="CO8" s="81"/>
+      <c r="CP8" s="81"/>
+      <c r="CQ8" s="81"/>
+      <c r="CR8" s="81"/>
+      <c r="CS8" s="81"/>
+      <c r="CT8" s="81"/>
+      <c r="CU8" s="81"/>
+      <c r="CV8" s="81"/>
+      <c r="CW8" s="81"/>
+      <c r="CX8" s="81"/>
+      <c r="CY8" s="81"/>
+      <c r="CZ8" s="81"/>
+      <c r="DA8" s="81"/>
+      <c r="DB8" s="81"/>
+      <c r="DC8" s="81"/>
+      <c r="DD8" s="81"/>
+      <c r="DE8" s="81"/>
+      <c r="DF8" s="81"/>
+      <c r="DG8" s="81"/>
+      <c r="DH8" s="81"/>
+      <c r="DI8" s="81"/>
+      <c r="DJ8" s="81"/>
+      <c r="DK8" s="81"/>
+      <c r="DL8" s="81"/>
+      <c r="DM8" s="81"/>
+      <c r="DN8" s="81"/>
+      <c r="DO8" s="81"/>
+      <c r="DP8" s="81"/>
+      <c r="DQ8" s="81"/>
+      <c r="DR8" s="81"/>
+      <c r="DS8" s="81"/>
+      <c r="DT8" s="81"/>
+      <c r="DU8" s="81"/>
+      <c r="DV8" s="81"/>
+      <c r="DW8" s="81"/>
+      <c r="DX8" s="81"/>
+      <c r="DY8" s="81"/>
+      <c r="DZ8" s="81"/>
+      <c r="EA8" s="81"/>
+      <c r="EB8" s="81"/>
+      <c r="EC8" s="81"/>
+      <c r="ED8" s="81"/>
+      <c r="EE8" s="81"/>
+      <c r="EF8" s="81"/>
+      <c r="EG8" s="81"/>
+      <c r="EH8" s="81"/>
+      <c r="EI8" s="81"/>
+      <c r="EJ8" s="81"/>
+      <c r="EK8" s="81"/>
+      <c r="EL8" s="81"/>
+      <c r="EM8" s="81"/>
+      <c r="EN8" s="81"/>
+      <c r="EO8" s="81"/>
+      <c r="EP8" s="81"/>
+      <c r="EQ8" s="81"/>
+      <c r="ER8" s="81"/>
+      <c r="ES8" s="81"/>
+      <c r="ET8" s="81"/>
+      <c r="EU8" s="81"/>
+      <c r="EV8" s="81"/>
+      <c r="EW8" s="81"/>
+      <c r="EX8" s="81"/>
+      <c r="EY8" s="81"/>
+      <c r="EZ8" s="81"/>
+      <c r="FA8" s="81"/>
+      <c r="FB8" s="81"/>
+      <c r="FC8" s="81"/>
+      <c r="FD8" s="81"/>
+      <c r="FE8" s="81"/>
+      <c r="FF8" s="81"/>
+      <c r="FG8" s="81"/>
+      <c r="FH8" s="81"/>
+      <c r="FI8" s="81"/>
+      <c r="FJ8" s="81"/>
+      <c r="FK8" s="82"/>
     </row>
     <row r="9" spans="1:167" s="18" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="106" t="str">
+      <c r="A9" s="87"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="77" t="str">
         <f>UPPER(TEXT(R10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="106" t="str">
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="77" t="str">
         <f t="shared" ref="W9" si="0">UPPER(TEXT(W10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="108"/>
-      <c r="AB9" s="106" t="str">
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="77" t="str">
         <f t="shared" ref="AB9" si="1">UPPER(TEXT(AB10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="107"/>
-      <c r="AF9" s="108"/>
-      <c r="AG9" s="106" t="str">
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="78"/>
+      <c r="AF9" s="79"/>
+      <c r="AG9" s="77" t="str">
         <f t="shared" ref="AG9" si="2">UPPER(TEXT(AG10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="AH9" s="107"/>
-      <c r="AI9" s="107"/>
-      <c r="AJ9" s="107"/>
-      <c r="AK9" s="108"/>
-      <c r="AL9" s="106" t="str">
+      <c r="AH9" s="78"/>
+      <c r="AI9" s="78"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="79"/>
+      <c r="AL9" s="77" t="str">
         <f t="shared" ref="AL9" si="3">UPPER(TEXT(AL10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="AM9" s="107"/>
-      <c r="AN9" s="107"/>
-      <c r="AO9" s="107"/>
-      <c r="AP9" s="108"/>
-      <c r="AQ9" s="106" t="str">
+      <c r="AM9" s="78"/>
+      <c r="AN9" s="78"/>
+      <c r="AO9" s="78"/>
+      <c r="AP9" s="79"/>
+      <c r="AQ9" s="77" t="str">
         <f t="shared" ref="AQ9" si="4">UPPER(TEXT(AQ10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="AR9" s="107"/>
-      <c r="AS9" s="107"/>
-      <c r="AT9" s="107"/>
-      <c r="AU9" s="108"/>
-      <c r="AV9" s="106" t="str">
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="78"/>
+      <c r="AT9" s="78"/>
+      <c r="AU9" s="79"/>
+      <c r="AV9" s="77" t="str">
         <f t="shared" ref="AV9" si="5">UPPER(TEXT(AV10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="AW9" s="107"/>
-      <c r="AX9" s="107"/>
-      <c r="AY9" s="107"/>
-      <c r="AZ9" s="108"/>
-      <c r="BA9" s="106" t="str">
+      <c r="AW9" s="78"/>
+      <c r="AX9" s="78"/>
+      <c r="AY9" s="78"/>
+      <c r="AZ9" s="79"/>
+      <c r="BA9" s="77" t="str">
         <f t="shared" ref="BA9" si="6">UPPER(TEXT(BA10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="BB9" s="107"/>
-      <c r="BC9" s="107"/>
-      <c r="BD9" s="107"/>
-      <c r="BE9" s="108"/>
-      <c r="BF9" s="106" t="str">
+      <c r="BB9" s="78"/>
+      <c r="BC9" s="78"/>
+      <c r="BD9" s="78"/>
+      <c r="BE9" s="79"/>
+      <c r="BF9" s="77" t="str">
         <f t="shared" ref="BF9" si="7">UPPER(TEXT(BF10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="BG9" s="107"/>
-      <c r="BH9" s="107"/>
-      <c r="BI9" s="107"/>
-      <c r="BJ9" s="108"/>
-      <c r="BK9" s="106" t="str">
+      <c r="BG9" s="78"/>
+      <c r="BH9" s="78"/>
+      <c r="BI9" s="78"/>
+      <c r="BJ9" s="79"/>
+      <c r="BK9" s="77" t="str">
         <f t="shared" ref="BK9" si="8">UPPER(TEXT(BK10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="BL9" s="107"/>
-      <c r="BM9" s="107"/>
-      <c r="BN9" s="107"/>
-      <c r="BO9" s="108"/>
-      <c r="BP9" s="106" t="str">
+      <c r="BL9" s="78"/>
+      <c r="BM9" s="78"/>
+      <c r="BN9" s="78"/>
+      <c r="BO9" s="79"/>
+      <c r="BP9" s="77" t="str">
         <f t="shared" ref="BP9" si="9">UPPER(TEXT(BP10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="BQ9" s="107"/>
-      <c r="BR9" s="107"/>
-      <c r="BS9" s="107"/>
-      <c r="BT9" s="108"/>
-      <c r="BU9" s="106" t="str">
+      <c r="BQ9" s="78"/>
+      <c r="BR9" s="78"/>
+      <c r="BS9" s="78"/>
+      <c r="BT9" s="79"/>
+      <c r="BU9" s="77" t="str">
         <f t="shared" ref="BU9" si="10">UPPER(TEXT(BU10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="BV9" s="107"/>
-      <c r="BW9" s="107"/>
-      <c r="BX9" s="107"/>
-      <c r="BY9" s="108"/>
-      <c r="BZ9" s="106" t="str">
+      <c r="BV9" s="78"/>
+      <c r="BW9" s="78"/>
+      <c r="BX9" s="78"/>
+      <c r="BY9" s="79"/>
+      <c r="BZ9" s="77" t="str">
         <f t="shared" ref="BZ9" si="11">UPPER(TEXT(BZ10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="CA9" s="107"/>
-      <c r="CB9" s="107"/>
-      <c r="CC9" s="107"/>
-      <c r="CD9" s="108"/>
-      <c r="CE9" s="106" t="str">
+      <c r="CA9" s="78"/>
+      <c r="CB9" s="78"/>
+      <c r="CC9" s="78"/>
+      <c r="CD9" s="79"/>
+      <c r="CE9" s="77" t="str">
         <f t="shared" ref="CE9" si="12">UPPER(TEXT(CE10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="CF9" s="107"/>
-      <c r="CG9" s="107"/>
-      <c r="CH9" s="107"/>
-      <c r="CI9" s="108"/>
-      <c r="CJ9" s="106" t="str">
+      <c r="CF9" s="78"/>
+      <c r="CG9" s="78"/>
+      <c r="CH9" s="78"/>
+      <c r="CI9" s="79"/>
+      <c r="CJ9" s="77" t="str">
         <f t="shared" ref="CJ9" si="13">UPPER(TEXT(CJ10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="CK9" s="107"/>
-      <c r="CL9" s="107"/>
-      <c r="CM9" s="107"/>
-      <c r="CN9" s="108"/>
-      <c r="CO9" s="106" t="str">
+      <c r="CK9" s="78"/>
+      <c r="CL9" s="78"/>
+      <c r="CM9" s="78"/>
+      <c r="CN9" s="79"/>
+      <c r="CO9" s="77" t="str">
         <f t="shared" ref="CO9" si="14">UPPER(TEXT(CO10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="CP9" s="107"/>
-      <c r="CQ9" s="107"/>
-      <c r="CR9" s="107"/>
-      <c r="CS9" s="108"/>
-      <c r="CT9" s="106" t="str">
+      <c r="CP9" s="78"/>
+      <c r="CQ9" s="78"/>
+      <c r="CR9" s="78"/>
+      <c r="CS9" s="79"/>
+      <c r="CT9" s="77" t="str">
         <f t="shared" ref="CT9" si="15">UPPER(TEXT(CT10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="CU9" s="107"/>
-      <c r="CV9" s="107"/>
-      <c r="CW9" s="107"/>
-      <c r="CX9" s="108"/>
-      <c r="CY9" s="106" t="str">
+      <c r="CU9" s="78"/>
+      <c r="CV9" s="78"/>
+      <c r="CW9" s="78"/>
+      <c r="CX9" s="79"/>
+      <c r="CY9" s="77" t="str">
         <f t="shared" ref="CY9" si="16">UPPER(TEXT(CY10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="CZ9" s="107"/>
-      <c r="DA9" s="107"/>
-      <c r="DB9" s="107"/>
-      <c r="DC9" s="108"/>
-      <c r="DD9" s="106" t="str">
+      <c r="CZ9" s="78"/>
+      <c r="DA9" s="78"/>
+      <c r="DB9" s="78"/>
+      <c r="DC9" s="79"/>
+      <c r="DD9" s="77" t="str">
         <f t="shared" ref="DD9" si="17">UPPER(TEXT(DD10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="DE9" s="107"/>
-      <c r="DF9" s="107"/>
-      <c r="DG9" s="107"/>
-      <c r="DH9" s="108"/>
-      <c r="DI9" s="106" t="str">
+      <c r="DE9" s="78"/>
+      <c r="DF9" s="78"/>
+      <c r="DG9" s="78"/>
+      <c r="DH9" s="79"/>
+      <c r="DI9" s="77" t="str">
         <f t="shared" ref="DI9" si="18">UPPER(TEXT(DI10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="DJ9" s="107"/>
-      <c r="DK9" s="107"/>
-      <c r="DL9" s="107"/>
-      <c r="DM9" s="108"/>
-      <c r="DN9" s="106" t="str">
+      <c r="DJ9" s="78"/>
+      <c r="DK9" s="78"/>
+      <c r="DL9" s="78"/>
+      <c r="DM9" s="79"/>
+      <c r="DN9" s="77" t="str">
         <f t="shared" ref="DN9" si="19">UPPER(TEXT(DN10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="DO9" s="107"/>
-      <c r="DP9" s="107"/>
-      <c r="DQ9" s="107"/>
-      <c r="DR9" s="108"/>
-      <c r="DS9" s="106" t="str">
+      <c r="DO9" s="78"/>
+      <c r="DP9" s="78"/>
+      <c r="DQ9" s="78"/>
+      <c r="DR9" s="79"/>
+      <c r="DS9" s="77" t="str">
         <f t="shared" ref="DS9" si="20">UPPER(TEXT(DS10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="DT9" s="107"/>
-      <c r="DU9" s="107"/>
-      <c r="DV9" s="107"/>
-      <c r="DW9" s="108"/>
-      <c r="DX9" s="106" t="str">
+      <c r="DT9" s="78"/>
+      <c r="DU9" s="78"/>
+      <c r="DV9" s="78"/>
+      <c r="DW9" s="79"/>
+      <c r="DX9" s="77" t="str">
         <f t="shared" ref="DX9" si="21">UPPER(TEXT(DX10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="DY9" s="107"/>
-      <c r="DZ9" s="107"/>
-      <c r="EA9" s="107"/>
-      <c r="EB9" s="108"/>
-      <c r="EC9" s="106" t="str">
+      <c r="DY9" s="78"/>
+      <c r="DZ9" s="78"/>
+      <c r="EA9" s="78"/>
+      <c r="EB9" s="79"/>
+      <c r="EC9" s="77" t="str">
         <f t="shared" ref="EC9" si="22">UPPER(TEXT(EC10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="ED9" s="107"/>
-      <c r="EE9" s="107"/>
-      <c r="EF9" s="107"/>
-      <c r="EG9" s="108"/>
-      <c r="EH9" s="106" t="str">
+      <c r="ED9" s="78"/>
+      <c r="EE9" s="78"/>
+      <c r="EF9" s="78"/>
+      <c r="EG9" s="79"/>
+      <c r="EH9" s="77" t="str">
         <f t="shared" ref="EH9" si="23">UPPER(TEXT(EH10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="EI9" s="107"/>
-      <c r="EJ9" s="107"/>
-      <c r="EK9" s="107"/>
-      <c r="EL9" s="108"/>
-      <c r="EM9" s="106" t="str">
+      <c r="EI9" s="78"/>
+      <c r="EJ9" s="78"/>
+      <c r="EK9" s="78"/>
+      <c r="EL9" s="79"/>
+      <c r="EM9" s="77" t="str">
         <f t="shared" ref="EM9" si="24">UPPER(TEXT(EM10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="EN9" s="107"/>
-      <c r="EO9" s="107"/>
-      <c r="EP9" s="107"/>
-      <c r="EQ9" s="108"/>
-      <c r="ER9" s="106" t="str">
+      <c r="EN9" s="78"/>
+      <c r="EO9" s="78"/>
+      <c r="EP9" s="78"/>
+      <c r="EQ9" s="79"/>
+      <c r="ER9" s="77" t="str">
         <f t="shared" ref="ER9" si="25">UPPER(TEXT(ER10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="ES9" s="107"/>
-      <c r="ET9" s="107"/>
-      <c r="EU9" s="107"/>
-      <c r="EV9" s="108"/>
-      <c r="EW9" s="106" t="str">
+      <c r="ES9" s="78"/>
+      <c r="ET9" s="78"/>
+      <c r="EU9" s="78"/>
+      <c r="EV9" s="79"/>
+      <c r="EW9" s="77" t="str">
         <f t="shared" ref="EW9" si="26">UPPER(TEXT(EW10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="EX9" s="107"/>
-      <c r="EY9" s="107"/>
-      <c r="EZ9" s="107"/>
-      <c r="FA9" s="108"/>
-      <c r="FB9" s="106" t="str">
+      <c r="EX9" s="78"/>
+      <c r="EY9" s="78"/>
+      <c r="EZ9" s="78"/>
+      <c r="FA9" s="79"/>
+      <c r="FB9" s="77" t="str">
         <f t="shared" ref="FB9" si="27">UPPER(TEXT(FB10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="FC9" s="107"/>
-      <c r="FD9" s="107"/>
-      <c r="FE9" s="107"/>
-      <c r="FF9" s="108"/>
-      <c r="FG9" s="106" t="str">
+      <c r="FC9" s="78"/>
+      <c r="FD9" s="78"/>
+      <c r="FE9" s="78"/>
+      <c r="FF9" s="79"/>
+      <c r="FG9" s="77" t="str">
         <f t="shared" ref="FG9" si="28">UPPER(TEXT(FG10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="FH9" s="107"/>
-      <c r="FI9" s="107"/>
-      <c r="FJ9" s="107"/>
-      <c r="FK9" s="108"/>
+      <c r="FH9" s="78"/>
+      <c r="FI9" s="78"/>
+      <c r="FJ9" s="78"/>
+      <c r="FK9" s="79"/>
     </row>
     <row r="10" spans="1:167" s="12" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="103">
+      <c r="A10" s="87"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="74">
         <v>44706</v>
       </c>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="105"/>
-      <c r="W10" s="103">
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="74">
         <f>+R10+1</f>
         <v>44707</v>
       </c>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="105"/>
-      <c r="AB10" s="103">
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="74">
         <f t="shared" ref="AB10" si="29">+W10+1</f>
         <v>44708</v>
       </c>
-      <c r="AC10" s="104"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="104"/>
-      <c r="AF10" s="105"/>
-      <c r="AG10" s="103">
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="74">
         <f t="shared" ref="AG10" si="30">+AB10+1</f>
         <v>44709</v>
       </c>
-      <c r="AH10" s="104"/>
-      <c r="AI10" s="104"/>
-      <c r="AJ10" s="104"/>
-      <c r="AK10" s="105"/>
-      <c r="AL10" s="103">
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="76"/>
+      <c r="AL10" s="74">
         <f t="shared" ref="AL10" si="31">+AG10+1</f>
         <v>44710</v>
       </c>
-      <c r="AM10" s="104"/>
-      <c r="AN10" s="104"/>
-      <c r="AO10" s="104"/>
-      <c r="AP10" s="105"/>
-      <c r="AQ10" s="103">
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="74">
         <f t="shared" ref="AQ10" si="32">+AL10+1</f>
         <v>44711</v>
       </c>
-      <c r="AR10" s="104"/>
-      <c r="AS10" s="104"/>
-      <c r="AT10" s="104"/>
-      <c r="AU10" s="105"/>
-      <c r="AV10" s="103">
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="75"/>
+      <c r="AU10" s="76"/>
+      <c r="AV10" s="74">
         <f t="shared" ref="AV10" si="33">+AQ10+1</f>
         <v>44712</v>
       </c>
-      <c r="AW10" s="104"/>
-      <c r="AX10" s="104"/>
-      <c r="AY10" s="104"/>
-      <c r="AZ10" s="105"/>
-      <c r="BA10" s="103">
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="75"/>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="76"/>
+      <c r="BA10" s="74">
         <f t="shared" ref="BA10" si="34">+AV10+1</f>
         <v>44713</v>
       </c>
-      <c r="BB10" s="104"/>
-      <c r="BC10" s="104"/>
-      <c r="BD10" s="104"/>
-      <c r="BE10" s="105"/>
-      <c r="BF10" s="103">
+      <c r="BB10" s="75"/>
+      <c r="BC10" s="75"/>
+      <c r="BD10" s="75"/>
+      <c r="BE10" s="76"/>
+      <c r="BF10" s="74">
         <f t="shared" ref="BF10" si="35">+BA10+1</f>
         <v>44714</v>
       </c>
-      <c r="BG10" s="104"/>
-      <c r="BH10" s="104"/>
-      <c r="BI10" s="104"/>
-      <c r="BJ10" s="105"/>
-      <c r="BK10" s="103">
+      <c r="BG10" s="75"/>
+      <c r="BH10" s="75"/>
+      <c r="BI10" s="75"/>
+      <c r="BJ10" s="76"/>
+      <c r="BK10" s="74">
         <f t="shared" ref="BK10" si="36">+BF10+1</f>
         <v>44715</v>
       </c>
-      <c r="BL10" s="104"/>
-      <c r="BM10" s="104"/>
-      <c r="BN10" s="104"/>
-      <c r="BO10" s="105"/>
-      <c r="BP10" s="103">
+      <c r="BL10" s="75"/>
+      <c r="BM10" s="75"/>
+      <c r="BN10" s="75"/>
+      <c r="BO10" s="76"/>
+      <c r="BP10" s="74">
         <f t="shared" ref="BP10" si="37">+BK10+1</f>
         <v>44716</v>
       </c>
-      <c r="BQ10" s="104"/>
-      <c r="BR10" s="104"/>
-      <c r="BS10" s="104"/>
-      <c r="BT10" s="105"/>
-      <c r="BU10" s="103">
+      <c r="BQ10" s="75"/>
+      <c r="BR10" s="75"/>
+      <c r="BS10" s="75"/>
+      <c r="BT10" s="76"/>
+      <c r="BU10" s="74">
         <f t="shared" ref="BU10" si="38">+BP10+1</f>
         <v>44717</v>
       </c>
-      <c r="BV10" s="104"/>
-      <c r="BW10" s="104"/>
-      <c r="BX10" s="104"/>
-      <c r="BY10" s="105"/>
-      <c r="BZ10" s="103">
+      <c r="BV10" s="75"/>
+      <c r="BW10" s="75"/>
+      <c r="BX10" s="75"/>
+      <c r="BY10" s="76"/>
+      <c r="BZ10" s="74">
         <f t="shared" ref="BZ10" si="39">+BU10+1</f>
         <v>44718</v>
       </c>
-      <c r="CA10" s="104"/>
-      <c r="CB10" s="104"/>
-      <c r="CC10" s="104"/>
-      <c r="CD10" s="105"/>
-      <c r="CE10" s="103">
+      <c r="CA10" s="75"/>
+      <c r="CB10" s="75"/>
+      <c r="CC10" s="75"/>
+      <c r="CD10" s="76"/>
+      <c r="CE10" s="74">
         <f t="shared" ref="CE10" si="40">+BZ10+1</f>
         <v>44719</v>
       </c>
-      <c r="CF10" s="104"/>
-      <c r="CG10" s="104"/>
-      <c r="CH10" s="104"/>
-      <c r="CI10" s="105"/>
-      <c r="CJ10" s="103">
+      <c r="CF10" s="75"/>
+      <c r="CG10" s="75"/>
+      <c r="CH10" s="75"/>
+      <c r="CI10" s="76"/>
+      <c r="CJ10" s="74">
         <f t="shared" ref="CJ10" si="41">+CE10+1</f>
         <v>44720</v>
       </c>
-      <c r="CK10" s="104"/>
-      <c r="CL10" s="104"/>
-      <c r="CM10" s="104"/>
-      <c r="CN10" s="105"/>
-      <c r="CO10" s="103">
+      <c r="CK10" s="75"/>
+      <c r="CL10" s="75"/>
+      <c r="CM10" s="75"/>
+      <c r="CN10" s="76"/>
+      <c r="CO10" s="74">
         <f t="shared" ref="CO10" si="42">+CJ10+1</f>
         <v>44721</v>
       </c>
-      <c r="CP10" s="104"/>
-      <c r="CQ10" s="104"/>
-      <c r="CR10" s="104"/>
-      <c r="CS10" s="105"/>
-      <c r="CT10" s="103">
+      <c r="CP10" s="75"/>
+      <c r="CQ10" s="75"/>
+      <c r="CR10" s="75"/>
+      <c r="CS10" s="76"/>
+      <c r="CT10" s="74">
         <f t="shared" ref="CT10" si="43">+CO10+1</f>
         <v>44722</v>
       </c>
-      <c r="CU10" s="104"/>
-      <c r="CV10" s="104"/>
-      <c r="CW10" s="104"/>
-      <c r="CX10" s="105"/>
-      <c r="CY10" s="103">
+      <c r="CU10" s="75"/>
+      <c r="CV10" s="75"/>
+      <c r="CW10" s="75"/>
+      <c r="CX10" s="76"/>
+      <c r="CY10" s="74">
         <f t="shared" ref="CY10" si="44">+CT10+1</f>
         <v>44723</v>
       </c>
-      <c r="CZ10" s="104"/>
-      <c r="DA10" s="104"/>
-      <c r="DB10" s="104"/>
-      <c r="DC10" s="105"/>
-      <c r="DD10" s="103">
+      <c r="CZ10" s="75"/>
+      <c r="DA10" s="75"/>
+      <c r="DB10" s="75"/>
+      <c r="DC10" s="76"/>
+      <c r="DD10" s="74">
         <f t="shared" ref="DD10" si="45">+CY10+1</f>
         <v>44724</v>
       </c>
-      <c r="DE10" s="104"/>
-      <c r="DF10" s="104"/>
-      <c r="DG10" s="104"/>
-      <c r="DH10" s="105"/>
-      <c r="DI10" s="103">
+      <c r="DE10" s="75"/>
+      <c r="DF10" s="75"/>
+      <c r="DG10" s="75"/>
+      <c r="DH10" s="76"/>
+      <c r="DI10" s="74">
         <f t="shared" ref="DI10" si="46">+DD10+1</f>
         <v>44725</v>
       </c>
-      <c r="DJ10" s="104"/>
-      <c r="DK10" s="104"/>
-      <c r="DL10" s="104"/>
-      <c r="DM10" s="105"/>
-      <c r="DN10" s="103">
+      <c r="DJ10" s="75"/>
+      <c r="DK10" s="75"/>
+      <c r="DL10" s="75"/>
+      <c r="DM10" s="76"/>
+      <c r="DN10" s="74">
         <f t="shared" ref="DN10" si="47">+DI10+1</f>
         <v>44726</v>
       </c>
-      <c r="DO10" s="104"/>
-      <c r="DP10" s="104"/>
-      <c r="DQ10" s="104"/>
-      <c r="DR10" s="105"/>
-      <c r="DS10" s="103">
+      <c r="DO10" s="75"/>
+      <c r="DP10" s="75"/>
+      <c r="DQ10" s="75"/>
+      <c r="DR10" s="76"/>
+      <c r="DS10" s="74">
         <f t="shared" ref="DS10" si="48">+DN10+1</f>
         <v>44727</v>
       </c>
-      <c r="DT10" s="104"/>
-      <c r="DU10" s="104"/>
-      <c r="DV10" s="104"/>
-      <c r="DW10" s="105"/>
-      <c r="DX10" s="103">
+      <c r="DT10" s="75"/>
+      <c r="DU10" s="75"/>
+      <c r="DV10" s="75"/>
+      <c r="DW10" s="76"/>
+      <c r="DX10" s="74">
         <f t="shared" ref="DX10" si="49">+DS10+1</f>
         <v>44728</v>
       </c>
-      <c r="DY10" s="104"/>
-      <c r="DZ10" s="104"/>
-      <c r="EA10" s="104"/>
-      <c r="EB10" s="105"/>
-      <c r="EC10" s="103">
+      <c r="DY10" s="75"/>
+      <c r="DZ10" s="75"/>
+      <c r="EA10" s="75"/>
+      <c r="EB10" s="76"/>
+      <c r="EC10" s="74">
         <f t="shared" ref="EC10" si="50">+DX10+1</f>
         <v>44729</v>
       </c>
-      <c r="ED10" s="104"/>
-      <c r="EE10" s="104"/>
-      <c r="EF10" s="104"/>
-      <c r="EG10" s="105"/>
-      <c r="EH10" s="103">
+      <c r="ED10" s="75"/>
+      <c r="EE10" s="75"/>
+      <c r="EF10" s="75"/>
+      <c r="EG10" s="76"/>
+      <c r="EH10" s="74">
         <f t="shared" ref="EH10" si="51">+EC10+1</f>
         <v>44730</v>
       </c>
-      <c r="EI10" s="104"/>
-      <c r="EJ10" s="104"/>
-      <c r="EK10" s="104"/>
-      <c r="EL10" s="105"/>
-      <c r="EM10" s="103">
+      <c r="EI10" s="75"/>
+      <c r="EJ10" s="75"/>
+      <c r="EK10" s="75"/>
+      <c r="EL10" s="76"/>
+      <c r="EM10" s="74">
         <f t="shared" ref="EM10" si="52">+EH10+1</f>
         <v>44731</v>
       </c>
-      <c r="EN10" s="104"/>
-      <c r="EO10" s="104"/>
-      <c r="EP10" s="104"/>
-      <c r="EQ10" s="105"/>
-      <c r="ER10" s="103">
+      <c r="EN10" s="75"/>
+      <c r="EO10" s="75"/>
+      <c r="EP10" s="75"/>
+      <c r="EQ10" s="76"/>
+      <c r="ER10" s="74">
         <f t="shared" ref="ER10" si="53">+EM10+1</f>
         <v>44732</v>
       </c>
-      <c r="ES10" s="104"/>
-      <c r="ET10" s="104"/>
-      <c r="EU10" s="104"/>
-      <c r="EV10" s="105"/>
-      <c r="EW10" s="103">
+      <c r="ES10" s="75"/>
+      <c r="ET10" s="75"/>
+      <c r="EU10" s="75"/>
+      <c r="EV10" s="76"/>
+      <c r="EW10" s="74">
         <f t="shared" ref="EW10" si="54">+ER10+1</f>
         <v>44733</v>
       </c>
-      <c r="EX10" s="104"/>
-      <c r="EY10" s="104"/>
-      <c r="EZ10" s="104"/>
-      <c r="FA10" s="105"/>
-      <c r="FB10" s="103">
+      <c r="EX10" s="75"/>
+      <c r="EY10" s="75"/>
+      <c r="EZ10" s="75"/>
+      <c r="FA10" s="76"/>
+      <c r="FB10" s="74">
         <f t="shared" ref="FB10" si="55">+EW10+1</f>
         <v>44734</v>
       </c>
-      <c r="FC10" s="104"/>
-      <c r="FD10" s="104"/>
-      <c r="FE10" s="104"/>
-      <c r="FF10" s="105"/>
-      <c r="FG10" s="103">
+      <c r="FC10" s="75"/>
+      <c r="FD10" s="75"/>
+      <c r="FE10" s="75"/>
+      <c r="FF10" s="76"/>
+      <c r="FG10" s="74">
         <f t="shared" ref="FG10" si="56">+FB10+1</f>
         <v>44735</v>
       </c>
-      <c r="FH10" s="104"/>
-      <c r="FI10" s="104"/>
-      <c r="FJ10" s="104"/>
-      <c r="FK10" s="105"/>
+      <c r="FH10" s="75"/>
+      <c r="FI10" s="75"/>
+      <c r="FJ10" s="75"/>
+      <c r="FK10" s="76"/>
     </row>
     <row r="11" spans="1:167" s="21" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="44" t="s">
         <v>173</v>
       </c>
@@ -31337,11 +31337,11 @@
       </c>
       <c r="E105" s="37">
         <f t="shared" si="83"/>
-        <v>20.75</v>
+        <v>24</v>
       </c>
       <c r="F105" s="37">
         <f t="shared" si="84"/>
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="G105" s="37">
         <f t="shared" si="85"/>
@@ -31365,11 +31365,11 @@
       </c>
       <c r="L105" s="38">
         <f t="shared" si="90"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M105" s="24">
         <f t="shared" si="91"/>
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="N105" s="24">
         <f t="shared" si="92"/>
@@ -31385,7 +31385,7 @@
       </c>
       <c r="Q105" s="35">
         <f t="shared" si="95"/>
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="R105" s="31">
         <v>1</v>
@@ -31432,9 +31432,7 @@
       <c r="AV105" s="31">
         <v>1</v>
       </c>
-      <c r="AW105" s="32">
-        <v>2</v>
-      </c>
+      <c r="AW105" s="32"/>
       <c r="AX105" s="32"/>
       <c r="AY105" s="33"/>
       <c r="AZ105" s="34"/>
@@ -31448,9 +31446,7 @@
       <c r="BF105" s="31">
         <v>1</v>
       </c>
-      <c r="BG105" s="32">
-        <v>1</v>
-      </c>
+      <c r="BG105" s="32"/>
       <c r="BH105" s="32"/>
       <c r="BI105" s="33"/>
       <c r="BJ105" s="34"/>
@@ -31478,23 +31474,19 @@
       <c r="BZ105" s="31">
         <v>1</v>
       </c>
-      <c r="CA105" s="32">
-        <v>1.5</v>
-      </c>
+      <c r="CA105" s="32"/>
       <c r="CB105" s="32"/>
       <c r="CC105" s="33"/>
       <c r="CD105" s="34"/>
       <c r="CE105" s="31">
         <v>1</v>
       </c>
-      <c r="CF105" s="32">
-        <v>2</v>
-      </c>
+      <c r="CF105" s="32"/>
       <c r="CG105" s="32"/>
       <c r="CH105" s="33"/>
       <c r="CI105" s="34"/>
       <c r="CJ105" s="31">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="CK105" s="32"/>
       <c r="CL105" s="32"/>
@@ -31503,9 +31495,7 @@
       <c r="CO105" s="31">
         <v>1</v>
       </c>
-      <c r="CP105" s="32">
-        <v>0.5</v>
-      </c>
+      <c r="CP105" s="32"/>
       <c r="CQ105" s="32"/>
       <c r="CR105" s="33"/>
       <c r="CS105" s="34"/>
@@ -31519,9 +31509,7 @@
       <c r="CY105" s="31">
         <v>1</v>
       </c>
-      <c r="CZ105" s="32">
-        <v>0.25</v>
-      </c>
+      <c r="CZ105" s="32"/>
       <c r="DA105" s="32"/>
       <c r="DB105" s="33"/>
       <c r="DC105" s="34"/>
@@ -31535,32 +31523,34 @@
       <c r="DI105" s="31">
         <v>1</v>
       </c>
-      <c r="DJ105" s="32">
-        <v>0.5</v>
-      </c>
+      <c r="DJ105" s="32"/>
       <c r="DK105" s="32"/>
       <c r="DL105" s="33"/>
       <c r="DM105" s="34"/>
       <c r="DN105" s="31">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="DO105" s="32"/>
       <c r="DP105" s="32"/>
       <c r="DQ105" s="33"/>
       <c r="DR105" s="34"/>
       <c r="DS105" s="31">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="DT105" s="32"/>
       <c r="DU105" s="32"/>
       <c r="DV105" s="33"/>
       <c r="DW105" s="34"/>
-      <c r="DX105" s="31"/>
+      <c r="DX105" s="31">
+        <v>1</v>
+      </c>
       <c r="DY105" s="32"/>
       <c r="DZ105" s="32"/>
       <c r="EA105" s="33"/>
       <c r="EB105" s="34"/>
-      <c r="EC105" s="31"/>
+      <c r="EC105" s="31">
+        <v>1</v>
+      </c>
       <c r="ED105" s="32"/>
       <c r="EE105" s="32"/>
       <c r="EF105" s="33"/>
@@ -31849,11 +31839,11 @@
       </c>
       <c r="E107" s="37">
         <f t="shared" si="83"/>
-        <v>16.75</v>
+        <v>17</v>
       </c>
       <c r="F107" s="37">
         <f t="shared" si="84"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G107" s="37">
         <f t="shared" si="85"/>
@@ -31881,7 +31871,7 @@
       </c>
       <c r="M107" s="24">
         <f t="shared" si="91"/>
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N107" s="24">
         <f t="shared" si="92"/>
@@ -31897,7 +31887,7 @@
       </c>
       <c r="Q107" s="35">
         <f t="shared" si="95"/>
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="R107" s="31" t="s">
         <v>475</v>
@@ -32015,9 +32005,7 @@
       <c r="CO107" s="31">
         <v>1</v>
       </c>
-      <c r="CP107" s="32">
-        <v>0.5</v>
-      </c>
+      <c r="CP107" s="32"/>
       <c r="CQ107" s="32"/>
       <c r="CR107" s="33"/>
       <c r="CS107" s="34"/>
@@ -32043,7 +32031,7 @@
       <c r="DG107" s="52"/>
       <c r="DH107" s="53"/>
       <c r="DI107" s="31">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="DJ107" s="32"/>
       <c r="DK107" s="32"/>
@@ -32052,18 +32040,14 @@
       <c r="DN107" s="31">
         <v>1</v>
       </c>
-      <c r="DO107" s="32">
-        <v>1</v>
-      </c>
+      <c r="DO107" s="32"/>
       <c r="DP107" s="32"/>
       <c r="DQ107" s="33"/>
       <c r="DR107" s="34"/>
       <c r="DS107" s="31">
         <v>1</v>
       </c>
-      <c r="DT107" s="32">
-        <v>0.5</v>
-      </c>
+      <c r="DT107" s="32"/>
       <c r="DU107" s="32"/>
       <c r="DV107" s="33"/>
       <c r="DW107" s="34"/>
@@ -45435,11 +45419,11 @@
       <c r="D162" s="72"/>
       <c r="E162" s="73">
         <f t="shared" ref="E162:AJ162" si="122">SUM(E12:E161)</f>
-        <v>2007.140000000001</v>
+        <v>2010.640000000001</v>
       </c>
       <c r="F162" s="73">
         <f t="shared" si="122"/>
-        <v>159.86000000000004</v>
+        <v>158.36000000000004</v>
       </c>
       <c r="G162" s="73">
         <f t="shared" si="122"/>
@@ -45463,11 +45447,11 @@
       </c>
       <c r="L162" s="73">
         <f t="shared" si="122"/>
-        <v>2485</v>
+        <v>2487</v>
       </c>
       <c r="M162" s="73">
         <f t="shared" si="122"/>
-        <v>769</v>
+        <v>759.25</v>
       </c>
       <c r="N162" s="73">
         <f t="shared" si="122"/>
@@ -45483,7 +45467,7 @@
       </c>
       <c r="Q162" s="73">
         <f t="shared" si="122"/>
-        <v>3585.75</v>
+        <v>3576</v>
       </c>
       <c r="R162" s="40">
         <f t="shared" si="122"/>
@@ -45611,7 +45595,7 @@
       </c>
       <c r="AW162" s="42">
         <f t="shared" si="123"/>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AX162" s="42">
         <f t="shared" si="123"/>
@@ -45651,7 +45635,7 @@
       </c>
       <c r="BG162" s="42">
         <f t="shared" si="123"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BH162" s="42">
         <f t="shared" si="123"/>
@@ -45731,7 +45715,7 @@
       </c>
       <c r="CA162" s="42">
         <f t="shared" si="124"/>
-        <v>44.75</v>
+        <v>43.25</v>
       </c>
       <c r="CB162" s="42">
         <f t="shared" si="124"/>
@@ -45751,7 +45735,7 @@
       </c>
       <c r="CF162" s="42">
         <f t="shared" si="124"/>
-        <v>62.25</v>
+        <v>60.25</v>
       </c>
       <c r="CG162" s="42">
         <f t="shared" si="124"/>
@@ -45767,7 +45751,7 @@
       </c>
       <c r="CJ162" s="40">
         <f t="shared" si="124"/>
-        <v>88.72999999999999</v>
+        <v>88.97999999999999</v>
       </c>
       <c r="CK162" s="42">
         <f t="shared" si="124"/>
@@ -45791,7 +45775,7 @@
       </c>
       <c r="CP162" s="42">
         <f t="shared" si="124"/>
-        <v>42.25</v>
+        <v>41.25</v>
       </c>
       <c r="CQ162" s="42">
         <f t="shared" si="124"/>
@@ -45831,7 +45815,7 @@
       </c>
       <c r="CZ162" s="42">
         <f t="shared" si="125"/>
-        <v>28.25</v>
+        <v>28</v>
       </c>
       <c r="DA162" s="42">
         <f t="shared" si="125"/>
@@ -45867,11 +45851,11 @@
       </c>
       <c r="DI162" s="40">
         <f t="shared" si="125"/>
-        <v>76.539999999999992</v>
+        <v>76.789999999999992</v>
       </c>
       <c r="DJ162" s="42">
         <f t="shared" si="125"/>
-        <v>19.75</v>
+        <v>19.25</v>
       </c>
       <c r="DK162" s="42">
         <f t="shared" si="125"/>
@@ -45887,11 +45871,11 @@
       </c>
       <c r="DN162" s="40">
         <f t="shared" si="125"/>
-        <v>92.5</v>
+        <v>93.25</v>
       </c>
       <c r="DO162" s="42">
         <f t="shared" si="125"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="DP162" s="42">
         <f t="shared" si="125"/>
@@ -45907,11 +45891,11 @@
       </c>
       <c r="DS162" s="40">
         <f t="shared" si="125"/>
-        <v>94.75</v>
+        <v>95</v>
       </c>
       <c r="DT162" s="42">
         <f t="shared" si="125"/>
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="DU162" s="42">
         <f t="shared" si="125"/>
@@ -45927,7 +45911,7 @@
       </c>
       <c r="DX162" s="40">
         <f t="shared" si="125"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DY162" s="42">
         <f t="shared" si="125"/>
@@ -45947,7 +45931,7 @@
       </c>
       <c r="EC162" s="40">
         <f t="shared" ref="EC162:FH162" si="126">SUM(EC12:EC161)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED162" s="42">
         <f t="shared" si="126"/>
@@ -46397,28 +46381,40 @@
   </sheetData>
   <autoFilter ref="A11:FK162" xr:uid="{C0760EAB-CC3D-40AE-A29A-AB65FF61DEFD}"/>
   <mergeCells count="72">
-    <mergeCell ref="BA10:BE10"/>
-    <mergeCell ref="DI10:DM10"/>
-    <mergeCell ref="BF10:BJ10"/>
-    <mergeCell ref="BK10:BO10"/>
-    <mergeCell ref="BP10:BT10"/>
-    <mergeCell ref="BU10:BY10"/>
-    <mergeCell ref="BZ10:CD10"/>
-    <mergeCell ref="CE10:CI10"/>
-    <mergeCell ref="FG10:FK10"/>
-    <mergeCell ref="DN10:DR10"/>
-    <mergeCell ref="DS10:DW10"/>
-    <mergeCell ref="DX10:EB10"/>
-    <mergeCell ref="EC10:EG10"/>
-    <mergeCell ref="EH10:EL10"/>
-    <mergeCell ref="EM10:EQ10"/>
-    <mergeCell ref="FG9:FK9"/>
-    <mergeCell ref="EC9:EG9"/>
-    <mergeCell ref="EH9:EL9"/>
-    <mergeCell ref="EM9:EQ9"/>
-    <mergeCell ref="ER9:EV9"/>
-    <mergeCell ref="EW9:FA9"/>
-    <mergeCell ref="FB9:FF9"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:D10"/>
+    <mergeCell ref="E8:Q10"/>
+    <mergeCell ref="R8:AZ8"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AQ10:AU10"/>
+    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="BU9:BY9"/>
+    <mergeCell ref="BZ9:CD9"/>
+    <mergeCell ref="ER10:EV10"/>
+    <mergeCell ref="EW10:FA10"/>
+    <mergeCell ref="FB10:FF10"/>
+    <mergeCell ref="CY9:DC9"/>
+    <mergeCell ref="DD9:DH9"/>
+    <mergeCell ref="DI9:DM9"/>
+    <mergeCell ref="DN9:DR9"/>
+    <mergeCell ref="DS9:DW9"/>
+    <mergeCell ref="DX9:EB9"/>
+    <mergeCell ref="CJ10:CN10"/>
+    <mergeCell ref="CO10:CS10"/>
+    <mergeCell ref="CT10:CX10"/>
+    <mergeCell ref="CY10:DC10"/>
+    <mergeCell ref="DD10:DH10"/>
     <mergeCell ref="BA8:FK8"/>
     <mergeCell ref="R9:V9"/>
     <mergeCell ref="W9:AA9"/>
@@ -46435,40 +46431,28 @@
     <mergeCell ref="BF9:BJ9"/>
     <mergeCell ref="BK9:BO9"/>
     <mergeCell ref="BP9:BT9"/>
-    <mergeCell ref="BU9:BY9"/>
-    <mergeCell ref="BZ9:CD9"/>
-    <mergeCell ref="ER10:EV10"/>
-    <mergeCell ref="EW10:FA10"/>
-    <mergeCell ref="FB10:FF10"/>
-    <mergeCell ref="CY9:DC9"/>
-    <mergeCell ref="DD9:DH9"/>
-    <mergeCell ref="DI9:DM9"/>
-    <mergeCell ref="DN9:DR9"/>
-    <mergeCell ref="DS9:DW9"/>
-    <mergeCell ref="DX9:EB9"/>
-    <mergeCell ref="CJ10:CN10"/>
-    <mergeCell ref="CO10:CS10"/>
-    <mergeCell ref="CT10:CX10"/>
-    <mergeCell ref="CY10:DC10"/>
-    <mergeCell ref="DD10:DH10"/>
-    <mergeCell ref="R8:AZ8"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="AQ10:AU10"/>
-    <mergeCell ref="AV10:AZ10"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:Q5"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:D10"/>
-    <mergeCell ref="E8:Q10"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:Q3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="FG9:FK9"/>
+    <mergeCell ref="EC9:EG9"/>
+    <mergeCell ref="EH9:EL9"/>
+    <mergeCell ref="EM9:EQ9"/>
+    <mergeCell ref="ER9:EV9"/>
+    <mergeCell ref="EW9:FA9"/>
+    <mergeCell ref="FB9:FF9"/>
+    <mergeCell ref="FG10:FK10"/>
+    <mergeCell ref="DN10:DR10"/>
+    <mergeCell ref="DS10:DW10"/>
+    <mergeCell ref="DX10:EB10"/>
+    <mergeCell ref="EC10:EG10"/>
+    <mergeCell ref="EH10:EL10"/>
+    <mergeCell ref="EM10:EQ10"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="DI10:DM10"/>
+    <mergeCell ref="BF10:BJ10"/>
+    <mergeCell ref="BK10:BO10"/>
+    <mergeCell ref="BP10:BT10"/>
+    <mergeCell ref="BU10:BY10"/>
+    <mergeCell ref="BZ10:CD10"/>
+    <mergeCell ref="CE10:CI10"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="DS12:EL151 FB12:FK151 ER12:EV151">

--- a/1-CONTROL/2-TAREO/TAREO-JUNIO.xlsx
+++ b/1-CONTROL/2-TAREO/TAREO-JUNIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\1-CONTROL\2-TAREO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE41832-7D4D-4629-B256-486EDD37C313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F926F173-46F6-44D7-A9B3-C8F7A15D3C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{100E3196-77E0-4FB0-BD0A-F462B801CA56}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="512">
   <si>
     <t>REPORTE HORAS HOMBRE : TAREO - PERSONAL OPERARIOS</t>
   </si>
@@ -3759,8 +3759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0760EAB-CC3D-40AE-A29A-AB65FF61DEFD}">
   <dimension ref="A1:FK167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="EV165" sqref="EV165"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="FK16" sqref="FK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3769,66 +3769,66 @@
     <col min="2" max="2" width="30.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="13.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="11" width="13.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16" width="10.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
-    <col min="18" max="21" width="6" style="1" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" style="1" customWidth="1"/>
-    <col min="23" max="26" width="6" style="1" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" style="1" customWidth="1"/>
-    <col min="28" max="31" width="6" style="1" customWidth="1"/>
-    <col min="32" max="32" width="5.7109375" style="1" customWidth="1"/>
-    <col min="33" max="36" width="6" style="1" customWidth="1"/>
-    <col min="37" max="37" width="5.7109375" style="1" customWidth="1"/>
-    <col min="38" max="41" width="6" style="1" customWidth="1"/>
-    <col min="42" max="42" width="5.7109375" style="1" customWidth="1"/>
-    <col min="43" max="46" width="6" style="1" customWidth="1"/>
-    <col min="47" max="47" width="5.7109375" style="1" customWidth="1"/>
-    <col min="48" max="51" width="6" style="1" customWidth="1"/>
-    <col min="52" max="52" width="5.7109375" style="1" customWidth="1"/>
-    <col min="53" max="56" width="6" style="1" customWidth="1"/>
-    <col min="57" max="57" width="5.7109375" style="1" customWidth="1"/>
-    <col min="58" max="61" width="6" style="1" customWidth="1"/>
-    <col min="62" max="62" width="5.7109375" style="1" customWidth="1"/>
-    <col min="63" max="66" width="6" style="1" customWidth="1"/>
-    <col min="67" max="67" width="5.7109375" style="1" customWidth="1"/>
-    <col min="68" max="71" width="6" style="1" customWidth="1"/>
-    <col min="72" max="72" width="5.7109375" style="1" customWidth="1"/>
-    <col min="73" max="76" width="6" style="1" customWidth="1"/>
-    <col min="77" max="77" width="5.7109375" style="1" customWidth="1"/>
-    <col min="78" max="81" width="6" style="1" customWidth="1"/>
-    <col min="82" max="82" width="5.7109375" style="1" customWidth="1"/>
-    <col min="83" max="86" width="6" style="1" customWidth="1"/>
-    <col min="87" max="87" width="5.7109375" style="1" customWidth="1"/>
-    <col min="88" max="91" width="6" style="1" customWidth="1"/>
-    <col min="92" max="92" width="5.7109375" style="1" customWidth="1"/>
-    <col min="93" max="96" width="6" style="1" customWidth="1"/>
-    <col min="97" max="97" width="5.7109375" style="1" customWidth="1"/>
-    <col min="98" max="101" width="6" style="1" customWidth="1"/>
-    <col min="102" max="102" width="5.7109375" style="1" customWidth="1"/>
-    <col min="103" max="106" width="6" style="1" customWidth="1"/>
-    <col min="107" max="107" width="5.7109375" style="1" customWidth="1"/>
-    <col min="108" max="111" width="6" style="1" customWidth="1"/>
-    <col min="112" max="112" width="5.7109375" style="1" customWidth="1"/>
-    <col min="113" max="116" width="6" style="1" customWidth="1"/>
-    <col min="117" max="117" width="5.7109375" style="1" customWidth="1"/>
-    <col min="118" max="121" width="6" style="1" customWidth="1"/>
-    <col min="122" max="122" width="5.7109375" style="1" customWidth="1"/>
-    <col min="123" max="126" width="6" style="1" customWidth="1"/>
-    <col min="127" max="127" width="5.7109375" style="1" customWidth="1"/>
-    <col min="128" max="131" width="6" style="1" customWidth="1"/>
-    <col min="132" max="132" width="5.7109375" style="1" customWidth="1"/>
-    <col min="133" max="136" width="6" style="1" customWidth="1"/>
-    <col min="137" max="137" width="5.7109375" style="1" customWidth="1"/>
-    <col min="138" max="141" width="6" style="1" customWidth="1"/>
-    <col min="142" max="142" width="5.7109375" style="1" customWidth="1"/>
-    <col min="143" max="146" width="6" style="1" customWidth="1"/>
-    <col min="147" max="147" width="5.7109375" style="1" customWidth="1"/>
-    <col min="148" max="151" width="6" style="1" customWidth="1"/>
-    <col min="152" max="152" width="5.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16" width="10.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="21" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="26" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="31" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="33" max="36" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="38" max="41" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="43" max="46" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="48" max="51" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="53" max="56" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="58" max="61" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="63" max="66" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="68" max="71" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="73" max="76" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="78" max="81" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="82" max="82" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="83" max="86" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="87" max="87" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="88" max="91" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="92" max="92" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="93" max="96" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="97" max="97" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="98" max="101" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="102" max="102" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="103" max="106" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="107" max="107" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="108" max="111" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="112" max="112" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="113" max="116" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="117" max="117" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="118" max="121" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="122" max="122" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="123" max="126" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="127" max="127" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="128" max="131" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="132" max="132" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="133" max="136" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="137" max="137" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="138" max="141" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="142" max="142" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="143" max="146" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="147" max="147" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="148" max="151" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="152" max="152" width="5.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="153" max="156" width="6" style="1" customWidth="1"/>
     <col min="157" max="157" width="5.7109375" style="1" customWidth="1"/>
     <col min="158" max="161" width="6" style="1" customWidth="1"/>
@@ -11318,7 +11318,7 @@
       </c>
       <c r="M31" s="24">
         <f t="shared" si="65"/>
-        <v>7.75</v>
+        <v>6.75</v>
       </c>
       <c r="N31" s="24">
         <f t="shared" si="66"/>
@@ -11334,7 +11334,7 @@
       </c>
       <c r="Q31" s="35">
         <f t="shared" si="69"/>
-        <v>199.75</v>
+        <v>198.75</v>
       </c>
       <c r="R31" s="31">
         <v>1</v>
@@ -11589,7 +11589,7 @@
         <v>1</v>
       </c>
       <c r="EX31" s="32">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="EY31" s="32"/>
       <c r="EZ31" s="33"/>
@@ -12264,7 +12264,7 @@
       </c>
       <c r="E34" s="37">
         <f t="shared" si="57"/>
-        <v>23.22</v>
+        <v>25.22</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="58"/>
@@ -12284,7 +12284,7 @@
       </c>
       <c r="J34" s="24">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K34" s="24">
         <f t="shared" si="63"/>
@@ -12394,8 +12394,8 @@
       <c r="BM34" s="32"/>
       <c r="BN34" s="33"/>
       <c r="BO34" s="34"/>
-      <c r="BP34" s="31" t="s">
-        <v>476</v>
+      <c r="BP34" s="31">
+        <v>1</v>
       </c>
       <c r="BQ34" s="32"/>
       <c r="BR34" s="32"/>
@@ -12482,8 +12482,8 @@
       <c r="DU34" s="32"/>
       <c r="DV34" s="33"/>
       <c r="DW34" s="34"/>
-      <c r="DX34" s="31" t="s">
-        <v>476</v>
+      <c r="DX34" s="31">
+        <v>1</v>
       </c>
       <c r="DY34" s="32"/>
       <c r="DZ34" s="32"/>
@@ -12588,7 +12588,7 @@
       </c>
       <c r="N35" s="24">
         <f t="shared" si="66"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O35" s="24">
         <f t="shared" si="67"/>
@@ -12600,7 +12600,7 @@
       </c>
       <c r="Q35" s="35">
         <f t="shared" si="69"/>
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R35" s="31">
         <v>1</v>
@@ -12876,7 +12876,7 @@
         <v>2</v>
       </c>
       <c r="EY35" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EZ35" s="33"/>
       <c r="FA35" s="34">
@@ -27160,7 +27160,7 @@
       </c>
       <c r="E87" s="37">
         <f t="shared" si="83"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F87" s="37">
         <f t="shared" si="84"/>
@@ -27180,7 +27180,7 @@
       </c>
       <c r="J87" s="24">
         <f t="shared" si="88"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K87" s="24">
         <f t="shared" si="89"/>
@@ -27192,7 +27192,7 @@
       </c>
       <c r="M87" s="24">
         <f t="shared" si="91"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N87" s="24">
         <f t="shared" si="92"/>
@@ -27204,11 +27204,11 @@
       </c>
       <c r="P87" s="24">
         <f t="shared" si="94"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="Q87" s="35">
         <f t="shared" si="95"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="R87" s="31">
         <v>1</v>
@@ -27431,13 +27431,17 @@
       <c r="ET87" s="32"/>
       <c r="EU87" s="33"/>
       <c r="EV87" s="34"/>
-      <c r="EW87" s="31" t="s">
-        <v>476</v>
-      </c>
-      <c r="EX87" s="32"/>
+      <c r="EW87" s="31">
+        <v>1</v>
+      </c>
+      <c r="EX87" s="32">
+        <v>2</v>
+      </c>
       <c r="EY87" s="32"/>
       <c r="EZ87" s="33"/>
-      <c r="FA87" s="34"/>
+      <c r="FA87" s="34">
+        <v>8</v>
+      </c>
       <c r="FB87" s="31"/>
       <c r="FC87" s="32"/>
       <c r="FD87" s="32"/>
@@ -42687,7 +42691,7 @@
         <v>0</v>
       </c>
       <c r="F140" s="37">
-        <f t="shared" ref="F140:F171" si="110">COUNTIF(R140:FK140,"F")+(COUNT(R140,W140,AB140,AG140,AL140,AQ140,AV140,BA140,BF140,BK140,BP140,BU140,BZ140,CE140,CJ140,CO140,CT140,CY140,DD140,DI140,DN140,DS140,DX140,EC140,EH140,EM140,ER140,EW140,FB140,FG140)-E140)</f>
+        <f t="shared" ref="F140:F161" si="110">COUNTIF(R140:FK140,"F")+(COUNT(R140,W140,AB140,AG140,AL140,AQ140,AV140,BA140,BF140,BK140,BP140,BU140,BZ140,CE140,CJ140,CO140,CT140,CY140,DD140,DI140,DN140,DS140,DX140,EC140,EH140,EM140,ER140,EW140,FB140,FG140)-E140)</f>
         <v>0</v>
       </c>
       <c r="G140" s="37">
@@ -42711,7 +42715,7 @@
         <v>0</v>
       </c>
       <c r="L140" s="38">
-        <f t="shared" ref="L140:L171" si="116">+E140+F140+H140+I140+J140+K140</f>
+        <f t="shared" ref="L140:L161" si="116">+E140+F140+H140+I140+J140+K140</f>
         <v>0</v>
       </c>
       <c r="M140" s="24">
@@ -42731,7 +42735,7 @@
         <v>0</v>
       </c>
       <c r="Q140" s="35">
-        <f t="shared" ref="Q140:Q171" si="121">SUM(M140:P140)</f>
+        <f t="shared" ref="Q140:Q161" si="121">SUM(M140:P140)</f>
         <v>0</v>
       </c>
       <c r="R140" s="31"/>
@@ -47302,7 +47306,7 @@
       <c r="D162" s="72"/>
       <c r="E162" s="73">
         <f t="shared" ref="E162:AJ162" si="122">SUM(E12:E161)</f>
-        <v>2567.6100000000015</v>
+        <v>2570.6100000000015</v>
       </c>
       <c r="F162" s="73">
         <f t="shared" si="122"/>
@@ -47322,7 +47326,7 @@
       </c>
       <c r="J162" s="73">
         <f t="shared" si="122"/>
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K162" s="73">
         <f t="shared" si="122"/>
@@ -47334,11 +47338,11 @@
       </c>
       <c r="M162" s="73">
         <f t="shared" si="122"/>
-        <v>991.5</v>
+        <v>992.5</v>
       </c>
       <c r="N162" s="73">
         <f t="shared" si="122"/>
-        <v>280.75</v>
+        <v>279.75</v>
       </c>
       <c r="O162" s="73">
         <f t="shared" si="122"/>
@@ -47346,11 +47350,11 @@
       </c>
       <c r="P162" s="73">
         <f t="shared" si="122"/>
-        <v>3186.75</v>
+        <v>3194.75</v>
       </c>
       <c r="Q162" s="73">
         <f t="shared" si="122"/>
-        <v>4483</v>
+        <v>4491</v>
       </c>
       <c r="R162" s="40">
         <f t="shared" si="122"/>
@@ -47554,7 +47558,7 @@
       </c>
       <c r="BP162" s="40">
         <f t="shared" si="123"/>
-        <v>86.97</v>
+        <v>87.97</v>
       </c>
       <c r="BQ162" s="42">
         <f t="shared" ref="BQ162:CV162" si="124">SUM(BQ12:BQ161)</f>
@@ -47794,7 +47798,7 @@
       </c>
       <c r="DX162" s="40">
         <f t="shared" si="125"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="DY162" s="42">
         <f t="shared" si="125"/>
@@ -47894,15 +47898,15 @@
       </c>
       <c r="EW162" s="40">
         <f t="shared" si="126"/>
-        <v>93.75</v>
+        <v>94.75</v>
       </c>
       <c r="EX162" s="42">
         <f t="shared" si="126"/>
-        <v>60.25</v>
+        <v>61.25</v>
       </c>
       <c r="EY162" s="42">
         <f t="shared" si="126"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="EZ162" s="42">
         <f t="shared" si="126"/>
@@ -47910,7 +47914,7 @@
       </c>
       <c r="FA162" s="41">
         <f t="shared" si="126"/>
-        <v>121.5</v>
+        <v>129.5</v>
       </c>
       <c r="FB162" s="40">
         <f t="shared" si="126"/>
@@ -47941,7 +47945,7 @@
         <v>0</v>
       </c>
       <c r="FI162" s="42">
-        <f t="shared" ref="FI162:GN162" si="127">SUM(FI12:FI161)</f>
+        <f t="shared" ref="FI162:FK162" si="127">SUM(FI12:FI161)</f>
         <v>0</v>
       </c>
       <c r="FJ162" s="42">
@@ -48262,6 +48266,7 @@
       <c r="C167" s="25"/>
     </row>
   </sheetData>
+  <autoFilter ref="A11:FK162" xr:uid="{C0760EAB-CC3D-40AE-A29A-AB65FF61DEFD}"/>
   <mergeCells count="72">
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:D3"/>

--- a/1-CONTROL/2-TAREO/TAREO-JUNIO.xlsx
+++ b/1-CONTROL/2-TAREO/TAREO-JUNIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\1-CONTROL\2-TAREO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F926F173-46F6-44D7-A9B3-C8F7A15D3C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E38E425-43FC-4EA5-8031-8D7067F85B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{100E3196-77E0-4FB0-BD0A-F462B801CA56}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="512">
   <si>
     <t>REPORTE HORAS HOMBRE : TAREO - PERSONAL OPERARIOS</t>
   </si>
@@ -2368,31 +2368,22 @@
     <xf numFmtId="2" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2455,23 +2446,32 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3757,10 +3757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0760EAB-CC3D-40AE-A29A-AB65FF61DEFD}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:FK167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="FK16" sqref="FK16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="FA170" sqref="FA170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3769,66 +3770,66 @@
     <col min="2" max="2" width="30.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="11" width="13.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" customWidth="1"/>
+    <col min="8" max="11" width="13.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16" width="10.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="21" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="26" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="28" max="31" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="33" max="36" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="38" max="41" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="43" max="46" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="48" max="51" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="53" max="56" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="58" max="61" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="63" max="66" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="68" max="71" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="73" max="76" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="77" max="77" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="78" max="81" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="82" max="82" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="83" max="86" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="87" max="87" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="88" max="91" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="92" max="92" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="93" max="96" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="97" max="97" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="98" max="101" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="102" max="102" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="103" max="106" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="107" max="107" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="108" max="111" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="112" max="112" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="113" max="116" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="117" max="117" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="118" max="121" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="122" max="122" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="123" max="126" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="127" max="127" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="128" max="131" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="132" max="132" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="133" max="136" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="137" max="137" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="138" max="141" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="142" max="142" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="143" max="146" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="147" max="147" width="5.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="148" max="151" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="152" max="152" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="10.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="21" width="6" style="1" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" style="1" customWidth="1"/>
+    <col min="23" max="26" width="6" style="1" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" style="1" customWidth="1"/>
+    <col min="28" max="31" width="6" style="1" customWidth="1"/>
+    <col min="32" max="32" width="5.7109375" style="1" customWidth="1"/>
+    <col min="33" max="36" width="6" style="1" customWidth="1"/>
+    <col min="37" max="37" width="5.7109375" style="1" customWidth="1"/>
+    <col min="38" max="41" width="6" style="1" customWidth="1"/>
+    <col min="42" max="42" width="5.7109375" style="1" customWidth="1"/>
+    <col min="43" max="46" width="6" style="1" customWidth="1"/>
+    <col min="47" max="47" width="5.7109375" style="1" customWidth="1"/>
+    <col min="48" max="51" width="6" style="1" customWidth="1"/>
+    <col min="52" max="52" width="5.7109375" style="1" customWidth="1"/>
+    <col min="53" max="56" width="6" style="1" customWidth="1"/>
+    <col min="57" max="57" width="5.7109375" style="1" customWidth="1"/>
+    <col min="58" max="61" width="6" style="1" customWidth="1"/>
+    <col min="62" max="62" width="5.7109375" style="1" customWidth="1"/>
+    <col min="63" max="66" width="6" style="1" customWidth="1"/>
+    <col min="67" max="67" width="5.7109375" style="1" customWidth="1"/>
+    <col min="68" max="71" width="6" style="1" customWidth="1"/>
+    <col min="72" max="72" width="5.7109375" style="1" customWidth="1"/>
+    <col min="73" max="76" width="6" style="1" customWidth="1"/>
+    <col min="77" max="77" width="5.7109375" style="1" customWidth="1"/>
+    <col min="78" max="81" width="6" style="1" customWidth="1"/>
+    <col min="82" max="82" width="5.7109375" style="1" customWidth="1"/>
+    <col min="83" max="86" width="6" style="1" customWidth="1"/>
+    <col min="87" max="87" width="5.7109375" style="1" customWidth="1"/>
+    <col min="88" max="91" width="6" style="1" customWidth="1"/>
+    <col min="92" max="92" width="5.7109375" style="1" customWidth="1"/>
+    <col min="93" max="96" width="6" style="1" customWidth="1"/>
+    <col min="97" max="97" width="5.7109375" style="1" customWidth="1"/>
+    <col min="98" max="101" width="6" style="1" customWidth="1"/>
+    <col min="102" max="102" width="5.7109375" style="1" customWidth="1"/>
+    <col min="103" max="106" width="6" style="1" customWidth="1"/>
+    <col min="107" max="107" width="5.7109375" style="1" customWidth="1"/>
+    <col min="108" max="111" width="6" style="1" customWidth="1"/>
+    <col min="112" max="112" width="5.7109375" style="1" customWidth="1"/>
+    <col min="113" max="116" width="6" style="1" customWidth="1"/>
+    <col min="117" max="117" width="5.7109375" style="1" customWidth="1"/>
+    <col min="118" max="121" width="6" style="1" customWidth="1"/>
+    <col min="122" max="122" width="5.7109375" style="1" customWidth="1"/>
+    <col min="123" max="126" width="6" style="1" customWidth="1"/>
+    <col min="127" max="127" width="5.7109375" style="1" customWidth="1"/>
+    <col min="128" max="131" width="6" style="1" customWidth="1"/>
+    <col min="132" max="132" width="5.7109375" style="1" customWidth="1"/>
+    <col min="133" max="136" width="6" style="1" customWidth="1"/>
+    <col min="137" max="137" width="5.7109375" style="1" customWidth="1"/>
+    <col min="138" max="141" width="6" style="1" customWidth="1"/>
+    <col min="142" max="142" width="5.7109375" style="1" customWidth="1"/>
+    <col min="143" max="146" width="6" style="1" customWidth="1"/>
+    <col min="147" max="147" width="5.7109375" style="1" customWidth="1"/>
+    <col min="148" max="151" width="6" style="1" customWidth="1"/>
+    <col min="152" max="152" width="5.7109375" style="1" customWidth="1"/>
     <col min="153" max="156" width="6" style="1" customWidth="1"/>
     <col min="157" max="157" width="5.7109375" style="1" customWidth="1"/>
     <col min="158" max="161" width="6" style="1" customWidth="1"/>
@@ -3839,25 +3840,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:167" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
       <c r="V1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AF1" s="2"/>
@@ -4042,36 +4043,36 @@
       <c r="FK2" s="2"/>
     </row>
     <row r="3" spans="1:167" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="106"/>
+      <c r="A3" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="77"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="107" t="s">
+      <c r="X3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="108"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="79"/>
       <c r="AA3" s="5">
         <v>30</v>
       </c>
@@ -4240,11 +4241,11 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="107" t="s">
+      <c r="X4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="108"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="79"/>
       <c r="AA4" s="5">
         <v>240</v>
       </c>
@@ -4390,25 +4391,25 @@
       <c r="FK4" s="1"/>
     </row>
     <row r="5" spans="1:167" s="13" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="85"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
@@ -4747,703 +4748,703 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:167" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="94" t="s">
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="80" t="s">
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="100" t="s">
         <v>178</v>
       </c>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="81"/>
-      <c r="V8" s="81"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="81"/>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="81"/>
-      <c r="AB8" s="81"/>
-      <c r="AC8" s="81"/>
-      <c r="AD8" s="81"/>
-      <c r="AE8" s="81"/>
-      <c r="AF8" s="81"/>
-      <c r="AG8" s="81"/>
-      <c r="AH8" s="81"/>
-      <c r="AI8" s="81"/>
-      <c r="AJ8" s="81"/>
-      <c r="AK8" s="81"/>
-      <c r="AL8" s="81"/>
-      <c r="AM8" s="81"/>
-      <c r="AN8" s="81"/>
-      <c r="AO8" s="81"/>
-      <c r="AP8" s="81"/>
-      <c r="AQ8" s="81"/>
-      <c r="AR8" s="81"/>
-      <c r="AS8" s="81"/>
-      <c r="AT8" s="81"/>
-      <c r="AU8" s="81"/>
-      <c r="AV8" s="81"/>
-      <c r="AW8" s="81"/>
-      <c r="AX8" s="81"/>
-      <c r="AY8" s="81"/>
-      <c r="AZ8" s="82"/>
-      <c r="BA8" s="80" t="s">
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="101"/>
+      <c r="AI8" s="101"/>
+      <c r="AJ8" s="101"/>
+      <c r="AK8" s="101"/>
+      <c r="AL8" s="101"/>
+      <c r="AM8" s="101"/>
+      <c r="AN8" s="101"/>
+      <c r="AO8" s="101"/>
+      <c r="AP8" s="101"/>
+      <c r="AQ8" s="101"/>
+      <c r="AR8" s="101"/>
+      <c r="AS8" s="101"/>
+      <c r="AT8" s="101"/>
+      <c r="AU8" s="101"/>
+      <c r="AV8" s="101"/>
+      <c r="AW8" s="101"/>
+      <c r="AX8" s="101"/>
+      <c r="AY8" s="101"/>
+      <c r="AZ8" s="102"/>
+      <c r="BA8" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="BB8" s="81"/>
-      <c r="BC8" s="81"/>
-      <c r="BD8" s="81"/>
-      <c r="BE8" s="81"/>
-      <c r="BF8" s="81"/>
-      <c r="BG8" s="81"/>
-      <c r="BH8" s="81"/>
-      <c r="BI8" s="81"/>
-      <c r="BJ8" s="81"/>
-      <c r="BK8" s="81"/>
-      <c r="BL8" s="81"/>
-      <c r="BM8" s="81"/>
-      <c r="BN8" s="81"/>
-      <c r="BO8" s="81"/>
-      <c r="BP8" s="81"/>
-      <c r="BQ8" s="81"/>
-      <c r="BR8" s="81"/>
-      <c r="BS8" s="81"/>
-      <c r="BT8" s="81"/>
-      <c r="BU8" s="81"/>
-      <c r="BV8" s="81"/>
-      <c r="BW8" s="81"/>
-      <c r="BX8" s="81"/>
-      <c r="BY8" s="81"/>
-      <c r="BZ8" s="81"/>
-      <c r="CA8" s="81"/>
-      <c r="CB8" s="81"/>
-      <c r="CC8" s="81"/>
-      <c r="CD8" s="81"/>
-      <c r="CE8" s="81"/>
-      <c r="CF8" s="81"/>
-      <c r="CG8" s="81"/>
-      <c r="CH8" s="81"/>
-      <c r="CI8" s="81"/>
-      <c r="CJ8" s="81"/>
-      <c r="CK8" s="81"/>
-      <c r="CL8" s="81"/>
-      <c r="CM8" s="81"/>
-      <c r="CN8" s="81"/>
-      <c r="CO8" s="81"/>
-      <c r="CP8" s="81"/>
-      <c r="CQ8" s="81"/>
-      <c r="CR8" s="81"/>
-      <c r="CS8" s="81"/>
-      <c r="CT8" s="81"/>
-      <c r="CU8" s="81"/>
-      <c r="CV8" s="81"/>
-      <c r="CW8" s="81"/>
-      <c r="CX8" s="81"/>
-      <c r="CY8" s="81"/>
-      <c r="CZ8" s="81"/>
-      <c r="DA8" s="81"/>
-      <c r="DB8" s="81"/>
-      <c r="DC8" s="81"/>
-      <c r="DD8" s="81"/>
-      <c r="DE8" s="81"/>
-      <c r="DF8" s="81"/>
-      <c r="DG8" s="81"/>
-      <c r="DH8" s="81"/>
-      <c r="DI8" s="81"/>
-      <c r="DJ8" s="81"/>
-      <c r="DK8" s="81"/>
-      <c r="DL8" s="81"/>
-      <c r="DM8" s="81"/>
-      <c r="DN8" s="81"/>
-      <c r="DO8" s="81"/>
-      <c r="DP8" s="81"/>
-      <c r="DQ8" s="81"/>
-      <c r="DR8" s="81"/>
-      <c r="DS8" s="81"/>
-      <c r="DT8" s="81"/>
-      <c r="DU8" s="81"/>
-      <c r="DV8" s="81"/>
-      <c r="DW8" s="81"/>
-      <c r="DX8" s="81"/>
-      <c r="DY8" s="81"/>
-      <c r="DZ8" s="81"/>
-      <c r="EA8" s="81"/>
-      <c r="EB8" s="81"/>
-      <c r="EC8" s="81"/>
-      <c r="ED8" s="81"/>
-      <c r="EE8" s="81"/>
-      <c r="EF8" s="81"/>
-      <c r="EG8" s="81"/>
-      <c r="EH8" s="81"/>
-      <c r="EI8" s="81"/>
-      <c r="EJ8" s="81"/>
-      <c r="EK8" s="81"/>
-      <c r="EL8" s="81"/>
-      <c r="EM8" s="81"/>
-      <c r="EN8" s="81"/>
-      <c r="EO8" s="81"/>
-      <c r="EP8" s="81"/>
-      <c r="EQ8" s="81"/>
-      <c r="ER8" s="81"/>
-      <c r="ES8" s="81"/>
-      <c r="ET8" s="81"/>
-      <c r="EU8" s="81"/>
-      <c r="EV8" s="81"/>
-      <c r="EW8" s="81"/>
-      <c r="EX8" s="81"/>
-      <c r="EY8" s="81"/>
-      <c r="EZ8" s="81"/>
-      <c r="FA8" s="81"/>
-      <c r="FB8" s="81"/>
-      <c r="FC8" s="81"/>
-      <c r="FD8" s="81"/>
-      <c r="FE8" s="81"/>
-      <c r="FF8" s="81"/>
-      <c r="FG8" s="81"/>
-      <c r="FH8" s="81"/>
-      <c r="FI8" s="81"/>
-      <c r="FJ8" s="81"/>
-      <c r="FK8" s="82"/>
+      <c r="BB8" s="101"/>
+      <c r="BC8" s="101"/>
+      <c r="BD8" s="101"/>
+      <c r="BE8" s="101"/>
+      <c r="BF8" s="101"/>
+      <c r="BG8" s="101"/>
+      <c r="BH8" s="101"/>
+      <c r="BI8" s="101"/>
+      <c r="BJ8" s="101"/>
+      <c r="BK8" s="101"/>
+      <c r="BL8" s="101"/>
+      <c r="BM8" s="101"/>
+      <c r="BN8" s="101"/>
+      <c r="BO8" s="101"/>
+      <c r="BP8" s="101"/>
+      <c r="BQ8" s="101"/>
+      <c r="BR8" s="101"/>
+      <c r="BS8" s="101"/>
+      <c r="BT8" s="101"/>
+      <c r="BU8" s="101"/>
+      <c r="BV8" s="101"/>
+      <c r="BW8" s="101"/>
+      <c r="BX8" s="101"/>
+      <c r="BY8" s="101"/>
+      <c r="BZ8" s="101"/>
+      <c r="CA8" s="101"/>
+      <c r="CB8" s="101"/>
+      <c r="CC8" s="101"/>
+      <c r="CD8" s="101"/>
+      <c r="CE8" s="101"/>
+      <c r="CF8" s="101"/>
+      <c r="CG8" s="101"/>
+      <c r="CH8" s="101"/>
+      <c r="CI8" s="101"/>
+      <c r="CJ8" s="101"/>
+      <c r="CK8" s="101"/>
+      <c r="CL8" s="101"/>
+      <c r="CM8" s="101"/>
+      <c r="CN8" s="101"/>
+      <c r="CO8" s="101"/>
+      <c r="CP8" s="101"/>
+      <c r="CQ8" s="101"/>
+      <c r="CR8" s="101"/>
+      <c r="CS8" s="101"/>
+      <c r="CT8" s="101"/>
+      <c r="CU8" s="101"/>
+      <c r="CV8" s="101"/>
+      <c r="CW8" s="101"/>
+      <c r="CX8" s="101"/>
+      <c r="CY8" s="101"/>
+      <c r="CZ8" s="101"/>
+      <c r="DA8" s="101"/>
+      <c r="DB8" s="101"/>
+      <c r="DC8" s="101"/>
+      <c r="DD8" s="101"/>
+      <c r="DE8" s="101"/>
+      <c r="DF8" s="101"/>
+      <c r="DG8" s="101"/>
+      <c r="DH8" s="101"/>
+      <c r="DI8" s="101"/>
+      <c r="DJ8" s="101"/>
+      <c r="DK8" s="101"/>
+      <c r="DL8" s="101"/>
+      <c r="DM8" s="101"/>
+      <c r="DN8" s="101"/>
+      <c r="DO8" s="101"/>
+      <c r="DP8" s="101"/>
+      <c r="DQ8" s="101"/>
+      <c r="DR8" s="101"/>
+      <c r="DS8" s="101"/>
+      <c r="DT8" s="101"/>
+      <c r="DU8" s="101"/>
+      <c r="DV8" s="101"/>
+      <c r="DW8" s="101"/>
+      <c r="DX8" s="101"/>
+      <c r="DY8" s="101"/>
+      <c r="DZ8" s="101"/>
+      <c r="EA8" s="101"/>
+      <c r="EB8" s="101"/>
+      <c r="EC8" s="101"/>
+      <c r="ED8" s="101"/>
+      <c r="EE8" s="101"/>
+      <c r="EF8" s="101"/>
+      <c r="EG8" s="101"/>
+      <c r="EH8" s="101"/>
+      <c r="EI8" s="101"/>
+      <c r="EJ8" s="101"/>
+      <c r="EK8" s="101"/>
+      <c r="EL8" s="101"/>
+      <c r="EM8" s="101"/>
+      <c r="EN8" s="101"/>
+      <c r="EO8" s="101"/>
+      <c r="EP8" s="101"/>
+      <c r="EQ8" s="101"/>
+      <c r="ER8" s="101"/>
+      <c r="ES8" s="101"/>
+      <c r="ET8" s="101"/>
+      <c r="EU8" s="101"/>
+      <c r="EV8" s="101"/>
+      <c r="EW8" s="101"/>
+      <c r="EX8" s="101"/>
+      <c r="EY8" s="101"/>
+      <c r="EZ8" s="101"/>
+      <c r="FA8" s="101"/>
+      <c r="FB8" s="101"/>
+      <c r="FC8" s="101"/>
+      <c r="FD8" s="101"/>
+      <c r="FE8" s="101"/>
+      <c r="FF8" s="101"/>
+      <c r="FG8" s="101"/>
+      <c r="FH8" s="101"/>
+      <c r="FI8" s="101"/>
+      <c r="FJ8" s="101"/>
+      <c r="FK8" s="102"/>
     </row>
     <row r="9" spans="1:167" s="18" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="87"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="77" t="str">
+      <c r="A9" s="84"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="106" t="str">
         <f>UPPER(TEXT(R10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="S9" s="78"/>
-      <c r="T9" s="78"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="77" t="str">
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="108"/>
+      <c r="W9" s="106" t="str">
         <f t="shared" ref="W9" si="0">UPPER(TEXT(W10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="78"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="77" t="str">
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="106" t="str">
         <f t="shared" ref="AB9" si="1">UPPER(TEXT(AB10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="78"/>
-      <c r="AF9" s="79"/>
-      <c r="AG9" s="77" t="str">
+      <c r="AC9" s="107"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="107"/>
+      <c r="AF9" s="108"/>
+      <c r="AG9" s="106" t="str">
         <f t="shared" ref="AG9" si="2">UPPER(TEXT(AG10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="AH9" s="78"/>
-      <c r="AI9" s="78"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="79"/>
-      <c r="AL9" s="77" t="str">
+      <c r="AH9" s="107"/>
+      <c r="AI9" s="107"/>
+      <c r="AJ9" s="107"/>
+      <c r="AK9" s="108"/>
+      <c r="AL9" s="106" t="str">
         <f t="shared" ref="AL9" si="3">UPPER(TEXT(AL10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="AM9" s="78"/>
-      <c r="AN9" s="78"/>
-      <c r="AO9" s="78"/>
-      <c r="AP9" s="79"/>
-      <c r="AQ9" s="77" t="str">
+      <c r="AM9" s="107"/>
+      <c r="AN9" s="107"/>
+      <c r="AO9" s="107"/>
+      <c r="AP9" s="108"/>
+      <c r="AQ9" s="106" t="str">
         <f t="shared" ref="AQ9" si="4">UPPER(TEXT(AQ10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="AR9" s="78"/>
-      <c r="AS9" s="78"/>
-      <c r="AT9" s="78"/>
-      <c r="AU9" s="79"/>
-      <c r="AV9" s="77" t="str">
+      <c r="AR9" s="107"/>
+      <c r="AS9" s="107"/>
+      <c r="AT9" s="107"/>
+      <c r="AU9" s="108"/>
+      <c r="AV9" s="106" t="str">
         <f t="shared" ref="AV9" si="5">UPPER(TEXT(AV10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="AW9" s="78"/>
-      <c r="AX9" s="78"/>
-      <c r="AY9" s="78"/>
-      <c r="AZ9" s="79"/>
-      <c r="BA9" s="77" t="str">
+      <c r="AW9" s="107"/>
+      <c r="AX9" s="107"/>
+      <c r="AY9" s="107"/>
+      <c r="AZ9" s="108"/>
+      <c r="BA9" s="106" t="str">
         <f t="shared" ref="BA9" si="6">UPPER(TEXT(BA10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="BB9" s="78"/>
-      <c r="BC9" s="78"/>
-      <c r="BD9" s="78"/>
-      <c r="BE9" s="79"/>
-      <c r="BF9" s="77" t="str">
+      <c r="BB9" s="107"/>
+      <c r="BC9" s="107"/>
+      <c r="BD9" s="107"/>
+      <c r="BE9" s="108"/>
+      <c r="BF9" s="106" t="str">
         <f t="shared" ref="BF9" si="7">UPPER(TEXT(BF10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="BG9" s="78"/>
-      <c r="BH9" s="78"/>
-      <c r="BI9" s="78"/>
-      <c r="BJ9" s="79"/>
-      <c r="BK9" s="77" t="str">
+      <c r="BG9" s="107"/>
+      <c r="BH9" s="107"/>
+      <c r="BI9" s="107"/>
+      <c r="BJ9" s="108"/>
+      <c r="BK9" s="106" t="str">
         <f t="shared" ref="BK9" si="8">UPPER(TEXT(BK10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="BL9" s="78"/>
-      <c r="BM9" s="78"/>
-      <c r="BN9" s="78"/>
-      <c r="BO9" s="79"/>
-      <c r="BP9" s="77" t="str">
+      <c r="BL9" s="107"/>
+      <c r="BM9" s="107"/>
+      <c r="BN9" s="107"/>
+      <c r="BO9" s="108"/>
+      <c r="BP9" s="106" t="str">
         <f t="shared" ref="BP9" si="9">UPPER(TEXT(BP10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="BQ9" s="78"/>
-      <c r="BR9" s="78"/>
-      <c r="BS9" s="78"/>
-      <c r="BT9" s="79"/>
-      <c r="BU9" s="77" t="str">
+      <c r="BQ9" s="107"/>
+      <c r="BR9" s="107"/>
+      <c r="BS9" s="107"/>
+      <c r="BT9" s="108"/>
+      <c r="BU9" s="106" t="str">
         <f t="shared" ref="BU9" si="10">UPPER(TEXT(BU10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="BV9" s="78"/>
-      <c r="BW9" s="78"/>
-      <c r="BX9" s="78"/>
-      <c r="BY9" s="79"/>
-      <c r="BZ9" s="77" t="str">
+      <c r="BV9" s="107"/>
+      <c r="BW9" s="107"/>
+      <c r="BX9" s="107"/>
+      <c r="BY9" s="108"/>
+      <c r="BZ9" s="106" t="str">
         <f t="shared" ref="BZ9" si="11">UPPER(TEXT(BZ10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="CA9" s="78"/>
-      <c r="CB9" s="78"/>
-      <c r="CC9" s="78"/>
-      <c r="CD9" s="79"/>
-      <c r="CE9" s="77" t="str">
+      <c r="CA9" s="107"/>
+      <c r="CB9" s="107"/>
+      <c r="CC9" s="107"/>
+      <c r="CD9" s="108"/>
+      <c r="CE9" s="106" t="str">
         <f t="shared" ref="CE9" si="12">UPPER(TEXT(CE10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="CF9" s="78"/>
-      <c r="CG9" s="78"/>
-      <c r="CH9" s="78"/>
-      <c r="CI9" s="79"/>
-      <c r="CJ9" s="77" t="str">
+      <c r="CF9" s="107"/>
+      <c r="CG9" s="107"/>
+      <c r="CH9" s="107"/>
+      <c r="CI9" s="108"/>
+      <c r="CJ9" s="106" t="str">
         <f t="shared" ref="CJ9" si="13">UPPER(TEXT(CJ10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="CK9" s="78"/>
-      <c r="CL9" s="78"/>
-      <c r="CM9" s="78"/>
-      <c r="CN9" s="79"/>
-      <c r="CO9" s="77" t="str">
+      <c r="CK9" s="107"/>
+      <c r="CL9" s="107"/>
+      <c r="CM9" s="107"/>
+      <c r="CN9" s="108"/>
+      <c r="CO9" s="106" t="str">
         <f t="shared" ref="CO9" si="14">UPPER(TEXT(CO10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="CP9" s="78"/>
-      <c r="CQ9" s="78"/>
-      <c r="CR9" s="78"/>
-      <c r="CS9" s="79"/>
-      <c r="CT9" s="77" t="str">
+      <c r="CP9" s="107"/>
+      <c r="CQ9" s="107"/>
+      <c r="CR9" s="107"/>
+      <c r="CS9" s="108"/>
+      <c r="CT9" s="106" t="str">
         <f t="shared" ref="CT9" si="15">UPPER(TEXT(CT10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="CU9" s="78"/>
-      <c r="CV9" s="78"/>
-      <c r="CW9" s="78"/>
-      <c r="CX9" s="79"/>
-      <c r="CY9" s="77" t="str">
+      <c r="CU9" s="107"/>
+      <c r="CV9" s="107"/>
+      <c r="CW9" s="107"/>
+      <c r="CX9" s="108"/>
+      <c r="CY9" s="106" t="str">
         <f t="shared" ref="CY9" si="16">UPPER(TEXT(CY10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="CZ9" s="78"/>
-      <c r="DA9" s="78"/>
-      <c r="DB9" s="78"/>
-      <c r="DC9" s="79"/>
-      <c r="DD9" s="77" t="str">
+      <c r="CZ9" s="107"/>
+      <c r="DA9" s="107"/>
+      <c r="DB9" s="107"/>
+      <c r="DC9" s="108"/>
+      <c r="DD9" s="106" t="str">
         <f t="shared" ref="DD9" si="17">UPPER(TEXT(DD10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="DE9" s="78"/>
-      <c r="DF9" s="78"/>
-      <c r="DG9" s="78"/>
-      <c r="DH9" s="79"/>
-      <c r="DI9" s="77" t="str">
+      <c r="DE9" s="107"/>
+      <c r="DF9" s="107"/>
+      <c r="DG9" s="107"/>
+      <c r="DH9" s="108"/>
+      <c r="DI9" s="106" t="str">
         <f t="shared" ref="DI9" si="18">UPPER(TEXT(DI10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="DJ9" s="78"/>
-      <c r="DK9" s="78"/>
-      <c r="DL9" s="78"/>
-      <c r="DM9" s="79"/>
-      <c r="DN9" s="77" t="str">
+      <c r="DJ9" s="107"/>
+      <c r="DK9" s="107"/>
+      <c r="DL9" s="107"/>
+      <c r="DM9" s="108"/>
+      <c r="DN9" s="106" t="str">
         <f t="shared" ref="DN9" si="19">UPPER(TEXT(DN10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="DO9" s="78"/>
-      <c r="DP9" s="78"/>
-      <c r="DQ9" s="78"/>
-      <c r="DR9" s="79"/>
-      <c r="DS9" s="77" t="str">
+      <c r="DO9" s="107"/>
+      <c r="DP9" s="107"/>
+      <c r="DQ9" s="107"/>
+      <c r="DR9" s="108"/>
+      <c r="DS9" s="106" t="str">
         <f t="shared" ref="DS9" si="20">UPPER(TEXT(DS10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="DT9" s="78"/>
-      <c r="DU9" s="78"/>
-      <c r="DV9" s="78"/>
-      <c r="DW9" s="79"/>
-      <c r="DX9" s="77" t="str">
+      <c r="DT9" s="107"/>
+      <c r="DU9" s="107"/>
+      <c r="DV9" s="107"/>
+      <c r="DW9" s="108"/>
+      <c r="DX9" s="106" t="str">
         <f t="shared" ref="DX9" si="21">UPPER(TEXT(DX10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="DY9" s="78"/>
-      <c r="DZ9" s="78"/>
-      <c r="EA9" s="78"/>
-      <c r="EB9" s="79"/>
-      <c r="EC9" s="77" t="str">
+      <c r="DY9" s="107"/>
+      <c r="DZ9" s="107"/>
+      <c r="EA9" s="107"/>
+      <c r="EB9" s="108"/>
+      <c r="EC9" s="106" t="str">
         <f t="shared" ref="EC9" si="22">UPPER(TEXT(EC10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="ED9" s="78"/>
-      <c r="EE9" s="78"/>
-      <c r="EF9" s="78"/>
-      <c r="EG9" s="79"/>
-      <c r="EH9" s="77" t="str">
+      <c r="ED9" s="107"/>
+      <c r="EE9" s="107"/>
+      <c r="EF9" s="107"/>
+      <c r="EG9" s="108"/>
+      <c r="EH9" s="106" t="str">
         <f t="shared" ref="EH9" si="23">UPPER(TEXT(EH10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="EI9" s="78"/>
-      <c r="EJ9" s="78"/>
-      <c r="EK9" s="78"/>
-      <c r="EL9" s="79"/>
-      <c r="EM9" s="77" t="str">
+      <c r="EI9" s="107"/>
+      <c r="EJ9" s="107"/>
+      <c r="EK9" s="107"/>
+      <c r="EL9" s="108"/>
+      <c r="EM9" s="106" t="str">
         <f t="shared" ref="EM9" si="24">UPPER(TEXT(EM10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="EN9" s="78"/>
-      <c r="EO9" s="78"/>
-      <c r="EP9" s="78"/>
-      <c r="EQ9" s="79"/>
-      <c r="ER9" s="77" t="str">
+      <c r="EN9" s="107"/>
+      <c r="EO9" s="107"/>
+      <c r="EP9" s="107"/>
+      <c r="EQ9" s="108"/>
+      <c r="ER9" s="106" t="str">
         <f t="shared" ref="ER9" si="25">UPPER(TEXT(ER10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="ES9" s="78"/>
-      <c r="ET9" s="78"/>
-      <c r="EU9" s="78"/>
-      <c r="EV9" s="79"/>
-      <c r="EW9" s="77" t="str">
+      <c r="ES9" s="107"/>
+      <c r="ET9" s="107"/>
+      <c r="EU9" s="107"/>
+      <c r="EV9" s="108"/>
+      <c r="EW9" s="106" t="str">
         <f t="shared" ref="EW9" si="26">UPPER(TEXT(EW10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="EX9" s="78"/>
-      <c r="EY9" s="78"/>
-      <c r="EZ9" s="78"/>
-      <c r="FA9" s="79"/>
-      <c r="FB9" s="77" t="str">
+      <c r="EX9" s="107"/>
+      <c r="EY9" s="107"/>
+      <c r="EZ9" s="107"/>
+      <c r="FA9" s="108"/>
+      <c r="FB9" s="106" t="str">
         <f t="shared" ref="FB9" si="27">UPPER(TEXT(FB10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="FC9" s="78"/>
-      <c r="FD9" s="78"/>
-      <c r="FE9" s="78"/>
-      <c r="FF9" s="79"/>
-      <c r="FG9" s="77" t="str">
+      <c r="FC9" s="107"/>
+      <c r="FD9" s="107"/>
+      <c r="FE9" s="107"/>
+      <c r="FF9" s="108"/>
+      <c r="FG9" s="106" t="str">
         <f t="shared" ref="FG9" si="28">UPPER(TEXT(FG10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="FH9" s="78"/>
-      <c r="FI9" s="78"/>
-      <c r="FJ9" s="78"/>
-      <c r="FK9" s="79"/>
+      <c r="FH9" s="107"/>
+      <c r="FI9" s="107"/>
+      <c r="FJ9" s="107"/>
+      <c r="FK9" s="108"/>
     </row>
     <row r="10" spans="1:167" s="12" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="87"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="74">
+      <c r="A10" s="84"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="103">
         <v>44706</v>
       </c>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="74">
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="105"/>
+      <c r="W10" s="103">
         <f>+R10+1</f>
         <v>44707</v>
       </c>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="74">
+      <c r="X10" s="104"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="104"/>
+      <c r="AA10" s="105"/>
+      <c r="AB10" s="103">
         <f t="shared" ref="AB10" si="29">+W10+1</f>
         <v>44708</v>
       </c>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="74">
+      <c r="AC10" s="104"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="104"/>
+      <c r="AF10" s="105"/>
+      <c r="AG10" s="103">
         <f t="shared" ref="AG10" si="30">+AB10+1</f>
         <v>44709</v>
       </c>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="75"/>
-      <c r="AK10" s="76"/>
-      <c r="AL10" s="74">
+      <c r="AH10" s="104"/>
+      <c r="AI10" s="104"/>
+      <c r="AJ10" s="104"/>
+      <c r="AK10" s="105"/>
+      <c r="AL10" s="103">
         <f t="shared" ref="AL10" si="31">+AG10+1</f>
         <v>44710</v>
       </c>
-      <c r="AM10" s="75"/>
-      <c r="AN10" s="75"/>
-      <c r="AO10" s="75"/>
-      <c r="AP10" s="76"/>
-      <c r="AQ10" s="74">
+      <c r="AM10" s="104"/>
+      <c r="AN10" s="104"/>
+      <c r="AO10" s="104"/>
+      <c r="AP10" s="105"/>
+      <c r="AQ10" s="103">
         <f t="shared" ref="AQ10" si="32">+AL10+1</f>
         <v>44711</v>
       </c>
-      <c r="AR10" s="75"/>
-      <c r="AS10" s="75"/>
-      <c r="AT10" s="75"/>
-      <c r="AU10" s="76"/>
-      <c r="AV10" s="74">
+      <c r="AR10" s="104"/>
+      <c r="AS10" s="104"/>
+      <c r="AT10" s="104"/>
+      <c r="AU10" s="105"/>
+      <c r="AV10" s="103">
         <f t="shared" ref="AV10" si="33">+AQ10+1</f>
         <v>44712</v>
       </c>
-      <c r="AW10" s="75"/>
-      <c r="AX10" s="75"/>
-      <c r="AY10" s="75"/>
-      <c r="AZ10" s="76"/>
-      <c r="BA10" s="74">
+      <c r="AW10" s="104"/>
+      <c r="AX10" s="104"/>
+      <c r="AY10" s="104"/>
+      <c r="AZ10" s="105"/>
+      <c r="BA10" s="103">
         <f t="shared" ref="BA10" si="34">+AV10+1</f>
         <v>44713</v>
       </c>
-      <c r="BB10" s="75"/>
-      <c r="BC10" s="75"/>
-      <c r="BD10" s="75"/>
-      <c r="BE10" s="76"/>
-      <c r="BF10" s="74">
+      <c r="BB10" s="104"/>
+      <c r="BC10" s="104"/>
+      <c r="BD10" s="104"/>
+      <c r="BE10" s="105"/>
+      <c r="BF10" s="103">
         <f t="shared" ref="BF10" si="35">+BA10+1</f>
         <v>44714</v>
       </c>
-      <c r="BG10" s="75"/>
-      <c r="BH10" s="75"/>
-      <c r="BI10" s="75"/>
-      <c r="BJ10" s="76"/>
-      <c r="BK10" s="74">
+      <c r="BG10" s="104"/>
+      <c r="BH10" s="104"/>
+      <c r="BI10" s="104"/>
+      <c r="BJ10" s="105"/>
+      <c r="BK10" s="103">
         <f t="shared" ref="BK10" si="36">+BF10+1</f>
         <v>44715</v>
       </c>
-      <c r="BL10" s="75"/>
-      <c r="BM10" s="75"/>
-      <c r="BN10" s="75"/>
-      <c r="BO10" s="76"/>
-      <c r="BP10" s="74">
+      <c r="BL10" s="104"/>
+      <c r="BM10" s="104"/>
+      <c r="BN10" s="104"/>
+      <c r="BO10" s="105"/>
+      <c r="BP10" s="103">
         <f t="shared" ref="BP10" si="37">+BK10+1</f>
         <v>44716</v>
       </c>
-      <c r="BQ10" s="75"/>
-      <c r="BR10" s="75"/>
-      <c r="BS10" s="75"/>
-      <c r="BT10" s="76"/>
-      <c r="BU10" s="74">
+      <c r="BQ10" s="104"/>
+      <c r="BR10" s="104"/>
+      <c r="BS10" s="104"/>
+      <c r="BT10" s="105"/>
+      <c r="BU10" s="103">
         <f t="shared" ref="BU10" si="38">+BP10+1</f>
         <v>44717</v>
       </c>
-      <c r="BV10" s="75"/>
-      <c r="BW10" s="75"/>
-      <c r="BX10" s="75"/>
-      <c r="BY10" s="76"/>
-      <c r="BZ10" s="74">
+      <c r="BV10" s="104"/>
+      <c r="BW10" s="104"/>
+      <c r="BX10" s="104"/>
+      <c r="BY10" s="105"/>
+      <c r="BZ10" s="103">
         <f t="shared" ref="BZ10" si="39">+BU10+1</f>
         <v>44718</v>
       </c>
-      <c r="CA10" s="75"/>
-      <c r="CB10" s="75"/>
-      <c r="CC10" s="75"/>
-      <c r="CD10" s="76"/>
-      <c r="CE10" s="74">
+      <c r="CA10" s="104"/>
+      <c r="CB10" s="104"/>
+      <c r="CC10" s="104"/>
+      <c r="CD10" s="105"/>
+      <c r="CE10" s="103">
         <f t="shared" ref="CE10" si="40">+BZ10+1</f>
         <v>44719</v>
       </c>
-      <c r="CF10" s="75"/>
-      <c r="CG10" s="75"/>
-      <c r="CH10" s="75"/>
-      <c r="CI10" s="76"/>
-      <c r="CJ10" s="74">
+      <c r="CF10" s="104"/>
+      <c r="CG10" s="104"/>
+      <c r="CH10" s="104"/>
+      <c r="CI10" s="105"/>
+      <c r="CJ10" s="103">
         <f t="shared" ref="CJ10" si="41">+CE10+1</f>
         <v>44720</v>
       </c>
-      <c r="CK10" s="75"/>
-      <c r="CL10" s="75"/>
-      <c r="CM10" s="75"/>
-      <c r="CN10" s="76"/>
-      <c r="CO10" s="74">
+      <c r="CK10" s="104"/>
+      <c r="CL10" s="104"/>
+      <c r="CM10" s="104"/>
+      <c r="CN10" s="105"/>
+      <c r="CO10" s="103">
         <f t="shared" ref="CO10" si="42">+CJ10+1</f>
         <v>44721</v>
       </c>
-      <c r="CP10" s="75"/>
-      <c r="CQ10" s="75"/>
-      <c r="CR10" s="75"/>
-      <c r="CS10" s="76"/>
-      <c r="CT10" s="74">
+      <c r="CP10" s="104"/>
+      <c r="CQ10" s="104"/>
+      <c r="CR10" s="104"/>
+      <c r="CS10" s="105"/>
+      <c r="CT10" s="103">
         <f t="shared" ref="CT10" si="43">+CO10+1</f>
         <v>44722</v>
       </c>
-      <c r="CU10" s="75"/>
-      <c r="CV10" s="75"/>
-      <c r="CW10" s="75"/>
-      <c r="CX10" s="76"/>
-      <c r="CY10" s="74">
+      <c r="CU10" s="104"/>
+      <c r="CV10" s="104"/>
+      <c r="CW10" s="104"/>
+      <c r="CX10" s="105"/>
+      <c r="CY10" s="103">
         <f t="shared" ref="CY10" si="44">+CT10+1</f>
         <v>44723</v>
       </c>
-      <c r="CZ10" s="75"/>
-      <c r="DA10" s="75"/>
-      <c r="DB10" s="75"/>
-      <c r="DC10" s="76"/>
-      <c r="DD10" s="74">
+      <c r="CZ10" s="104"/>
+      <c r="DA10" s="104"/>
+      <c r="DB10" s="104"/>
+      <c r="DC10" s="105"/>
+      <c r="DD10" s="103">
         <f t="shared" ref="DD10" si="45">+CY10+1</f>
         <v>44724</v>
       </c>
-      <c r="DE10" s="75"/>
-      <c r="DF10" s="75"/>
-      <c r="DG10" s="75"/>
-      <c r="DH10" s="76"/>
-      <c r="DI10" s="74">
+      <c r="DE10" s="104"/>
+      <c r="DF10" s="104"/>
+      <c r="DG10" s="104"/>
+      <c r="DH10" s="105"/>
+      <c r="DI10" s="103">
         <f t="shared" ref="DI10" si="46">+DD10+1</f>
         <v>44725</v>
       </c>
-      <c r="DJ10" s="75"/>
-      <c r="DK10" s="75"/>
-      <c r="DL10" s="75"/>
-      <c r="DM10" s="76"/>
-      <c r="DN10" s="74">
+      <c r="DJ10" s="104"/>
+      <c r="DK10" s="104"/>
+      <c r="DL10" s="104"/>
+      <c r="DM10" s="105"/>
+      <c r="DN10" s="103">
         <f t="shared" ref="DN10" si="47">+DI10+1</f>
         <v>44726</v>
       </c>
-      <c r="DO10" s="75"/>
-      <c r="DP10" s="75"/>
-      <c r="DQ10" s="75"/>
-      <c r="DR10" s="76"/>
-      <c r="DS10" s="74">
+      <c r="DO10" s="104"/>
+      <c r="DP10" s="104"/>
+      <c r="DQ10" s="104"/>
+      <c r="DR10" s="105"/>
+      <c r="DS10" s="103">
         <f t="shared" ref="DS10" si="48">+DN10+1</f>
         <v>44727</v>
       </c>
-      <c r="DT10" s="75"/>
-      <c r="DU10" s="75"/>
-      <c r="DV10" s="75"/>
-      <c r="DW10" s="76"/>
-      <c r="DX10" s="74">
+      <c r="DT10" s="104"/>
+      <c r="DU10" s="104"/>
+      <c r="DV10" s="104"/>
+      <c r="DW10" s="105"/>
+      <c r="DX10" s="103">
         <f t="shared" ref="DX10" si="49">+DS10+1</f>
         <v>44728</v>
       </c>
-      <c r="DY10" s="75"/>
-      <c r="DZ10" s="75"/>
-      <c r="EA10" s="75"/>
-      <c r="EB10" s="76"/>
-      <c r="EC10" s="74">
+      <c r="DY10" s="104"/>
+      <c r="DZ10" s="104"/>
+      <c r="EA10" s="104"/>
+      <c r="EB10" s="105"/>
+      <c r="EC10" s="103">
         <f t="shared" ref="EC10" si="50">+DX10+1</f>
         <v>44729</v>
       </c>
-      <c r="ED10" s="75"/>
-      <c r="EE10" s="75"/>
-      <c r="EF10" s="75"/>
-      <c r="EG10" s="76"/>
-      <c r="EH10" s="74">
+      <c r="ED10" s="104"/>
+      <c r="EE10" s="104"/>
+      <c r="EF10" s="104"/>
+      <c r="EG10" s="105"/>
+      <c r="EH10" s="103">
         <f t="shared" ref="EH10" si="51">+EC10+1</f>
         <v>44730</v>
       </c>
-      <c r="EI10" s="75"/>
-      <c r="EJ10" s="75"/>
-      <c r="EK10" s="75"/>
-      <c r="EL10" s="76"/>
-      <c r="EM10" s="74">
+      <c r="EI10" s="104"/>
+      <c r="EJ10" s="104"/>
+      <c r="EK10" s="104"/>
+      <c r="EL10" s="105"/>
+      <c r="EM10" s="103">
         <f t="shared" ref="EM10" si="52">+EH10+1</f>
         <v>44731</v>
       </c>
-      <c r="EN10" s="75"/>
-      <c r="EO10" s="75"/>
-      <c r="EP10" s="75"/>
-      <c r="EQ10" s="76"/>
-      <c r="ER10" s="74">
+      <c r="EN10" s="104"/>
+      <c r="EO10" s="104"/>
+      <c r="EP10" s="104"/>
+      <c r="EQ10" s="105"/>
+      <c r="ER10" s="103">
         <f t="shared" ref="ER10" si="53">+EM10+1</f>
         <v>44732</v>
       </c>
-      <c r="ES10" s="75"/>
-      <c r="ET10" s="75"/>
-      <c r="EU10" s="75"/>
-      <c r="EV10" s="76"/>
-      <c r="EW10" s="74">
+      <c r="ES10" s="104"/>
+      <c r="ET10" s="104"/>
+      <c r="EU10" s="104"/>
+      <c r="EV10" s="105"/>
+      <c r="EW10" s="103">
         <f t="shared" ref="EW10" si="54">+ER10+1</f>
         <v>44733</v>
       </c>
-      <c r="EX10" s="75"/>
-      <c r="EY10" s="75"/>
-      <c r="EZ10" s="75"/>
-      <c r="FA10" s="76"/>
-      <c r="FB10" s="74">
+      <c r="EX10" s="104"/>
+      <c r="EY10" s="104"/>
+      <c r="EZ10" s="104"/>
+      <c r="FA10" s="105"/>
+      <c r="FB10" s="103">
         <f t="shared" ref="FB10" si="55">+EW10+1</f>
         <v>44734</v>
       </c>
-      <c r="FC10" s="75"/>
-      <c r="FD10" s="75"/>
-      <c r="FE10" s="75"/>
-      <c r="FF10" s="76"/>
-      <c r="FG10" s="74">
+      <c r="FC10" s="104"/>
+      <c r="FD10" s="104"/>
+      <c r="FE10" s="104"/>
+      <c r="FF10" s="105"/>
+      <c r="FG10" s="103">
         <f t="shared" ref="FG10" si="56">+FB10+1</f>
         <v>44735</v>
       </c>
-      <c r="FH10" s="75"/>
-      <c r="FI10" s="75"/>
-      <c r="FJ10" s="75"/>
-      <c r="FK10" s="76"/>
+      <c r="FH10" s="104"/>
+      <c r="FI10" s="104"/>
+      <c r="FJ10" s="104"/>
+      <c r="FK10" s="105"/>
     </row>
     <row r="11" spans="1:167" s="21" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="87"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="44" t="s">
         <v>173</v>
       </c>
@@ -5943,7 +5944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
@@ -5958,7 +5959,7 @@
       </c>
       <c r="E12" s="37">
         <f t="shared" ref="E12:E43" si="57">SUMIF($R$11:$FK$11,"T",R12:FK12)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="37">
         <f t="shared" ref="F12:F43" si="58">COUNTIF(R12:FK12,"F")+(COUNT(R12,W12,AB12,AG12,AL12,AQ12,AV12,BA12,BF12,BK12,BP12,BU12,BZ12,CE12,CJ12,CO12,CT12,CY12,DD12,DI12,DN12,DS12,DX12,EC12,EH12,EM12,ER12,EW12,FB12,FG12)-E12)</f>
@@ -5986,7 +5987,7 @@
       </c>
       <c r="L12" s="38">
         <f t="shared" ref="L12:L43" si="64">+E12+F12+H12+I12+J12+K12</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M12" s="24">
         <f t="shared" ref="M12:M43" si="65">SUMIF($R$11:$FK$11,$M$11,R12:FK12)</f>
@@ -6212,7 +6213,9 @@
       <c r="EY12" s="32"/>
       <c r="EZ12" s="33"/>
       <c r="FA12" s="34"/>
-      <c r="FB12" s="31"/>
+      <c r="FB12" s="31">
+        <v>1</v>
+      </c>
       <c r="FC12" s="32"/>
       <c r="FD12" s="32"/>
       <c r="FE12" s="33"/>
@@ -6223,7 +6226,7 @@
       <c r="FJ12" s="33"/>
       <c r="FK12" s="34"/>
     </row>
-    <row r="13" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>17</v>
       </c>
@@ -6238,7 +6241,7 @@
       </c>
       <c r="E13" s="37">
         <f t="shared" si="57"/>
-        <v>21.75</v>
+        <v>22.75</v>
       </c>
       <c r="F13" s="37">
         <f t="shared" si="58"/>
@@ -6266,7 +6269,7 @@
       </c>
       <c r="L13" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M13" s="24">
         <f t="shared" si="65"/>
@@ -6488,7 +6491,9 @@
       <c r="EY13" s="32"/>
       <c r="EZ13" s="33"/>
       <c r="FA13" s="34"/>
-      <c r="FB13" s="31"/>
+      <c r="FB13" s="31">
+        <v>1</v>
+      </c>
       <c r="FC13" s="32"/>
       <c r="FD13" s="32"/>
       <c r="FE13" s="33"/>
@@ -6499,7 +6504,7 @@
       <c r="FJ13" s="33"/>
       <c r="FK13" s="34"/>
     </row>
-    <row r="14" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>18</v>
       </c>
@@ -6518,11 +6523,11 @@
       </c>
       <c r="F14" s="37">
         <f t="shared" si="58"/>
-        <v>3.3999999999999986</v>
+        <v>4.3999999999999986</v>
       </c>
       <c r="G14" s="37">
         <f t="shared" si="59"/>
-        <v>0.500000000000001</v>
+        <v>0.66666666666666796</v>
       </c>
       <c r="H14" s="24">
         <f t="shared" si="60"/>
@@ -6542,7 +6547,7 @@
       </c>
       <c r="L14" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M14" s="24">
         <f t="shared" si="65"/>
@@ -6764,7 +6769,9 @@
       <c r="EY14" s="32"/>
       <c r="EZ14" s="33"/>
       <c r="FA14" s="34"/>
-      <c r="FB14" s="31"/>
+      <c r="FB14" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="FC14" s="32"/>
       <c r="FD14" s="32"/>
       <c r="FE14" s="33"/>
@@ -6775,7 +6782,7 @@
       <c r="FJ14" s="33"/>
       <c r="FK14" s="34"/>
     </row>
-    <row r="15" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
@@ -6810,7 +6817,7 @@
       </c>
       <c r="J15" s="24">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="24">
         <f t="shared" si="63"/>
@@ -6818,7 +6825,7 @@
       </c>
       <c r="L15" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M15" s="24">
         <f t="shared" si="65"/>
@@ -7050,7 +7057,9 @@
       <c r="EY15" s="32"/>
       <c r="EZ15" s="33"/>
       <c r="FA15" s="34"/>
-      <c r="FB15" s="31"/>
+      <c r="FB15" s="31" t="s">
+        <v>476</v>
+      </c>
       <c r="FC15" s="32"/>
       <c r="FD15" s="32"/>
       <c r="FE15" s="33"/>
@@ -7061,7 +7070,7 @@
       <c r="FJ15" s="33"/>
       <c r="FK15" s="34"/>
     </row>
-    <row r="16" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>20</v>
       </c>
@@ -7076,7 +7085,7 @@
       </c>
       <c r="E16" s="37">
         <f t="shared" si="57"/>
-        <v>26.310000000000002</v>
+        <v>27.310000000000002</v>
       </c>
       <c r="F16" s="37">
         <f t="shared" si="58"/>
@@ -7104,7 +7113,7 @@
       </c>
       <c r="L16" s="38">
         <f t="shared" si="64"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M16" s="24">
         <f t="shared" si="65"/>
@@ -7330,7 +7339,9 @@
       <c r="EY16" s="32"/>
       <c r="EZ16" s="33"/>
       <c r="FA16" s="34"/>
-      <c r="FB16" s="31"/>
+      <c r="FB16" s="31">
+        <v>1</v>
+      </c>
       <c r="FC16" s="32"/>
       <c r="FD16" s="32"/>
       <c r="FE16" s="33"/>
@@ -7341,7 +7352,7 @@
       <c r="FJ16" s="33"/>
       <c r="FK16" s="34"/>
     </row>
-    <row r="17" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>21</v>
       </c>
@@ -7356,7 +7367,7 @@
       </c>
       <c r="E17" s="37">
         <f t="shared" si="57"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" si="58"/>
@@ -7384,7 +7395,7 @@
       </c>
       <c r="L17" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M17" s="24">
         <f t="shared" si="65"/>
@@ -7612,7 +7623,9 @@
       <c r="EY17" s="32"/>
       <c r="EZ17" s="33"/>
       <c r="FA17" s="34"/>
-      <c r="FB17" s="31"/>
+      <c r="FB17" s="31">
+        <v>1</v>
+      </c>
       <c r="FC17" s="32"/>
       <c r="FD17" s="32"/>
       <c r="FE17" s="33"/>
@@ -7623,7 +7636,7 @@
       <c r="FJ17" s="33"/>
       <c r="FK17" s="34"/>
     </row>
-    <row r="18" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>22</v>
       </c>
@@ -7638,7 +7651,7 @@
       </c>
       <c r="E18" s="37">
         <f t="shared" si="57"/>
-        <v>23.75</v>
+        <v>24.75</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="58"/>
@@ -7666,11 +7679,11 @@
       </c>
       <c r="L18" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M18" s="24">
         <f t="shared" si="65"/>
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="66"/>
@@ -7686,7 +7699,7 @@
       </c>
       <c r="Q18" s="35">
         <f t="shared" si="69"/>
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R18" s="31">
         <v>1</v>
@@ -7890,8 +7903,12 @@
       <c r="EY18" s="32"/>
       <c r="EZ18" s="33"/>
       <c r="FA18" s="34"/>
-      <c r="FB18" s="31"/>
-      <c r="FC18" s="32"/>
+      <c r="FB18" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC18" s="32">
+        <v>1</v>
+      </c>
       <c r="FD18" s="32"/>
       <c r="FE18" s="33"/>
       <c r="FF18" s="34"/>
@@ -7901,7 +7918,7 @@
       <c r="FJ18" s="33"/>
       <c r="FK18" s="34"/>
     </row>
-    <row r="19" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>23</v>
       </c>
@@ -7916,7 +7933,7 @@
       </c>
       <c r="E19" s="37">
         <f t="shared" si="57"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="58"/>
@@ -7944,11 +7961,11 @@
       </c>
       <c r="L19" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M19" s="24">
         <f t="shared" si="65"/>
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="66"/>
@@ -7964,7 +7981,7 @@
       </c>
       <c r="Q19" s="35">
         <f t="shared" si="69"/>
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="R19" s="31">
         <v>1</v>
@@ -8174,8 +8191,12 @@
       <c r="EY19" s="32"/>
       <c r="EZ19" s="33"/>
       <c r="FA19" s="34"/>
-      <c r="FB19" s="31"/>
-      <c r="FC19" s="32"/>
+      <c r="FB19" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC19" s="32">
+        <v>0.5</v>
+      </c>
       <c r="FD19" s="32"/>
       <c r="FE19" s="33"/>
       <c r="FF19" s="34"/>
@@ -8185,17 +8206,17 @@
       <c r="FJ19" s="33"/>
       <c r="FK19" s="34"/>
     </row>
-    <row r="20" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="62" t="s">
         <v>478</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="63" t="s">
         <v>479</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="61" t="s">
         <v>494</v>
       </c>
       <c r="E20" s="37">
@@ -8427,7 +8448,7 @@
       <c r="FJ20" s="33"/>
       <c r="FK20" s="34"/>
     </row>
-    <row r="21" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>25</v>
       </c>
@@ -8446,11 +8467,11 @@
       </c>
       <c r="F21" s="37">
         <f t="shared" si="58"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21" s="37">
         <f t="shared" si="59"/>
-        <v>0.500000000000001</v>
+        <v>0.66666666666666796</v>
       </c>
       <c r="H21" s="24">
         <f t="shared" si="60"/>
@@ -8470,7 +8491,7 @@
       </c>
       <c r="L21" s="38">
         <f t="shared" si="64"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M21" s="24">
         <f t="shared" si="65"/>
@@ -8656,7 +8677,9 @@
       <c r="EY21" s="32"/>
       <c r="EZ21" s="33"/>
       <c r="FA21" s="34"/>
-      <c r="FB21" s="31"/>
+      <c r="FB21" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="FC21" s="32"/>
       <c r="FD21" s="32"/>
       <c r="FE21" s="33"/>
@@ -8667,7 +8690,7 @@
       <c r="FJ21" s="33"/>
       <c r="FK21" s="34"/>
     </row>
-    <row r="22" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>26</v>
       </c>
@@ -8682,7 +8705,7 @@
       </c>
       <c r="E22" s="37">
         <f t="shared" si="57"/>
-        <v>20.689999999999998</v>
+        <v>21.689999999999998</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" si="58"/>
@@ -8710,7 +8733,7 @@
       </c>
       <c r="L22" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M22" s="24">
         <f t="shared" si="65"/>
@@ -8948,7 +8971,9 @@
       </c>
       <c r="EZ22" s="33"/>
       <c r="FA22" s="34"/>
-      <c r="FB22" s="31"/>
+      <c r="FB22" s="31">
+        <v>1</v>
+      </c>
       <c r="FC22" s="32"/>
       <c r="FD22" s="32"/>
       <c r="FE22" s="33"/>
@@ -8974,7 +8999,7 @@
       </c>
       <c r="E23" s="37">
         <f t="shared" si="57"/>
-        <v>18.25</v>
+        <v>19.25</v>
       </c>
       <c r="F23" s="37">
         <f t="shared" si="58"/>
@@ -9002,7 +9027,7 @@
       </c>
       <c r="L23" s="38">
         <f t="shared" si="64"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M23" s="24">
         <f t="shared" si="65"/>
@@ -9228,7 +9253,9 @@
       <c r="EY23" s="32"/>
       <c r="EZ23" s="33"/>
       <c r="FA23" s="34"/>
-      <c r="FB23" s="31"/>
+      <c r="FB23" s="31">
+        <v>1</v>
+      </c>
       <c r="FC23" s="32"/>
       <c r="FD23" s="32"/>
       <c r="FE23" s="33"/>
@@ -9239,7 +9266,7 @@
       <c r="FJ23" s="33"/>
       <c r="FK23" s="34"/>
     </row>
-    <row r="24" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>28</v>
       </c>
@@ -9274,7 +9301,7 @@
       </c>
       <c r="J24" s="24">
         <f t="shared" si="62"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K24" s="24">
         <f t="shared" si="63"/>
@@ -9282,7 +9309,7 @@
       </c>
       <c r="L24" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M24" s="24">
         <f t="shared" si="65"/>
@@ -9530,7 +9557,9 @@
       <c r="EY24" s="32"/>
       <c r="EZ24" s="33"/>
       <c r="FA24" s="34"/>
-      <c r="FB24" s="31"/>
+      <c r="FB24" s="31" t="s">
+        <v>476</v>
+      </c>
       <c r="FC24" s="32"/>
       <c r="FD24" s="32"/>
       <c r="FE24" s="33"/>
@@ -9541,7 +9570,7 @@
       <c r="FJ24" s="33"/>
       <c r="FK24" s="34"/>
     </row>
-    <row r="25" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>29</v>
       </c>
@@ -9556,7 +9585,7 @@
       </c>
       <c r="E25" s="37">
         <f t="shared" si="57"/>
-        <v>24.75</v>
+        <v>25.75</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="58"/>
@@ -9584,7 +9613,7 @@
       </c>
       <c r="L25" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M25" s="24">
         <f t="shared" si="65"/>
@@ -9830,7 +9859,9 @@
       <c r="EY25" s="32"/>
       <c r="EZ25" s="33"/>
       <c r="FA25" s="34"/>
-      <c r="FB25" s="31"/>
+      <c r="FB25" s="31">
+        <v>1</v>
+      </c>
       <c r="FC25" s="32"/>
       <c r="FD25" s="32"/>
       <c r="FE25" s="33"/>
@@ -9841,7 +9872,7 @@
       <c r="FJ25" s="33"/>
       <c r="FK25" s="34"/>
     </row>
-    <row r="26" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>30</v>
       </c>
@@ -9856,7 +9887,7 @@
       </c>
       <c r="E26" s="37">
         <f t="shared" si="57"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="58"/>
@@ -9884,7 +9915,7 @@
       </c>
       <c r="L26" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M26" s="24">
         <f t="shared" si="65"/>
@@ -10170,7 +10201,9 @@
       <c r="EY26" s="32"/>
       <c r="EZ26" s="33"/>
       <c r="FA26" s="34"/>
-      <c r="FB26" s="31"/>
+      <c r="FB26" s="31">
+        <v>1</v>
+      </c>
       <c r="FC26" s="32"/>
       <c r="FD26" s="32"/>
       <c r="FE26" s="33"/>
@@ -10181,7 +10214,7 @@
       <c r="FJ26" s="33"/>
       <c r="FK26" s="34"/>
     </row>
-    <row r="27" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>31</v>
       </c>
@@ -10200,11 +10233,11 @@
       </c>
       <c r="F27" s="37">
         <f t="shared" si="58"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="37">
         <f t="shared" si="59"/>
-        <v>0.33333333333333398</v>
+        <v>0.500000000000001</v>
       </c>
       <c r="H27" s="24">
         <f t="shared" si="60"/>
@@ -10224,7 +10257,7 @@
       </c>
       <c r="L27" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M27" s="24">
         <f t="shared" si="65"/>
@@ -10446,7 +10479,9 @@
       <c r="EY27" s="32"/>
       <c r="EZ27" s="33"/>
       <c r="FA27" s="34"/>
-      <c r="FB27" s="31"/>
+      <c r="FB27" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="FC27" s="32"/>
       <c r="FD27" s="32"/>
       <c r="FE27" s="33"/>
@@ -10457,7 +10492,7 @@
       <c r="FJ27" s="33"/>
       <c r="FK27" s="34"/>
     </row>
-    <row r="28" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>32</v>
       </c>
@@ -10675,7 +10710,7 @@
       <c r="FJ28" s="33"/>
       <c r="FK28" s="34"/>
     </row>
-    <row r="29" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>33</v>
       </c>
@@ -10690,7 +10725,7 @@
       </c>
       <c r="E29" s="37">
         <f t="shared" si="57"/>
-        <v>27.88</v>
+        <v>28.88</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="58"/>
@@ -10718,15 +10753,15 @@
       </c>
       <c r="L29" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M29" s="24">
         <f t="shared" si="65"/>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="N29" s="24">
         <f t="shared" si="66"/>
-        <v>19.25</v>
+        <v>20.75</v>
       </c>
       <c r="O29" s="24">
         <f t="shared" si="67"/>
@@ -10734,11 +10769,11 @@
       </c>
       <c r="P29" s="24">
         <f t="shared" si="68"/>
-        <v>96.25</v>
+        <v>104.25</v>
       </c>
       <c r="Q29" s="35">
         <f t="shared" si="69"/>
-        <v>155</v>
+        <v>166.5</v>
       </c>
       <c r="R29" s="31">
         <v>1</v>
@@ -11016,18 +11051,26 @@
       <c r="FA29" s="34">
         <v>8</v>
       </c>
-      <c r="FB29" s="31"/>
-      <c r="FC29" s="32"/>
-      <c r="FD29" s="32"/>
+      <c r="FB29" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC29" s="32">
+        <v>2</v>
+      </c>
+      <c r="FD29" s="32">
+        <v>1.5</v>
+      </c>
       <c r="FE29" s="33"/>
-      <c r="FF29" s="34"/>
+      <c r="FF29" s="34">
+        <v>8</v>
+      </c>
       <c r="FG29" s="31"/>
       <c r="FH29" s="32"/>
       <c r="FI29" s="32"/>
       <c r="FJ29" s="33"/>
       <c r="FK29" s="34"/>
     </row>
-    <row r="30" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>34</v>
       </c>
@@ -11271,7 +11314,7 @@
       <c r="FJ30" s="33"/>
       <c r="FK30" s="34"/>
     </row>
-    <row r="31" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>35</v>
       </c>
@@ -11286,7 +11329,7 @@
       </c>
       <c r="E31" s="37">
         <f t="shared" si="57"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" s="37">
         <f t="shared" si="58"/>
@@ -11314,11 +11357,11 @@
       </c>
       <c r="L31" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M31" s="24">
         <f t="shared" si="65"/>
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="N31" s="24">
         <f t="shared" si="66"/>
@@ -11330,11 +11373,11 @@
       </c>
       <c r="P31" s="24">
         <f t="shared" si="68"/>
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q31" s="35">
         <f t="shared" si="69"/>
-        <v>198.75</v>
+        <v>207</v>
       </c>
       <c r="R31" s="31">
         <v>1</v>
@@ -11596,18 +11639,24 @@
       <c r="FA31" s="34">
         <v>8</v>
       </c>
-      <c r="FB31" s="31"/>
-      <c r="FC31" s="32"/>
+      <c r="FB31" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC31" s="32">
+        <v>0.25</v>
+      </c>
       <c r="FD31" s="32"/>
       <c r="FE31" s="33"/>
-      <c r="FF31" s="34"/>
+      <c r="FF31" s="34">
+        <v>8</v>
+      </c>
       <c r="FG31" s="31"/>
       <c r="FH31" s="32"/>
       <c r="FI31" s="32"/>
       <c r="FJ31" s="33"/>
       <c r="FK31" s="34"/>
     </row>
-    <row r="32" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>36</v>
       </c>
@@ -11622,7 +11671,7 @@
       </c>
       <c r="E32" s="37">
         <f t="shared" si="57"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="58"/>
@@ -11650,11 +11699,11 @@
       </c>
       <c r="L32" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M32" s="24">
         <f t="shared" si="65"/>
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="N32" s="24">
         <f t="shared" si="66"/>
@@ -11670,7 +11719,7 @@
       </c>
       <c r="Q32" s="35">
         <f t="shared" si="69"/>
-        <v>135</v>
+        <v>135.5</v>
       </c>
       <c r="R32" s="31" t="s">
         <v>475</v>
@@ -11940,8 +11989,12 @@
       <c r="FA32" s="34">
         <v>1</v>
       </c>
-      <c r="FB32" s="31"/>
-      <c r="FC32" s="32"/>
+      <c r="FB32" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC32" s="32">
+        <v>0.5</v>
+      </c>
       <c r="FD32" s="32"/>
       <c r="FE32" s="33"/>
       <c r="FF32" s="34"/>
@@ -11951,7 +12004,7 @@
       <c r="FJ32" s="33"/>
       <c r="FK32" s="34"/>
     </row>
-    <row r="33" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>37</v>
       </c>
@@ -11970,11 +12023,11 @@
       </c>
       <c r="F33" s="37">
         <f t="shared" si="58"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" s="37">
         <f t="shared" si="59"/>
-        <v>0.33333333333333398</v>
+        <v>0.500000000000001</v>
       </c>
       <c r="H33" s="24">
         <f t="shared" si="60"/>
@@ -11994,7 +12047,7 @@
       </c>
       <c r="L33" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M33" s="24">
         <f t="shared" si="65"/>
@@ -12238,7 +12291,9 @@
       <c r="EY33" s="32"/>
       <c r="EZ33" s="33"/>
       <c r="FA33" s="34"/>
-      <c r="FB33" s="31"/>
+      <c r="FB33" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="FC33" s="32"/>
       <c r="FD33" s="32"/>
       <c r="FE33" s="33"/>
@@ -12249,7 +12304,7 @@
       <c r="FJ33" s="33"/>
       <c r="FK33" s="34"/>
     </row>
-    <row r="34" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>38</v>
       </c>
@@ -12268,11 +12323,11 @@
       </c>
       <c r="F34" s="37">
         <f t="shared" si="58"/>
-        <v>2.7800000000000011</v>
+        <v>3.7800000000000011</v>
       </c>
       <c r="G34" s="37">
         <f t="shared" si="59"/>
-        <v>0.33333333333333398</v>
+        <v>0.500000000000001</v>
       </c>
       <c r="H34" s="24">
         <f t="shared" si="60"/>
@@ -12292,7 +12347,7 @@
       </c>
       <c r="L34" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M34" s="24">
         <f t="shared" si="65"/>
@@ -12526,7 +12581,9 @@
       <c r="EY34" s="32"/>
       <c r="EZ34" s="33"/>
       <c r="FA34" s="34"/>
-      <c r="FB34" s="31"/>
+      <c r="FB34" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="FC34" s="32"/>
       <c r="FD34" s="32"/>
       <c r="FE34" s="33"/>
@@ -12537,7 +12594,7 @@
       <c r="FJ34" s="33"/>
       <c r="FK34" s="34"/>
     </row>
-    <row r="35" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>39</v>
       </c>
@@ -12552,7 +12609,7 @@
       </c>
       <c r="E35" s="37">
         <f t="shared" si="57"/>
-        <v>21.380000000000003</v>
+        <v>22.380000000000003</v>
       </c>
       <c r="F35" s="37">
         <f t="shared" si="58"/>
@@ -12580,15 +12637,15 @@
       </c>
       <c r="L35" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M35" s="24">
         <f t="shared" si="65"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N35" s="24">
         <f t="shared" si="66"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O35" s="24">
         <f t="shared" si="67"/>
@@ -12596,11 +12653,11 @@
       </c>
       <c r="P35" s="24">
         <f t="shared" si="68"/>
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="Q35" s="35">
         <f t="shared" si="69"/>
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="R35" s="31">
         <v>1</v>
@@ -12882,18 +12939,26 @@
       <c r="FA35" s="34">
         <v>8</v>
       </c>
-      <c r="FB35" s="31"/>
-      <c r="FC35" s="32"/>
-      <c r="FD35" s="32"/>
+      <c r="FB35" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC35" s="32">
+        <v>2</v>
+      </c>
+      <c r="FD35" s="32">
+        <v>1</v>
+      </c>
       <c r="FE35" s="33"/>
-      <c r="FF35" s="34"/>
+      <c r="FF35" s="34">
+        <v>8</v>
+      </c>
       <c r="FG35" s="31"/>
       <c r="FH35" s="32"/>
       <c r="FI35" s="32"/>
       <c r="FJ35" s="33"/>
       <c r="FK35" s="34"/>
     </row>
-    <row r="36" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>40</v>
       </c>
@@ -12908,7 +12973,7 @@
       </c>
       <c r="E36" s="37">
         <f t="shared" si="57"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F36" s="37">
         <f t="shared" si="58"/>
@@ -12936,11 +13001,11 @@
       </c>
       <c r="L36" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M36" s="24">
         <f t="shared" si="65"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="N36" s="24">
         <f t="shared" si="66"/>
@@ -12956,7 +13021,7 @@
       </c>
       <c r="Q36" s="35">
         <f t="shared" si="69"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R36" s="31">
         <v>1</v>
@@ -13162,8 +13227,12 @@
       <c r="EY36" s="32"/>
       <c r="EZ36" s="33"/>
       <c r="FA36" s="34"/>
-      <c r="FB36" s="31"/>
-      <c r="FC36" s="32"/>
+      <c r="FB36" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC36" s="32">
+        <v>0.25</v>
+      </c>
       <c r="FD36" s="32"/>
       <c r="FE36" s="33"/>
       <c r="FF36" s="34"/>
@@ -13173,7 +13242,7 @@
       <c r="FJ36" s="33"/>
       <c r="FK36" s="34"/>
     </row>
-    <row r="37" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>41</v>
       </c>
@@ -13453,7 +13522,7 @@
       <c r="FJ37" s="33"/>
       <c r="FK37" s="34"/>
     </row>
-    <row r="38" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>42</v>
       </c>
@@ -13468,7 +13537,7 @@
       </c>
       <c r="E38" s="37">
         <f t="shared" si="57"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="58"/>
@@ -13496,11 +13565,11 @@
       </c>
       <c r="L38" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M38" s="24">
         <f t="shared" si="65"/>
-        <v>24.75</v>
+        <v>25</v>
       </c>
       <c r="N38" s="24">
         <f t="shared" si="66"/>
@@ -13516,7 +13585,7 @@
       </c>
       <c r="Q38" s="35">
         <f t="shared" si="69"/>
-        <v>37.25</v>
+        <v>37.5</v>
       </c>
       <c r="R38" s="31">
         <v>1</v>
@@ -13766,8 +13835,12 @@
       <c r="EY38" s="32"/>
       <c r="EZ38" s="33"/>
       <c r="FA38" s="34"/>
-      <c r="FB38" s="31"/>
-      <c r="FC38" s="32"/>
+      <c r="FB38" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC38" s="32">
+        <v>0.25</v>
+      </c>
       <c r="FD38" s="32"/>
       <c r="FE38" s="33"/>
       <c r="FF38" s="34"/>
@@ -13777,7 +13850,7 @@
       <c r="FJ38" s="33"/>
       <c r="FK38" s="34"/>
     </row>
-    <row r="39" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>43</v>
       </c>
@@ -13792,7 +13865,7 @@
       </c>
       <c r="E39" s="37">
         <f t="shared" si="57"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F39" s="37">
         <f t="shared" si="58"/>
@@ -13820,7 +13893,7 @@
       </c>
       <c r="L39" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M39" s="24">
         <f t="shared" si="65"/>
@@ -14044,7 +14117,9 @@
       <c r="EY39" s="32"/>
       <c r="EZ39" s="33"/>
       <c r="FA39" s="34"/>
-      <c r="FB39" s="31"/>
+      <c r="FB39" s="31">
+        <v>1</v>
+      </c>
       <c r="FC39" s="32"/>
       <c r="FD39" s="32"/>
       <c r="FE39" s="33"/>
@@ -14055,7 +14130,7 @@
       <c r="FJ39" s="33"/>
       <c r="FK39" s="34"/>
     </row>
-    <row r="40" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>44</v>
       </c>
@@ -14070,7 +14145,7 @@
       </c>
       <c r="E40" s="37">
         <f t="shared" si="57"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="58"/>
@@ -14098,11 +14173,11 @@
       </c>
       <c r="L40" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M40" s="24">
         <f t="shared" si="65"/>
-        <v>25.75</v>
+        <v>26.25</v>
       </c>
       <c r="N40" s="24">
         <f t="shared" si="66"/>
@@ -14118,7 +14193,7 @@
       </c>
       <c r="Q40" s="35">
         <f t="shared" si="69"/>
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="R40" s="31">
         <v>1</v>
@@ -14360,8 +14435,12 @@
       <c r="EY40" s="32"/>
       <c r="EZ40" s="33"/>
       <c r="FA40" s="34"/>
-      <c r="FB40" s="31"/>
-      <c r="FC40" s="32"/>
+      <c r="FB40" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC40" s="32">
+        <v>0.5</v>
+      </c>
       <c r="FD40" s="32"/>
       <c r="FE40" s="33"/>
       <c r="FF40" s="34"/>
@@ -14371,7 +14450,7 @@
       <c r="FJ40" s="33"/>
       <c r="FK40" s="34"/>
     </row>
-    <row r="41" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>45</v>
       </c>
@@ -14386,7 +14465,7 @@
       </c>
       <c r="E41" s="37">
         <f t="shared" si="57"/>
-        <v>26.849999999999998</v>
+        <v>27.849999999999998</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="58"/>
@@ -14414,11 +14493,11 @@
       </c>
       <c r="L41" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M41" s="24">
         <f t="shared" si="65"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N41" s="24">
         <f t="shared" si="66"/>
@@ -14434,7 +14513,7 @@
       </c>
       <c r="Q41" s="35">
         <f t="shared" si="69"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="R41" s="31">
         <v>1</v>
@@ -14640,8 +14719,12 @@
       <c r="EY41" s="32"/>
       <c r="EZ41" s="33"/>
       <c r="FA41" s="34"/>
-      <c r="FB41" s="31"/>
-      <c r="FC41" s="32"/>
+      <c r="FB41" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC41" s="32">
+        <v>1</v>
+      </c>
       <c r="FD41" s="32"/>
       <c r="FE41" s="33"/>
       <c r="FF41" s="34"/>
@@ -14651,7 +14734,7 @@
       <c r="FJ41" s="33"/>
       <c r="FK41" s="34"/>
     </row>
-    <row r="42" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>46</v>
       </c>
@@ -14889,7 +14972,7 @@
       <c r="FJ42" s="33"/>
       <c r="FK42" s="34"/>
     </row>
-    <row r="43" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>47</v>
       </c>
@@ -15121,7 +15204,7 @@
       <c r="FJ43" s="33"/>
       <c r="FK43" s="34"/>
     </row>
-    <row r="44" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>48</v>
       </c>
@@ -15136,7 +15219,7 @@
       </c>
       <c r="E44" s="37">
         <f t="shared" ref="E44:E75" si="70">SUMIF($R$11:$FK$11,"T",R44:FK44)</f>
-        <v>26.75</v>
+        <v>27.75</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" ref="F44:F75" si="71">COUNTIF(R44:FK44,"F")+(COUNT(R44,W44,AB44,AG44,AL44,AQ44,AV44,BA44,BF44,BK44,BP44,BU44,BZ44,CE44,CJ44,CO44,CT44,CY44,DD44,DI44,DN44,DS44,DX44,EC44,EH44,EM44,ER44,EW44,FB44,FG44)-E44)</f>
@@ -15164,7 +15247,7 @@
       </c>
       <c r="L44" s="38">
         <f t="shared" ref="L44:L75" si="77">+E44+F44+H44+I44+J44+K44</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M44" s="24">
         <f t="shared" ref="M44:M75" si="78">SUMIF($R$11:$FK$11,$M$11,R44:FK44)</f>
@@ -15412,7 +15495,9 @@
       <c r="EY44" s="32"/>
       <c r="EZ44" s="33"/>
       <c r="FA44" s="34"/>
-      <c r="FB44" s="31"/>
+      <c r="FB44" s="31">
+        <v>1</v>
+      </c>
       <c r="FC44" s="32"/>
       <c r="FD44" s="32"/>
       <c r="FE44" s="33"/>
@@ -15423,7 +15508,7 @@
       <c r="FJ44" s="33"/>
       <c r="FK44" s="34"/>
     </row>
-    <row r="45" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>49</v>
       </c>
@@ -15438,7 +15523,7 @@
       </c>
       <c r="E45" s="37">
         <f t="shared" si="70"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="71"/>
@@ -15466,7 +15551,7 @@
       </c>
       <c r="L45" s="38">
         <f t="shared" si="77"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M45" s="24">
         <f t="shared" si="78"/>
@@ -15712,7 +15797,9 @@
       <c r="EY45" s="32"/>
       <c r="EZ45" s="33"/>
       <c r="FA45" s="34"/>
-      <c r="FB45" s="31"/>
+      <c r="FB45" s="31">
+        <v>1</v>
+      </c>
       <c r="FC45" s="32"/>
       <c r="FD45" s="32"/>
       <c r="FE45" s="33"/>
@@ -15723,7 +15810,7 @@
       <c r="FJ45" s="33"/>
       <c r="FK45" s="34"/>
     </row>
-    <row r="46" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>50</v>
       </c>
@@ -15738,7 +15825,7 @@
       </c>
       <c r="E46" s="37">
         <f t="shared" si="70"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F46" s="37">
         <f t="shared" si="71"/>
@@ -15766,11 +15853,11 @@
       </c>
       <c r="L46" s="38">
         <f t="shared" si="77"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M46" s="24">
         <f t="shared" si="78"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N46" s="24">
         <f t="shared" si="79"/>
@@ -15786,7 +15873,7 @@
       </c>
       <c r="Q46" s="35">
         <f t="shared" si="82"/>
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="R46" s="31"/>
       <c r="S46" s="32"/>
@@ -15952,8 +16039,12 @@
       <c r="FA46" s="34">
         <v>0.5</v>
       </c>
-      <c r="FB46" s="31"/>
-      <c r="FC46" s="32"/>
+      <c r="FB46" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC46" s="32">
+        <v>0.5</v>
+      </c>
       <c r="FD46" s="32"/>
       <c r="FE46" s="33"/>
       <c r="FF46" s="34"/>
@@ -15963,17 +16054,17 @@
       <c r="FJ46" s="33"/>
       <c r="FK46" s="34"/>
     </row>
-    <row r="47" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="61" t="s">
         <v>424</v>
       </c>
       <c r="E47" s="37">
@@ -16249,7 +16340,7 @@
       <c r="FJ47" s="33"/>
       <c r="FK47" s="34"/>
     </row>
-    <row r="48" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>52</v>
       </c>
@@ -16467,7 +16558,7 @@
       <c r="FJ48" s="33"/>
       <c r="FK48" s="34"/>
     </row>
-    <row r="49" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>53</v>
       </c>
@@ -16482,7 +16573,7 @@
       </c>
       <c r="E49" s="37">
         <f t="shared" si="70"/>
-        <v>20.88</v>
+        <v>21.88</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="71"/>
@@ -16510,11 +16601,11 @@
       </c>
       <c r="L49" s="38">
         <f t="shared" si="77"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M49" s="24">
         <f t="shared" si="78"/>
-        <v>7.25</v>
+        <v>8.25</v>
       </c>
       <c r="N49" s="24">
         <f t="shared" si="79"/>
@@ -16530,7 +16621,7 @@
       </c>
       <c r="Q49" s="35">
         <f t="shared" si="82"/>
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="R49" s="31"/>
       <c r="S49" s="32"/>
@@ -16742,8 +16833,12 @@
       </c>
       <c r="EZ49" s="33"/>
       <c r="FA49" s="34"/>
-      <c r="FB49" s="31"/>
-      <c r="FC49" s="32"/>
+      <c r="FB49" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC49" s="32">
+        <v>1</v>
+      </c>
       <c r="FD49" s="32"/>
       <c r="FE49" s="33"/>
       <c r="FF49" s="34"/>
@@ -16753,7 +16848,7 @@
       <c r="FJ49" s="33"/>
       <c r="FK49" s="34"/>
     </row>
-    <row r="50" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>54</v>
       </c>
@@ -16768,7 +16863,7 @@
       </c>
       <c r="E50" s="37">
         <f t="shared" si="70"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F50" s="37">
         <f t="shared" si="71"/>
@@ -16796,11 +16891,11 @@
       </c>
       <c r="L50" s="38">
         <f t="shared" si="77"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M50" s="24">
         <f t="shared" si="78"/>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="N50" s="24">
         <f t="shared" si="79"/>
@@ -16816,7 +16911,7 @@
       </c>
       <c r="Q50" s="35">
         <f t="shared" si="82"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="R50" s="31">
         <v>1</v>
@@ -17050,8 +17145,12 @@
       </c>
       <c r="EZ50" s="33"/>
       <c r="FA50" s="34"/>
-      <c r="FB50" s="31"/>
-      <c r="FC50" s="32"/>
+      <c r="FB50" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC50" s="32">
+        <v>1.5</v>
+      </c>
       <c r="FD50" s="32"/>
       <c r="FE50" s="33"/>
       <c r="FF50" s="34"/>
@@ -17061,7 +17160,7 @@
       <c r="FJ50" s="33"/>
       <c r="FK50" s="34"/>
     </row>
-    <row r="51" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>55</v>
       </c>
@@ -17076,7 +17175,7 @@
       </c>
       <c r="E51" s="37">
         <f t="shared" si="70"/>
-        <v>26.47</v>
+        <v>27.47</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="71"/>
@@ -17104,15 +17203,15 @@
       </c>
       <c r="L51" s="38">
         <f t="shared" si="77"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M51" s="24">
         <f t="shared" si="78"/>
-        <v>34.5</v>
+        <v>36.5</v>
       </c>
       <c r="N51" s="24">
         <f t="shared" si="79"/>
-        <v>16.25</v>
+        <v>17.5</v>
       </c>
       <c r="O51" s="24">
         <f t="shared" si="80"/>
@@ -17124,7 +17223,7 @@
       </c>
       <c r="Q51" s="35">
         <f t="shared" si="82"/>
-        <v>50.75</v>
+        <v>54</v>
       </c>
       <c r="R51" s="31">
         <v>1</v>
@@ -17392,9 +17491,15 @@
       </c>
       <c r="EZ51" s="33"/>
       <c r="FA51" s="34"/>
-      <c r="FB51" s="31"/>
-      <c r="FC51" s="32"/>
-      <c r="FD51" s="32"/>
+      <c r="FB51" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC51" s="32">
+        <v>2</v>
+      </c>
+      <c r="FD51" s="32">
+        <v>1.25</v>
+      </c>
       <c r="FE51" s="33"/>
       <c r="FF51" s="34"/>
       <c r="FG51" s="31"/>
@@ -17403,7 +17508,7 @@
       <c r="FJ51" s="33"/>
       <c r="FK51" s="34"/>
     </row>
-    <row r="52" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>56</v>
       </c>
@@ -17418,7 +17523,7 @@
       </c>
       <c r="E52" s="37">
         <f t="shared" si="70"/>
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="F52" s="37">
         <f t="shared" si="71"/>
@@ -17446,11 +17551,11 @@
       </c>
       <c r="L52" s="38">
         <f t="shared" si="77"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M52" s="24">
         <f t="shared" si="78"/>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="N52" s="24">
         <f t="shared" si="79"/>
@@ -17466,7 +17571,7 @@
       </c>
       <c r="Q52" s="35">
         <f t="shared" si="82"/>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R52" s="31" t="s">
         <v>177</v>
@@ -17666,8 +17771,12 @@
       <c r="EY52" s="32"/>
       <c r="EZ52" s="33"/>
       <c r="FA52" s="34"/>
-      <c r="FB52" s="31"/>
-      <c r="FC52" s="32"/>
+      <c r="FB52" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC52" s="32">
+        <v>0.25</v>
+      </c>
       <c r="FD52" s="32"/>
       <c r="FE52" s="33"/>
       <c r="FF52" s="34"/>
@@ -17677,7 +17786,7 @@
       <c r="FJ52" s="33"/>
       <c r="FK52" s="34"/>
     </row>
-    <row r="53" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>57</v>
       </c>
@@ -17692,7 +17801,7 @@
       </c>
       <c r="E53" s="37">
         <f t="shared" si="70"/>
-        <v>24.51</v>
+        <v>25.51</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="71"/>
@@ -17720,11 +17829,11 @@
       </c>
       <c r="L53" s="38">
         <f t="shared" si="77"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M53" s="24">
         <f t="shared" si="78"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N53" s="24">
         <f t="shared" si="79"/>
@@ -17740,7 +17849,7 @@
       </c>
       <c r="Q53" s="35">
         <f t="shared" si="82"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R53" s="31">
         <v>1</v>
@@ -17948,8 +18057,12 @@
       <c r="EY53" s="32"/>
       <c r="EZ53" s="33"/>
       <c r="FA53" s="34"/>
-      <c r="FB53" s="31"/>
-      <c r="FC53" s="32"/>
+      <c r="FB53" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC53" s="32">
+        <v>1</v>
+      </c>
       <c r="FD53" s="32"/>
       <c r="FE53" s="33"/>
       <c r="FF53" s="34"/>
@@ -17959,7 +18072,7 @@
       <c r="FJ53" s="33"/>
       <c r="FK53" s="34"/>
     </row>
-    <row r="54" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>58</v>
       </c>
@@ -17974,7 +18087,7 @@
       </c>
       <c r="E54" s="37">
         <f t="shared" si="70"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F54" s="37">
         <f t="shared" si="71"/>
@@ -18002,7 +18115,7 @@
       </c>
       <c r="L54" s="38">
         <f t="shared" si="77"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M54" s="24">
         <f t="shared" si="78"/>
@@ -18226,7 +18339,9 @@
       <c r="EY54" s="32"/>
       <c r="EZ54" s="33"/>
       <c r="FA54" s="34"/>
-      <c r="FB54" s="31"/>
+      <c r="FB54" s="31">
+        <v>1</v>
+      </c>
       <c r="FC54" s="32"/>
       <c r="FD54" s="32"/>
       <c r="FE54" s="33"/>
@@ -18237,7 +18352,7 @@
       <c r="FJ54" s="33"/>
       <c r="FK54" s="34"/>
     </row>
-    <row r="55" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>59</v>
       </c>
@@ -18256,11 +18371,11 @@
       </c>
       <c r="F55" s="37">
         <f t="shared" si="71"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G55" s="37">
         <f t="shared" si="72"/>
-        <v>1.5000000000000029</v>
+        <v>1.6666666666666698</v>
       </c>
       <c r="H55" s="24">
         <f t="shared" si="73"/>
@@ -18280,7 +18395,7 @@
       </c>
       <c r="L55" s="38">
         <f t="shared" si="77"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M55" s="24">
         <f t="shared" si="78"/>
@@ -18512,7 +18627,9 @@
       <c r="EY55" s="32"/>
       <c r="EZ55" s="33"/>
       <c r="FA55" s="34"/>
-      <c r="FB55" s="31"/>
+      <c r="FB55" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="FC55" s="32"/>
       <c r="FD55" s="32"/>
       <c r="FE55" s="33"/>
@@ -18523,17 +18640,17 @@
       <c r="FJ55" s="33"/>
       <c r="FK55" s="34"/>
     </row>
-    <row r="56" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="61" t="s">
         <v>429</v>
       </c>
       <c r="E56" s="37">
@@ -18799,7 +18916,7 @@
       <c r="FJ56" s="33"/>
       <c r="FK56" s="34"/>
     </row>
-    <row r="57" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>61</v>
       </c>
@@ -18814,7 +18931,7 @@
       </c>
       <c r="E57" s="37">
         <f t="shared" si="70"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="71"/>
@@ -18842,7 +18959,7 @@
       </c>
       <c r="L57" s="38">
         <f t="shared" si="77"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M57" s="24">
         <f t="shared" si="78"/>
@@ -19088,7 +19205,9 @@
       <c r="EY57" s="32"/>
       <c r="EZ57" s="33"/>
       <c r="FA57" s="34"/>
-      <c r="FB57" s="31"/>
+      <c r="FB57" s="31">
+        <v>1</v>
+      </c>
       <c r="FC57" s="32"/>
       <c r="FD57" s="32"/>
       <c r="FE57" s="33"/>
@@ -19099,7 +19218,7 @@
       <c r="FJ57" s="33"/>
       <c r="FK57" s="34"/>
     </row>
-    <row r="58" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>62</v>
       </c>
@@ -19114,7 +19233,7 @@
       </c>
       <c r="E58" s="37">
         <f t="shared" si="70"/>
-        <v>24.75</v>
+        <v>25.75</v>
       </c>
       <c r="F58" s="37">
         <f t="shared" si="71"/>
@@ -19142,7 +19261,7 @@
       </c>
       <c r="L58" s="38">
         <f t="shared" si="77"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M58" s="24">
         <f t="shared" si="78"/>
@@ -19364,7 +19483,9 @@
       <c r="EY58" s="32"/>
       <c r="EZ58" s="33"/>
       <c r="FA58" s="34"/>
-      <c r="FB58" s="31"/>
+      <c r="FB58" s="31">
+        <v>1</v>
+      </c>
       <c r="FC58" s="32"/>
       <c r="FD58" s="32"/>
       <c r="FE58" s="33"/>
@@ -19375,7 +19496,7 @@
       <c r="FJ58" s="33"/>
       <c r="FK58" s="34"/>
     </row>
-    <row r="59" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>63</v>
       </c>
@@ -19655,7 +19776,7 @@
       <c r="FJ59" s="33"/>
       <c r="FK59" s="34"/>
     </row>
-    <row r="60" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>64</v>
       </c>
@@ -19674,11 +19795,11 @@
       </c>
       <c r="F60" s="37">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="37">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="H60" s="24">
         <f t="shared" si="73"/>
@@ -19698,7 +19819,7 @@
       </c>
       <c r="L60" s="38">
         <f t="shared" si="77"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M60" s="24">
         <f t="shared" si="78"/>
@@ -19882,7 +20003,9 @@
       <c r="EY60" s="32"/>
       <c r="EZ60" s="33"/>
       <c r="FA60" s="34"/>
-      <c r="FB60" s="31"/>
+      <c r="FB60" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="FC60" s="32"/>
       <c r="FD60" s="32"/>
       <c r="FE60" s="33"/>
@@ -19893,7 +20016,7 @@
       <c r="FJ60" s="33"/>
       <c r="FK60" s="34"/>
     </row>
-    <row r="61" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>65</v>
       </c>
@@ -19908,7 +20031,7 @@
       </c>
       <c r="E61" s="37">
         <f t="shared" si="70"/>
-        <v>24.75</v>
+        <v>25.75</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="71"/>
@@ -19936,7 +20059,7 @@
       </c>
       <c r="L61" s="38">
         <f t="shared" si="77"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M61" s="24">
         <f t="shared" si="78"/>
@@ -20160,7 +20283,9 @@
       <c r="EY61" s="32"/>
       <c r="EZ61" s="33"/>
       <c r="FA61" s="34"/>
-      <c r="FB61" s="31"/>
+      <c r="FB61" s="31">
+        <v>1</v>
+      </c>
       <c r="FC61" s="32"/>
       <c r="FD61" s="32"/>
       <c r="FE61" s="33"/>
@@ -20171,7 +20296,7 @@
       <c r="FJ61" s="33"/>
       <c r="FK61" s="34"/>
     </row>
-    <row r="62" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>66</v>
       </c>
@@ -20451,7 +20576,7 @@
       <c r="FJ62" s="33"/>
       <c r="FK62" s="34"/>
     </row>
-    <row r="63" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>67</v>
       </c>
@@ -20470,11 +20595,11 @@
       </c>
       <c r="F63" s="37">
         <f t="shared" si="71"/>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="G63" s="37">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="H63" s="24">
         <f t="shared" si="73"/>
@@ -20494,7 +20619,7 @@
       </c>
       <c r="L63" s="38">
         <f t="shared" si="77"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M63" s="24">
         <f t="shared" si="78"/>
@@ -20720,7 +20845,9 @@
       <c r="EY63" s="32"/>
       <c r="EZ63" s="33"/>
       <c r="FA63" s="34"/>
-      <c r="FB63" s="31"/>
+      <c r="FB63" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="FC63" s="32"/>
       <c r="FD63" s="32"/>
       <c r="FE63" s="33"/>
@@ -20731,17 +20858,17 @@
       <c r="FJ63" s="33"/>
       <c r="FK63" s="34"/>
     </row>
-    <row r="64" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="C64" s="58" t="s">
+      <c r="C64" s="63" t="s">
         <v>273</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="61" t="s">
         <v>431</v>
       </c>
       <c r="E64" s="37">
@@ -21017,7 +21144,7 @@
       <c r="FJ64" s="33"/>
       <c r="FK64" s="34"/>
     </row>
-    <row r="65" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>69</v>
       </c>
@@ -21243,7 +21370,7 @@
       <c r="FJ65" s="33"/>
       <c r="FK65" s="34"/>
     </row>
-    <row r="66" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>70</v>
       </c>
@@ -21477,7 +21604,7 @@
       <c r="FJ66" s="33"/>
       <c r="FK66" s="34"/>
     </row>
-    <row r="67" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>71</v>
       </c>
@@ -21492,11 +21619,11 @@
       </c>
       <c r="E67" s="37">
         <f t="shared" si="70"/>
-        <v>24.5</v>
+        <v>25.06</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="71"/>
-        <v>2.5</v>
+        <v>2.9400000000000013</v>
       </c>
       <c r="G67" s="37">
         <f t="shared" si="72"/>
@@ -21520,7 +21647,7 @@
       </c>
       <c r="L67" s="38">
         <f t="shared" si="77"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M67" s="24">
         <f t="shared" si="78"/>
@@ -21756,7 +21883,9 @@
       <c r="EY67" s="32"/>
       <c r="EZ67" s="33"/>
       <c r="FA67" s="34"/>
-      <c r="FB67" s="31"/>
+      <c r="FB67" s="31">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="FC67" s="32"/>
       <c r="FD67" s="32"/>
       <c r="FE67" s="33"/>
@@ -21767,7 +21896,7 @@
       <c r="FJ67" s="33"/>
       <c r="FK67" s="34"/>
     </row>
-    <row r="68" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>72</v>
       </c>
@@ -21999,7 +22128,7 @@
       <c r="FJ68" s="33"/>
       <c r="FK68" s="34"/>
     </row>
-    <row r="69" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>73</v>
       </c>
@@ -22014,7 +22143,7 @@
       </c>
       <c r="E69" s="37">
         <f t="shared" si="70"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F69" s="37">
         <f t="shared" si="71"/>
@@ -22042,11 +22171,11 @@
       </c>
       <c r="L69" s="38">
         <f t="shared" si="77"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M69" s="24">
         <f t="shared" si="78"/>
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="N69" s="24">
         <f t="shared" si="79"/>
@@ -22062,7 +22191,7 @@
       </c>
       <c r="Q69" s="35">
         <f t="shared" si="82"/>
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="R69" s="31"/>
       <c r="S69" s="32"/>
@@ -22226,8 +22355,12 @@
       <c r="EY69" s="32"/>
       <c r="EZ69" s="33"/>
       <c r="FA69" s="34"/>
-      <c r="FB69" s="31"/>
-      <c r="FC69" s="32"/>
+      <c r="FB69" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC69" s="32">
+        <v>0.25</v>
+      </c>
       <c r="FD69" s="32"/>
       <c r="FE69" s="33"/>
       <c r="FF69" s="34"/>
@@ -22237,7 +22370,7 @@
       <c r="FJ69" s="33"/>
       <c r="FK69" s="34"/>
     </row>
-    <row r="70" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>74</v>
       </c>
@@ -22252,7 +22385,7 @@
       </c>
       <c r="E70" s="37">
         <f t="shared" si="70"/>
-        <v>24.97</v>
+        <v>25.97</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="71"/>
@@ -22280,7 +22413,7 @@
       </c>
       <c r="L70" s="38">
         <f t="shared" si="77"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M70" s="24">
         <f t="shared" si="78"/>
@@ -22512,7 +22645,9 @@
       <c r="EY70" s="32"/>
       <c r="EZ70" s="33"/>
       <c r="FA70" s="34"/>
-      <c r="FB70" s="31"/>
+      <c r="FB70" s="31">
+        <v>1</v>
+      </c>
       <c r="FC70" s="32"/>
       <c r="FD70" s="32"/>
       <c r="FE70" s="33"/>
@@ -22523,7 +22658,7 @@
       <c r="FJ70" s="33"/>
       <c r="FK70" s="34"/>
     </row>
-    <row r="71" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>75</v>
       </c>
@@ -22803,7 +22938,7 @@
       <c r="FJ71" s="33"/>
       <c r="FK71" s="34"/>
     </row>
-    <row r="72" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>76</v>
       </c>
@@ -23105,7 +23240,7 @@
       <c r="FJ72" s="33"/>
       <c r="FK72" s="34"/>
     </row>
-    <row r="73" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>77</v>
       </c>
@@ -23120,7 +23255,7 @@
       </c>
       <c r="E73" s="37">
         <f t="shared" si="70"/>
-        <v>26.88</v>
+        <v>27.88</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="71"/>
@@ -23148,11 +23283,11 @@
       </c>
       <c r="L73" s="38">
         <f t="shared" si="77"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M73" s="24">
         <f t="shared" si="78"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N73" s="24">
         <f t="shared" si="79"/>
@@ -23168,7 +23303,7 @@
       </c>
       <c r="Q73" s="35">
         <f t="shared" si="82"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R73" s="31">
         <v>1</v>
@@ -23386,8 +23521,12 @@
       <c r="EY73" s="32"/>
       <c r="EZ73" s="33"/>
       <c r="FA73" s="34"/>
-      <c r="FB73" s="31"/>
-      <c r="FC73" s="32"/>
+      <c r="FB73" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC73" s="32">
+        <v>2</v>
+      </c>
       <c r="FD73" s="32"/>
       <c r="FE73" s="33"/>
       <c r="FF73" s="34"/>
@@ -23397,7 +23536,7 @@
       <c r="FJ73" s="33"/>
       <c r="FK73" s="34"/>
     </row>
-    <row r="74" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>78</v>
       </c>
@@ -23412,7 +23551,7 @@
       </c>
       <c r="E74" s="37">
         <f t="shared" si="70"/>
-        <v>26.26</v>
+        <v>27.26</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="71"/>
@@ -23440,7 +23579,7 @@
       </c>
       <c r="L74" s="38">
         <f t="shared" si="77"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M74" s="24">
         <f t="shared" si="78"/>
@@ -23666,7 +23805,9 @@
       <c r="EY74" s="32"/>
       <c r="EZ74" s="33"/>
       <c r="FA74" s="34"/>
-      <c r="FB74" s="31"/>
+      <c r="FB74" s="31">
+        <v>1</v>
+      </c>
       <c r="FC74" s="32"/>
       <c r="FD74" s="32"/>
       <c r="FE74" s="33"/>
@@ -23677,7 +23818,7 @@
       <c r="FJ74" s="33"/>
       <c r="FK74" s="34"/>
     </row>
-    <row r="75" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>79</v>
       </c>
@@ -23692,7 +23833,7 @@
       </c>
       <c r="E75" s="37">
         <f t="shared" si="70"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F75" s="37">
         <f t="shared" si="71"/>
@@ -23720,11 +23861,11 @@
       </c>
       <c r="L75" s="38">
         <f t="shared" si="77"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M75" s="24">
         <f t="shared" si="78"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N75" s="24">
         <f t="shared" si="79"/>
@@ -23740,7 +23881,7 @@
       </c>
       <c r="Q75" s="35">
         <f t="shared" si="82"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R75" s="31">
         <v>1</v>
@@ -23950,8 +24091,12 @@
       <c r="EY75" s="32"/>
       <c r="EZ75" s="33"/>
       <c r="FA75" s="34"/>
-      <c r="FB75" s="31"/>
-      <c r="FC75" s="32"/>
+      <c r="FB75" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC75" s="32">
+        <v>1</v>
+      </c>
       <c r="FD75" s="32"/>
       <c r="FE75" s="33"/>
       <c r="FF75" s="34"/>
@@ -23961,7 +24106,7 @@
       <c r="FJ75" s="33"/>
       <c r="FK75" s="34"/>
     </row>
-    <row r="76" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>80</v>
       </c>
@@ -24201,7 +24346,7 @@
       <c r="FJ76" s="33"/>
       <c r="FK76" s="34"/>
     </row>
-    <row r="77" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>81</v>
       </c>
@@ -24216,7 +24361,7 @@
       </c>
       <c r="E77" s="37">
         <f t="shared" si="83"/>
-        <v>21.75</v>
+        <v>22.75</v>
       </c>
       <c r="F77" s="37">
         <f t="shared" si="84"/>
@@ -24244,7 +24389,7 @@
       </c>
       <c r="L77" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M77" s="24">
         <f t="shared" si="91"/>
@@ -24490,7 +24635,9 @@
       <c r="EY77" s="32"/>
       <c r="EZ77" s="33"/>
       <c r="FA77" s="34"/>
-      <c r="FB77" s="31"/>
+      <c r="FB77" s="31">
+        <v>1</v>
+      </c>
       <c r="FC77" s="32"/>
       <c r="FD77" s="32"/>
       <c r="FE77" s="33"/>
@@ -24501,7 +24648,7 @@
       <c r="FJ77" s="33"/>
       <c r="FK77" s="34"/>
     </row>
-    <row r="78" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>82</v>
       </c>
@@ -24516,7 +24663,7 @@
       </c>
       <c r="E78" s="37">
         <f t="shared" si="83"/>
-        <v>25.75</v>
+        <v>26.75</v>
       </c>
       <c r="F78" s="37">
         <f t="shared" si="84"/>
@@ -24544,7 +24691,7 @@
       </c>
       <c r="L78" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M78" s="24">
         <f t="shared" si="91"/>
@@ -24768,7 +24915,9 @@
       <c r="EY78" s="32"/>
       <c r="EZ78" s="33"/>
       <c r="FA78" s="34"/>
-      <c r="FB78" s="31"/>
+      <c r="FB78" s="31">
+        <v>1</v>
+      </c>
       <c r="FC78" s="32"/>
       <c r="FD78" s="32"/>
       <c r="FE78" s="33"/>
@@ -24779,7 +24928,7 @@
       <c r="FJ78" s="33"/>
       <c r="FK78" s="34"/>
     </row>
-    <row r="79" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>83</v>
       </c>
@@ -24794,7 +24943,7 @@
       </c>
       <c r="E79" s="37">
         <f t="shared" si="83"/>
-        <v>25.349999999999998</v>
+        <v>26.349999999999998</v>
       </c>
       <c r="F79" s="37">
         <f t="shared" si="84"/>
@@ -24822,7 +24971,7 @@
       </c>
       <c r="L79" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M79" s="24">
         <f t="shared" si="91"/>
@@ -25080,7 +25229,9 @@
       <c r="EY79" s="32"/>
       <c r="EZ79" s="33"/>
       <c r="FA79" s="34"/>
-      <c r="FB79" s="31"/>
+      <c r="FB79" s="31">
+        <v>1</v>
+      </c>
       <c r="FC79" s="32"/>
       <c r="FD79" s="32"/>
       <c r="FE79" s="33"/>
@@ -25091,7 +25242,7 @@
       <c r="FJ79" s="33"/>
       <c r="FK79" s="34"/>
     </row>
-    <row r="80" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>84</v>
       </c>
@@ -25106,11 +25257,11 @@
       </c>
       <c r="E80" s="37">
         <f t="shared" si="83"/>
-        <v>25.41</v>
+        <v>26.31</v>
       </c>
       <c r="F80" s="37">
         <f t="shared" si="84"/>
-        <v>1.5899999999999999</v>
+        <v>1.6900000000000013</v>
       </c>
       <c r="G80" s="37">
         <f t="shared" si="85"/>
@@ -25134,7 +25285,7 @@
       </c>
       <c r="L80" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M80" s="24">
         <f t="shared" si="91"/>
@@ -25370,7 +25521,9 @@
       <c r="EY80" s="32"/>
       <c r="EZ80" s="33"/>
       <c r="FA80" s="34"/>
-      <c r="FB80" s="31"/>
+      <c r="FB80" s="31">
+        <v>0.9</v>
+      </c>
       <c r="FC80" s="32"/>
       <c r="FD80" s="32"/>
       <c r="FE80" s="33"/>
@@ -25381,7 +25534,7 @@
       <c r="FJ80" s="33"/>
       <c r="FK80" s="34"/>
     </row>
-    <row r="81" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>85</v>
       </c>
@@ -25396,7 +25549,7 @@
       </c>
       <c r="E81" s="37">
         <f t="shared" si="83"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F81" s="37">
         <f t="shared" si="84"/>
@@ -25424,15 +25577,15 @@
       </c>
       <c r="L81" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M81" s="24">
         <f t="shared" si="91"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N81" s="24">
         <f t="shared" si="92"/>
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="O81" s="24">
         <f t="shared" si="93"/>
@@ -25440,11 +25593,11 @@
       </c>
       <c r="P81" s="24">
         <f t="shared" si="94"/>
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q81" s="35">
         <f t="shared" si="95"/>
-        <v>222</v>
+        <v>232.75</v>
       </c>
       <c r="R81" s="31">
         <v>1</v>
@@ -25730,18 +25883,26 @@
       <c r="FA81" s="34">
         <v>8</v>
       </c>
-      <c r="FB81" s="31"/>
-      <c r="FC81" s="32"/>
-      <c r="FD81" s="32"/>
+      <c r="FB81" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC81" s="32">
+        <v>2</v>
+      </c>
+      <c r="FD81" s="32">
+        <v>0.75</v>
+      </c>
       <c r="FE81" s="33"/>
-      <c r="FF81" s="34"/>
+      <c r="FF81" s="34">
+        <v>8</v>
+      </c>
       <c r="FG81" s="31"/>
       <c r="FH81" s="32"/>
       <c r="FI81" s="32"/>
       <c r="FJ81" s="33"/>
       <c r="FK81" s="34"/>
     </row>
-    <row r="82" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>91</v>
       </c>
@@ -25756,7 +25917,7 @@
       </c>
       <c r="E82" s="37">
         <f t="shared" si="83"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F82" s="37">
         <f t="shared" si="84"/>
@@ -25784,7 +25945,7 @@
       </c>
       <c r="L82" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M82" s="24">
         <f t="shared" si="91"/>
@@ -25800,11 +25961,11 @@
       </c>
       <c r="P82" s="24">
         <f t="shared" si="94"/>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="Q82" s="35">
         <f t="shared" si="95"/>
-        <v>73.75</v>
+        <v>81.75</v>
       </c>
       <c r="R82" s="31">
         <v>1</v>
@@ -26038,18 +26199,22 @@
       <c r="FA82" s="34">
         <v>8</v>
       </c>
-      <c r="FB82" s="31"/>
+      <c r="FB82" s="31">
+        <v>1</v>
+      </c>
       <c r="FC82" s="32"/>
       <c r="FD82" s="32"/>
       <c r="FE82" s="33"/>
-      <c r="FF82" s="34"/>
+      <c r="FF82" s="34">
+        <v>8</v>
+      </c>
       <c r="FG82" s="31"/>
       <c r="FH82" s="32"/>
       <c r="FI82" s="32"/>
       <c r="FJ82" s="33"/>
       <c r="FK82" s="34"/>
     </row>
-    <row r="83" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>92</v>
       </c>
@@ -26064,7 +26229,7 @@
       </c>
       <c r="E83" s="37">
         <f t="shared" si="83"/>
-        <v>17.880000000000003</v>
+        <v>18.880000000000003</v>
       </c>
       <c r="F83" s="37">
         <f t="shared" si="84"/>
@@ -26092,7 +26257,7 @@
       </c>
       <c r="L83" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M83" s="24">
         <f t="shared" si="91"/>
@@ -26318,7 +26483,9 @@
       <c r="EY83" s="32"/>
       <c r="EZ83" s="33"/>
       <c r="FA83" s="34"/>
-      <c r="FB83" s="31"/>
+      <c r="FB83" s="31">
+        <v>1</v>
+      </c>
       <c r="FC83" s="32"/>
       <c r="FD83" s="32"/>
       <c r="FE83" s="33"/>
@@ -26329,7 +26496,7 @@
       <c r="FJ83" s="33"/>
       <c r="FK83" s="34"/>
     </row>
-    <row r="84" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>93</v>
       </c>
@@ -26344,7 +26511,7 @@
       </c>
       <c r="E84" s="37">
         <f t="shared" si="83"/>
-        <v>27.75</v>
+        <v>28.75</v>
       </c>
       <c r="F84" s="37">
         <f t="shared" si="84"/>
@@ -26372,11 +26539,11 @@
       </c>
       <c r="L84" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M84" s="24">
         <f t="shared" si="91"/>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N84" s="24">
         <f t="shared" si="92"/>
@@ -26392,7 +26559,7 @@
       </c>
       <c r="Q84" s="35">
         <f t="shared" si="95"/>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="R84" s="31">
         <v>1</v>
@@ -26612,8 +26779,12 @@
       <c r="EY84" s="32"/>
       <c r="EZ84" s="33"/>
       <c r="FA84" s="34"/>
-      <c r="FB84" s="31"/>
-      <c r="FC84" s="32"/>
+      <c r="FB84" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC84" s="32">
+        <v>0.5</v>
+      </c>
       <c r="FD84" s="32"/>
       <c r="FE84" s="33"/>
       <c r="FF84" s="34"/>
@@ -26623,7 +26794,7 @@
       <c r="FJ84" s="33"/>
       <c r="FK84" s="34"/>
     </row>
-    <row r="85" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
         <v>94</v>
       </c>
@@ -26853,7 +27024,7 @@
       <c r="FJ85" s="33"/>
       <c r="FK85" s="34"/>
     </row>
-    <row r="86" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>95</v>
       </c>
@@ -26868,7 +27039,7 @@
       </c>
       <c r="E86" s="37">
         <f t="shared" si="83"/>
-        <v>21.75</v>
+        <v>22.75</v>
       </c>
       <c r="F86" s="37">
         <f t="shared" si="84"/>
@@ -26896,11 +27067,11 @@
       </c>
       <c r="L86" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M86" s="24">
         <f t="shared" si="91"/>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="N86" s="24">
         <f t="shared" si="92"/>
@@ -26912,11 +27083,11 @@
       </c>
       <c r="P86" s="24">
         <f t="shared" si="94"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q86" s="35">
         <f t="shared" si="95"/>
-        <v>23.75</v>
+        <v>33.75</v>
       </c>
       <c r="R86" s="31">
         <v>1</v>
@@ -27134,18 +27305,24 @@
       <c r="FA86" s="34">
         <v>8</v>
       </c>
-      <c r="FB86" s="31"/>
-      <c r="FC86" s="32"/>
+      <c r="FB86" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC86" s="32">
+        <v>2</v>
+      </c>
       <c r="FD86" s="32"/>
       <c r="FE86" s="33"/>
-      <c r="FF86" s="34"/>
+      <c r="FF86" s="34">
+        <v>8</v>
+      </c>
       <c r="FG86" s="31"/>
       <c r="FH86" s="32"/>
       <c r="FI86" s="32"/>
       <c r="FJ86" s="33"/>
       <c r="FK86" s="34"/>
     </row>
-    <row r="87" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>96</v>
       </c>
@@ -27160,7 +27337,7 @@
       </c>
       <c r="E87" s="37">
         <f t="shared" si="83"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F87" s="37">
         <f t="shared" si="84"/>
@@ -27188,11 +27365,11 @@
       </c>
       <c r="L87" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M87" s="24">
         <f t="shared" si="91"/>
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="N87" s="24">
         <f t="shared" si="92"/>
@@ -27204,11 +27381,11 @@
       </c>
       <c r="P87" s="24">
         <f t="shared" si="94"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q87" s="35">
         <f t="shared" si="95"/>
-        <v>90</v>
+        <v>99.25</v>
       </c>
       <c r="R87" s="31">
         <v>1</v>
@@ -27442,18 +27619,24 @@
       <c r="FA87" s="34">
         <v>8</v>
       </c>
-      <c r="FB87" s="31"/>
-      <c r="FC87" s="32"/>
+      <c r="FB87" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC87" s="32">
+        <v>1.25</v>
+      </c>
       <c r="FD87" s="32"/>
       <c r="FE87" s="33"/>
-      <c r="FF87" s="34"/>
+      <c r="FF87" s="34">
+        <v>8</v>
+      </c>
       <c r="FG87" s="31"/>
       <c r="FH87" s="32"/>
       <c r="FI87" s="32"/>
       <c r="FJ87" s="33"/>
       <c r="FK87" s="34"/>
     </row>
-    <row r="88" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
         <v>97</v>
       </c>
@@ -27468,7 +27651,7 @@
       </c>
       <c r="E88" s="37">
         <f t="shared" si="83"/>
-        <v>27.75</v>
+        <v>28.75</v>
       </c>
       <c r="F88" s="37">
         <f t="shared" si="84"/>
@@ -27496,11 +27679,11 @@
       </c>
       <c r="L88" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M88" s="24">
         <f t="shared" si="91"/>
-        <v>29.25</v>
+        <v>29.75</v>
       </c>
       <c r="N88" s="24">
         <f t="shared" si="92"/>
@@ -27516,7 +27699,7 @@
       </c>
       <c r="Q88" s="35">
         <f t="shared" si="95"/>
-        <v>30.25</v>
+        <v>30.75</v>
       </c>
       <c r="R88" s="31">
         <v>1</v>
@@ -27756,8 +27939,12 @@
       <c r="EY88" s="32"/>
       <c r="EZ88" s="33"/>
       <c r="FA88" s="34"/>
-      <c r="FB88" s="31"/>
-      <c r="FC88" s="32"/>
+      <c r="FB88" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC88" s="32">
+        <v>0.5</v>
+      </c>
       <c r="FD88" s="32"/>
       <c r="FE88" s="33"/>
       <c r="FF88" s="34"/>
@@ -27767,7 +27954,7 @@
       <c r="FJ88" s="33"/>
       <c r="FK88" s="34"/>
     </row>
-    <row r="89" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
         <v>98</v>
       </c>
@@ -27782,7 +27969,7 @@
       </c>
       <c r="E89" s="37">
         <f t="shared" si="83"/>
-        <v>17.75</v>
+        <v>18.75</v>
       </c>
       <c r="F89" s="37">
         <f t="shared" si="84"/>
@@ -27810,15 +27997,15 @@
       </c>
       <c r="L89" s="38">
         <f t="shared" si="90"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M89" s="24">
         <f t="shared" si="91"/>
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="N89" s="24">
         <f t="shared" si="92"/>
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="O89" s="24">
         <f t="shared" si="93"/>
@@ -27826,11 +28013,11 @@
       </c>
       <c r="P89" s="24">
         <f t="shared" si="94"/>
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Q89" s="35">
         <f t="shared" si="95"/>
-        <v>126.5</v>
+        <v>137.25</v>
       </c>
       <c r="R89" s="31">
         <v>1</v>
@@ -28070,18 +28257,26 @@
       <c r="EY89" s="32"/>
       <c r="EZ89" s="33"/>
       <c r="FA89" s="34"/>
-      <c r="FB89" s="31"/>
-      <c r="FC89" s="32"/>
-      <c r="FD89" s="32"/>
+      <c r="FB89" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC89" s="32">
+        <v>2</v>
+      </c>
+      <c r="FD89" s="32">
+        <v>0.75</v>
+      </c>
       <c r="FE89" s="33"/>
-      <c r="FF89" s="34"/>
+      <c r="FF89" s="34">
+        <v>8</v>
+      </c>
       <c r="FG89" s="31"/>
       <c r="FH89" s="32"/>
       <c r="FI89" s="32"/>
       <c r="FJ89" s="33"/>
       <c r="FK89" s="34"/>
     </row>
-    <row r="90" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
         <v>99</v>
       </c>
@@ -28096,7 +28291,7 @@
       </c>
       <c r="E90" s="37">
         <f t="shared" si="83"/>
-        <v>27.63</v>
+        <v>28.63</v>
       </c>
       <c r="F90" s="37">
         <f t="shared" si="84"/>
@@ -28124,7 +28319,7 @@
       </c>
       <c r="L90" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M90" s="24">
         <f t="shared" si="91"/>
@@ -28396,7 +28591,9 @@
       <c r="EY90" s="32"/>
       <c r="EZ90" s="33"/>
       <c r="FA90" s="34"/>
-      <c r="FB90" s="31"/>
+      <c r="FB90" s="31">
+        <v>1</v>
+      </c>
       <c r="FC90" s="32"/>
       <c r="FD90" s="32"/>
       <c r="FE90" s="33"/>
@@ -28407,7 +28604,7 @@
       <c r="FJ90" s="33"/>
       <c r="FK90" s="34"/>
     </row>
-    <row r="91" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
         <v>100</v>
       </c>
@@ -28633,7 +28830,7 @@
       <c r="FJ91" s="33"/>
       <c r="FK91" s="34"/>
     </row>
-    <row r="92" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
         <v>101</v>
       </c>
@@ -28648,7 +28845,7 @@
       </c>
       <c r="E92" s="37">
         <f t="shared" si="83"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F92" s="37">
         <f t="shared" si="84"/>
@@ -28676,11 +28873,11 @@
       </c>
       <c r="L92" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M92" s="24">
         <f t="shared" si="91"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N92" s="24">
         <f t="shared" si="92"/>
@@ -28692,11 +28889,11 @@
       </c>
       <c r="P92" s="24">
         <f t="shared" si="94"/>
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="Q92" s="35">
         <f t="shared" si="95"/>
-        <v>191.5</v>
+        <v>201.5</v>
       </c>
       <c r="R92" s="31">
         <v>1</v>
@@ -28970,18 +29167,24 @@
       <c r="FA92" s="34">
         <v>8</v>
       </c>
-      <c r="FB92" s="31"/>
-      <c r="FC92" s="32"/>
+      <c r="FB92" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC92" s="32">
+        <v>2</v>
+      </c>
       <c r="FD92" s="32"/>
       <c r="FE92" s="33"/>
-      <c r="FF92" s="34"/>
+      <c r="FF92" s="34">
+        <v>8</v>
+      </c>
       <c r="FG92" s="31"/>
       <c r="FH92" s="32"/>
       <c r="FI92" s="32"/>
       <c r="FJ92" s="33"/>
       <c r="FK92" s="34"/>
     </row>
-    <row r="93" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>102</v>
       </c>
@@ -28996,7 +29199,7 @@
       </c>
       <c r="E93" s="37">
         <f t="shared" si="83"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F93" s="37">
         <f t="shared" si="84"/>
@@ -29024,11 +29227,11 @@
       </c>
       <c r="L93" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M93" s="24">
         <f t="shared" si="91"/>
-        <v>20.5</v>
+        <v>22.5</v>
       </c>
       <c r="N93" s="24">
         <f t="shared" si="92"/>
@@ -29044,7 +29247,7 @@
       </c>
       <c r="Q93" s="35">
         <f t="shared" si="95"/>
-        <v>27.5</v>
+        <v>29.5</v>
       </c>
       <c r="R93" s="31">
         <v>1</v>
@@ -29284,8 +29487,12 @@
       <c r="EY93" s="32"/>
       <c r="EZ93" s="33"/>
       <c r="FA93" s="34"/>
-      <c r="FB93" s="31"/>
-      <c r="FC93" s="32"/>
+      <c r="FB93" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC93" s="32">
+        <v>2</v>
+      </c>
       <c r="FD93" s="32"/>
       <c r="FE93" s="33"/>
       <c r="FF93" s="34"/>
@@ -29295,7 +29502,7 @@
       <c r="FJ93" s="33"/>
       <c r="FK93" s="34"/>
     </row>
-    <row r="94" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
         <v>103</v>
       </c>
@@ -29310,7 +29517,7 @@
       </c>
       <c r="E94" s="37">
         <f t="shared" si="83"/>
-        <v>25.88</v>
+        <v>26.88</v>
       </c>
       <c r="F94" s="37">
         <f t="shared" si="84"/>
@@ -29338,7 +29545,7 @@
       </c>
       <c r="L94" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M94" s="24">
         <f t="shared" si="91"/>
@@ -29604,7 +29811,9 @@
       <c r="EY94" s="32"/>
       <c r="EZ94" s="33"/>
       <c r="FA94" s="34"/>
-      <c r="FB94" s="31"/>
+      <c r="FB94" s="31">
+        <v>1</v>
+      </c>
       <c r="FC94" s="32"/>
       <c r="FD94" s="32"/>
       <c r="FE94" s="33"/>
@@ -29615,7 +29824,7 @@
       <c r="FJ94" s="33"/>
       <c r="FK94" s="34"/>
     </row>
-    <row r="95" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
         <v>104</v>
       </c>
@@ -29630,7 +29839,7 @@
       </c>
       <c r="E95" s="37">
         <f t="shared" si="83"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F95" s="37">
         <f t="shared" si="84"/>
@@ -29658,15 +29867,15 @@
       </c>
       <c r="L95" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M95" s="24">
         <f t="shared" si="91"/>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="N95" s="24">
         <f t="shared" si="92"/>
-        <v>15</v>
+        <v>16.75</v>
       </c>
       <c r="O95" s="24">
         <f t="shared" si="93"/>
@@ -29674,11 +29883,11 @@
       </c>
       <c r="P95" s="24">
         <f t="shared" si="94"/>
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Q95" s="35">
         <f t="shared" si="95"/>
-        <v>228.5</v>
+        <v>240.25</v>
       </c>
       <c r="R95" s="31">
         <v>1</v>
@@ -29982,18 +30191,26 @@
       <c r="FA95" s="34">
         <v>8</v>
       </c>
-      <c r="FB95" s="31"/>
-      <c r="FC95" s="32"/>
-      <c r="FD95" s="32"/>
+      <c r="FB95" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC95" s="32">
+        <v>2</v>
+      </c>
+      <c r="FD95" s="32">
+        <v>1.75</v>
+      </c>
       <c r="FE95" s="33"/>
-      <c r="FF95" s="34"/>
+      <c r="FF95" s="34">
+        <v>8</v>
+      </c>
       <c r="FG95" s="31"/>
       <c r="FH95" s="32"/>
       <c r="FI95" s="32"/>
       <c r="FJ95" s="33"/>
       <c r="FK95" s="34"/>
     </row>
-    <row r="96" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
         <v>105</v>
       </c>
@@ -30008,7 +30225,7 @@
       </c>
       <c r="E96" s="37">
         <f t="shared" si="83"/>
-        <v>20.75</v>
+        <v>21.75</v>
       </c>
       <c r="F96" s="37">
         <f t="shared" si="84"/>
@@ -30036,11 +30253,11 @@
       </c>
       <c r="L96" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M96" s="24">
         <f t="shared" si="91"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N96" s="24">
         <f t="shared" si="92"/>
@@ -30056,7 +30273,7 @@
       </c>
       <c r="Q96" s="35">
         <f t="shared" si="95"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R96" s="31" t="s">
         <v>475</v>
@@ -30270,8 +30487,12 @@
       <c r="EY96" s="32"/>
       <c r="EZ96" s="33"/>
       <c r="FA96" s="34"/>
-      <c r="FB96" s="31"/>
-      <c r="FC96" s="32"/>
+      <c r="FB96" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC96" s="32">
+        <v>1</v>
+      </c>
       <c r="FD96" s="32"/>
       <c r="FE96" s="33"/>
       <c r="FF96" s="34"/>
@@ -30281,7 +30502,7 @@
       <c r="FJ96" s="33"/>
       <c r="FK96" s="34"/>
     </row>
-    <row r="97" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
         <v>106</v>
       </c>
@@ -30296,7 +30517,7 @@
       </c>
       <c r="E97" s="37">
         <f t="shared" si="83"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F97" s="37">
         <f t="shared" si="84"/>
@@ -30324,7 +30545,7 @@
       </c>
       <c r="L97" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M97" s="24">
         <f t="shared" si="91"/>
@@ -30558,7 +30779,9 @@
       <c r="EY97" s="32"/>
       <c r="EZ97" s="33"/>
       <c r="FA97" s="34"/>
-      <c r="FB97" s="31"/>
+      <c r="FB97" s="31">
+        <v>1</v>
+      </c>
       <c r="FC97" s="32"/>
       <c r="FD97" s="32"/>
       <c r="FE97" s="33"/>
@@ -30569,7 +30792,7 @@
       <c r="FJ97" s="33"/>
       <c r="FK97" s="34"/>
     </row>
-    <row r="98" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
         <v>107</v>
       </c>
@@ -30584,7 +30807,7 @@
       </c>
       <c r="E98" s="37">
         <f t="shared" si="83"/>
-        <v>21.75</v>
+        <v>22.75</v>
       </c>
       <c r="F98" s="37">
         <f t="shared" si="84"/>
@@ -30612,11 +30835,11 @@
       </c>
       <c r="L98" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M98" s="24">
         <f t="shared" si="91"/>
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="N98" s="24">
         <f t="shared" si="92"/>
@@ -30632,7 +30855,7 @@
       </c>
       <c r="Q98" s="35">
         <f t="shared" si="95"/>
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="R98" s="31" t="s">
         <v>475</v>
@@ -30842,8 +31065,12 @@
       <c r="EY98" s="32"/>
       <c r="EZ98" s="33"/>
       <c r="FA98" s="34"/>
-      <c r="FB98" s="31"/>
-      <c r="FC98" s="32"/>
+      <c r="FB98" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC98" s="32">
+        <v>0.25</v>
+      </c>
       <c r="FD98" s="32"/>
       <c r="FE98" s="33"/>
       <c r="FF98" s="34"/>
@@ -30853,7 +31080,7 @@
       <c r="FJ98" s="33"/>
       <c r="FK98" s="34"/>
     </row>
-    <row r="99" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
         <v>108</v>
       </c>
@@ -30868,7 +31095,7 @@
       </c>
       <c r="E99" s="37">
         <f t="shared" si="83"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F99" s="37">
         <f t="shared" si="84"/>
@@ -30896,11 +31123,11 @@
       </c>
       <c r="L99" s="38">
         <f t="shared" si="90"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M99" s="24">
         <f t="shared" si="91"/>
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="N99" s="24">
         <f t="shared" si="92"/>
@@ -30916,7 +31143,7 @@
       </c>
       <c r="Q99" s="35">
         <f t="shared" si="95"/>
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="R99" s="31"/>
       <c r="S99" s="32"/>
@@ -31080,8 +31307,12 @@
       <c r="EY99" s="32"/>
       <c r="EZ99" s="33"/>
       <c r="FA99" s="34"/>
-      <c r="FB99" s="31"/>
-      <c r="FC99" s="32"/>
+      <c r="FB99" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC99" s="32">
+        <v>0.25</v>
+      </c>
       <c r="FD99" s="32"/>
       <c r="FE99" s="33"/>
       <c r="FF99" s="34"/>
@@ -31091,7 +31322,7 @@
       <c r="FJ99" s="33"/>
       <c r="FK99" s="34"/>
     </row>
-    <row r="100" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
         <v>109</v>
       </c>
@@ -31106,7 +31337,7 @@
       </c>
       <c r="E100" s="37">
         <f t="shared" si="83"/>
-        <v>23.439999999999998</v>
+        <v>24.439999999999998</v>
       </c>
       <c r="F100" s="37">
         <f t="shared" si="84"/>
@@ -31134,7 +31365,7 @@
       </c>
       <c r="L100" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M100" s="24">
         <f t="shared" si="91"/>
@@ -31366,7 +31597,9 @@
       <c r="EY100" s="32"/>
       <c r="EZ100" s="33"/>
       <c r="FA100" s="34"/>
-      <c r="FB100" s="31"/>
+      <c r="FB100" s="31">
+        <v>1</v>
+      </c>
       <c r="FC100" s="32"/>
       <c r="FD100" s="32"/>
       <c r="FE100" s="33"/>
@@ -31377,7 +31610,7 @@
       <c r="FJ100" s="33"/>
       <c r="FK100" s="34"/>
     </row>
-    <row r="101" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
         <v>110</v>
       </c>
@@ -31392,11 +31625,11 @@
       </c>
       <c r="E101" s="37">
         <f t="shared" si="83"/>
-        <v>26.5</v>
+        <v>27.4</v>
       </c>
       <c r="F101" s="37">
         <f t="shared" si="84"/>
-        <v>0.5</v>
+        <v>0.60000000000000142</v>
       </c>
       <c r="G101" s="37">
         <f t="shared" si="85"/>
@@ -31420,7 +31653,7 @@
       </c>
       <c r="L101" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M101" s="24">
         <f t="shared" si="91"/>
@@ -31658,7 +31891,9 @@
       <c r="EY101" s="32"/>
       <c r="EZ101" s="33"/>
       <c r="FA101" s="34"/>
-      <c r="FB101" s="31"/>
+      <c r="FB101" s="31">
+        <v>0.9</v>
+      </c>
       <c r="FC101" s="32"/>
       <c r="FD101" s="32"/>
       <c r="FE101" s="33"/>
@@ -31669,7 +31904,7 @@
       <c r="FJ101" s="33"/>
       <c r="FK101" s="34"/>
     </row>
-    <row r="102" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
         <v>111</v>
       </c>
@@ -31688,11 +31923,11 @@
       </c>
       <c r="F102" s="37">
         <f t="shared" si="84"/>
-        <v>2.0300000000000011</v>
+        <v>3.0300000000000011</v>
       </c>
       <c r="G102" s="37">
         <f t="shared" si="85"/>
-        <v>0.33333333333333398</v>
+        <v>0.500000000000001</v>
       </c>
       <c r="H102" s="24">
         <f t="shared" si="86"/>
@@ -31712,7 +31947,7 @@
       </c>
       <c r="L102" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M102" s="24">
         <f t="shared" si="91"/>
@@ -32014,7 +32249,9 @@
       <c r="EY102" s="32"/>
       <c r="EZ102" s="33"/>
       <c r="FA102" s="34"/>
-      <c r="FB102" s="31"/>
+      <c r="FB102" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="FC102" s="32"/>
       <c r="FD102" s="32"/>
       <c r="FE102" s="33"/>
@@ -32025,7 +32262,7 @@
       <c r="FJ102" s="33"/>
       <c r="FK102" s="34"/>
     </row>
-    <row r="103" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
         <v>112</v>
       </c>
@@ -32040,7 +32277,7 @@
       </c>
       <c r="E103" s="37">
         <f t="shared" si="83"/>
-        <v>26.5</v>
+        <v>27.5</v>
       </c>
       <c r="F103" s="37">
         <f t="shared" si="84"/>
@@ -32068,7 +32305,7 @@
       </c>
       <c r="L103" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M103" s="24">
         <f t="shared" si="91"/>
@@ -32288,7 +32525,9 @@
       <c r="EY103" s="32"/>
       <c r="EZ103" s="33"/>
       <c r="FA103" s="34"/>
-      <c r="FB103" s="31"/>
+      <c r="FB103" s="31">
+        <v>1</v>
+      </c>
       <c r="FC103" s="32"/>
       <c r="FD103" s="32"/>
       <c r="FE103" s="33"/>
@@ -32299,7 +32538,7 @@
       <c r="FJ103" s="33"/>
       <c r="FK103" s="34"/>
     </row>
-    <row r="104" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
         <v>113</v>
       </c>
@@ -32314,7 +32553,7 @@
       </c>
       <c r="E104" s="37">
         <f t="shared" si="83"/>
-        <v>25.72</v>
+        <v>26.72</v>
       </c>
       <c r="F104" s="37">
         <f t="shared" si="84"/>
@@ -32342,11 +32581,11 @@
       </c>
       <c r="L104" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M104" s="24">
         <f t="shared" si="91"/>
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N104" s="24">
         <f t="shared" si="92"/>
@@ -32362,7 +32601,7 @@
       </c>
       <c r="Q104" s="35">
         <f t="shared" si="95"/>
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="R104" s="31">
         <v>1</v>
@@ -32574,8 +32813,12 @@
       <c r="EY104" s="32"/>
       <c r="EZ104" s="33"/>
       <c r="FA104" s="34"/>
-      <c r="FB104" s="31"/>
-      <c r="FC104" s="32"/>
+      <c r="FB104" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC104" s="32">
+        <v>0.75</v>
+      </c>
       <c r="FD104" s="32"/>
       <c r="FE104" s="33"/>
       <c r="FF104" s="34"/>
@@ -32585,7 +32828,7 @@
       <c r="FJ104" s="33"/>
       <c r="FK104" s="34"/>
     </row>
-    <row r="105" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
         <v>114</v>
       </c>
@@ -32829,7 +33072,7 @@
       <c r="FJ105" s="33"/>
       <c r="FK105" s="34"/>
     </row>
-    <row r="106" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
         <v>115</v>
       </c>
@@ -32844,7 +33087,7 @@
       </c>
       <c r="E106" s="37">
         <f t="shared" si="83"/>
-        <v>27.75</v>
+        <v>28.75</v>
       </c>
       <c r="F106" s="37">
         <f t="shared" si="84"/>
@@ -32872,11 +33115,11 @@
       </c>
       <c r="L106" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M106" s="24">
         <f t="shared" si="91"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N106" s="24">
         <f t="shared" si="92"/>
@@ -32892,7 +33135,7 @@
       </c>
       <c r="Q106" s="35">
         <f t="shared" si="95"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="R106" s="31">
         <v>1</v>
@@ -33098,8 +33341,12 @@
       <c r="EY106" s="32"/>
       <c r="EZ106" s="33"/>
       <c r="FA106" s="34"/>
-      <c r="FB106" s="31"/>
-      <c r="FC106" s="32"/>
+      <c r="FB106" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC106" s="32">
+        <v>1</v>
+      </c>
       <c r="FD106" s="32"/>
       <c r="FE106" s="33"/>
       <c r="FF106" s="34"/>
@@ -33109,7 +33356,7 @@
       <c r="FJ106" s="33"/>
       <c r="FK106" s="34"/>
     </row>
-    <row r="107" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
         <v>116</v>
       </c>
@@ -33124,7 +33371,7 @@
       </c>
       <c r="E107" s="37">
         <f t="shared" si="83"/>
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="F107" s="37">
         <f t="shared" si="84"/>
@@ -33152,11 +33399,11 @@
       </c>
       <c r="L107" s="38">
         <f t="shared" si="90"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M107" s="24">
         <f t="shared" si="91"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="N107" s="24">
         <f t="shared" si="92"/>
@@ -33172,7 +33419,7 @@
       </c>
       <c r="Q107" s="35">
         <f t="shared" si="95"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="R107" s="31"/>
       <c r="S107" s="32"/>
@@ -33340,8 +33587,12 @@
       <c r="EY107" s="32"/>
       <c r="EZ107" s="33"/>
       <c r="FA107" s="34"/>
-      <c r="FB107" s="31"/>
-      <c r="FC107" s="32"/>
+      <c r="FB107" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC107" s="32">
+        <v>1</v>
+      </c>
       <c r="FD107" s="32"/>
       <c r="FE107" s="33"/>
       <c r="FF107" s="34"/>
@@ -33351,7 +33602,7 @@
       <c r="FJ107" s="33"/>
       <c r="FK107" s="34"/>
     </row>
-    <row r="108" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>117</v>
       </c>
@@ -33366,7 +33617,7 @@
       </c>
       <c r="E108" s="37">
         <f t="shared" ref="E108:E139" si="96">SUMIF($R$11:$FK$11,"T",R108:FK108)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F108" s="37">
         <f t="shared" ref="F108:F139" si="97">COUNTIF(R108:FK108,"F")+(COUNT(R108,W108,AB108,AG108,AL108,AQ108,AV108,BA108,BF108,BK108,BP108,BU108,BZ108,CE108,CJ108,CO108,CT108,CY108,DD108,DI108,DN108,DS108,DX108,EC108,EH108,EM108,ER108,EW108,FB108,FG108)-E108)</f>
@@ -33394,11 +33645,11 @@
       </c>
       <c r="L108" s="38">
         <f t="shared" ref="L108:L139" si="103">+E108+F108+H108+I108+J108+K108</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M108" s="24">
         <f t="shared" ref="M108:M139" si="104">SUMIF($R$11:$FK$11,$M$11,R108:FK108)</f>
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N108" s="24">
         <f t="shared" ref="N108:N139" si="105">SUMIF($R$11:$FK$11,$N$11,R108:FK108)</f>
@@ -33414,7 +33665,7 @@
       </c>
       <c r="Q108" s="35">
         <f t="shared" ref="Q108:Q139" si="108">SUM(M108:P108)</f>
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="R108" s="31">
         <v>1</v>
@@ -33616,8 +33867,12 @@
       <c r="EY108" s="32"/>
       <c r="EZ108" s="33"/>
       <c r="FA108" s="34"/>
-      <c r="FB108" s="31"/>
-      <c r="FC108" s="32"/>
+      <c r="FB108" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC108" s="32">
+        <v>1</v>
+      </c>
       <c r="FD108" s="32"/>
       <c r="FE108" s="33"/>
       <c r="FF108" s="34"/>
@@ -33627,7 +33882,7 @@
       <c r="FJ108" s="33"/>
       <c r="FK108" s="34"/>
     </row>
-    <row r="109" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
         <v>118</v>
       </c>
@@ -33646,11 +33901,11 @@
       </c>
       <c r="F109" s="37">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" s="37">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="H109" s="24">
         <f t="shared" si="99"/>
@@ -33670,7 +33925,7 @@
       </c>
       <c r="L109" s="38">
         <f t="shared" si="103"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M109" s="24">
         <f t="shared" si="104"/>
@@ -33884,7 +34139,9 @@
       <c r="FA109" s="34">
         <v>8</v>
       </c>
-      <c r="FB109" s="31"/>
+      <c r="FB109" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="FC109" s="32"/>
       <c r="FD109" s="32"/>
       <c r="FE109" s="33"/>
@@ -33895,7 +34152,7 @@
       <c r="FJ109" s="33"/>
       <c r="FK109" s="34"/>
     </row>
-    <row r="110" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
         <v>119</v>
       </c>
@@ -33910,7 +34167,7 @@
       </c>
       <c r="E110" s="37">
         <f t="shared" si="96"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F110" s="37">
         <f t="shared" si="97"/>
@@ -33938,11 +34195,11 @@
       </c>
       <c r="L110" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M110" s="24">
         <f t="shared" si="104"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N110" s="24">
         <f t="shared" si="105"/>
@@ -33958,7 +34215,7 @@
       </c>
       <c r="Q110" s="35">
         <f t="shared" si="108"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R110" s="31" t="s">
         <v>475</v>
@@ -34168,8 +34425,12 @@
       <c r="EY110" s="32"/>
       <c r="EZ110" s="33"/>
       <c r="FA110" s="34"/>
-      <c r="FB110" s="31"/>
-      <c r="FC110" s="32"/>
+      <c r="FB110" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC110" s="32">
+        <v>1</v>
+      </c>
       <c r="FD110" s="32"/>
       <c r="FE110" s="33"/>
       <c r="FF110" s="34"/>
@@ -34179,7 +34440,7 @@
       <c r="FJ110" s="33"/>
       <c r="FK110" s="34"/>
     </row>
-    <row r="111" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>120</v>
       </c>
@@ -34194,11 +34455,11 @@
       </c>
       <c r="E111" s="37">
         <f t="shared" si="96"/>
-        <v>25.9</v>
+        <v>26.869999999999997</v>
       </c>
       <c r="F111" s="37">
         <f t="shared" si="97"/>
-        <v>2.1000000000000014</v>
+        <v>2.1300000000000026</v>
       </c>
       <c r="G111" s="37">
         <f t="shared" si="98"/>
@@ -34222,7 +34483,7 @@
       </c>
       <c r="L111" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M111" s="24">
         <f t="shared" si="104"/>
@@ -34238,11 +34499,11 @@
       </c>
       <c r="P111" s="24">
         <f t="shared" si="107"/>
-        <v>175.25</v>
+        <v>183.25</v>
       </c>
       <c r="Q111" s="35">
         <f t="shared" si="108"/>
-        <v>207.5</v>
+        <v>215.5</v>
       </c>
       <c r="R111" s="31">
         <v>1</v>
@@ -34526,18 +34787,22 @@
       <c r="FA111" s="34">
         <v>8</v>
       </c>
-      <c r="FB111" s="31"/>
+      <c r="FB111" s="31">
+        <v>0.97</v>
+      </c>
       <c r="FC111" s="32"/>
       <c r="FD111" s="32"/>
       <c r="FE111" s="33"/>
-      <c r="FF111" s="34"/>
+      <c r="FF111" s="34">
+        <v>8</v>
+      </c>
       <c r="FG111" s="31"/>
       <c r="FH111" s="32"/>
       <c r="FI111" s="32"/>
       <c r="FJ111" s="33"/>
       <c r="FK111" s="34"/>
     </row>
-    <row r="112" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
         <v>121</v>
       </c>
@@ -34552,7 +34817,7 @@
       </c>
       <c r="E112" s="37">
         <f t="shared" si="96"/>
-        <v>22.4</v>
+        <v>23.4</v>
       </c>
       <c r="F112" s="37">
         <f t="shared" si="97"/>
@@ -34580,7 +34845,7 @@
       </c>
       <c r="L112" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M112" s="24">
         <f t="shared" si="104"/>
@@ -34806,7 +35071,9 @@
       <c r="EY112" s="32"/>
       <c r="EZ112" s="33"/>
       <c r="FA112" s="34"/>
-      <c r="FB112" s="31"/>
+      <c r="FB112" s="31">
+        <v>1</v>
+      </c>
       <c r="FC112" s="32"/>
       <c r="FD112" s="32"/>
       <c r="FE112" s="33"/>
@@ -34817,7 +35084,7 @@
       <c r="FJ112" s="33"/>
       <c r="FK112" s="34"/>
     </row>
-    <row r="113" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
         <v>122</v>
       </c>
@@ -34832,7 +35099,7 @@
       </c>
       <c r="E113" s="37">
         <f t="shared" si="96"/>
-        <v>25.44</v>
+        <v>26.44</v>
       </c>
       <c r="F113" s="37">
         <f t="shared" si="97"/>
@@ -34860,7 +35127,7 @@
       </c>
       <c r="L113" s="38">
         <f t="shared" si="103"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M113" s="24">
         <f t="shared" si="104"/>
@@ -35084,7 +35351,9 @@
       <c r="EY113" s="32"/>
       <c r="EZ113" s="33"/>
       <c r="FA113" s="34"/>
-      <c r="FB113" s="31"/>
+      <c r="FB113" s="31">
+        <v>1</v>
+      </c>
       <c r="FC113" s="32"/>
       <c r="FD113" s="32"/>
       <c r="FE113" s="33"/>
@@ -35095,7 +35364,7 @@
       <c r="FJ113" s="33"/>
       <c r="FK113" s="34"/>
     </row>
-    <row r="114" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>123</v>
       </c>
@@ -35110,7 +35379,7 @@
       </c>
       <c r="E114" s="37">
         <f t="shared" si="96"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F114" s="37">
         <f t="shared" si="97"/>
@@ -35138,11 +35407,11 @@
       </c>
       <c r="L114" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M114" s="24">
         <f t="shared" si="104"/>
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="N114" s="24">
         <f t="shared" si="105"/>
@@ -35158,7 +35427,7 @@
       </c>
       <c r="Q114" s="35">
         <f t="shared" si="108"/>
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="R114" s="31" t="s">
         <v>177</v>
@@ -35384,8 +35653,12 @@
       <c r="EY114" s="32"/>
       <c r="EZ114" s="33"/>
       <c r="FA114" s="34"/>
-      <c r="FB114" s="31"/>
-      <c r="FC114" s="32"/>
+      <c r="FB114" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC114" s="32">
+        <v>0.5</v>
+      </c>
       <c r="FD114" s="32"/>
       <c r="FE114" s="33"/>
       <c r="FF114" s="34"/>
@@ -35395,7 +35668,7 @@
       <c r="FJ114" s="33"/>
       <c r="FK114" s="34"/>
     </row>
-    <row r="115" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
         <v>124</v>
       </c>
@@ -35414,11 +35687,11 @@
       </c>
       <c r="F115" s="37">
         <f t="shared" si="97"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G115" s="37">
         <f t="shared" si="98"/>
-        <v>0.500000000000001</v>
+        <v>0.66666666666666796</v>
       </c>
       <c r="H115" s="24">
         <f t="shared" si="99"/>
@@ -35438,7 +35711,7 @@
       </c>
       <c r="L115" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M115" s="24">
         <f t="shared" si="104"/>
@@ -35682,7 +35955,9 @@
       <c r="EY115" s="32"/>
       <c r="EZ115" s="33"/>
       <c r="FA115" s="34"/>
-      <c r="FB115" s="31"/>
+      <c r="FB115" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="FC115" s="32"/>
       <c r="FD115" s="32"/>
       <c r="FE115" s="33"/>
@@ -35693,7 +35968,7 @@
       <c r="FJ115" s="33"/>
       <c r="FK115" s="34"/>
     </row>
-    <row r="116" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
         <v>125</v>
       </c>
@@ -35708,7 +35983,7 @@
       </c>
       <c r="E116" s="37">
         <f t="shared" si="96"/>
-        <v>24.63</v>
+        <v>25.63</v>
       </c>
       <c r="F116" s="37">
         <f t="shared" si="97"/>
@@ -35736,7 +36011,7 @@
       </c>
       <c r="L116" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M116" s="24">
         <f t="shared" si="104"/>
@@ -35974,7 +36249,9 @@
       <c r="EY116" s="32"/>
       <c r="EZ116" s="33"/>
       <c r="FA116" s="34"/>
-      <c r="FB116" s="31"/>
+      <c r="FB116" s="31">
+        <v>1</v>
+      </c>
       <c r="FC116" s="32"/>
       <c r="FD116" s="32"/>
       <c r="FE116" s="33"/>
@@ -35985,7 +36262,7 @@
       <c r="FJ116" s="33"/>
       <c r="FK116" s="34"/>
     </row>
-    <row r="117" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
         <v>126</v>
       </c>
@@ -36000,7 +36277,7 @@
       </c>
       <c r="E117" s="37">
         <f t="shared" si="96"/>
-        <v>27.65</v>
+        <v>28.65</v>
       </c>
       <c r="F117" s="37">
         <f t="shared" si="97"/>
@@ -36028,7 +36305,7 @@
       </c>
       <c r="L117" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M117" s="24">
         <f t="shared" si="104"/>
@@ -36258,7 +36535,9 @@
       <c r="EY117" s="32"/>
       <c r="EZ117" s="33"/>
       <c r="FA117" s="34"/>
-      <c r="FB117" s="31"/>
+      <c r="FB117" s="31">
+        <v>1</v>
+      </c>
       <c r="FC117" s="32"/>
       <c r="FD117" s="32"/>
       <c r="FE117" s="33"/>
@@ -36269,7 +36548,7 @@
       <c r="FJ117" s="33"/>
       <c r="FK117" s="34"/>
     </row>
-    <row r="118" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="22" t="s">
         <v>127</v>
       </c>
@@ -36284,7 +36563,7 @@
       </c>
       <c r="E118" s="37">
         <f t="shared" si="96"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F118" s="37">
         <f t="shared" si="97"/>
@@ -36312,7 +36591,7 @@
       </c>
       <c r="L118" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M118" s="24">
         <f t="shared" si="104"/>
@@ -36328,11 +36607,11 @@
       </c>
       <c r="P118" s="24">
         <f t="shared" si="107"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="Q118" s="35">
         <f t="shared" si="108"/>
-        <v>82.25</v>
+        <v>90.25</v>
       </c>
       <c r="R118" s="31">
         <v>1</v>
@@ -36568,18 +36847,22 @@
       <c r="FA118" s="34">
         <v>8</v>
       </c>
-      <c r="FB118" s="31"/>
+      <c r="FB118" s="31">
+        <v>1</v>
+      </c>
       <c r="FC118" s="32"/>
       <c r="FD118" s="32"/>
       <c r="FE118" s="33"/>
-      <c r="FF118" s="34"/>
+      <c r="FF118" s="34">
+        <v>8</v>
+      </c>
       <c r="FG118" s="31"/>
       <c r="FH118" s="32"/>
       <c r="FI118" s="32"/>
       <c r="FJ118" s="33"/>
       <c r="FK118" s="34"/>
     </row>
-    <row r="119" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
         <v>128</v>
       </c>
@@ -36594,7 +36877,7 @@
       </c>
       <c r="E119" s="37">
         <f t="shared" si="96"/>
-        <v>26.75</v>
+        <v>27.75</v>
       </c>
       <c r="F119" s="37">
         <f t="shared" si="97"/>
@@ -36622,7 +36905,7 @@
       </c>
       <c r="L119" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M119" s="24">
         <f t="shared" si="104"/>
@@ -36846,7 +37129,9 @@
       <c r="EY119" s="32"/>
       <c r="EZ119" s="33"/>
       <c r="FA119" s="34"/>
-      <c r="FB119" s="31"/>
+      <c r="FB119" s="31">
+        <v>1</v>
+      </c>
       <c r="FC119" s="32"/>
       <c r="FD119" s="32"/>
       <c r="FE119" s="33"/>
@@ -36857,7 +37142,7 @@
       <c r="FJ119" s="33"/>
       <c r="FK119" s="34"/>
     </row>
-    <row r="120" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="22" t="s">
         <v>129</v>
       </c>
@@ -36872,7 +37157,7 @@
       </c>
       <c r="E120" s="37">
         <f t="shared" si="96"/>
-        <v>24.44</v>
+        <v>25.44</v>
       </c>
       <c r="F120" s="37">
         <f t="shared" si="97"/>
@@ -36900,11 +37185,11 @@
       </c>
       <c r="L120" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M120" s="24">
         <f t="shared" si="104"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N120" s="24">
         <f t="shared" si="105"/>
@@ -36920,7 +37205,7 @@
       </c>
       <c r="Q120" s="35">
         <f t="shared" si="108"/>
-        <v>76.75</v>
+        <v>77.75</v>
       </c>
       <c r="R120" s="31">
         <v>1</v>
@@ -37156,8 +37441,12 @@
       <c r="EY120" s="32"/>
       <c r="EZ120" s="33"/>
       <c r="FA120" s="34"/>
-      <c r="FB120" s="31"/>
-      <c r="FC120" s="32"/>
+      <c r="FB120" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC120" s="32">
+        <v>1</v>
+      </c>
       <c r="FD120" s="32"/>
       <c r="FE120" s="33"/>
       <c r="FF120" s="34"/>
@@ -37167,7 +37456,7 @@
       <c r="FJ120" s="33"/>
       <c r="FK120" s="34"/>
     </row>
-    <row r="121" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="s">
         <v>130</v>
       </c>
@@ -37182,7 +37471,7 @@
       </c>
       <c r="E121" s="37">
         <f t="shared" si="96"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F121" s="37">
         <f t="shared" si="97"/>
@@ -37210,11 +37499,11 @@
       </c>
       <c r="L121" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M121" s="24">
         <f t="shared" si="104"/>
-        <v>11.5</v>
+        <v>12.25</v>
       </c>
       <c r="N121" s="24">
         <f t="shared" si="105"/>
@@ -37230,7 +37519,7 @@
       </c>
       <c r="Q121" s="35">
         <f t="shared" si="108"/>
-        <v>11.5</v>
+        <v>12.25</v>
       </c>
       <c r="R121" s="31">
         <v>1</v>
@@ -37470,8 +37759,12 @@
       <c r="EY121" s="32"/>
       <c r="EZ121" s="33"/>
       <c r="FA121" s="34"/>
-      <c r="FB121" s="31"/>
-      <c r="FC121" s="32"/>
+      <c r="FB121" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC121" s="32">
+        <v>0.75</v>
+      </c>
       <c r="FD121" s="32"/>
       <c r="FE121" s="33"/>
       <c r="FF121" s="34"/>
@@ -37481,7 +37774,7 @@
       <c r="FJ121" s="33"/>
       <c r="FK121" s="34"/>
     </row>
-    <row r="122" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
         <v>131</v>
       </c>
@@ -37496,7 +37789,7 @@
       </c>
       <c r="E122" s="37">
         <f t="shared" si="96"/>
-        <v>27.65</v>
+        <v>28.65</v>
       </c>
       <c r="F122" s="37">
         <f t="shared" si="97"/>
@@ -37524,7 +37817,7 @@
       </c>
       <c r="L122" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M122" s="24">
         <f t="shared" si="104"/>
@@ -37752,7 +38045,9 @@
       <c r="EY122" s="32"/>
       <c r="EZ122" s="33"/>
       <c r="FA122" s="34"/>
-      <c r="FB122" s="31"/>
+      <c r="FB122" s="31">
+        <v>1</v>
+      </c>
       <c r="FC122" s="32"/>
       <c r="FD122" s="32"/>
       <c r="FE122" s="33"/>
@@ -37763,7 +38058,7 @@
       <c r="FJ122" s="33"/>
       <c r="FK122" s="34"/>
     </row>
-    <row r="123" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
         <v>132</v>
       </c>
@@ -37778,7 +38073,7 @@
       </c>
       <c r="E123" s="37">
         <f t="shared" si="96"/>
-        <v>26.75</v>
+        <v>27.75</v>
       </c>
       <c r="F123" s="37">
         <f t="shared" si="97"/>
@@ -37806,7 +38101,7 @@
       </c>
       <c r="L123" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M123" s="24">
         <f t="shared" si="104"/>
@@ -38056,7 +38351,9 @@
       <c r="EY123" s="32"/>
       <c r="EZ123" s="33"/>
       <c r="FA123" s="34"/>
-      <c r="FB123" s="31"/>
+      <c r="FB123" s="31">
+        <v>1</v>
+      </c>
       <c r="FC123" s="32"/>
       <c r="FD123" s="32"/>
       <c r="FE123" s="33"/>
@@ -38067,7 +38364,7 @@
       <c r="FJ123" s="33"/>
       <c r="FK123" s="34"/>
     </row>
-    <row r="124" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
         <v>133</v>
       </c>
@@ -38082,7 +38379,7 @@
       </c>
       <c r="E124" s="37">
         <f t="shared" si="96"/>
-        <v>26.88</v>
+        <v>27.88</v>
       </c>
       <c r="F124" s="37">
         <f t="shared" si="97"/>
@@ -38110,11 +38407,11 @@
       </c>
       <c r="L124" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M124" s="24">
         <f t="shared" si="104"/>
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="N124" s="24">
         <f t="shared" si="105"/>
@@ -38130,7 +38427,7 @@
       </c>
       <c r="Q124" s="35">
         <f t="shared" si="108"/>
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="R124" s="31">
         <v>1</v>
@@ -38350,8 +38647,12 @@
       <c r="EY124" s="32"/>
       <c r="EZ124" s="33"/>
       <c r="FA124" s="34"/>
-      <c r="FB124" s="31"/>
-      <c r="FC124" s="32"/>
+      <c r="FB124" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC124" s="32">
+        <v>0.25</v>
+      </c>
       <c r="FD124" s="32"/>
       <c r="FE124" s="33"/>
       <c r="FF124" s="34"/>
@@ -38361,7 +38662,7 @@
       <c r="FJ124" s="33"/>
       <c r="FK124" s="34"/>
     </row>
-    <row r="125" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="22" t="s">
         <v>134</v>
       </c>
@@ -38376,7 +38677,7 @@
       </c>
       <c r="E125" s="37">
         <f t="shared" si="96"/>
-        <v>23.88</v>
+        <v>24.88</v>
       </c>
       <c r="F125" s="37">
         <f t="shared" si="97"/>
@@ -38404,11 +38705,11 @@
       </c>
       <c r="L125" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M125" s="24">
         <f t="shared" si="104"/>
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="N125" s="24">
         <f t="shared" si="105"/>
@@ -38424,7 +38725,7 @@
       </c>
       <c r="Q125" s="35">
         <f t="shared" si="108"/>
-        <v>39.75</v>
+        <v>40.25</v>
       </c>
       <c r="R125" s="31">
         <v>1</v>
@@ -38654,8 +38955,12 @@
       </c>
       <c r="EZ125" s="33"/>
       <c r="FA125" s="34"/>
-      <c r="FB125" s="31"/>
-      <c r="FC125" s="32"/>
+      <c r="FB125" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC125" s="32">
+        <v>0.5</v>
+      </c>
       <c r="FD125" s="32"/>
       <c r="FE125" s="33"/>
       <c r="FF125" s="34"/>
@@ -38665,7 +38970,7 @@
       <c r="FJ125" s="33"/>
       <c r="FK125" s="34"/>
     </row>
-    <row r="126" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="s">
         <v>135</v>
       </c>
@@ -38680,7 +38985,7 @@
       </c>
       <c r="E126" s="37">
         <f t="shared" si="96"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F126" s="37">
         <f t="shared" si="97"/>
@@ -38708,7 +39013,7 @@
       </c>
       <c r="L126" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M126" s="24">
         <f t="shared" si="104"/>
@@ -38724,11 +39029,11 @@
       </c>
       <c r="P126" s="24">
         <f t="shared" si="107"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="Q126" s="35">
         <f t="shared" si="108"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="R126" s="31">
         <v>1</v>
@@ -38944,18 +39249,22 @@
       <c r="FA126" s="34">
         <v>8</v>
       </c>
-      <c r="FB126" s="31"/>
+      <c r="FB126" s="31">
+        <v>1</v>
+      </c>
       <c r="FC126" s="32"/>
       <c r="FD126" s="32"/>
       <c r="FE126" s="33"/>
-      <c r="FF126" s="34"/>
+      <c r="FF126" s="34">
+        <v>8</v>
+      </c>
       <c r="FG126" s="31"/>
       <c r="FH126" s="32"/>
       <c r="FI126" s="32"/>
       <c r="FJ126" s="33"/>
       <c r="FK126" s="34"/>
     </row>
-    <row r="127" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
         <v>136</v>
       </c>
@@ -39181,7 +39490,7 @@
       <c r="FJ127" s="33"/>
       <c r="FK127" s="34"/>
     </row>
-    <row r="128" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
         <v>137</v>
       </c>
@@ -39461,7 +39770,7 @@
       <c r="FJ128" s="33"/>
       <c r="FK128" s="34"/>
     </row>
-    <row r="129" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="22" t="s">
         <v>138</v>
       </c>
@@ -39480,11 +39789,11 @@
       </c>
       <c r="F129" s="37">
         <f t="shared" si="97"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G129" s="37">
         <f t="shared" si="98"/>
-        <v>0.16666666666666699</v>
+        <v>0.33333333333333398</v>
       </c>
       <c r="H129" s="24">
         <f t="shared" si="99"/>
@@ -39504,7 +39813,7 @@
       </c>
       <c r="L129" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M129" s="24">
         <f t="shared" si="104"/>
@@ -39722,7 +40031,9 @@
       <c r="EY129" s="32"/>
       <c r="EZ129" s="33"/>
       <c r="FA129" s="34"/>
-      <c r="FB129" s="31"/>
+      <c r="FB129" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="FC129" s="32"/>
       <c r="FD129" s="32"/>
       <c r="FE129" s="33"/>
@@ -39733,7 +40044,7 @@
       <c r="FJ129" s="33"/>
       <c r="FK129" s="34"/>
     </row>
-    <row r="130" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="22" t="s">
         <v>139</v>
       </c>
@@ -39748,7 +40059,7 @@
       </c>
       <c r="E130" s="37">
         <f t="shared" si="96"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F130" s="37">
         <f t="shared" si="97"/>
@@ -39776,7 +40087,7 @@
       </c>
       <c r="L130" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M130" s="24">
         <f t="shared" si="104"/>
@@ -39792,11 +40103,11 @@
       </c>
       <c r="P130" s="24">
         <f t="shared" si="107"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="Q130" s="35">
         <f t="shared" si="108"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="R130" s="31">
         <v>1</v>
@@ -40012,18 +40323,22 @@
       <c r="FA130" s="34">
         <v>8</v>
       </c>
-      <c r="FB130" s="31"/>
+      <c r="FB130" s="31">
+        <v>1</v>
+      </c>
       <c r="FC130" s="32"/>
       <c r="FD130" s="32"/>
       <c r="FE130" s="33"/>
-      <c r="FF130" s="34"/>
+      <c r="FF130" s="34">
+        <v>8</v>
+      </c>
       <c r="FG130" s="31"/>
       <c r="FH130" s="32"/>
       <c r="FI130" s="32"/>
       <c r="FJ130" s="33"/>
       <c r="FK130" s="34"/>
     </row>
-    <row r="131" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="22" t="s">
         <v>140</v>
       </c>
@@ -40038,7 +40353,7 @@
       </c>
       <c r="E131" s="37">
         <f t="shared" si="96"/>
-        <v>22.869999999999997</v>
+        <v>23.869999999999997</v>
       </c>
       <c r="F131" s="37">
         <f t="shared" si="97"/>
@@ -40066,7 +40381,7 @@
       </c>
       <c r="L131" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M131" s="24">
         <f t="shared" si="104"/>
@@ -40288,7 +40603,9 @@
       <c r="EY131" s="32"/>
       <c r="EZ131" s="33"/>
       <c r="FA131" s="34"/>
-      <c r="FB131" s="31"/>
+      <c r="FB131" s="31">
+        <v>1</v>
+      </c>
       <c r="FC131" s="32"/>
       <c r="FD131" s="32"/>
       <c r="FE131" s="33"/>
@@ -40299,7 +40616,7 @@
       <c r="FJ131" s="33"/>
       <c r="FK131" s="34"/>
     </row>
-    <row r="132" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="22" t="s">
         <v>143</v>
       </c>
@@ -40318,11 +40635,11 @@
       </c>
       <c r="F132" s="37">
         <f t="shared" si="97"/>
-        <v>0.12000000000000099</v>
+        <v>1.120000000000001</v>
       </c>
       <c r="G132" s="37">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="H132" s="24">
         <f t="shared" si="99"/>
@@ -40342,7 +40659,7 @@
       </c>
       <c r="L132" s="38">
         <f t="shared" si="103"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M132" s="24">
         <f t="shared" si="104"/>
@@ -40532,7 +40849,9 @@
       <c r="EY132" s="32"/>
       <c r="EZ132" s="33"/>
       <c r="FA132" s="34"/>
-      <c r="FB132" s="31"/>
+      <c r="FB132" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="FC132" s="32"/>
       <c r="FD132" s="32"/>
       <c r="FE132" s="33"/>
@@ -40543,7 +40862,7 @@
       <c r="FJ132" s="33"/>
       <c r="FK132" s="34"/>
     </row>
-    <row r="133" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="22" t="s">
         <v>144</v>
       </c>
@@ -40558,7 +40877,7 @@
       </c>
       <c r="E133" s="37">
         <f t="shared" si="96"/>
-        <v>24.97</v>
+        <v>25.97</v>
       </c>
       <c r="F133" s="37">
         <f t="shared" si="97"/>
@@ -40586,11 +40905,11 @@
       </c>
       <c r="L133" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M133" s="24">
         <f t="shared" si="104"/>
-        <v>21</v>
+        <v>22.75</v>
       </c>
       <c r="N133" s="24">
         <f t="shared" si="105"/>
@@ -40602,11 +40921,11 @@
       </c>
       <c r="P133" s="24">
         <f t="shared" si="107"/>
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="Q133" s="35">
         <f t="shared" si="108"/>
-        <v>200.5</v>
+        <v>210.25</v>
       </c>
       <c r="R133" s="31">
         <v>1</v>
@@ -40886,18 +41205,24 @@
       <c r="FA133" s="34">
         <v>8</v>
       </c>
-      <c r="FB133" s="31"/>
-      <c r="FC133" s="32"/>
+      <c r="FB133" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC133" s="32">
+        <v>1.75</v>
+      </c>
       <c r="FD133" s="32"/>
       <c r="FE133" s="33"/>
-      <c r="FF133" s="34"/>
+      <c r="FF133" s="34">
+        <v>8</v>
+      </c>
       <c r="FG133" s="31"/>
       <c r="FH133" s="32"/>
       <c r="FI133" s="32"/>
       <c r="FJ133" s="33"/>
       <c r="FK133" s="34"/>
     </row>
-    <row r="134" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="22" t="s">
         <v>145</v>
       </c>
@@ -41177,7 +41502,7 @@
       <c r="FJ134" s="33"/>
       <c r="FK134" s="34"/>
     </row>
-    <row r="135" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="22" t="s">
         <v>146</v>
       </c>
@@ -41192,7 +41517,7 @@
       </c>
       <c r="E135" s="37">
         <f t="shared" si="96"/>
-        <v>25.75</v>
+        <v>26.75</v>
       </c>
       <c r="F135" s="37">
         <f t="shared" si="97"/>
@@ -41220,11 +41545,11 @@
       </c>
       <c r="L135" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M135" s="24">
         <f t="shared" si="104"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N135" s="24">
         <f t="shared" si="105"/>
@@ -41240,7 +41565,7 @@
       </c>
       <c r="Q135" s="35">
         <f t="shared" si="108"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="R135" s="31" t="s">
         <v>177</v>
@@ -41450,8 +41775,12 @@
       <c r="EY135" s="32"/>
       <c r="EZ135" s="33"/>
       <c r="FA135" s="34"/>
-      <c r="FB135" s="31"/>
-      <c r="FC135" s="32"/>
+      <c r="FB135" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC135" s="32">
+        <v>0.5</v>
+      </c>
       <c r="FD135" s="32"/>
       <c r="FE135" s="33"/>
       <c r="FF135" s="34"/>
@@ -41461,7 +41790,7 @@
       <c r="FJ135" s="33"/>
       <c r="FK135" s="34"/>
     </row>
-    <row r="136" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="22" t="s">
         <v>147</v>
       </c>
@@ -41476,7 +41805,7 @@
       </c>
       <c r="E136" s="37">
         <f t="shared" si="96"/>
-        <v>27.75</v>
+        <v>28.75</v>
       </c>
       <c r="F136" s="37">
         <f t="shared" si="97"/>
@@ -41504,15 +41833,15 @@
       </c>
       <c r="L136" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M136" s="24">
         <f t="shared" si="104"/>
-        <v>28.5</v>
+        <v>30.5</v>
       </c>
       <c r="N136" s="24">
         <f t="shared" si="105"/>
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="O136" s="24">
         <f t="shared" si="106"/>
@@ -41520,11 +41849,11 @@
       </c>
       <c r="P136" s="24">
         <f t="shared" si="107"/>
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="Q136" s="35">
         <f t="shared" si="108"/>
-        <v>228</v>
+        <v>238.5</v>
       </c>
       <c r="R136" s="31">
         <v>1</v>
@@ -41826,18 +42155,26 @@
       <c r="FA136" s="34">
         <v>8</v>
       </c>
-      <c r="FB136" s="31"/>
-      <c r="FC136" s="32"/>
-      <c r="FD136" s="32"/>
+      <c r="FB136" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC136" s="32">
+        <v>2</v>
+      </c>
+      <c r="FD136" s="32">
+        <v>0.5</v>
+      </c>
       <c r="FE136" s="33"/>
-      <c r="FF136" s="34"/>
+      <c r="FF136" s="34">
+        <v>8</v>
+      </c>
       <c r="FG136" s="31"/>
       <c r="FH136" s="32"/>
       <c r="FI136" s="32"/>
       <c r="FJ136" s="33"/>
       <c r="FK136" s="34"/>
     </row>
-    <row r="137" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="22" t="s">
         <v>148</v>
       </c>
@@ -41852,7 +42189,7 @@
       </c>
       <c r="E137" s="37">
         <f t="shared" si="96"/>
-        <v>25.78</v>
+        <v>26.78</v>
       </c>
       <c r="F137" s="37">
         <f t="shared" si="97"/>
@@ -41880,7 +42217,7 @@
       </c>
       <c r="L137" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M137" s="24">
         <f t="shared" si="104"/>
@@ -42124,7 +42461,9 @@
       <c r="EY137" s="32"/>
       <c r="EZ137" s="33"/>
       <c r="FA137" s="34"/>
-      <c r="FB137" s="31"/>
+      <c r="FB137" s="31">
+        <v>1</v>
+      </c>
       <c r="FC137" s="32"/>
       <c r="FD137" s="32"/>
       <c r="FE137" s="33"/>
@@ -42135,7 +42474,7 @@
       <c r="FJ137" s="33"/>
       <c r="FK137" s="34"/>
     </row>
-    <row r="138" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="22" t="s">
         <v>149</v>
       </c>
@@ -42150,7 +42489,7 @@
       </c>
       <c r="E138" s="37">
         <f t="shared" si="96"/>
-        <v>26.75</v>
+        <v>27.75</v>
       </c>
       <c r="F138" s="37">
         <f t="shared" si="97"/>
@@ -42178,11 +42517,11 @@
       </c>
       <c r="L138" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M138" s="24">
         <f t="shared" si="104"/>
-        <v>20.5</v>
+        <v>22.25</v>
       </c>
       <c r="N138" s="24">
         <f t="shared" si="105"/>
@@ -42198,7 +42537,7 @@
       </c>
       <c r="Q138" s="35">
         <f t="shared" si="108"/>
-        <v>124.25</v>
+        <v>126</v>
       </c>
       <c r="R138" s="31">
         <v>1</v>
@@ -42458,8 +42797,12 @@
       <c r="EY138" s="32"/>
       <c r="EZ138" s="33"/>
       <c r="FA138" s="34"/>
-      <c r="FB138" s="31"/>
-      <c r="FC138" s="32"/>
+      <c r="FB138" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC138" s="32">
+        <v>1.75</v>
+      </c>
       <c r="FD138" s="32"/>
       <c r="FE138" s="33"/>
       <c r="FF138" s="34"/>
@@ -42469,7 +42812,7 @@
       <c r="FJ138" s="33"/>
       <c r="FK138" s="34"/>
     </row>
-    <row r="139" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="22" t="s">
         <v>150</v>
       </c>
@@ -42679,7 +43022,7 @@
       <c r="FJ139" s="33"/>
       <c r="FK139" s="34"/>
     </row>
-    <row r="140" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="22" t="s">
         <v>151</v>
       </c>
@@ -42889,7 +43232,7 @@
       <c r="FJ140" s="33"/>
       <c r="FK140" s="34"/>
     </row>
-    <row r="141" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="22" t="s">
         <v>152</v>
       </c>
@@ -43099,7 +43442,7 @@
       <c r="FJ141" s="33"/>
       <c r="FK141" s="34"/>
     </row>
-    <row r="142" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="22" t="s">
         <v>153</v>
       </c>
@@ -43309,7 +43652,7 @@
       <c r="FJ142" s="33"/>
       <c r="FK142" s="34"/>
     </row>
-    <row r="143" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="22" t="s">
         <v>154</v>
       </c>
@@ -43519,7 +43862,7 @@
       <c r="FJ143" s="33"/>
       <c r="FK143" s="34"/>
     </row>
-    <row r="144" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="22" t="s">
         <v>155</v>
       </c>
@@ -43729,7 +44072,7 @@
       <c r="FJ144" s="33"/>
       <c r="FK144" s="34"/>
     </row>
-    <row r="145" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="22" t="s">
         <v>156</v>
       </c>
@@ -43939,7 +44282,7 @@
       <c r="FJ145" s="33"/>
       <c r="FK145" s="34"/>
     </row>
-    <row r="146" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="22" t="s">
         <v>157</v>
       </c>
@@ -44149,7 +44492,7 @@
       <c r="FJ146" s="33"/>
       <c r="FK146" s="34"/>
     </row>
-    <row r="147" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="22" t="s">
         <v>158</v>
       </c>
@@ -44359,7 +44702,7 @@
       <c r="FJ147" s="33"/>
       <c r="FK147" s="34"/>
     </row>
-    <row r="148" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="22" t="s">
         <v>159</v>
       </c>
@@ -44569,7 +44912,7 @@
       <c r="FJ148" s="33"/>
       <c r="FK148" s="34"/>
     </row>
-    <row r="149" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="22" t="s">
         <v>160</v>
       </c>
@@ -44779,7 +45122,7 @@
       <c r="FJ149" s="33"/>
       <c r="FK149" s="34"/>
     </row>
-    <row r="150" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="22" t="s">
         <v>161</v>
       </c>
@@ -44989,7 +45332,7 @@
       <c r="FJ150" s="33"/>
       <c r="FK150" s="34"/>
     </row>
-    <row r="151" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="22" t="s">
         <v>162</v>
       </c>
@@ -45199,7 +45542,7 @@
       <c r="FJ151" s="33"/>
       <c r="FK151" s="34"/>
     </row>
-    <row r="152" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="22" t="s">
         <v>163</v>
       </c>
@@ -45409,7 +45752,7 @@
       <c r="FJ152" s="33"/>
       <c r="FK152" s="34"/>
     </row>
-    <row r="153" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="22" t="s">
         <v>164</v>
       </c>
@@ -45619,7 +45962,7 @@
       <c r="FJ153" s="33"/>
       <c r="FK153" s="34"/>
     </row>
-    <row r="154" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="22" t="s">
         <v>165</v>
       </c>
@@ -45829,7 +46172,7 @@
       <c r="FJ154" s="33"/>
       <c r="FK154" s="34"/>
     </row>
-    <row r="155" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="22" t="s">
         <v>166</v>
       </c>
@@ -46039,7 +46382,7 @@
       <c r="FJ155" s="33"/>
       <c r="FK155" s="34"/>
     </row>
-    <row r="156" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="22" t="s">
         <v>167</v>
       </c>
@@ -46249,7 +46592,7 @@
       <c r="FJ156" s="33"/>
       <c r="FK156" s="34"/>
     </row>
-    <row r="157" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="22" t="s">
         <v>168</v>
       </c>
@@ -46459,7 +46802,7 @@
       <c r="FJ157" s="33"/>
       <c r="FK157" s="34"/>
     </row>
-    <row r="158" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="22" t="s">
         <v>169</v>
       </c>
@@ -46669,7 +47012,7 @@
       <c r="FJ158" s="33"/>
       <c r="FK158" s="34"/>
     </row>
-    <row r="159" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="22" t="s">
         <v>170</v>
       </c>
@@ -46879,7 +47222,7 @@
       <c r="FJ159" s="33"/>
       <c r="FK159" s="34"/>
     </row>
-    <row r="160" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="22" t="s">
         <v>171</v>
       </c>
@@ -47089,7 +47432,7 @@
       <c r="FJ160" s="33"/>
       <c r="FK160" s="34"/>
     </row>
-    <row r="161" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="22" t="s">
         <v>172</v>
       </c>
@@ -47299,22 +47642,22 @@
       <c r="FJ161" s="33"/>
       <c r="FK161" s="34"/>
     </row>
-    <row r="162" spans="1:167" s="18" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:167" s="18" customFormat="1" ht="30.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="71"/>
       <c r="B162" s="64"/>
       <c r="C162" s="65"/>
       <c r="D162" s="72"/>
       <c r="E162" s="73">
         <f t="shared" ref="E162:AJ162" si="122">SUM(E12:E161)</f>
-        <v>2570.6100000000015</v>
+        <v>2657.940000000001</v>
       </c>
       <c r="F162" s="73">
         <f t="shared" si="122"/>
-        <v>208.39000000000004</v>
+        <v>222.06000000000006</v>
       </c>
       <c r="G162" s="73">
         <f t="shared" si="122"/>
-        <v>30.833333333333435</v>
+        <v>33.000000000000099</v>
       </c>
       <c r="H162" s="73">
         <f t="shared" si="122"/>
@@ -47326,7 +47669,7 @@
       </c>
       <c r="J162" s="73">
         <f t="shared" si="122"/>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K162" s="73">
         <f t="shared" si="122"/>
@@ -47334,15 +47677,15 @@
       </c>
       <c r="L162" s="73">
         <f t="shared" si="122"/>
-        <v>3121</v>
+        <v>3224</v>
       </c>
       <c r="M162" s="73">
         <f t="shared" si="122"/>
-        <v>992.5</v>
+        <v>1039.75</v>
       </c>
       <c r="N162" s="73">
         <f t="shared" si="122"/>
-        <v>279.75</v>
+        <v>287.25</v>
       </c>
       <c r="O162" s="73">
         <f t="shared" si="122"/>
@@ -47350,11 +47693,11 @@
       </c>
       <c r="P162" s="73">
         <f t="shared" si="122"/>
-        <v>3194.75</v>
+        <v>3322.75</v>
       </c>
       <c r="Q162" s="73">
         <f t="shared" si="122"/>
-        <v>4491</v>
+        <v>4673.75</v>
       </c>
       <c r="R162" s="40">
         <f t="shared" si="122"/>
@@ -47918,15 +48261,15 @@
       </c>
       <c r="FB162" s="40">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>87.33</v>
       </c>
       <c r="FC162" s="42">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>47.25</v>
       </c>
       <c r="FD162" s="42">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="FE162" s="42">
         <f t="shared" si="126"/>
@@ -47934,7 +48277,7 @@
       </c>
       <c r="FF162" s="41">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="FG162" s="40">
         <f t="shared" si="126"/>
@@ -48266,26 +48609,52 @@
       <c r="C167" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:FK162" xr:uid="{C0760EAB-CC3D-40AE-A29A-AB65FF61DEFD}"/>
+  <autoFilter ref="A11:FK162" xr:uid="{C0760EAB-CC3D-40AE-A29A-AB65FF61DEFD}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="AVALOS VEGA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="72">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:Q3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:Q5"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:D10"/>
-    <mergeCell ref="E8:Q10"/>
-    <mergeCell ref="R8:AZ8"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="AQ10:AU10"/>
-    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="DI10:DM10"/>
+    <mergeCell ref="BF10:BJ10"/>
+    <mergeCell ref="BK10:BO10"/>
+    <mergeCell ref="BP10:BT10"/>
+    <mergeCell ref="BU10:BY10"/>
+    <mergeCell ref="BZ10:CD10"/>
+    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="FG10:FK10"/>
+    <mergeCell ref="DN10:DR10"/>
+    <mergeCell ref="DS10:DW10"/>
+    <mergeCell ref="DX10:EB10"/>
+    <mergeCell ref="EC10:EG10"/>
+    <mergeCell ref="EH10:EL10"/>
+    <mergeCell ref="EM10:EQ10"/>
+    <mergeCell ref="FG9:FK9"/>
+    <mergeCell ref="EC9:EG9"/>
+    <mergeCell ref="EH9:EL9"/>
+    <mergeCell ref="EM9:EQ9"/>
+    <mergeCell ref="ER9:EV9"/>
+    <mergeCell ref="EW9:FA9"/>
+    <mergeCell ref="FB9:FF9"/>
+    <mergeCell ref="BA8:FK8"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="AL9:AP9"/>
+    <mergeCell ref="CE9:CI9"/>
+    <mergeCell ref="CJ9:CN9"/>
+    <mergeCell ref="CO9:CS9"/>
+    <mergeCell ref="CT9:CX9"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BA9:BE9"/>
+    <mergeCell ref="BF9:BJ9"/>
+    <mergeCell ref="BK9:BO9"/>
+    <mergeCell ref="BP9:BT9"/>
     <mergeCell ref="BU9:BY9"/>
     <mergeCell ref="BZ9:CD9"/>
     <mergeCell ref="ER10:EV10"/>
@@ -48302,44 +48671,24 @@
     <mergeCell ref="CT10:CX10"/>
     <mergeCell ref="CY10:DC10"/>
     <mergeCell ref="DD10:DH10"/>
-    <mergeCell ref="BA8:FK8"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="W9:AA9"/>
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="AL9:AP9"/>
-    <mergeCell ref="CE9:CI9"/>
-    <mergeCell ref="CJ9:CN9"/>
-    <mergeCell ref="CO9:CS9"/>
-    <mergeCell ref="CT9:CX9"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BA9:BE9"/>
-    <mergeCell ref="BF9:BJ9"/>
-    <mergeCell ref="BK9:BO9"/>
-    <mergeCell ref="BP9:BT9"/>
-    <mergeCell ref="FG9:FK9"/>
-    <mergeCell ref="EC9:EG9"/>
-    <mergeCell ref="EH9:EL9"/>
-    <mergeCell ref="EM9:EQ9"/>
-    <mergeCell ref="ER9:EV9"/>
-    <mergeCell ref="EW9:FA9"/>
-    <mergeCell ref="FB9:FF9"/>
-    <mergeCell ref="FG10:FK10"/>
-    <mergeCell ref="DN10:DR10"/>
-    <mergeCell ref="DS10:DW10"/>
-    <mergeCell ref="DX10:EB10"/>
-    <mergeCell ref="EC10:EG10"/>
-    <mergeCell ref="EH10:EL10"/>
-    <mergeCell ref="EM10:EQ10"/>
-    <mergeCell ref="BA10:BE10"/>
-    <mergeCell ref="DI10:DM10"/>
-    <mergeCell ref="BF10:BJ10"/>
-    <mergeCell ref="BK10:BO10"/>
-    <mergeCell ref="BP10:BT10"/>
-    <mergeCell ref="BU10:BY10"/>
-    <mergeCell ref="BZ10:CD10"/>
-    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="R8:AZ8"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AQ10:AU10"/>
+    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:D10"/>
+    <mergeCell ref="E8:Q10"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="X4:Z4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="DS12:EL151 FB12:FK151 ER12:EV151">

--- a/1-CONTROL/2-TAREO/TAREO-JUNIO.xlsx
+++ b/1-CONTROL/2-TAREO/TAREO-JUNIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\1-CONTROL\2-TAREO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E38E425-43FC-4EA5-8031-8D7067F85B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0436B4C-4044-4045-B74D-5A1F071B4B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{100E3196-77E0-4FB0-BD0A-F462B801CA56}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="511">
   <si>
     <t>REPORTE HORAS HOMBRE : TAREO - PERSONAL OPERARIOS</t>
   </si>
@@ -1568,9 +1568,6 @@
   </si>
   <si>
     <t>10814068</t>
-  </si>
-  <si>
-    <t>.97</t>
   </si>
 </sst>
 </file>
@@ -2368,22 +2365,31 @@
     <xf numFmtId="2" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2446,32 +2452,23 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3757,11 +3754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0760EAB-CC3D-40AE-A29A-AB65FF61DEFD}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:FK167"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="FA170" sqref="FA170"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3840,25 +3836,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:167" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
       <c r="V1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AF1" s="2"/>
@@ -4043,36 +4039,36 @@
       <c r="FK2" s="2"/>
     </row>
     <row r="3" spans="1:167" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="77"/>
+      <c r="A3" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="106"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="78" t="s">
+      <c r="X3" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="79"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="108"/>
       <c r="AA3" s="5">
         <v>30</v>
       </c>
@@ -4241,11 +4237,11 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="78" t="s">
+      <c r="X4" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="79"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="108"/>
       <c r="AA4" s="5">
         <v>240</v>
       </c>
@@ -4391,25 +4387,25 @@
       <c r="FK4" s="1"/>
     </row>
     <row r="5" spans="1:167" s="13" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="85"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
@@ -4748,703 +4744,703 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:167" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="91" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="100" t="s">
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="101"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="101"/>
-      <c r="Y8" s="101"/>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="101"/>
-      <c r="AB8" s="101"/>
-      <c r="AC8" s="101"/>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="101"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="101"/>
-      <c r="AI8" s="101"/>
-      <c r="AJ8" s="101"/>
-      <c r="AK8" s="101"/>
-      <c r="AL8" s="101"/>
-      <c r="AM8" s="101"/>
-      <c r="AN8" s="101"/>
-      <c r="AO8" s="101"/>
-      <c r="AP8" s="101"/>
-      <c r="AQ8" s="101"/>
-      <c r="AR8" s="101"/>
-      <c r="AS8" s="101"/>
-      <c r="AT8" s="101"/>
-      <c r="AU8" s="101"/>
-      <c r="AV8" s="101"/>
-      <c r="AW8" s="101"/>
-      <c r="AX8" s="101"/>
-      <c r="AY8" s="101"/>
-      <c r="AZ8" s="102"/>
-      <c r="BA8" s="100" t="s">
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="81"/>
+      <c r="AC8" s="81"/>
+      <c r="AD8" s="81"/>
+      <c r="AE8" s="81"/>
+      <c r="AF8" s="81"/>
+      <c r="AG8" s="81"/>
+      <c r="AH8" s="81"/>
+      <c r="AI8" s="81"/>
+      <c r="AJ8" s="81"/>
+      <c r="AK8" s="81"/>
+      <c r="AL8" s="81"/>
+      <c r="AM8" s="81"/>
+      <c r="AN8" s="81"/>
+      <c r="AO8" s="81"/>
+      <c r="AP8" s="81"/>
+      <c r="AQ8" s="81"/>
+      <c r="AR8" s="81"/>
+      <c r="AS8" s="81"/>
+      <c r="AT8" s="81"/>
+      <c r="AU8" s="81"/>
+      <c r="AV8" s="81"/>
+      <c r="AW8" s="81"/>
+      <c r="AX8" s="81"/>
+      <c r="AY8" s="81"/>
+      <c r="AZ8" s="82"/>
+      <c r="BA8" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="BB8" s="101"/>
-      <c r="BC8" s="101"/>
-      <c r="BD8" s="101"/>
-      <c r="BE8" s="101"/>
-      <c r="BF8" s="101"/>
-      <c r="BG8" s="101"/>
-      <c r="BH8" s="101"/>
-      <c r="BI8" s="101"/>
-      <c r="BJ8" s="101"/>
-      <c r="BK8" s="101"/>
-      <c r="BL8" s="101"/>
-      <c r="BM8" s="101"/>
-      <c r="BN8" s="101"/>
-      <c r="BO8" s="101"/>
-      <c r="BP8" s="101"/>
-      <c r="BQ8" s="101"/>
-      <c r="BR8" s="101"/>
-      <c r="BS8" s="101"/>
-      <c r="BT8" s="101"/>
-      <c r="BU8" s="101"/>
-      <c r="BV8" s="101"/>
-      <c r="BW8" s="101"/>
-      <c r="BX8" s="101"/>
-      <c r="BY8" s="101"/>
-      <c r="BZ8" s="101"/>
-      <c r="CA8" s="101"/>
-      <c r="CB8" s="101"/>
-      <c r="CC8" s="101"/>
-      <c r="CD8" s="101"/>
-      <c r="CE8" s="101"/>
-      <c r="CF8" s="101"/>
-      <c r="CG8" s="101"/>
-      <c r="CH8" s="101"/>
-      <c r="CI8" s="101"/>
-      <c r="CJ8" s="101"/>
-      <c r="CK8" s="101"/>
-      <c r="CL8" s="101"/>
-      <c r="CM8" s="101"/>
-      <c r="CN8" s="101"/>
-      <c r="CO8" s="101"/>
-      <c r="CP8" s="101"/>
-      <c r="CQ8" s="101"/>
-      <c r="CR8" s="101"/>
-      <c r="CS8" s="101"/>
-      <c r="CT8" s="101"/>
-      <c r="CU8" s="101"/>
-      <c r="CV8" s="101"/>
-      <c r="CW8" s="101"/>
-      <c r="CX8" s="101"/>
-      <c r="CY8" s="101"/>
-      <c r="CZ8" s="101"/>
-      <c r="DA8" s="101"/>
-      <c r="DB8" s="101"/>
-      <c r="DC8" s="101"/>
-      <c r="DD8" s="101"/>
-      <c r="DE8" s="101"/>
-      <c r="DF8" s="101"/>
-      <c r="DG8" s="101"/>
-      <c r="DH8" s="101"/>
-      <c r="DI8" s="101"/>
-      <c r="DJ8" s="101"/>
-      <c r="DK8" s="101"/>
-      <c r="DL8" s="101"/>
-      <c r="DM8" s="101"/>
-      <c r="DN8" s="101"/>
-      <c r="DO8" s="101"/>
-      <c r="DP8" s="101"/>
-      <c r="DQ8" s="101"/>
-      <c r="DR8" s="101"/>
-      <c r="DS8" s="101"/>
-      <c r="DT8" s="101"/>
-      <c r="DU8" s="101"/>
-      <c r="DV8" s="101"/>
-      <c r="DW8" s="101"/>
-      <c r="DX8" s="101"/>
-      <c r="DY8" s="101"/>
-      <c r="DZ8" s="101"/>
-      <c r="EA8" s="101"/>
-      <c r="EB8" s="101"/>
-      <c r="EC8" s="101"/>
-      <c r="ED8" s="101"/>
-      <c r="EE8" s="101"/>
-      <c r="EF8" s="101"/>
-      <c r="EG8" s="101"/>
-      <c r="EH8" s="101"/>
-      <c r="EI8" s="101"/>
-      <c r="EJ8" s="101"/>
-      <c r="EK8" s="101"/>
-      <c r="EL8" s="101"/>
-      <c r="EM8" s="101"/>
-      <c r="EN8" s="101"/>
-      <c r="EO8" s="101"/>
-      <c r="EP8" s="101"/>
-      <c r="EQ8" s="101"/>
-      <c r="ER8" s="101"/>
-      <c r="ES8" s="101"/>
-      <c r="ET8" s="101"/>
-      <c r="EU8" s="101"/>
-      <c r="EV8" s="101"/>
-      <c r="EW8" s="101"/>
-      <c r="EX8" s="101"/>
-      <c r="EY8" s="101"/>
-      <c r="EZ8" s="101"/>
-      <c r="FA8" s="101"/>
-      <c r="FB8" s="101"/>
-      <c r="FC8" s="101"/>
-      <c r="FD8" s="101"/>
-      <c r="FE8" s="101"/>
-      <c r="FF8" s="101"/>
-      <c r="FG8" s="101"/>
-      <c r="FH8" s="101"/>
-      <c r="FI8" s="101"/>
-      <c r="FJ8" s="101"/>
-      <c r="FK8" s="102"/>
+      <c r="BB8" s="81"/>
+      <c r="BC8" s="81"/>
+      <c r="BD8" s="81"/>
+      <c r="BE8" s="81"/>
+      <c r="BF8" s="81"/>
+      <c r="BG8" s="81"/>
+      <c r="BH8" s="81"/>
+      <c r="BI8" s="81"/>
+      <c r="BJ8" s="81"/>
+      <c r="BK8" s="81"/>
+      <c r="BL8" s="81"/>
+      <c r="BM8" s="81"/>
+      <c r="BN8" s="81"/>
+      <c r="BO8" s="81"/>
+      <c r="BP8" s="81"/>
+      <c r="BQ8" s="81"/>
+      <c r="BR8" s="81"/>
+      <c r="BS8" s="81"/>
+      <c r="BT8" s="81"/>
+      <c r="BU8" s="81"/>
+      <c r="BV8" s="81"/>
+      <c r="BW8" s="81"/>
+      <c r="BX8" s="81"/>
+      <c r="BY8" s="81"/>
+      <c r="BZ8" s="81"/>
+      <c r="CA8" s="81"/>
+      <c r="CB8" s="81"/>
+      <c r="CC8" s="81"/>
+      <c r="CD8" s="81"/>
+      <c r="CE8" s="81"/>
+      <c r="CF8" s="81"/>
+      <c r="CG8" s="81"/>
+      <c r="CH8" s="81"/>
+      <c r="CI8" s="81"/>
+      <c r="CJ8" s="81"/>
+      <c r="CK8" s="81"/>
+      <c r="CL8" s="81"/>
+      <c r="CM8" s="81"/>
+      <c r="CN8" s="81"/>
+      <c r="CO8" s="81"/>
+      <c r="CP8" s="81"/>
+      <c r="CQ8" s="81"/>
+      <c r="CR8" s="81"/>
+      <c r="CS8" s="81"/>
+      <c r="CT8" s="81"/>
+      <c r="CU8" s="81"/>
+      <c r="CV8" s="81"/>
+      <c r="CW8" s="81"/>
+      <c r="CX8" s="81"/>
+      <c r="CY8" s="81"/>
+      <c r="CZ8" s="81"/>
+      <c r="DA8" s="81"/>
+      <c r="DB8" s="81"/>
+      <c r="DC8" s="81"/>
+      <c r="DD8" s="81"/>
+      <c r="DE8" s="81"/>
+      <c r="DF8" s="81"/>
+      <c r="DG8" s="81"/>
+      <c r="DH8" s="81"/>
+      <c r="DI8" s="81"/>
+      <c r="DJ8" s="81"/>
+      <c r="DK8" s="81"/>
+      <c r="DL8" s="81"/>
+      <c r="DM8" s="81"/>
+      <c r="DN8" s="81"/>
+      <c r="DO8" s="81"/>
+      <c r="DP8" s="81"/>
+      <c r="DQ8" s="81"/>
+      <c r="DR8" s="81"/>
+      <c r="DS8" s="81"/>
+      <c r="DT8" s="81"/>
+      <c r="DU8" s="81"/>
+      <c r="DV8" s="81"/>
+      <c r="DW8" s="81"/>
+      <c r="DX8" s="81"/>
+      <c r="DY8" s="81"/>
+      <c r="DZ8" s="81"/>
+      <c r="EA8" s="81"/>
+      <c r="EB8" s="81"/>
+      <c r="EC8" s="81"/>
+      <c r="ED8" s="81"/>
+      <c r="EE8" s="81"/>
+      <c r="EF8" s="81"/>
+      <c r="EG8" s="81"/>
+      <c r="EH8" s="81"/>
+      <c r="EI8" s="81"/>
+      <c r="EJ8" s="81"/>
+      <c r="EK8" s="81"/>
+      <c r="EL8" s="81"/>
+      <c r="EM8" s="81"/>
+      <c r="EN8" s="81"/>
+      <c r="EO8" s="81"/>
+      <c r="EP8" s="81"/>
+      <c r="EQ8" s="81"/>
+      <c r="ER8" s="81"/>
+      <c r="ES8" s="81"/>
+      <c r="ET8" s="81"/>
+      <c r="EU8" s="81"/>
+      <c r="EV8" s="81"/>
+      <c r="EW8" s="81"/>
+      <c r="EX8" s="81"/>
+      <c r="EY8" s="81"/>
+      <c r="EZ8" s="81"/>
+      <c r="FA8" s="81"/>
+      <c r="FB8" s="81"/>
+      <c r="FC8" s="81"/>
+      <c r="FD8" s="81"/>
+      <c r="FE8" s="81"/>
+      <c r="FF8" s="81"/>
+      <c r="FG8" s="81"/>
+      <c r="FH8" s="81"/>
+      <c r="FI8" s="81"/>
+      <c r="FJ8" s="81"/>
+      <c r="FK8" s="82"/>
     </row>
     <row r="9" spans="1:167" s="18" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="106" t="str">
+      <c r="A9" s="87"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="77" t="str">
         <f>UPPER(TEXT(R10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="106" t="str">
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="77" t="str">
         <f t="shared" ref="W9" si="0">UPPER(TEXT(W10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="108"/>
-      <c r="AB9" s="106" t="str">
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="77" t="str">
         <f t="shared" ref="AB9" si="1">UPPER(TEXT(AB10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="107"/>
-      <c r="AF9" s="108"/>
-      <c r="AG9" s="106" t="str">
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="78"/>
+      <c r="AF9" s="79"/>
+      <c r="AG9" s="77" t="str">
         <f t="shared" ref="AG9" si="2">UPPER(TEXT(AG10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="AH9" s="107"/>
-      <c r="AI9" s="107"/>
-      <c r="AJ9" s="107"/>
-      <c r="AK9" s="108"/>
-      <c r="AL9" s="106" t="str">
+      <c r="AH9" s="78"/>
+      <c r="AI9" s="78"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="79"/>
+      <c r="AL9" s="77" t="str">
         <f t="shared" ref="AL9" si="3">UPPER(TEXT(AL10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="AM9" s="107"/>
-      <c r="AN9" s="107"/>
-      <c r="AO9" s="107"/>
-      <c r="AP9" s="108"/>
-      <c r="AQ9" s="106" t="str">
+      <c r="AM9" s="78"/>
+      <c r="AN9" s="78"/>
+      <c r="AO9" s="78"/>
+      <c r="AP9" s="79"/>
+      <c r="AQ9" s="77" t="str">
         <f t="shared" ref="AQ9" si="4">UPPER(TEXT(AQ10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="AR9" s="107"/>
-      <c r="AS9" s="107"/>
-      <c r="AT9" s="107"/>
-      <c r="AU9" s="108"/>
-      <c r="AV9" s="106" t="str">
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="78"/>
+      <c r="AT9" s="78"/>
+      <c r="AU9" s="79"/>
+      <c r="AV9" s="77" t="str">
         <f t="shared" ref="AV9" si="5">UPPER(TEXT(AV10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="AW9" s="107"/>
-      <c r="AX9" s="107"/>
-      <c r="AY9" s="107"/>
-      <c r="AZ9" s="108"/>
-      <c r="BA9" s="106" t="str">
+      <c r="AW9" s="78"/>
+      <c r="AX9" s="78"/>
+      <c r="AY9" s="78"/>
+      <c r="AZ9" s="79"/>
+      <c r="BA9" s="77" t="str">
         <f t="shared" ref="BA9" si="6">UPPER(TEXT(BA10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="BB9" s="107"/>
-      <c r="BC9" s="107"/>
-      <c r="BD9" s="107"/>
-      <c r="BE9" s="108"/>
-      <c r="BF9" s="106" t="str">
+      <c r="BB9" s="78"/>
+      <c r="BC9" s="78"/>
+      <c r="BD9" s="78"/>
+      <c r="BE9" s="79"/>
+      <c r="BF9" s="77" t="str">
         <f t="shared" ref="BF9" si="7">UPPER(TEXT(BF10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="BG9" s="107"/>
-      <c r="BH9" s="107"/>
-      <c r="BI9" s="107"/>
-      <c r="BJ9" s="108"/>
-      <c r="BK9" s="106" t="str">
+      <c r="BG9" s="78"/>
+      <c r="BH9" s="78"/>
+      <c r="BI9" s="78"/>
+      <c r="BJ9" s="79"/>
+      <c r="BK9" s="77" t="str">
         <f t="shared" ref="BK9" si="8">UPPER(TEXT(BK10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="BL9" s="107"/>
-      <c r="BM9" s="107"/>
-      <c r="BN9" s="107"/>
-      <c r="BO9" s="108"/>
-      <c r="BP9" s="106" t="str">
+      <c r="BL9" s="78"/>
+      <c r="BM9" s="78"/>
+      <c r="BN9" s="78"/>
+      <c r="BO9" s="79"/>
+      <c r="BP9" s="77" t="str">
         <f t="shared" ref="BP9" si="9">UPPER(TEXT(BP10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="BQ9" s="107"/>
-      <c r="BR9" s="107"/>
-      <c r="BS9" s="107"/>
-      <c r="BT9" s="108"/>
-      <c r="BU9" s="106" t="str">
+      <c r="BQ9" s="78"/>
+      <c r="BR9" s="78"/>
+      <c r="BS9" s="78"/>
+      <c r="BT9" s="79"/>
+      <c r="BU9" s="77" t="str">
         <f t="shared" ref="BU9" si="10">UPPER(TEXT(BU10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="BV9" s="107"/>
-      <c r="BW9" s="107"/>
-      <c r="BX9" s="107"/>
-      <c r="BY9" s="108"/>
-      <c r="BZ9" s="106" t="str">
+      <c r="BV9" s="78"/>
+      <c r="BW9" s="78"/>
+      <c r="BX9" s="78"/>
+      <c r="BY9" s="79"/>
+      <c r="BZ9" s="77" t="str">
         <f t="shared" ref="BZ9" si="11">UPPER(TEXT(BZ10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="CA9" s="107"/>
-      <c r="CB9" s="107"/>
-      <c r="CC9" s="107"/>
-      <c r="CD9" s="108"/>
-      <c r="CE9" s="106" t="str">
+      <c r="CA9" s="78"/>
+      <c r="CB9" s="78"/>
+      <c r="CC9" s="78"/>
+      <c r="CD9" s="79"/>
+      <c r="CE9" s="77" t="str">
         <f t="shared" ref="CE9" si="12">UPPER(TEXT(CE10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="CF9" s="107"/>
-      <c r="CG9" s="107"/>
-      <c r="CH9" s="107"/>
-      <c r="CI9" s="108"/>
-      <c r="CJ9" s="106" t="str">
+      <c r="CF9" s="78"/>
+      <c r="CG9" s="78"/>
+      <c r="CH9" s="78"/>
+      <c r="CI9" s="79"/>
+      <c r="CJ9" s="77" t="str">
         <f t="shared" ref="CJ9" si="13">UPPER(TEXT(CJ10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="CK9" s="107"/>
-      <c r="CL9" s="107"/>
-      <c r="CM9" s="107"/>
-      <c r="CN9" s="108"/>
-      <c r="CO9" s="106" t="str">
+      <c r="CK9" s="78"/>
+      <c r="CL9" s="78"/>
+      <c r="CM9" s="78"/>
+      <c r="CN9" s="79"/>
+      <c r="CO9" s="77" t="str">
         <f t="shared" ref="CO9" si="14">UPPER(TEXT(CO10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="CP9" s="107"/>
-      <c r="CQ9" s="107"/>
-      <c r="CR9" s="107"/>
-      <c r="CS9" s="108"/>
-      <c r="CT9" s="106" t="str">
+      <c r="CP9" s="78"/>
+      <c r="CQ9" s="78"/>
+      <c r="CR9" s="78"/>
+      <c r="CS9" s="79"/>
+      <c r="CT9" s="77" t="str">
         <f t="shared" ref="CT9" si="15">UPPER(TEXT(CT10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="CU9" s="107"/>
-      <c r="CV9" s="107"/>
-      <c r="CW9" s="107"/>
-      <c r="CX9" s="108"/>
-      <c r="CY9" s="106" t="str">
+      <c r="CU9" s="78"/>
+      <c r="CV9" s="78"/>
+      <c r="CW9" s="78"/>
+      <c r="CX9" s="79"/>
+      <c r="CY9" s="77" t="str">
         <f t="shared" ref="CY9" si="16">UPPER(TEXT(CY10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="CZ9" s="107"/>
-      <c r="DA9" s="107"/>
-      <c r="DB9" s="107"/>
-      <c r="DC9" s="108"/>
-      <c r="DD9" s="106" t="str">
+      <c r="CZ9" s="78"/>
+      <c r="DA9" s="78"/>
+      <c r="DB9" s="78"/>
+      <c r="DC9" s="79"/>
+      <c r="DD9" s="77" t="str">
         <f t="shared" ref="DD9" si="17">UPPER(TEXT(DD10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="DE9" s="107"/>
-      <c r="DF9" s="107"/>
-      <c r="DG9" s="107"/>
-      <c r="DH9" s="108"/>
-      <c r="DI9" s="106" t="str">
+      <c r="DE9" s="78"/>
+      <c r="DF9" s="78"/>
+      <c r="DG9" s="78"/>
+      <c r="DH9" s="79"/>
+      <c r="DI9" s="77" t="str">
         <f t="shared" ref="DI9" si="18">UPPER(TEXT(DI10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="DJ9" s="107"/>
-      <c r="DK9" s="107"/>
-      <c r="DL9" s="107"/>
-      <c r="DM9" s="108"/>
-      <c r="DN9" s="106" t="str">
+      <c r="DJ9" s="78"/>
+      <c r="DK9" s="78"/>
+      <c r="DL9" s="78"/>
+      <c r="DM9" s="79"/>
+      <c r="DN9" s="77" t="str">
         <f t="shared" ref="DN9" si="19">UPPER(TEXT(DN10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="DO9" s="107"/>
-      <c r="DP9" s="107"/>
-      <c r="DQ9" s="107"/>
-      <c r="DR9" s="108"/>
-      <c r="DS9" s="106" t="str">
+      <c r="DO9" s="78"/>
+      <c r="DP9" s="78"/>
+      <c r="DQ9" s="78"/>
+      <c r="DR9" s="79"/>
+      <c r="DS9" s="77" t="str">
         <f t="shared" ref="DS9" si="20">UPPER(TEXT(DS10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="DT9" s="107"/>
-      <c r="DU9" s="107"/>
-      <c r="DV9" s="107"/>
-      <c r="DW9" s="108"/>
-      <c r="DX9" s="106" t="str">
+      <c r="DT9" s="78"/>
+      <c r="DU9" s="78"/>
+      <c r="DV9" s="78"/>
+      <c r="DW9" s="79"/>
+      <c r="DX9" s="77" t="str">
         <f t="shared" ref="DX9" si="21">UPPER(TEXT(DX10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="DY9" s="107"/>
-      <c r="DZ9" s="107"/>
-      <c r="EA9" s="107"/>
-      <c r="EB9" s="108"/>
-      <c r="EC9" s="106" t="str">
+      <c r="DY9" s="78"/>
+      <c r="DZ9" s="78"/>
+      <c r="EA9" s="78"/>
+      <c r="EB9" s="79"/>
+      <c r="EC9" s="77" t="str">
         <f t="shared" ref="EC9" si="22">UPPER(TEXT(EC10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="ED9" s="107"/>
-      <c r="EE9" s="107"/>
-      <c r="EF9" s="107"/>
-      <c r="EG9" s="108"/>
-      <c r="EH9" s="106" t="str">
+      <c r="ED9" s="78"/>
+      <c r="EE9" s="78"/>
+      <c r="EF9" s="78"/>
+      <c r="EG9" s="79"/>
+      <c r="EH9" s="77" t="str">
         <f t="shared" ref="EH9" si="23">UPPER(TEXT(EH10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="EI9" s="107"/>
-      <c r="EJ9" s="107"/>
-      <c r="EK9" s="107"/>
-      <c r="EL9" s="108"/>
-      <c r="EM9" s="106" t="str">
+      <c r="EI9" s="78"/>
+      <c r="EJ9" s="78"/>
+      <c r="EK9" s="78"/>
+      <c r="EL9" s="79"/>
+      <c r="EM9" s="77" t="str">
         <f t="shared" ref="EM9" si="24">UPPER(TEXT(EM10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="EN9" s="107"/>
-      <c r="EO9" s="107"/>
-      <c r="EP9" s="107"/>
-      <c r="EQ9" s="108"/>
-      <c r="ER9" s="106" t="str">
+      <c r="EN9" s="78"/>
+      <c r="EO9" s="78"/>
+      <c r="EP9" s="78"/>
+      <c r="EQ9" s="79"/>
+      <c r="ER9" s="77" t="str">
         <f t="shared" ref="ER9" si="25">UPPER(TEXT(ER10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="ES9" s="107"/>
-      <c r="ET9" s="107"/>
-      <c r="EU9" s="107"/>
-      <c r="EV9" s="108"/>
-      <c r="EW9" s="106" t="str">
+      <c r="ES9" s="78"/>
+      <c r="ET9" s="78"/>
+      <c r="EU9" s="78"/>
+      <c r="EV9" s="79"/>
+      <c r="EW9" s="77" t="str">
         <f t="shared" ref="EW9" si="26">UPPER(TEXT(EW10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="EX9" s="107"/>
-      <c r="EY9" s="107"/>
-      <c r="EZ9" s="107"/>
-      <c r="FA9" s="108"/>
-      <c r="FB9" s="106" t="str">
+      <c r="EX9" s="78"/>
+      <c r="EY9" s="78"/>
+      <c r="EZ9" s="78"/>
+      <c r="FA9" s="79"/>
+      <c r="FB9" s="77" t="str">
         <f t="shared" ref="FB9" si="27">UPPER(TEXT(FB10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="FC9" s="107"/>
-      <c r="FD9" s="107"/>
-      <c r="FE9" s="107"/>
-      <c r="FF9" s="108"/>
-      <c r="FG9" s="106" t="str">
+      <c r="FC9" s="78"/>
+      <c r="FD9" s="78"/>
+      <c r="FE9" s="78"/>
+      <c r="FF9" s="79"/>
+      <c r="FG9" s="77" t="str">
         <f t="shared" ref="FG9" si="28">UPPER(TEXT(FG10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="FH9" s="107"/>
-      <c r="FI9" s="107"/>
-      <c r="FJ9" s="107"/>
-      <c r="FK9" s="108"/>
+      <c r="FH9" s="78"/>
+      <c r="FI9" s="78"/>
+      <c r="FJ9" s="78"/>
+      <c r="FK9" s="79"/>
     </row>
     <row r="10" spans="1:167" s="12" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="103">
+      <c r="A10" s="87"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="74">
         <v>44706</v>
       </c>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="105"/>
-      <c r="W10" s="103">
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="74">
         <f>+R10+1</f>
         <v>44707</v>
       </c>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="105"/>
-      <c r="AB10" s="103">
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="74">
         <f t="shared" ref="AB10" si="29">+W10+1</f>
         <v>44708</v>
       </c>
-      <c r="AC10" s="104"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="104"/>
-      <c r="AF10" s="105"/>
-      <c r="AG10" s="103">
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="74">
         <f t="shared" ref="AG10" si="30">+AB10+1</f>
         <v>44709</v>
       </c>
-      <c r="AH10" s="104"/>
-      <c r="AI10" s="104"/>
-      <c r="AJ10" s="104"/>
-      <c r="AK10" s="105"/>
-      <c r="AL10" s="103">
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="76"/>
+      <c r="AL10" s="74">
         <f t="shared" ref="AL10" si="31">+AG10+1</f>
         <v>44710</v>
       </c>
-      <c r="AM10" s="104"/>
-      <c r="AN10" s="104"/>
-      <c r="AO10" s="104"/>
-      <c r="AP10" s="105"/>
-      <c r="AQ10" s="103">
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="74">
         <f t="shared" ref="AQ10" si="32">+AL10+1</f>
         <v>44711</v>
       </c>
-      <c r="AR10" s="104"/>
-      <c r="AS10" s="104"/>
-      <c r="AT10" s="104"/>
-      <c r="AU10" s="105"/>
-      <c r="AV10" s="103">
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="75"/>
+      <c r="AU10" s="76"/>
+      <c r="AV10" s="74">
         <f t="shared" ref="AV10" si="33">+AQ10+1</f>
         <v>44712</v>
       </c>
-      <c r="AW10" s="104"/>
-      <c r="AX10" s="104"/>
-      <c r="AY10" s="104"/>
-      <c r="AZ10" s="105"/>
-      <c r="BA10" s="103">
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="75"/>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="76"/>
+      <c r="BA10" s="74">
         <f t="shared" ref="BA10" si="34">+AV10+1</f>
         <v>44713</v>
       </c>
-      <c r="BB10" s="104"/>
-      <c r="BC10" s="104"/>
-      <c r="BD10" s="104"/>
-      <c r="BE10" s="105"/>
-      <c r="BF10" s="103">
+      <c r="BB10" s="75"/>
+      <c r="BC10" s="75"/>
+      <c r="BD10" s="75"/>
+      <c r="BE10" s="76"/>
+      <c r="BF10" s="74">
         <f t="shared" ref="BF10" si="35">+BA10+1</f>
         <v>44714</v>
       </c>
-      <c r="BG10" s="104"/>
-      <c r="BH10" s="104"/>
-      <c r="BI10" s="104"/>
-      <c r="BJ10" s="105"/>
-      <c r="BK10" s="103">
+      <c r="BG10" s="75"/>
+      <c r="BH10" s="75"/>
+      <c r="BI10" s="75"/>
+      <c r="BJ10" s="76"/>
+      <c r="BK10" s="74">
         <f t="shared" ref="BK10" si="36">+BF10+1</f>
         <v>44715</v>
       </c>
-      <c r="BL10" s="104"/>
-      <c r="BM10" s="104"/>
-      <c r="BN10" s="104"/>
-      <c r="BO10" s="105"/>
-      <c r="BP10" s="103">
+      <c r="BL10" s="75"/>
+      <c r="BM10" s="75"/>
+      <c r="BN10" s="75"/>
+      <c r="BO10" s="76"/>
+      <c r="BP10" s="74">
         <f t="shared" ref="BP10" si="37">+BK10+1</f>
         <v>44716</v>
       </c>
-      <c r="BQ10" s="104"/>
-      <c r="BR10" s="104"/>
-      <c r="BS10" s="104"/>
-      <c r="BT10" s="105"/>
-      <c r="BU10" s="103">
+      <c r="BQ10" s="75"/>
+      <c r="BR10" s="75"/>
+      <c r="BS10" s="75"/>
+      <c r="BT10" s="76"/>
+      <c r="BU10" s="74">
         <f t="shared" ref="BU10" si="38">+BP10+1</f>
         <v>44717</v>
       </c>
-      <c r="BV10" s="104"/>
-      <c r="BW10" s="104"/>
-      <c r="BX10" s="104"/>
-      <c r="BY10" s="105"/>
-      <c r="BZ10" s="103">
+      <c r="BV10" s="75"/>
+      <c r="BW10" s="75"/>
+      <c r="BX10" s="75"/>
+      <c r="BY10" s="76"/>
+      <c r="BZ10" s="74">
         <f t="shared" ref="BZ10" si="39">+BU10+1</f>
         <v>44718</v>
       </c>
-      <c r="CA10" s="104"/>
-      <c r="CB10" s="104"/>
-      <c r="CC10" s="104"/>
-      <c r="CD10" s="105"/>
-      <c r="CE10" s="103">
+      <c r="CA10" s="75"/>
+      <c r="CB10" s="75"/>
+      <c r="CC10" s="75"/>
+      <c r="CD10" s="76"/>
+      <c r="CE10" s="74">
         <f t="shared" ref="CE10" si="40">+BZ10+1</f>
         <v>44719</v>
       </c>
-      <c r="CF10" s="104"/>
-      <c r="CG10" s="104"/>
-      <c r="CH10" s="104"/>
-      <c r="CI10" s="105"/>
-      <c r="CJ10" s="103">
+      <c r="CF10" s="75"/>
+      <c r="CG10" s="75"/>
+      <c r="CH10" s="75"/>
+      <c r="CI10" s="76"/>
+      <c r="CJ10" s="74">
         <f t="shared" ref="CJ10" si="41">+CE10+1</f>
         <v>44720</v>
       </c>
-      <c r="CK10" s="104"/>
-      <c r="CL10" s="104"/>
-      <c r="CM10" s="104"/>
-      <c r="CN10" s="105"/>
-      <c r="CO10" s="103">
+      <c r="CK10" s="75"/>
+      <c r="CL10" s="75"/>
+      <c r="CM10" s="75"/>
+      <c r="CN10" s="76"/>
+      <c r="CO10" s="74">
         <f t="shared" ref="CO10" si="42">+CJ10+1</f>
         <v>44721</v>
       </c>
-      <c r="CP10" s="104"/>
-      <c r="CQ10" s="104"/>
-      <c r="CR10" s="104"/>
-      <c r="CS10" s="105"/>
-      <c r="CT10" s="103">
+      <c r="CP10" s="75"/>
+      <c r="CQ10" s="75"/>
+      <c r="CR10" s="75"/>
+      <c r="CS10" s="76"/>
+      <c r="CT10" s="74">
         <f t="shared" ref="CT10" si="43">+CO10+1</f>
         <v>44722</v>
       </c>
-      <c r="CU10" s="104"/>
-      <c r="CV10" s="104"/>
-      <c r="CW10" s="104"/>
-      <c r="CX10" s="105"/>
-      <c r="CY10" s="103">
+      <c r="CU10" s="75"/>
+      <c r="CV10" s="75"/>
+      <c r="CW10" s="75"/>
+      <c r="CX10" s="76"/>
+      <c r="CY10" s="74">
         <f t="shared" ref="CY10" si="44">+CT10+1</f>
         <v>44723</v>
       </c>
-      <c r="CZ10" s="104"/>
-      <c r="DA10" s="104"/>
-      <c r="DB10" s="104"/>
-      <c r="DC10" s="105"/>
-      <c r="DD10" s="103">
+      <c r="CZ10" s="75"/>
+      <c r="DA10" s="75"/>
+      <c r="DB10" s="75"/>
+      <c r="DC10" s="76"/>
+      <c r="DD10" s="74">
         <f t="shared" ref="DD10" si="45">+CY10+1</f>
         <v>44724</v>
       </c>
-      <c r="DE10" s="104"/>
-      <c r="DF10" s="104"/>
-      <c r="DG10" s="104"/>
-      <c r="DH10" s="105"/>
-      <c r="DI10" s="103">
+      <c r="DE10" s="75"/>
+      <c r="DF10" s="75"/>
+      <c r="DG10" s="75"/>
+      <c r="DH10" s="76"/>
+      <c r="DI10" s="74">
         <f t="shared" ref="DI10" si="46">+DD10+1</f>
         <v>44725</v>
       </c>
-      <c r="DJ10" s="104"/>
-      <c r="DK10" s="104"/>
-      <c r="DL10" s="104"/>
-      <c r="DM10" s="105"/>
-      <c r="DN10" s="103">
+      <c r="DJ10" s="75"/>
+      <c r="DK10" s="75"/>
+      <c r="DL10" s="75"/>
+      <c r="DM10" s="76"/>
+      <c r="DN10" s="74">
         <f t="shared" ref="DN10" si="47">+DI10+1</f>
         <v>44726</v>
       </c>
-      <c r="DO10" s="104"/>
-      <c r="DP10" s="104"/>
-      <c r="DQ10" s="104"/>
-      <c r="DR10" s="105"/>
-      <c r="DS10" s="103">
+      <c r="DO10" s="75"/>
+      <c r="DP10" s="75"/>
+      <c r="DQ10" s="75"/>
+      <c r="DR10" s="76"/>
+      <c r="DS10" s="74">
         <f t="shared" ref="DS10" si="48">+DN10+1</f>
         <v>44727</v>
       </c>
-      <c r="DT10" s="104"/>
-      <c r="DU10" s="104"/>
-      <c r="DV10" s="104"/>
-      <c r="DW10" s="105"/>
-      <c r="DX10" s="103">
+      <c r="DT10" s="75"/>
+      <c r="DU10" s="75"/>
+      <c r="DV10" s="75"/>
+      <c r="DW10" s="76"/>
+      <c r="DX10" s="74">
         <f t="shared" ref="DX10" si="49">+DS10+1</f>
         <v>44728</v>
       </c>
-      <c r="DY10" s="104"/>
-      <c r="DZ10" s="104"/>
-      <c r="EA10" s="104"/>
-      <c r="EB10" s="105"/>
-      <c r="EC10" s="103">
+      <c r="DY10" s="75"/>
+      <c r="DZ10" s="75"/>
+      <c r="EA10" s="75"/>
+      <c r="EB10" s="76"/>
+      <c r="EC10" s="74">
         <f t="shared" ref="EC10" si="50">+DX10+1</f>
         <v>44729</v>
       </c>
-      <c r="ED10" s="104"/>
-      <c r="EE10" s="104"/>
-      <c r="EF10" s="104"/>
-      <c r="EG10" s="105"/>
-      <c r="EH10" s="103">
+      <c r="ED10" s="75"/>
+      <c r="EE10" s="75"/>
+      <c r="EF10" s="75"/>
+      <c r="EG10" s="76"/>
+      <c r="EH10" s="74">
         <f t="shared" ref="EH10" si="51">+EC10+1</f>
         <v>44730</v>
       </c>
-      <c r="EI10" s="104"/>
-      <c r="EJ10" s="104"/>
-      <c r="EK10" s="104"/>
-      <c r="EL10" s="105"/>
-      <c r="EM10" s="103">
+      <c r="EI10" s="75"/>
+      <c r="EJ10" s="75"/>
+      <c r="EK10" s="75"/>
+      <c r="EL10" s="76"/>
+      <c r="EM10" s="74">
         <f t="shared" ref="EM10" si="52">+EH10+1</f>
         <v>44731</v>
       </c>
-      <c r="EN10" s="104"/>
-      <c r="EO10" s="104"/>
-      <c r="EP10" s="104"/>
-      <c r="EQ10" s="105"/>
-      <c r="ER10" s="103">
+      <c r="EN10" s="75"/>
+      <c r="EO10" s="75"/>
+      <c r="EP10" s="75"/>
+      <c r="EQ10" s="76"/>
+      <c r="ER10" s="74">
         <f t="shared" ref="ER10" si="53">+EM10+1</f>
         <v>44732</v>
       </c>
-      <c r="ES10" s="104"/>
-      <c r="ET10" s="104"/>
-      <c r="EU10" s="104"/>
-      <c r="EV10" s="105"/>
-      <c r="EW10" s="103">
+      <c r="ES10" s="75"/>
+      <c r="ET10" s="75"/>
+      <c r="EU10" s="75"/>
+      <c r="EV10" s="76"/>
+      <c r="EW10" s="74">
         <f t="shared" ref="EW10" si="54">+ER10+1</f>
         <v>44733</v>
       </c>
-      <c r="EX10" s="104"/>
-      <c r="EY10" s="104"/>
-      <c r="EZ10" s="104"/>
-      <c r="FA10" s="105"/>
-      <c r="FB10" s="103">
+      <c r="EX10" s="75"/>
+      <c r="EY10" s="75"/>
+      <c r="EZ10" s="75"/>
+      <c r="FA10" s="76"/>
+      <c r="FB10" s="74">
         <f t="shared" ref="FB10" si="55">+EW10+1</f>
         <v>44734</v>
       </c>
-      <c r="FC10" s="104"/>
-      <c r="FD10" s="104"/>
-      <c r="FE10" s="104"/>
-      <c r="FF10" s="105"/>
-      <c r="FG10" s="103">
+      <c r="FC10" s="75"/>
+      <c r="FD10" s="75"/>
+      <c r="FE10" s="75"/>
+      <c r="FF10" s="76"/>
+      <c r="FG10" s="74">
         <f t="shared" ref="FG10" si="56">+FB10+1</f>
         <v>44735</v>
       </c>
-      <c r="FH10" s="104"/>
-      <c r="FI10" s="104"/>
-      <c r="FJ10" s="104"/>
-      <c r="FK10" s="105"/>
+      <c r="FH10" s="75"/>
+      <c r="FI10" s="75"/>
+      <c r="FJ10" s="75"/>
+      <c r="FK10" s="76"/>
     </row>
     <row r="11" spans="1:167" s="21" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="44" t="s">
         <v>173</v>
       </c>
@@ -5944,7 +5940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
@@ -5959,7 +5955,7 @@
       </c>
       <c r="E12" s="37">
         <f t="shared" ref="E12:E43" si="57">SUMIF($R$11:$FK$11,"T",R12:FK12)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="37">
         <f t="shared" ref="F12:F43" si="58">COUNTIF(R12:FK12,"F")+(COUNT(R12,W12,AB12,AG12,AL12,AQ12,AV12,BA12,BF12,BK12,BP12,BU12,BZ12,CE12,CJ12,CO12,CT12,CY12,DD12,DI12,DN12,DS12,DX12,EC12,EH12,EM12,ER12,EW12,FB12,FG12)-E12)</f>
@@ -5987,7 +5983,7 @@
       </c>
       <c r="L12" s="38">
         <f t="shared" ref="L12:L43" si="64">+E12+F12+H12+I12+J12+K12</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M12" s="24">
         <f t="shared" ref="M12:M43" si="65">SUMIF($R$11:$FK$11,$M$11,R12:FK12)</f>
@@ -6220,13 +6216,15 @@
       <c r="FD12" s="32"/>
       <c r="FE12" s="33"/>
       <c r="FF12" s="34"/>
-      <c r="FG12" s="31"/>
+      <c r="FG12" s="31">
+        <v>1</v>
+      </c>
       <c r="FH12" s="32"/>
       <c r="FI12" s="32"/>
       <c r="FJ12" s="33"/>
       <c r="FK12" s="34"/>
     </row>
-    <row r="13" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>17</v>
       </c>
@@ -6245,11 +6243,11 @@
       </c>
       <c r="F13" s="37">
         <f t="shared" si="58"/>
-        <v>6.25</v>
+        <v>7.25</v>
       </c>
       <c r="G13" s="37">
         <f t="shared" si="59"/>
-        <v>1.000000000000002</v>
+        <v>1.166666666666669</v>
       </c>
       <c r="H13" s="24">
         <f t="shared" si="60"/>
@@ -6269,7 +6267,7 @@
       </c>
       <c r="L13" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M13" s="24">
         <f t="shared" si="65"/>
@@ -6498,13 +6496,15 @@
       <c r="FD13" s="32"/>
       <c r="FE13" s="33"/>
       <c r="FF13" s="34"/>
-      <c r="FG13" s="31"/>
+      <c r="FG13" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="FH13" s="32"/>
       <c r="FI13" s="32"/>
       <c r="FJ13" s="33"/>
       <c r="FK13" s="34"/>
     </row>
-    <row r="14" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>18</v>
       </c>
@@ -6523,11 +6523,11 @@
       </c>
       <c r="F14" s="37">
         <f t="shared" si="58"/>
-        <v>4.3999999999999986</v>
+        <v>5.3999999999999986</v>
       </c>
       <c r="G14" s="37">
         <f t="shared" si="59"/>
-        <v>0.66666666666666796</v>
+        <v>0.83333333333333492</v>
       </c>
       <c r="H14" s="24">
         <f t="shared" si="60"/>
@@ -6547,7 +6547,7 @@
       </c>
       <c r="L14" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M14" s="24">
         <f t="shared" si="65"/>
@@ -6776,13 +6776,15 @@
       <c r="FD14" s="32"/>
       <c r="FE14" s="33"/>
       <c r="FF14" s="34"/>
-      <c r="FG14" s="31"/>
+      <c r="FG14" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="FH14" s="32"/>
       <c r="FI14" s="32"/>
       <c r="FJ14" s="33"/>
       <c r="FK14" s="34"/>
     </row>
-    <row r="15" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
@@ -6797,7 +6799,7 @@
       </c>
       <c r="E15" s="37">
         <f t="shared" si="57"/>
-        <v>21.75</v>
+        <v>22.75</v>
       </c>
       <c r="F15" s="37">
         <f t="shared" si="58"/>
@@ -6825,7 +6827,7 @@
       </c>
       <c r="L15" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M15" s="24">
         <f t="shared" si="65"/>
@@ -7064,13 +7066,15 @@
       <c r="FD15" s="32"/>
       <c r="FE15" s="33"/>
       <c r="FF15" s="34"/>
-      <c r="FG15" s="31"/>
+      <c r="FG15" s="31">
+        <v>1</v>
+      </c>
       <c r="FH15" s="32"/>
       <c r="FI15" s="32"/>
       <c r="FJ15" s="33"/>
       <c r="FK15" s="34"/>
     </row>
-    <row r="16" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>20</v>
       </c>
@@ -7085,7 +7089,7 @@
       </c>
       <c r="E16" s="37">
         <f t="shared" si="57"/>
-        <v>27.310000000000002</v>
+        <v>28.310000000000002</v>
       </c>
       <c r="F16" s="37">
         <f t="shared" si="58"/>
@@ -7113,7 +7117,7 @@
       </c>
       <c r="L16" s="38">
         <f t="shared" si="64"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M16" s="24">
         <f t="shared" si="65"/>
@@ -7346,13 +7350,15 @@
       <c r="FD16" s="32"/>
       <c r="FE16" s="33"/>
       <c r="FF16" s="34"/>
-      <c r="FG16" s="31"/>
+      <c r="FG16" s="31">
+        <v>1</v>
+      </c>
       <c r="FH16" s="32"/>
       <c r="FI16" s="32"/>
       <c r="FJ16" s="33"/>
       <c r="FK16" s="34"/>
     </row>
-    <row r="17" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>21</v>
       </c>
@@ -7367,7 +7373,7 @@
       </c>
       <c r="E17" s="37">
         <f t="shared" si="57"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" si="58"/>
@@ -7395,7 +7401,7 @@
       </c>
       <c r="L17" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M17" s="24">
         <f t="shared" si="65"/>
@@ -7630,13 +7636,15 @@
       <c r="FD17" s="32"/>
       <c r="FE17" s="33"/>
       <c r="FF17" s="34"/>
-      <c r="FG17" s="31"/>
+      <c r="FG17" s="31">
+        <v>1</v>
+      </c>
       <c r="FH17" s="32"/>
       <c r="FI17" s="32"/>
       <c r="FJ17" s="33"/>
       <c r="FK17" s="34"/>
     </row>
-    <row r="18" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>22</v>
       </c>
@@ -7651,7 +7659,7 @@
       </c>
       <c r="E18" s="37">
         <f t="shared" si="57"/>
-        <v>24.75</v>
+        <v>25.75</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="58"/>
@@ -7679,7 +7687,7 @@
       </c>
       <c r="L18" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M18" s="24">
         <f t="shared" si="65"/>
@@ -7912,13 +7920,15 @@
       <c r="FD18" s="32"/>
       <c r="FE18" s="33"/>
       <c r="FF18" s="34"/>
-      <c r="FG18" s="31"/>
+      <c r="FG18" s="31">
+        <v>1</v>
+      </c>
       <c r="FH18" s="32"/>
       <c r="FI18" s="32"/>
       <c r="FJ18" s="33"/>
       <c r="FK18" s="34"/>
     </row>
-    <row r="19" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>23</v>
       </c>
@@ -7933,7 +7943,7 @@
       </c>
       <c r="E19" s="37">
         <f t="shared" si="57"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="58"/>
@@ -7961,7 +7971,7 @@
       </c>
       <c r="L19" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M19" s="24">
         <f t="shared" si="65"/>
@@ -8200,13 +8210,15 @@
       <c r="FD19" s="32"/>
       <c r="FE19" s="33"/>
       <c r="FF19" s="34"/>
-      <c r="FG19" s="31"/>
+      <c r="FG19" s="31">
+        <v>1</v>
+      </c>
       <c r="FH19" s="32"/>
       <c r="FI19" s="32"/>
       <c r="FJ19" s="33"/>
       <c r="FK19" s="34"/>
     </row>
-    <row r="20" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>24</v>
       </c>
@@ -8448,7 +8460,7 @@
       <c r="FJ20" s="33"/>
       <c r="FK20" s="34"/>
     </row>
-    <row r="21" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>25</v>
       </c>
@@ -8467,11 +8479,11 @@
       </c>
       <c r="F21" s="37">
         <f t="shared" si="58"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21" s="37">
         <f t="shared" si="59"/>
-        <v>0.66666666666666796</v>
+        <v>0.83333333333333492</v>
       </c>
       <c r="H21" s="24">
         <f t="shared" si="60"/>
@@ -8491,7 +8503,7 @@
       </c>
       <c r="L21" s="38">
         <f t="shared" si="64"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M21" s="24">
         <f t="shared" si="65"/>
@@ -8684,13 +8696,15 @@
       <c r="FD21" s="32"/>
       <c r="FE21" s="33"/>
       <c r="FF21" s="34"/>
-      <c r="FG21" s="31"/>
+      <c r="FG21" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="FH21" s="32"/>
       <c r="FI21" s="32"/>
       <c r="FJ21" s="33"/>
       <c r="FK21" s="34"/>
     </row>
-    <row r="22" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>26</v>
       </c>
@@ -8705,7 +8719,7 @@
       </c>
       <c r="E22" s="37">
         <f t="shared" si="57"/>
-        <v>21.689999999999998</v>
+        <v>22.689999999999998</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" si="58"/>
@@ -8733,11 +8747,11 @@
       </c>
       <c r="L22" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M22" s="24">
         <f t="shared" si="65"/>
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="66"/>
@@ -8753,7 +8767,7 @@
       </c>
       <c r="Q22" s="35">
         <f t="shared" si="69"/>
-        <v>12.75</v>
+        <v>13.75</v>
       </c>
       <c r="R22" s="31">
         <v>1</v>
@@ -8978,8 +8992,12 @@
       <c r="FD22" s="32"/>
       <c r="FE22" s="33"/>
       <c r="FF22" s="34"/>
-      <c r="FG22" s="31"/>
-      <c r="FH22" s="32"/>
+      <c r="FG22" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH22" s="32">
+        <v>1</v>
+      </c>
       <c r="FI22" s="32"/>
       <c r="FJ22" s="33"/>
       <c r="FK22" s="34"/>
@@ -8988,13 +9006,13 @@
       <c r="A23" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="61" t="s">
         <v>411</v>
       </c>
       <c r="E23" s="37">
@@ -9266,7 +9284,7 @@
       <c r="FJ23" s="33"/>
       <c r="FK23" s="34"/>
     </row>
-    <row r="24" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>28</v>
       </c>
@@ -9281,7 +9299,7 @@
       </c>
       <c r="E24" s="37">
         <f t="shared" si="57"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="58"/>
@@ -9309,7 +9327,7 @@
       </c>
       <c r="L24" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M24" s="24">
         <f t="shared" si="65"/>
@@ -9564,13 +9582,15 @@
       <c r="FD24" s="32"/>
       <c r="FE24" s="33"/>
       <c r="FF24" s="34"/>
-      <c r="FG24" s="31"/>
+      <c r="FG24" s="31">
+        <v>1</v>
+      </c>
       <c r="FH24" s="32"/>
       <c r="FI24" s="32"/>
       <c r="FJ24" s="33"/>
       <c r="FK24" s="34"/>
     </row>
-    <row r="25" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>29</v>
       </c>
@@ -9585,7 +9605,7 @@
       </c>
       <c r="E25" s="37">
         <f t="shared" si="57"/>
-        <v>25.75</v>
+        <v>26.75</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="58"/>
@@ -9613,7 +9633,7 @@
       </c>
       <c r="L25" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M25" s="24">
         <f t="shared" si="65"/>
@@ -9866,13 +9886,15 @@
       <c r="FD25" s="32"/>
       <c r="FE25" s="33"/>
       <c r="FF25" s="34"/>
-      <c r="FG25" s="31"/>
+      <c r="FG25" s="31">
+        <v>1</v>
+      </c>
       <c r="FH25" s="32"/>
       <c r="FI25" s="32"/>
       <c r="FJ25" s="33"/>
       <c r="FK25" s="34"/>
     </row>
-    <row r="26" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>30</v>
       </c>
@@ -9887,7 +9909,7 @@
       </c>
       <c r="E26" s="37">
         <f t="shared" si="57"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="58"/>
@@ -9915,11 +9937,11 @@
       </c>
       <c r="L26" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M26" s="24">
         <f t="shared" si="65"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="66"/>
@@ -9935,7 +9957,7 @@
       </c>
       <c r="Q26" s="35">
         <f t="shared" si="69"/>
-        <v>151.5</v>
+        <v>152.5</v>
       </c>
       <c r="R26" s="31">
         <v>1</v>
@@ -10208,13 +10230,17 @@
       <c r="FD26" s="32"/>
       <c r="FE26" s="33"/>
       <c r="FF26" s="34"/>
-      <c r="FG26" s="31"/>
-      <c r="FH26" s="32"/>
+      <c r="FG26" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH26" s="32">
+        <v>1</v>
+      </c>
       <c r="FI26" s="32"/>
       <c r="FJ26" s="33"/>
       <c r="FK26" s="34"/>
     </row>
-    <row r="27" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>31</v>
       </c>
@@ -10233,11 +10259,11 @@
       </c>
       <c r="F27" s="37">
         <f t="shared" si="58"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" s="37">
         <f t="shared" si="59"/>
-        <v>0.500000000000001</v>
+        <v>0.66666666666666796</v>
       </c>
       <c r="H27" s="24">
         <f t="shared" si="60"/>
@@ -10257,7 +10283,7 @@
       </c>
       <c r="L27" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M27" s="24">
         <f t="shared" si="65"/>
@@ -10486,13 +10512,15 @@
       <c r="FD27" s="32"/>
       <c r="FE27" s="33"/>
       <c r="FF27" s="34"/>
-      <c r="FG27" s="31"/>
+      <c r="FG27" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="FH27" s="32"/>
       <c r="FI27" s="32"/>
       <c r="FJ27" s="33"/>
       <c r="FK27" s="34"/>
     </row>
-    <row r="28" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>32</v>
       </c>
@@ -10710,7 +10738,7 @@
       <c r="FJ28" s="33"/>
       <c r="FK28" s="34"/>
     </row>
-    <row r="29" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>33</v>
       </c>
@@ -10725,7 +10753,7 @@
       </c>
       <c r="E29" s="37">
         <f t="shared" si="57"/>
-        <v>28.88</v>
+        <v>29.88</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="58"/>
@@ -10753,15 +10781,15 @@
       </c>
       <c r="L29" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M29" s="24">
         <f t="shared" si="65"/>
-        <v>33.5</v>
+        <v>35.5</v>
       </c>
       <c r="N29" s="24">
         <f t="shared" si="66"/>
-        <v>20.75</v>
+        <v>22.75</v>
       </c>
       <c r="O29" s="24">
         <f t="shared" si="67"/>
@@ -10769,11 +10797,11 @@
       </c>
       <c r="P29" s="24">
         <f t="shared" si="68"/>
-        <v>104.25</v>
+        <v>112.25</v>
       </c>
       <c r="Q29" s="35">
         <f t="shared" si="69"/>
-        <v>166.5</v>
+        <v>178.5</v>
       </c>
       <c r="R29" s="31">
         <v>1</v>
@@ -11064,13 +11092,21 @@
       <c r="FF29" s="34">
         <v>8</v>
       </c>
-      <c r="FG29" s="31"/>
-      <c r="FH29" s="32"/>
-      <c r="FI29" s="32"/>
+      <c r="FG29" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH29" s="32">
+        <v>2</v>
+      </c>
+      <c r="FI29" s="32">
+        <v>2</v>
+      </c>
       <c r="FJ29" s="33"/>
-      <c r="FK29" s="34"/>
+      <c r="FK29" s="34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="30" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>34</v>
       </c>
@@ -11314,7 +11350,7 @@
       <c r="FJ30" s="33"/>
       <c r="FK30" s="34"/>
     </row>
-    <row r="31" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>35</v>
       </c>
@@ -11329,7 +11365,7 @@
       </c>
       <c r="E31" s="37">
         <f t="shared" si="57"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F31" s="37">
         <f t="shared" si="58"/>
@@ -11357,7 +11393,7 @@
       </c>
       <c r="L31" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M31" s="24">
         <f t="shared" si="65"/>
@@ -11373,11 +11409,11 @@
       </c>
       <c r="P31" s="24">
         <f t="shared" si="68"/>
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q31" s="35">
         <f t="shared" si="69"/>
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="R31" s="31">
         <v>1</v>
@@ -11650,13 +11686,17 @@
       <c r="FF31" s="34">
         <v>8</v>
       </c>
-      <c r="FG31" s="31"/>
+      <c r="FG31" s="31">
+        <v>1</v>
+      </c>
       <c r="FH31" s="32"/>
       <c r="FI31" s="32"/>
       <c r="FJ31" s="33"/>
-      <c r="FK31" s="34"/>
+      <c r="FK31" s="34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>36</v>
       </c>
@@ -11671,7 +11711,7 @@
       </c>
       <c r="E32" s="37">
         <f t="shared" si="57"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="58"/>
@@ -11699,11 +11739,11 @@
       </c>
       <c r="L32" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M32" s="24">
         <f t="shared" si="65"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N32" s="24">
         <f t="shared" si="66"/>
@@ -11715,11 +11755,11 @@
       </c>
       <c r="P32" s="24">
         <f t="shared" si="68"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="35">
         <f t="shared" si="69"/>
-        <v>135.5</v>
+        <v>138.5</v>
       </c>
       <c r="R32" s="31" t="s">
         <v>475</v>
@@ -11998,13 +12038,19 @@
       <c r="FD32" s="32"/>
       <c r="FE32" s="33"/>
       <c r="FF32" s="34"/>
-      <c r="FG32" s="31"/>
-      <c r="FH32" s="32"/>
+      <c r="FG32" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH32" s="32">
+        <v>2</v>
+      </c>
       <c r="FI32" s="32"/>
       <c r="FJ32" s="33"/>
-      <c r="FK32" s="34"/>
+      <c r="FK32" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>37</v>
       </c>
@@ -12019,7 +12065,7 @@
       </c>
       <c r="E33" s="37">
         <f t="shared" si="57"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" si="58"/>
@@ -12047,11 +12093,11 @@
       </c>
       <c r="L33" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M33" s="24">
         <f t="shared" si="65"/>
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="N33" s="24">
         <f t="shared" si="66"/>
@@ -12067,7 +12113,7 @@
       </c>
       <c r="Q33" s="35">
         <f t="shared" si="69"/>
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="R33" s="31">
         <v>1</v>
@@ -12298,13 +12344,17 @@
       <c r="FD33" s="32"/>
       <c r="FE33" s="33"/>
       <c r="FF33" s="34"/>
-      <c r="FG33" s="31"/>
-      <c r="FH33" s="32"/>
+      <c r="FG33" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH33" s="32">
+        <v>1</v>
+      </c>
       <c r="FI33" s="32"/>
       <c r="FJ33" s="33"/>
       <c r="FK33" s="34"/>
     </row>
-    <row r="34" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>38</v>
       </c>
@@ -12319,7 +12369,7 @@
       </c>
       <c r="E34" s="37">
         <f t="shared" si="57"/>
-        <v>25.22</v>
+        <v>26.22</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="58"/>
@@ -12347,11 +12397,11 @@
       </c>
       <c r="L34" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M34" s="24">
         <f t="shared" si="65"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N34" s="24">
         <f t="shared" si="66"/>
@@ -12367,7 +12417,7 @@
       </c>
       <c r="Q34" s="35">
         <f t="shared" si="69"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R34" s="31">
         <v>1</v>
@@ -12588,13 +12638,17 @@
       <c r="FD34" s="32"/>
       <c r="FE34" s="33"/>
       <c r="FF34" s="34"/>
-      <c r="FG34" s="31"/>
-      <c r="FH34" s="32"/>
+      <c r="FG34" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH34" s="32">
+        <v>1</v>
+      </c>
       <c r="FI34" s="32"/>
       <c r="FJ34" s="33"/>
       <c r="FK34" s="34"/>
     </row>
-    <row r="35" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>39</v>
       </c>
@@ -12609,7 +12663,7 @@
       </c>
       <c r="E35" s="37">
         <f t="shared" si="57"/>
-        <v>22.380000000000003</v>
+        <v>23.380000000000003</v>
       </c>
       <c r="F35" s="37">
         <f t="shared" si="58"/>
@@ -12637,15 +12691,15 @@
       </c>
       <c r="L35" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M35" s="24">
         <f t="shared" si="65"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N35" s="24">
         <f t="shared" si="66"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O35" s="24">
         <f t="shared" si="67"/>
@@ -12653,11 +12707,11 @@
       </c>
       <c r="P35" s="24">
         <f t="shared" si="68"/>
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="Q35" s="35">
         <f t="shared" si="69"/>
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="R35" s="31">
         <v>1</v>
@@ -12952,13 +13006,21 @@
       <c r="FF35" s="34">
         <v>8</v>
       </c>
-      <c r="FG35" s="31"/>
-      <c r="FH35" s="32"/>
-      <c r="FI35" s="32"/>
+      <c r="FG35" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH35" s="32">
+        <v>2</v>
+      </c>
+      <c r="FI35" s="32">
+        <v>1</v>
+      </c>
       <c r="FJ35" s="33"/>
-      <c r="FK35" s="34"/>
+      <c r="FK35" s="34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="36" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>40</v>
       </c>
@@ -12973,7 +13035,7 @@
       </c>
       <c r="E36" s="37">
         <f t="shared" si="57"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F36" s="37">
         <f t="shared" si="58"/>
@@ -13001,7 +13063,7 @@
       </c>
       <c r="L36" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M36" s="24">
         <f t="shared" si="65"/>
@@ -13236,13 +13298,15 @@
       <c r="FD36" s="32"/>
       <c r="FE36" s="33"/>
       <c r="FF36" s="34"/>
-      <c r="FG36" s="31"/>
+      <c r="FG36" s="31">
+        <v>1</v>
+      </c>
       <c r="FH36" s="32"/>
       <c r="FI36" s="32"/>
       <c r="FJ36" s="33"/>
       <c r="FK36" s="34"/>
     </row>
-    <row r="37" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>41</v>
       </c>
@@ -13522,7 +13586,7 @@
       <c r="FJ37" s="33"/>
       <c r="FK37" s="34"/>
     </row>
-    <row r="38" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>42</v>
       </c>
@@ -13537,11 +13601,11 @@
       </c>
       <c r="E38" s="37">
         <f t="shared" si="57"/>
-        <v>29</v>
+        <v>29.84</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>0.16000000000000014</v>
       </c>
       <c r="G38" s="37">
         <f t="shared" si="59"/>
@@ -13565,7 +13629,7 @@
       </c>
       <c r="L38" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M38" s="24">
         <f t="shared" si="65"/>
@@ -13844,13 +13908,15 @@
       <c r="FD38" s="32"/>
       <c r="FE38" s="33"/>
       <c r="FF38" s="34"/>
-      <c r="FG38" s="31"/>
+      <c r="FG38" s="31">
+        <v>0.84</v>
+      </c>
       <c r="FH38" s="32"/>
       <c r="FI38" s="32"/>
       <c r="FJ38" s="33"/>
       <c r="FK38" s="34"/>
     </row>
-    <row r="39" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>43</v>
       </c>
@@ -13865,7 +13931,7 @@
       </c>
       <c r="E39" s="37">
         <f t="shared" si="57"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F39" s="37">
         <f t="shared" si="58"/>
@@ -13893,7 +13959,7 @@
       </c>
       <c r="L39" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M39" s="24">
         <f t="shared" si="65"/>
@@ -14124,13 +14190,15 @@
       <c r="FD39" s="32"/>
       <c r="FE39" s="33"/>
       <c r="FF39" s="34"/>
-      <c r="FG39" s="31"/>
+      <c r="FG39" s="31">
+        <v>1</v>
+      </c>
       <c r="FH39" s="32"/>
       <c r="FI39" s="32"/>
       <c r="FJ39" s="33"/>
       <c r="FK39" s="34"/>
     </row>
-    <row r="40" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>44</v>
       </c>
@@ -14145,7 +14213,7 @@
       </c>
       <c r="E40" s="37">
         <f t="shared" si="57"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="58"/>
@@ -14173,11 +14241,11 @@
       </c>
       <c r="L40" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M40" s="24">
         <f t="shared" si="65"/>
-        <v>26.25</v>
+        <v>27.25</v>
       </c>
       <c r="N40" s="24">
         <f t="shared" si="66"/>
@@ -14193,7 +14261,7 @@
       </c>
       <c r="Q40" s="35">
         <f t="shared" si="69"/>
-        <v>26.5</v>
+        <v>27.5</v>
       </c>
       <c r="R40" s="31">
         <v>1</v>
@@ -14444,13 +14512,17 @@
       <c r="FD40" s="32"/>
       <c r="FE40" s="33"/>
       <c r="FF40" s="34"/>
-      <c r="FG40" s="31"/>
-      <c r="FH40" s="32"/>
+      <c r="FG40" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH40" s="32">
+        <v>1</v>
+      </c>
       <c r="FI40" s="32"/>
       <c r="FJ40" s="33"/>
       <c r="FK40" s="34"/>
     </row>
-    <row r="41" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>45</v>
       </c>
@@ -14465,7 +14537,7 @@
       </c>
       <c r="E41" s="37">
         <f t="shared" si="57"/>
-        <v>27.849999999999998</v>
+        <v>28.849999999999998</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="58"/>
@@ -14493,11 +14565,11 @@
       </c>
       <c r="L41" s="38">
         <f t="shared" si="64"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M41" s="24">
         <f t="shared" si="65"/>
-        <v>6.5</v>
+        <v>7.75</v>
       </c>
       <c r="N41" s="24">
         <f t="shared" si="66"/>
@@ -14513,7 +14585,7 @@
       </c>
       <c r="Q41" s="35">
         <f t="shared" si="69"/>
-        <v>6.5</v>
+        <v>7.75</v>
       </c>
       <c r="R41" s="31">
         <v>1</v>
@@ -14728,13 +14800,17 @@
       <c r="FD41" s="32"/>
       <c r="FE41" s="33"/>
       <c r="FF41" s="34"/>
-      <c r="FG41" s="31"/>
-      <c r="FH41" s="32"/>
+      <c r="FG41" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH41" s="32">
+        <v>1.25</v>
+      </c>
       <c r="FI41" s="32"/>
       <c r="FJ41" s="33"/>
       <c r="FK41" s="34"/>
     </row>
-    <row r="42" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>46</v>
       </c>
@@ -14972,7 +15048,7 @@
       <c r="FJ42" s="33"/>
       <c r="FK42" s="34"/>
     </row>
-    <row r="43" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>47</v>
       </c>
@@ -15204,7 +15280,7 @@
       <c r="FJ43" s="33"/>
       <c r="FK43" s="34"/>
     </row>
-    <row r="44" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>48</v>
       </c>
@@ -15219,7 +15295,7 @@
       </c>
       <c r="E44" s="37">
         <f t="shared" ref="E44:E75" si="70">SUMIF($R$11:$FK$11,"T",R44:FK44)</f>
-        <v>27.75</v>
+        <v>28.75</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" ref="F44:F75" si="71">COUNTIF(R44:FK44,"F")+(COUNT(R44,W44,AB44,AG44,AL44,AQ44,AV44,BA44,BF44,BK44,BP44,BU44,BZ44,CE44,CJ44,CO44,CT44,CY44,DD44,DI44,DN44,DS44,DX44,EC44,EH44,EM44,ER44,EW44,FB44,FG44)-E44)</f>
@@ -15247,7 +15323,7 @@
       </c>
       <c r="L44" s="38">
         <f t="shared" ref="L44:L75" si="77">+E44+F44+H44+I44+J44+K44</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M44" s="24">
         <f t="shared" ref="M44:M75" si="78">SUMIF($R$11:$FK$11,$M$11,R44:FK44)</f>
@@ -15502,13 +15578,15 @@
       <c r="FD44" s="32"/>
       <c r="FE44" s="33"/>
       <c r="FF44" s="34"/>
-      <c r="FG44" s="31"/>
+      <c r="FG44" s="31">
+        <v>1</v>
+      </c>
       <c r="FH44" s="32"/>
       <c r="FI44" s="32"/>
       <c r="FJ44" s="33"/>
       <c r="FK44" s="34"/>
     </row>
-    <row r="45" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>49</v>
       </c>
@@ -15523,7 +15601,7 @@
       </c>
       <c r="E45" s="37">
         <f t="shared" si="70"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="71"/>
@@ -15551,7 +15629,7 @@
       </c>
       <c r="L45" s="38">
         <f t="shared" si="77"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M45" s="24">
         <f t="shared" si="78"/>
@@ -15804,13 +15882,15 @@
       <c r="FD45" s="32"/>
       <c r="FE45" s="33"/>
       <c r="FF45" s="34"/>
-      <c r="FG45" s="31"/>
+      <c r="FG45" s="31">
+        <v>1</v>
+      </c>
       <c r="FH45" s="32"/>
       <c r="FI45" s="32"/>
       <c r="FJ45" s="33"/>
       <c r="FK45" s="34"/>
     </row>
-    <row r="46" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>50</v>
       </c>
@@ -15825,7 +15905,7 @@
       </c>
       <c r="E46" s="37">
         <f t="shared" si="70"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F46" s="37">
         <f t="shared" si="71"/>
@@ -15853,11 +15933,11 @@
       </c>
       <c r="L46" s="38">
         <f t="shared" si="77"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M46" s="24">
         <f t="shared" si="78"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N46" s="24">
         <f t="shared" si="79"/>
@@ -15869,11 +15949,11 @@
       </c>
       <c r="P46" s="24">
         <f t="shared" si="81"/>
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q46" s="35">
         <f t="shared" si="82"/>
-        <v>3.75</v>
+        <v>6.75</v>
       </c>
       <c r="R46" s="31"/>
       <c r="S46" s="32"/>
@@ -16048,13 +16128,19 @@
       <c r="FD46" s="32"/>
       <c r="FE46" s="33"/>
       <c r="FF46" s="34"/>
-      <c r="FG46" s="31"/>
-      <c r="FH46" s="32"/>
+      <c r="FG46" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH46" s="32">
+        <v>2</v>
+      </c>
       <c r="FI46" s="32"/>
       <c r="FJ46" s="33"/>
-      <c r="FK46" s="34"/>
+      <c r="FK46" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>51</v>
       </c>
@@ -16340,7 +16426,7 @@
       <c r="FJ47" s="33"/>
       <c r="FK47" s="34"/>
     </row>
-    <row r="48" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>52</v>
       </c>
@@ -16558,7 +16644,7 @@
       <c r="FJ48" s="33"/>
       <c r="FK48" s="34"/>
     </row>
-    <row r="49" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>53</v>
       </c>
@@ -16573,7 +16659,7 @@
       </c>
       <c r="E49" s="37">
         <f t="shared" si="70"/>
-        <v>21.88</v>
+        <v>22.88</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="71"/>
@@ -16601,11 +16687,11 @@
       </c>
       <c r="L49" s="38">
         <f t="shared" si="77"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M49" s="24">
         <f t="shared" si="78"/>
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="N49" s="24">
         <f t="shared" si="79"/>
@@ -16621,7 +16707,7 @@
       </c>
       <c r="Q49" s="35">
         <f t="shared" si="82"/>
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="R49" s="31"/>
       <c r="S49" s="32"/>
@@ -16842,13 +16928,17 @@
       <c r="FD49" s="32"/>
       <c r="FE49" s="33"/>
       <c r="FF49" s="34"/>
-      <c r="FG49" s="31"/>
-      <c r="FH49" s="32"/>
+      <c r="FG49" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH49" s="32">
+        <v>1</v>
+      </c>
       <c r="FI49" s="32"/>
       <c r="FJ49" s="33"/>
       <c r="FK49" s="34"/>
     </row>
-    <row r="50" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>54</v>
       </c>
@@ -16863,7 +16953,7 @@
       </c>
       <c r="E50" s="37">
         <f t="shared" si="70"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F50" s="37">
         <f t="shared" si="71"/>
@@ -16891,11 +16981,11 @@
       </c>
       <c r="L50" s="38">
         <f t="shared" si="77"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M50" s="24">
         <f t="shared" si="78"/>
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="N50" s="24">
         <f t="shared" si="79"/>
@@ -16911,7 +17001,7 @@
       </c>
       <c r="Q50" s="35">
         <f t="shared" si="82"/>
-        <v>42</v>
+        <v>42.5</v>
       </c>
       <c r="R50" s="31">
         <v>1</v>
@@ -17154,13 +17244,17 @@
       <c r="FD50" s="32"/>
       <c r="FE50" s="33"/>
       <c r="FF50" s="34"/>
-      <c r="FG50" s="31"/>
-      <c r="FH50" s="32"/>
+      <c r="FG50" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH50" s="32">
+        <v>0.5</v>
+      </c>
       <c r="FI50" s="32"/>
       <c r="FJ50" s="33"/>
       <c r="FK50" s="34"/>
     </row>
-    <row r="51" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>55</v>
       </c>
@@ -17175,7 +17269,7 @@
       </c>
       <c r="E51" s="37">
         <f t="shared" si="70"/>
-        <v>27.47</v>
+        <v>28.47</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="71"/>
@@ -17203,15 +17297,15 @@
       </c>
       <c r="L51" s="38">
         <f t="shared" si="77"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M51" s="24">
         <f t="shared" si="78"/>
-        <v>36.5</v>
+        <v>38.5</v>
       </c>
       <c r="N51" s="24">
         <f t="shared" si="79"/>
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="O51" s="24">
         <f t="shared" si="80"/>
@@ -17223,7 +17317,7 @@
       </c>
       <c r="Q51" s="35">
         <f t="shared" si="82"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R51" s="31">
         <v>1</v>
@@ -17502,13 +17596,19 @@
       </c>
       <c r="FE51" s="33"/>
       <c r="FF51" s="34"/>
-      <c r="FG51" s="31"/>
-      <c r="FH51" s="32"/>
-      <c r="FI51" s="32"/>
+      <c r="FG51" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH51" s="32">
+        <v>2</v>
+      </c>
+      <c r="FI51" s="32">
+        <v>1</v>
+      </c>
       <c r="FJ51" s="33"/>
       <c r="FK51" s="34"/>
     </row>
-    <row r="52" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>56</v>
       </c>
@@ -17523,7 +17623,7 @@
       </c>
       <c r="E52" s="37">
         <f t="shared" si="70"/>
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
       <c r="F52" s="37">
         <f t="shared" si="71"/>
@@ -17551,7 +17651,7 @@
       </c>
       <c r="L52" s="38">
         <f t="shared" si="77"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M52" s="24">
         <f t="shared" si="78"/>
@@ -17780,13 +17880,15 @@
       <c r="FD52" s="32"/>
       <c r="FE52" s="33"/>
       <c r="FF52" s="34"/>
-      <c r="FG52" s="31"/>
+      <c r="FG52" s="31">
+        <v>1</v>
+      </c>
       <c r="FH52" s="32"/>
       <c r="FI52" s="32"/>
       <c r="FJ52" s="33"/>
       <c r="FK52" s="34"/>
     </row>
-    <row r="53" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>57</v>
       </c>
@@ -17801,7 +17903,7 @@
       </c>
       <c r="E53" s="37">
         <f t="shared" si="70"/>
-        <v>25.51</v>
+        <v>26.51</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="71"/>
@@ -17829,7 +17931,7 @@
       </c>
       <c r="L53" s="38">
         <f t="shared" si="77"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M53" s="24">
         <f t="shared" si="78"/>
@@ -18066,13 +18168,15 @@
       <c r="FD53" s="32"/>
       <c r="FE53" s="33"/>
       <c r="FF53" s="34"/>
-      <c r="FG53" s="31"/>
+      <c r="FG53" s="31">
+        <v>1</v>
+      </c>
       <c r="FH53" s="32"/>
       <c r="FI53" s="32"/>
       <c r="FJ53" s="33"/>
       <c r="FK53" s="34"/>
     </row>
-    <row r="54" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>58</v>
       </c>
@@ -18087,7 +18191,7 @@
       </c>
       <c r="E54" s="37">
         <f t="shared" si="70"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F54" s="37">
         <f t="shared" si="71"/>
@@ -18115,7 +18219,7 @@
       </c>
       <c r="L54" s="38">
         <f t="shared" si="77"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M54" s="24">
         <f t="shared" si="78"/>
@@ -18346,13 +18450,15 @@
       <c r="FD54" s="32"/>
       <c r="FE54" s="33"/>
       <c r="FF54" s="34"/>
-      <c r="FG54" s="31"/>
+      <c r="FG54" s="31">
+        <v>1</v>
+      </c>
       <c r="FH54" s="32"/>
       <c r="FI54" s="32"/>
       <c r="FJ54" s="33"/>
       <c r="FK54" s="34"/>
     </row>
-    <row r="55" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>59</v>
       </c>
@@ -18367,7 +18473,7 @@
       </c>
       <c r="E55" s="37">
         <f t="shared" si="70"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="71"/>
@@ -18395,11 +18501,11 @@
       </c>
       <c r="L55" s="38">
         <f t="shared" si="77"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M55" s="24">
         <f t="shared" si="78"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N55" s="24">
         <f t="shared" si="79"/>
@@ -18415,7 +18521,7 @@
       </c>
       <c r="Q55" s="35">
         <f t="shared" si="82"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R55" s="31">
         <v>1</v>
@@ -18634,13 +18740,17 @@
       <c r="FD55" s="32"/>
       <c r="FE55" s="33"/>
       <c r="FF55" s="34"/>
-      <c r="FG55" s="31"/>
-      <c r="FH55" s="32"/>
+      <c r="FG55" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH55" s="32">
+        <v>1</v>
+      </c>
       <c r="FI55" s="32"/>
       <c r="FJ55" s="33"/>
       <c r="FK55" s="34"/>
     </row>
-    <row r="56" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>60</v>
       </c>
@@ -18916,7 +19026,7 @@
       <c r="FJ56" s="33"/>
       <c r="FK56" s="34"/>
     </row>
-    <row r="57" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>61</v>
       </c>
@@ -18931,7 +19041,7 @@
       </c>
       <c r="E57" s="37">
         <f t="shared" si="70"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="71"/>
@@ -18959,7 +19069,7 @@
       </c>
       <c r="L57" s="38">
         <f t="shared" si="77"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M57" s="24">
         <f t="shared" si="78"/>
@@ -19212,13 +19322,15 @@
       <c r="FD57" s="32"/>
       <c r="FE57" s="33"/>
       <c r="FF57" s="34"/>
-      <c r="FG57" s="31"/>
+      <c r="FG57" s="31">
+        <v>1</v>
+      </c>
       <c r="FH57" s="32"/>
       <c r="FI57" s="32"/>
       <c r="FJ57" s="33"/>
       <c r="FK57" s="34"/>
     </row>
-    <row r="58" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>62</v>
       </c>
@@ -19233,7 +19345,7 @@
       </c>
       <c r="E58" s="37">
         <f t="shared" si="70"/>
-        <v>25.75</v>
+        <v>26.75</v>
       </c>
       <c r="F58" s="37">
         <f t="shared" si="71"/>
@@ -19261,7 +19373,7 @@
       </c>
       <c r="L58" s="38">
         <f t="shared" si="77"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M58" s="24">
         <f t="shared" si="78"/>
@@ -19490,13 +19602,15 @@
       <c r="FD58" s="32"/>
       <c r="FE58" s="33"/>
       <c r="FF58" s="34"/>
-      <c r="FG58" s="31"/>
+      <c r="FG58" s="31">
+        <v>1</v>
+      </c>
       <c r="FH58" s="32"/>
       <c r="FI58" s="32"/>
       <c r="FJ58" s="33"/>
       <c r="FK58" s="34"/>
     </row>
-    <row r="59" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>63</v>
       </c>
@@ -19776,7 +19890,7 @@
       <c r="FJ59" s="33"/>
       <c r="FK59" s="34"/>
     </row>
-    <row r="60" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>64</v>
       </c>
@@ -19791,7 +19905,7 @@
       </c>
       <c r="E60" s="37">
         <f t="shared" si="70"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="71"/>
@@ -19819,11 +19933,11 @@
       </c>
       <c r="L60" s="38">
         <f t="shared" si="77"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M60" s="24">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" s="24">
         <f t="shared" si="79"/>
@@ -19839,7 +19953,7 @@
       </c>
       <c r="Q60" s="35">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="31"/>
       <c r="S60" s="32"/>
@@ -20003,20 +20117,24 @@
       <c r="EY60" s="32"/>
       <c r="EZ60" s="33"/>
       <c r="FA60" s="34"/>
-      <c r="FB60" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="FC60" s="32"/>
+      <c r="FB60" s="31">
+        <v>1</v>
+      </c>
+      <c r="FC60" s="32">
+        <v>1</v>
+      </c>
       <c r="FD60" s="32"/>
       <c r="FE60" s="33"/>
       <c r="FF60" s="34"/>
-      <c r="FG60" s="31"/>
+      <c r="FG60" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="FH60" s="32"/>
       <c r="FI60" s="32"/>
       <c r="FJ60" s="33"/>
       <c r="FK60" s="34"/>
     </row>
-    <row r="61" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>65</v>
       </c>
@@ -20031,7 +20149,7 @@
       </c>
       <c r="E61" s="37">
         <f t="shared" si="70"/>
-        <v>25.75</v>
+        <v>26.75</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="71"/>
@@ -20059,7 +20177,7 @@
       </c>
       <c r="L61" s="38">
         <f t="shared" si="77"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M61" s="24">
         <f t="shared" si="78"/>
@@ -20290,13 +20408,15 @@
       <c r="FD61" s="32"/>
       <c r="FE61" s="33"/>
       <c r="FF61" s="34"/>
-      <c r="FG61" s="31"/>
+      <c r="FG61" s="31">
+        <v>1</v>
+      </c>
       <c r="FH61" s="32"/>
       <c r="FI61" s="32"/>
       <c r="FJ61" s="33"/>
       <c r="FK61" s="34"/>
     </row>
-    <row r="62" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>66</v>
       </c>
@@ -20576,7 +20696,7 @@
       <c r="FJ62" s="33"/>
       <c r="FK62" s="34"/>
     </row>
-    <row r="63" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>67</v>
       </c>
@@ -20591,15 +20711,15 @@
       </c>
       <c r="E63" s="37">
         <f t="shared" si="70"/>
-        <v>26.75</v>
+        <v>28.75</v>
       </c>
       <c r="F63" s="37">
         <f t="shared" si="71"/>
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="G63" s="37">
         <f t="shared" si="72"/>
-        <v>0.16666666666666699</v>
+        <v>0</v>
       </c>
       <c r="H63" s="24">
         <f t="shared" si="73"/>
@@ -20619,7 +20739,7 @@
       </c>
       <c r="L63" s="38">
         <f t="shared" si="77"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M63" s="24">
         <f t="shared" si="78"/>
@@ -20845,20 +20965,22 @@
       <c r="EY63" s="32"/>
       <c r="EZ63" s="33"/>
       <c r="FA63" s="34"/>
-      <c r="FB63" s="31" t="s">
-        <v>177</v>
+      <c r="FB63" s="31">
+        <v>1</v>
       </c>
       <c r="FC63" s="32"/>
       <c r="FD63" s="32"/>
       <c r="FE63" s="33"/>
       <c r="FF63" s="34"/>
-      <c r="FG63" s="31"/>
+      <c r="FG63" s="31">
+        <v>1</v>
+      </c>
       <c r="FH63" s="32"/>
       <c r="FI63" s="32"/>
       <c r="FJ63" s="33"/>
       <c r="FK63" s="34"/>
     </row>
-    <row r="64" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>68</v>
       </c>
@@ -21144,7 +21266,7 @@
       <c r="FJ64" s="33"/>
       <c r="FK64" s="34"/>
     </row>
-    <row r="65" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>69</v>
       </c>
@@ -21370,7 +21492,7 @@
       <c r="FJ65" s="33"/>
       <c r="FK65" s="34"/>
     </row>
-    <row r="66" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>70</v>
       </c>
@@ -21604,7 +21726,7 @@
       <c r="FJ66" s="33"/>
       <c r="FK66" s="34"/>
     </row>
-    <row r="67" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>71</v>
       </c>
@@ -21619,7 +21741,7 @@
       </c>
       <c r="E67" s="37">
         <f t="shared" si="70"/>
-        <v>25.06</v>
+        <v>26.06</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="71"/>
@@ -21647,7 +21769,7 @@
       </c>
       <c r="L67" s="38">
         <f t="shared" si="77"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M67" s="24">
         <f t="shared" si="78"/>
@@ -21890,13 +22012,15 @@
       <c r="FD67" s="32"/>
       <c r="FE67" s="33"/>
       <c r="FF67" s="34"/>
-      <c r="FG67" s="31"/>
+      <c r="FG67" s="31">
+        <v>1</v>
+      </c>
       <c r="FH67" s="32"/>
       <c r="FI67" s="32"/>
       <c r="FJ67" s="33"/>
       <c r="FK67" s="34"/>
     </row>
-    <row r="68" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>72</v>
       </c>
@@ -22128,7 +22252,7 @@
       <c r="FJ68" s="33"/>
       <c r="FK68" s="34"/>
     </row>
-    <row r="69" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>73</v>
       </c>
@@ -22143,7 +22267,7 @@
       </c>
       <c r="E69" s="37">
         <f t="shared" si="70"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F69" s="37">
         <f t="shared" si="71"/>
@@ -22171,11 +22295,11 @@
       </c>
       <c r="L69" s="38">
         <f t="shared" si="77"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M69" s="24">
         <f t="shared" si="78"/>
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="N69" s="24">
         <f t="shared" si="79"/>
@@ -22191,7 +22315,7 @@
       </c>
       <c r="Q69" s="35">
         <f t="shared" si="82"/>
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="R69" s="31"/>
       <c r="S69" s="32"/>
@@ -22364,13 +22488,17 @@
       <c r="FD69" s="32"/>
       <c r="FE69" s="33"/>
       <c r="FF69" s="34"/>
-      <c r="FG69" s="31"/>
-      <c r="FH69" s="32"/>
+      <c r="FG69" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH69" s="32">
+        <v>0.75</v>
+      </c>
       <c r="FI69" s="32"/>
       <c r="FJ69" s="33"/>
       <c r="FK69" s="34"/>
     </row>
-    <row r="70" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>74</v>
       </c>
@@ -22385,7 +22513,7 @@
       </c>
       <c r="E70" s="37">
         <f t="shared" si="70"/>
-        <v>25.97</v>
+        <v>26.97</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="71"/>
@@ -22413,7 +22541,7 @@
       </c>
       <c r="L70" s="38">
         <f t="shared" si="77"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M70" s="24">
         <f t="shared" si="78"/>
@@ -22652,13 +22780,15 @@
       <c r="FD70" s="32"/>
       <c r="FE70" s="33"/>
       <c r="FF70" s="34"/>
-      <c r="FG70" s="31"/>
+      <c r="FG70" s="31">
+        <v>1</v>
+      </c>
       <c r="FH70" s="32"/>
       <c r="FI70" s="32"/>
       <c r="FJ70" s="33"/>
       <c r="FK70" s="34"/>
     </row>
-    <row r="71" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>75</v>
       </c>
@@ -22938,7 +23068,7 @@
       <c r="FJ71" s="33"/>
       <c r="FK71" s="34"/>
     </row>
-    <row r="72" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>76</v>
       </c>
@@ -23240,7 +23370,7 @@
       <c r="FJ72" s="33"/>
       <c r="FK72" s="34"/>
     </row>
-    <row r="73" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>77</v>
       </c>
@@ -23255,11 +23385,11 @@
       </c>
       <c r="E73" s="37">
         <f t="shared" si="70"/>
-        <v>27.88</v>
+        <v>29</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="71"/>
-        <v>0.12000000000000099</v>
+        <v>0</v>
       </c>
       <c r="G73" s="37">
         <f t="shared" si="72"/>
@@ -23283,7 +23413,7 @@
       </c>
       <c r="L73" s="38">
         <f t="shared" si="77"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M73" s="24">
         <f t="shared" si="78"/>
@@ -23291,7 +23421,7 @@
       </c>
       <c r="N73" s="24">
         <f t="shared" si="79"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O73" s="24">
         <f t="shared" si="80"/>
@@ -23303,7 +23433,7 @@
       </c>
       <c r="Q73" s="35">
         <f t="shared" si="82"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R73" s="31">
         <v>1</v>
@@ -23425,9 +23555,7 @@
       <c r="CK73" s="32">
         <v>2</v>
       </c>
-      <c r="CL73" s="32">
-        <v>1</v>
-      </c>
+      <c r="CL73" s="32"/>
       <c r="CM73" s="33"/>
       <c r="CN73" s="34"/>
       <c r="CO73" s="31">
@@ -23459,7 +23587,7 @@
       <c r="DG73" s="52"/>
       <c r="DH73" s="53"/>
       <c r="DI73" s="31">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="DJ73" s="32"/>
       <c r="DK73" s="32"/>
@@ -23530,13 +23658,15 @@
       <c r="FD73" s="32"/>
       <c r="FE73" s="33"/>
       <c r="FF73" s="34"/>
-      <c r="FG73" s="31"/>
+      <c r="FG73" s="31">
+        <v>1</v>
+      </c>
       <c r="FH73" s="32"/>
       <c r="FI73" s="32"/>
       <c r="FJ73" s="33"/>
       <c r="FK73" s="34"/>
     </row>
-    <row r="74" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>78</v>
       </c>
@@ -23551,7 +23681,7 @@
       </c>
       <c r="E74" s="37">
         <f t="shared" si="70"/>
-        <v>27.26</v>
+        <v>28.26</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="71"/>
@@ -23579,7 +23709,7 @@
       </c>
       <c r="L74" s="38">
         <f t="shared" si="77"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M74" s="24">
         <f t="shared" si="78"/>
@@ -23812,13 +23942,15 @@
       <c r="FD74" s="32"/>
       <c r="FE74" s="33"/>
       <c r="FF74" s="34"/>
-      <c r="FG74" s="31"/>
+      <c r="FG74" s="31">
+        <v>1</v>
+      </c>
       <c r="FH74" s="32"/>
       <c r="FI74" s="32"/>
       <c r="FJ74" s="33"/>
       <c r="FK74" s="34"/>
     </row>
-    <row r="75" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>79</v>
       </c>
@@ -23833,7 +23965,7 @@
       </c>
       <c r="E75" s="37">
         <f t="shared" si="70"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F75" s="37">
         <f t="shared" si="71"/>
@@ -23861,11 +23993,11 @@
       </c>
       <c r="L75" s="38">
         <f t="shared" si="77"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M75" s="24">
         <f t="shared" si="78"/>
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N75" s="24">
         <f t="shared" si="79"/>
@@ -23881,7 +24013,7 @@
       </c>
       <c r="Q75" s="35">
         <f t="shared" si="82"/>
-        <v>29</v>
+        <v>29.25</v>
       </c>
       <c r="R75" s="31">
         <v>1</v>
@@ -24100,13 +24232,17 @@
       <c r="FD75" s="32"/>
       <c r="FE75" s="33"/>
       <c r="FF75" s="34"/>
-      <c r="FG75" s="31"/>
-      <c r="FH75" s="32"/>
+      <c r="FG75" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH75" s="32">
+        <v>0.25</v>
+      </c>
       <c r="FI75" s="32"/>
       <c r="FJ75" s="33"/>
       <c r="FK75" s="34"/>
     </row>
-    <row r="76" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>80</v>
       </c>
@@ -24346,7 +24482,7 @@
       <c r="FJ76" s="33"/>
       <c r="FK76" s="34"/>
     </row>
-    <row r="77" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>81</v>
       </c>
@@ -24361,7 +24497,7 @@
       </c>
       <c r="E77" s="37">
         <f t="shared" si="83"/>
-        <v>22.75</v>
+        <v>23.75</v>
       </c>
       <c r="F77" s="37">
         <f t="shared" si="84"/>
@@ -24389,7 +24525,7 @@
       </c>
       <c r="L77" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M77" s="24">
         <f t="shared" si="91"/>
@@ -24642,13 +24778,15 @@
       <c r="FD77" s="32"/>
       <c r="FE77" s="33"/>
       <c r="FF77" s="34"/>
-      <c r="FG77" s="31"/>
+      <c r="FG77" s="31">
+        <v>1</v>
+      </c>
       <c r="FH77" s="32"/>
       <c r="FI77" s="32"/>
       <c r="FJ77" s="33"/>
       <c r="FK77" s="34"/>
     </row>
-    <row r="78" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>82</v>
       </c>
@@ -24663,7 +24801,7 @@
       </c>
       <c r="E78" s="37">
         <f t="shared" si="83"/>
-        <v>26.75</v>
+        <v>27.75</v>
       </c>
       <c r="F78" s="37">
         <f t="shared" si="84"/>
@@ -24691,11 +24829,11 @@
       </c>
       <c r="L78" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M78" s="24">
         <f t="shared" si="91"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="N78" s="24">
         <f t="shared" si="92"/>
@@ -24711,7 +24849,7 @@
       </c>
       <c r="Q78" s="35">
         <f t="shared" si="95"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R78" s="31">
         <v>1</v>
@@ -24922,13 +25060,17 @@
       <c r="FD78" s="32"/>
       <c r="FE78" s="33"/>
       <c r="FF78" s="34"/>
-      <c r="FG78" s="31"/>
-      <c r="FH78" s="32"/>
+      <c r="FG78" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH78" s="32">
+        <v>0.75</v>
+      </c>
       <c r="FI78" s="32"/>
       <c r="FJ78" s="33"/>
       <c r="FK78" s="34"/>
     </row>
-    <row r="79" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>83</v>
       </c>
@@ -24943,7 +25085,7 @@
       </c>
       <c r="E79" s="37">
         <f t="shared" si="83"/>
-        <v>26.349999999999998</v>
+        <v>27.349999999999998</v>
       </c>
       <c r="F79" s="37">
         <f t="shared" si="84"/>
@@ -24971,7 +25113,7 @@
       </c>
       <c r="L79" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M79" s="24">
         <f t="shared" si="91"/>
@@ -25236,13 +25378,15 @@
       <c r="FD79" s="32"/>
       <c r="FE79" s="33"/>
       <c r="FF79" s="34"/>
-      <c r="FG79" s="31"/>
+      <c r="FG79" s="31">
+        <v>1</v>
+      </c>
       <c r="FH79" s="32"/>
       <c r="FI79" s="32"/>
       <c r="FJ79" s="33"/>
       <c r="FK79" s="34"/>
     </row>
-    <row r="80" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>84</v>
       </c>
@@ -25257,7 +25401,7 @@
       </c>
       <c r="E80" s="37">
         <f t="shared" si="83"/>
-        <v>26.31</v>
+        <v>27.31</v>
       </c>
       <c r="F80" s="37">
         <f t="shared" si="84"/>
@@ -25285,7 +25429,7 @@
       </c>
       <c r="L80" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M80" s="24">
         <f t="shared" si="91"/>
@@ -25528,13 +25672,15 @@
       <c r="FD80" s="32"/>
       <c r="FE80" s="33"/>
       <c r="FF80" s="34"/>
-      <c r="FG80" s="31"/>
+      <c r="FG80" s="31">
+        <v>1</v>
+      </c>
       <c r="FH80" s="32"/>
       <c r="FI80" s="32"/>
       <c r="FJ80" s="33"/>
       <c r="FK80" s="34"/>
     </row>
-    <row r="81" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>85</v>
       </c>
@@ -25549,7 +25695,7 @@
       </c>
       <c r="E81" s="37">
         <f t="shared" si="83"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F81" s="37">
         <f t="shared" si="84"/>
@@ -25577,15 +25723,15 @@
       </c>
       <c r="L81" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M81" s="24">
         <f t="shared" si="91"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N81" s="24">
         <f t="shared" si="92"/>
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="O81" s="24">
         <f t="shared" si="93"/>
@@ -25593,11 +25739,11 @@
       </c>
       <c r="P81" s="24">
         <f t="shared" si="94"/>
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q81" s="35">
         <f t="shared" si="95"/>
-        <v>232.75</v>
+        <v>243.75</v>
       </c>
       <c r="R81" s="31">
         <v>1</v>
@@ -25896,13 +26042,21 @@
       <c r="FF81" s="34">
         <v>8</v>
       </c>
-      <c r="FG81" s="31"/>
-      <c r="FH81" s="32"/>
-      <c r="FI81" s="32"/>
+      <c r="FG81" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH81" s="32">
+        <v>2</v>
+      </c>
+      <c r="FI81" s="32">
+        <v>1</v>
+      </c>
       <c r="FJ81" s="33"/>
-      <c r="FK81" s="34"/>
+      <c r="FK81" s="34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="82" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>91</v>
       </c>
@@ -25917,7 +26071,7 @@
       </c>
       <c r="E82" s="37">
         <f t="shared" si="83"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F82" s="37">
         <f t="shared" si="84"/>
@@ -25945,7 +26099,7 @@
       </c>
       <c r="L82" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M82" s="24">
         <f t="shared" si="91"/>
@@ -25961,11 +26115,11 @@
       </c>
       <c r="P82" s="24">
         <f t="shared" si="94"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="Q82" s="35">
         <f t="shared" si="95"/>
-        <v>81.75</v>
+        <v>89.75</v>
       </c>
       <c r="R82" s="31">
         <v>1</v>
@@ -26208,13 +26362,17 @@
       <c r="FF82" s="34">
         <v>8</v>
       </c>
-      <c r="FG82" s="31"/>
+      <c r="FG82" s="31">
+        <v>1</v>
+      </c>
       <c r="FH82" s="32"/>
       <c r="FI82" s="32"/>
       <c r="FJ82" s="33"/>
-      <c r="FK82" s="34"/>
+      <c r="FK82" s="34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="83" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>92</v>
       </c>
@@ -26229,7 +26387,7 @@
       </c>
       <c r="E83" s="37">
         <f t="shared" si="83"/>
-        <v>18.880000000000003</v>
+        <v>19.880000000000003</v>
       </c>
       <c r="F83" s="37">
         <f t="shared" si="84"/>
@@ -26257,11 +26415,11 @@
       </c>
       <c r="L83" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M83" s="24">
         <f t="shared" si="91"/>
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N83" s="24">
         <f t="shared" si="92"/>
@@ -26277,7 +26435,7 @@
       </c>
       <c r="Q83" s="35">
         <f t="shared" si="95"/>
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R83" s="31">
         <v>1</v>
@@ -26490,13 +26648,17 @@
       <c r="FD83" s="32"/>
       <c r="FE83" s="33"/>
       <c r="FF83" s="34"/>
-      <c r="FG83" s="31"/>
-      <c r="FH83" s="32"/>
+      <c r="FG83" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH83" s="32">
+        <v>0.25</v>
+      </c>
       <c r="FI83" s="32"/>
       <c r="FJ83" s="33"/>
       <c r="FK83" s="34"/>
     </row>
-    <row r="84" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>93</v>
       </c>
@@ -26511,7 +26673,7 @@
       </c>
       <c r="E84" s="37">
         <f t="shared" si="83"/>
-        <v>28.75</v>
+        <v>29.75</v>
       </c>
       <c r="F84" s="37">
         <f t="shared" si="84"/>
@@ -26539,11 +26701,11 @@
       </c>
       <c r="L84" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M84" s="24">
         <f t="shared" si="91"/>
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N84" s="24">
         <f t="shared" si="92"/>
@@ -26559,7 +26721,7 @@
       </c>
       <c r="Q84" s="35">
         <f t="shared" si="95"/>
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="R84" s="31">
         <v>1</v>
@@ -26788,13 +26950,17 @@
       <c r="FD84" s="32"/>
       <c r="FE84" s="33"/>
       <c r="FF84" s="34"/>
-      <c r="FG84" s="31"/>
-      <c r="FH84" s="32"/>
+      <c r="FG84" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH84" s="32">
+        <v>0.5</v>
+      </c>
       <c r="FI84" s="32"/>
       <c r="FJ84" s="33"/>
       <c r="FK84" s="34"/>
     </row>
-    <row r="85" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
         <v>94</v>
       </c>
@@ -27024,7 +27190,7 @@
       <c r="FJ85" s="33"/>
       <c r="FK85" s="34"/>
     </row>
-    <row r="86" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>95</v>
       </c>
@@ -27039,7 +27205,7 @@
       </c>
       <c r="E86" s="37">
         <f t="shared" si="83"/>
-        <v>22.75</v>
+        <v>23.75</v>
       </c>
       <c r="F86" s="37">
         <f t="shared" si="84"/>
@@ -27067,11 +27233,11 @@
       </c>
       <c r="L86" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M86" s="24">
         <f t="shared" si="91"/>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="N86" s="24">
         <f t="shared" si="92"/>
@@ -27083,11 +27249,11 @@
       </c>
       <c r="P86" s="24">
         <f t="shared" si="94"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q86" s="35">
         <f t="shared" si="95"/>
-        <v>33.75</v>
+        <v>42.75</v>
       </c>
       <c r="R86" s="31">
         <v>1</v>
@@ -27316,13 +27482,19 @@
       <c r="FF86" s="34">
         <v>8</v>
       </c>
-      <c r="FG86" s="31"/>
-      <c r="FH86" s="32"/>
+      <c r="FG86" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH86" s="32">
+        <v>1</v>
+      </c>
       <c r="FI86" s="32"/>
       <c r="FJ86" s="33"/>
-      <c r="FK86" s="34"/>
+      <c r="FK86" s="34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="87" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>96</v>
       </c>
@@ -27337,7 +27509,7 @@
       </c>
       <c r="E87" s="37">
         <f t="shared" si="83"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F87" s="37">
         <f t="shared" si="84"/>
@@ -27365,15 +27537,15 @@
       </c>
       <c r="L87" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M87" s="24">
         <f t="shared" si="91"/>
-        <v>10.25</v>
+        <v>12.25</v>
       </c>
       <c r="N87" s="24">
         <f t="shared" si="92"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O87" s="24">
         <f t="shared" si="93"/>
@@ -27381,11 +27553,11 @@
       </c>
       <c r="P87" s="24">
         <f t="shared" si="94"/>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q87" s="35">
         <f t="shared" si="95"/>
-        <v>99.25</v>
+        <v>111.25</v>
       </c>
       <c r="R87" s="31">
         <v>1</v>
@@ -27630,13 +27802,21 @@
       <c r="FF87" s="34">
         <v>8</v>
       </c>
-      <c r="FG87" s="31"/>
-      <c r="FH87" s="32"/>
-      <c r="FI87" s="32"/>
+      <c r="FG87" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH87" s="32">
+        <v>2</v>
+      </c>
+      <c r="FI87" s="32">
+        <v>2</v>
+      </c>
       <c r="FJ87" s="33"/>
-      <c r="FK87" s="34"/>
+      <c r="FK87" s="34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="88" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
         <v>97</v>
       </c>
@@ -27651,7 +27831,7 @@
       </c>
       <c r="E88" s="37">
         <f t="shared" si="83"/>
-        <v>28.75</v>
+        <v>29.75</v>
       </c>
       <c r="F88" s="37">
         <f t="shared" si="84"/>
@@ -27679,11 +27859,11 @@
       </c>
       <c r="L88" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M88" s="24">
         <f t="shared" si="91"/>
-        <v>29.75</v>
+        <v>30.75</v>
       </c>
       <c r="N88" s="24">
         <f t="shared" si="92"/>
@@ -27699,7 +27879,7 @@
       </c>
       <c r="Q88" s="35">
         <f t="shared" si="95"/>
-        <v>30.75</v>
+        <v>31.75</v>
       </c>
       <c r="R88" s="31">
         <v>1</v>
@@ -27948,13 +28128,17 @@
       <c r="FD88" s="32"/>
       <c r="FE88" s="33"/>
       <c r="FF88" s="34"/>
-      <c r="FG88" s="31"/>
-      <c r="FH88" s="32"/>
+      <c r="FG88" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH88" s="32">
+        <v>1</v>
+      </c>
       <c r="FI88" s="32"/>
       <c r="FJ88" s="33"/>
       <c r="FK88" s="34"/>
     </row>
-    <row r="89" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
         <v>98</v>
       </c>
@@ -27969,7 +28153,7 @@
       </c>
       <c r="E89" s="37">
         <f t="shared" si="83"/>
-        <v>18.75</v>
+        <v>20.75</v>
       </c>
       <c r="F89" s="37">
         <f t="shared" si="84"/>
@@ -27997,11 +28181,11 @@
       </c>
       <c r="L89" s="38">
         <f t="shared" si="90"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M89" s="24">
         <f t="shared" si="91"/>
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="N89" s="24">
         <f t="shared" si="92"/>
@@ -28013,11 +28197,11 @@
       </c>
       <c r="P89" s="24">
         <f t="shared" si="94"/>
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="Q89" s="35">
         <f t="shared" si="95"/>
-        <v>137.25</v>
+        <v>145.5</v>
       </c>
       <c r="R89" s="31">
         <v>1</v>
@@ -28214,8 +28398,8 @@
       <c r="DZ89" s="32"/>
       <c r="EA89" s="33"/>
       <c r="EB89" s="34"/>
-      <c r="EC89" s="31" t="s">
-        <v>511</v>
+      <c r="EC89" s="31">
+        <v>1</v>
       </c>
       <c r="ED89" s="32"/>
       <c r="EE89" s="32"/>
@@ -28270,13 +28454,19 @@
       <c r="FF89" s="34">
         <v>8</v>
       </c>
-      <c r="FG89" s="31"/>
-      <c r="FH89" s="32"/>
+      <c r="FG89" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH89" s="32">
+        <v>0.25</v>
+      </c>
       <c r="FI89" s="32"/>
       <c r="FJ89" s="33"/>
-      <c r="FK89" s="34"/>
+      <c r="FK89" s="34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="90" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
         <v>99</v>
       </c>
@@ -28291,7 +28481,7 @@
       </c>
       <c r="E90" s="37">
         <f t="shared" si="83"/>
-        <v>28.63</v>
+        <v>29.63</v>
       </c>
       <c r="F90" s="37">
         <f t="shared" si="84"/>
@@ -28319,7 +28509,7 @@
       </c>
       <c r="L90" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M90" s="24">
         <f t="shared" si="91"/>
@@ -28598,13 +28788,15 @@
       <c r="FD90" s="32"/>
       <c r="FE90" s="33"/>
       <c r="FF90" s="34"/>
-      <c r="FG90" s="31"/>
+      <c r="FG90" s="31">
+        <v>1</v>
+      </c>
       <c r="FH90" s="32"/>
       <c r="FI90" s="32"/>
       <c r="FJ90" s="33"/>
       <c r="FK90" s="34"/>
     </row>
-    <row r="91" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
         <v>100</v>
       </c>
@@ -28830,7 +29022,7 @@
       <c r="FJ91" s="33"/>
       <c r="FK91" s="34"/>
     </row>
-    <row r="92" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
         <v>101</v>
       </c>
@@ -28845,7 +29037,7 @@
       </c>
       <c r="E92" s="37">
         <f t="shared" si="83"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F92" s="37">
         <f t="shared" si="84"/>
@@ -28873,11 +29065,11 @@
       </c>
       <c r="L92" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M92" s="24">
         <f t="shared" si="91"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N92" s="24">
         <f t="shared" si="92"/>
@@ -28889,11 +29081,11 @@
       </c>
       <c r="P92" s="24">
         <f t="shared" si="94"/>
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Q92" s="35">
         <f t="shared" si="95"/>
-        <v>201.5</v>
+        <v>210.5</v>
       </c>
       <c r="R92" s="31">
         <v>1</v>
@@ -29178,13 +29370,19 @@
       <c r="FF92" s="34">
         <v>8</v>
       </c>
-      <c r="FG92" s="31"/>
-      <c r="FH92" s="32"/>
+      <c r="FG92" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH92" s="32">
+        <v>1</v>
+      </c>
       <c r="FI92" s="32"/>
       <c r="FJ92" s="33"/>
-      <c r="FK92" s="34"/>
+      <c r="FK92" s="34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="93" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>102</v>
       </c>
@@ -29199,7 +29397,7 @@
       </c>
       <c r="E93" s="37">
         <f t="shared" si="83"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F93" s="37">
         <f t="shared" si="84"/>
@@ -29227,15 +29425,15 @@
       </c>
       <c r="L93" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M93" s="24">
         <f t="shared" si="91"/>
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
       <c r="N93" s="24">
         <f t="shared" si="92"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O93" s="24">
         <f t="shared" si="93"/>
@@ -29247,7 +29445,7 @@
       </c>
       <c r="Q93" s="35">
         <f t="shared" si="95"/>
-        <v>29.5</v>
+        <v>32</v>
       </c>
       <c r="R93" s="31">
         <v>1</v>
@@ -29496,13 +29694,19 @@
       <c r="FD93" s="32"/>
       <c r="FE93" s="33"/>
       <c r="FF93" s="34"/>
-      <c r="FG93" s="31"/>
-      <c r="FH93" s="32"/>
-      <c r="FI93" s="32"/>
+      <c r="FG93" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH93" s="32">
+        <v>2</v>
+      </c>
+      <c r="FI93" s="32">
+        <v>0.5</v>
+      </c>
       <c r="FJ93" s="33"/>
       <c r="FK93" s="34"/>
     </row>
-    <row r="94" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
         <v>103</v>
       </c>
@@ -29517,7 +29721,7 @@
       </c>
       <c r="E94" s="37">
         <f t="shared" si="83"/>
-        <v>26.88</v>
+        <v>27.88</v>
       </c>
       <c r="F94" s="37">
         <f t="shared" si="84"/>
@@ -29545,7 +29749,7 @@
       </c>
       <c r="L94" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M94" s="24">
         <f t="shared" si="91"/>
@@ -29818,13 +30022,15 @@
       <c r="FD94" s="32"/>
       <c r="FE94" s="33"/>
       <c r="FF94" s="34"/>
-      <c r="FG94" s="31"/>
+      <c r="FG94" s="31">
+        <v>1</v>
+      </c>
       <c r="FH94" s="32"/>
       <c r="FI94" s="32"/>
       <c r="FJ94" s="33"/>
       <c r="FK94" s="34"/>
     </row>
-    <row r="95" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
         <v>104</v>
       </c>
@@ -29839,7 +30045,7 @@
       </c>
       <c r="E95" s="37">
         <f t="shared" si="83"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F95" s="37">
         <f t="shared" si="84"/>
@@ -29867,15 +30073,15 @@
       </c>
       <c r="L95" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M95" s="24">
         <f t="shared" si="91"/>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="N95" s="24">
         <f t="shared" si="92"/>
-        <v>16.75</v>
+        <v>18.75</v>
       </c>
       <c r="O95" s="24">
         <f t="shared" si="93"/>
@@ -29883,11 +30089,11 @@
       </c>
       <c r="P95" s="24">
         <f t="shared" si="94"/>
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q95" s="35">
         <f t="shared" si="95"/>
-        <v>240.25</v>
+        <v>252.25</v>
       </c>
       <c r="R95" s="31">
         <v>1</v>
@@ -30204,13 +30410,21 @@
       <c r="FF95" s="34">
         <v>8</v>
       </c>
-      <c r="FG95" s="31"/>
-      <c r="FH95" s="32"/>
-      <c r="FI95" s="32"/>
+      <c r="FG95" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH95" s="32">
+        <v>2</v>
+      </c>
+      <c r="FI95" s="32">
+        <v>2</v>
+      </c>
       <c r="FJ95" s="33"/>
-      <c r="FK95" s="34"/>
+      <c r="FK95" s="34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="96" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
         <v>105</v>
       </c>
@@ -30225,7 +30439,7 @@
       </c>
       <c r="E96" s="37">
         <f t="shared" si="83"/>
-        <v>21.75</v>
+        <v>22.75</v>
       </c>
       <c r="F96" s="37">
         <f t="shared" si="84"/>
@@ -30253,11 +30467,11 @@
       </c>
       <c r="L96" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M96" s="24">
         <f t="shared" si="91"/>
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="N96" s="24">
         <f t="shared" si="92"/>
@@ -30273,7 +30487,7 @@
       </c>
       <c r="Q96" s="35">
         <f t="shared" si="95"/>
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="R96" s="31" t="s">
         <v>475</v>
@@ -30496,13 +30710,17 @@
       <c r="FD96" s="32"/>
       <c r="FE96" s="33"/>
       <c r="FF96" s="34"/>
-      <c r="FG96" s="31"/>
-      <c r="FH96" s="32"/>
+      <c r="FG96" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH96" s="32">
+        <v>0.75</v>
+      </c>
       <c r="FI96" s="32"/>
       <c r="FJ96" s="33"/>
       <c r="FK96" s="34"/>
     </row>
-    <row r="97" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
         <v>106</v>
       </c>
@@ -30517,7 +30735,7 @@
       </c>
       <c r="E97" s="37">
         <f t="shared" si="83"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F97" s="37">
         <f t="shared" si="84"/>
@@ -30545,7 +30763,7 @@
       </c>
       <c r="L97" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M97" s="24">
         <f t="shared" si="91"/>
@@ -30786,13 +31004,15 @@
       <c r="FD97" s="32"/>
       <c r="FE97" s="33"/>
       <c r="FF97" s="34"/>
-      <c r="FG97" s="31"/>
+      <c r="FG97" s="31">
+        <v>1</v>
+      </c>
       <c r="FH97" s="32"/>
       <c r="FI97" s="32"/>
       <c r="FJ97" s="33"/>
       <c r="FK97" s="34"/>
     </row>
-    <row r="98" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
         <v>107</v>
       </c>
@@ -30807,7 +31027,7 @@
       </c>
       <c r="E98" s="37">
         <f t="shared" si="83"/>
-        <v>22.75</v>
+        <v>23.75</v>
       </c>
       <c r="F98" s="37">
         <f t="shared" si="84"/>
@@ -30835,11 +31055,11 @@
       </c>
       <c r="L98" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M98" s="24">
         <f t="shared" si="91"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N98" s="24">
         <f t="shared" si="92"/>
@@ -30855,7 +31075,7 @@
       </c>
       <c r="Q98" s="35">
         <f t="shared" si="95"/>
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="R98" s="31" t="s">
         <v>475</v>
@@ -31074,13 +31294,17 @@
       <c r="FD98" s="32"/>
       <c r="FE98" s="33"/>
       <c r="FF98" s="34"/>
-      <c r="FG98" s="31"/>
-      <c r="FH98" s="32"/>
+      <c r="FG98" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH98" s="32">
+        <v>1</v>
+      </c>
       <c r="FI98" s="32"/>
       <c r="FJ98" s="33"/>
       <c r="FK98" s="34"/>
     </row>
-    <row r="99" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
         <v>108</v>
       </c>
@@ -31095,7 +31319,7 @@
       </c>
       <c r="E99" s="37">
         <f t="shared" si="83"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F99" s="37">
         <f t="shared" si="84"/>
@@ -31123,7 +31347,7 @@
       </c>
       <c r="L99" s="38">
         <f t="shared" si="90"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M99" s="24">
         <f t="shared" si="91"/>
@@ -31316,13 +31540,15 @@
       <c r="FD99" s="32"/>
       <c r="FE99" s="33"/>
       <c r="FF99" s="34"/>
-      <c r="FG99" s="31"/>
+      <c r="FG99" s="31">
+        <v>1</v>
+      </c>
       <c r="FH99" s="32"/>
       <c r="FI99" s="32"/>
       <c r="FJ99" s="33"/>
       <c r="FK99" s="34"/>
     </row>
-    <row r="100" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
         <v>109</v>
       </c>
@@ -31337,7 +31563,7 @@
       </c>
       <c r="E100" s="37">
         <f t="shared" si="83"/>
-        <v>24.439999999999998</v>
+        <v>25.439999999999998</v>
       </c>
       <c r="F100" s="37">
         <f t="shared" si="84"/>
@@ -31365,7 +31591,7 @@
       </c>
       <c r="L100" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M100" s="24">
         <f t="shared" si="91"/>
@@ -31604,13 +31830,15 @@
       <c r="FD100" s="32"/>
       <c r="FE100" s="33"/>
       <c r="FF100" s="34"/>
-      <c r="FG100" s="31"/>
+      <c r="FG100" s="31">
+        <v>1</v>
+      </c>
       <c r="FH100" s="32"/>
       <c r="FI100" s="32"/>
       <c r="FJ100" s="33"/>
       <c r="FK100" s="34"/>
     </row>
-    <row r="101" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
         <v>110</v>
       </c>
@@ -31645,7 +31873,7 @@
       </c>
       <c r="J101" s="24">
         <f t="shared" si="88"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K101" s="24">
         <f t="shared" si="89"/>
@@ -31653,7 +31881,7 @@
       </c>
       <c r="L101" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M101" s="24">
         <f t="shared" si="91"/>
@@ -31898,13 +32126,15 @@
       <c r="FD101" s="32"/>
       <c r="FE101" s="33"/>
       <c r="FF101" s="34"/>
-      <c r="FG101" s="31"/>
+      <c r="FG101" s="31" t="s">
+        <v>476</v>
+      </c>
       <c r="FH101" s="32"/>
       <c r="FI101" s="32"/>
       <c r="FJ101" s="33"/>
       <c r="FK101" s="34"/>
     </row>
-    <row r="102" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
         <v>111</v>
       </c>
@@ -31919,7 +32149,7 @@
       </c>
       <c r="E102" s="37">
         <f t="shared" si="83"/>
-        <v>24.97</v>
+        <v>25.97</v>
       </c>
       <c r="F102" s="37">
         <f t="shared" si="84"/>
@@ -31947,11 +32177,11 @@
       </c>
       <c r="L102" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M102" s="24">
         <f t="shared" si="91"/>
-        <v>19.25</v>
+        <v>19.75</v>
       </c>
       <c r="N102" s="24">
         <f t="shared" si="92"/>
@@ -31963,11 +32193,11 @@
       </c>
       <c r="P102" s="24">
         <f t="shared" si="94"/>
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="Q102" s="35">
         <f t="shared" si="95"/>
-        <v>198.25</v>
+        <v>206.75</v>
       </c>
       <c r="R102" s="31">
         <v>1</v>
@@ -32256,13 +32486,19 @@
       <c r="FD102" s="32"/>
       <c r="FE102" s="33"/>
       <c r="FF102" s="34"/>
-      <c r="FG102" s="31"/>
-      <c r="FH102" s="32"/>
+      <c r="FG102" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH102" s="32">
+        <v>0.5</v>
+      </c>
       <c r="FI102" s="32"/>
       <c r="FJ102" s="33"/>
-      <c r="FK102" s="34"/>
+      <c r="FK102" s="34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="103" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
         <v>112</v>
       </c>
@@ -32277,7 +32513,7 @@
       </c>
       <c r="E103" s="37">
         <f t="shared" si="83"/>
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="F103" s="37">
         <f t="shared" si="84"/>
@@ -32305,7 +32541,7 @@
       </c>
       <c r="L103" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M103" s="24">
         <f t="shared" si="91"/>
@@ -32532,13 +32768,15 @@
       <c r="FD103" s="32"/>
       <c r="FE103" s="33"/>
       <c r="FF103" s="34"/>
-      <c r="FG103" s="31"/>
+      <c r="FG103" s="31">
+        <v>1</v>
+      </c>
       <c r="FH103" s="32"/>
       <c r="FI103" s="32"/>
       <c r="FJ103" s="33"/>
       <c r="FK103" s="34"/>
     </row>
-    <row r="104" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
         <v>113</v>
       </c>
@@ -32553,7 +32791,7 @@
       </c>
       <c r="E104" s="37">
         <f t="shared" si="83"/>
-        <v>26.72</v>
+        <v>27.72</v>
       </c>
       <c r="F104" s="37">
         <f t="shared" si="84"/>
@@ -32581,11 +32819,11 @@
       </c>
       <c r="L104" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M104" s="24">
         <f t="shared" si="91"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N104" s="24">
         <f t="shared" si="92"/>
@@ -32601,7 +32839,7 @@
       </c>
       <c r="Q104" s="35">
         <f t="shared" si="95"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="R104" s="31">
         <v>1</v>
@@ -32822,13 +33060,17 @@
       <c r="FD104" s="32"/>
       <c r="FE104" s="33"/>
       <c r="FF104" s="34"/>
-      <c r="FG104" s="31"/>
-      <c r="FH104" s="32"/>
+      <c r="FG104" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH104" s="32">
+        <v>1</v>
+      </c>
       <c r="FI104" s="32"/>
       <c r="FJ104" s="33"/>
       <c r="FK104" s="34"/>
     </row>
-    <row r="105" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
         <v>114</v>
       </c>
@@ -33072,7 +33314,7 @@
       <c r="FJ105" s="33"/>
       <c r="FK105" s="34"/>
     </row>
-    <row r="106" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
         <v>115</v>
       </c>
@@ -33087,7 +33329,7 @@
       </c>
       <c r="E106" s="37">
         <f t="shared" si="83"/>
-        <v>28.75</v>
+        <v>29.75</v>
       </c>
       <c r="F106" s="37">
         <f t="shared" si="84"/>
@@ -33115,11 +33357,11 @@
       </c>
       <c r="L106" s="38">
         <f t="shared" si="90"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M106" s="24">
         <f t="shared" si="91"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N106" s="24">
         <f t="shared" si="92"/>
@@ -33135,7 +33377,7 @@
       </c>
       <c r="Q106" s="35">
         <f t="shared" si="95"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="R106" s="31">
         <v>1</v>
@@ -33350,13 +33592,17 @@
       <c r="FD106" s="32"/>
       <c r="FE106" s="33"/>
       <c r="FF106" s="34"/>
-      <c r="FG106" s="31"/>
-      <c r="FH106" s="32"/>
+      <c r="FG106" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH106" s="32">
+        <v>1</v>
+      </c>
       <c r="FI106" s="32"/>
       <c r="FJ106" s="33"/>
       <c r="FK106" s="34"/>
     </row>
-    <row r="107" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
         <v>116</v>
       </c>
@@ -33371,7 +33617,7 @@
       </c>
       <c r="E107" s="37">
         <f t="shared" si="83"/>
-        <v>11.75</v>
+        <v>12.75</v>
       </c>
       <c r="F107" s="37">
         <f t="shared" si="84"/>
@@ -33399,11 +33645,11 @@
       </c>
       <c r="L107" s="38">
         <f t="shared" si="90"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M107" s="24">
         <f t="shared" si="91"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N107" s="24">
         <f t="shared" si="92"/>
@@ -33419,7 +33665,7 @@
       </c>
       <c r="Q107" s="35">
         <f t="shared" si="95"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="R107" s="31"/>
       <c r="S107" s="32"/>
@@ -33596,13 +33842,17 @@
       <c r="FD107" s="32"/>
       <c r="FE107" s="33"/>
       <c r="FF107" s="34"/>
-      <c r="FG107" s="31"/>
-      <c r="FH107" s="32"/>
+      <c r="FG107" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH107" s="32">
+        <v>1</v>
+      </c>
       <c r="FI107" s="32"/>
       <c r="FJ107" s="33"/>
       <c r="FK107" s="34"/>
     </row>
-    <row r="108" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>117</v>
       </c>
@@ -33617,7 +33867,7 @@
       </c>
       <c r="E108" s="37">
         <f t="shared" ref="E108:E139" si="96">SUMIF($R$11:$FK$11,"T",R108:FK108)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F108" s="37">
         <f t="shared" ref="F108:F139" si="97">COUNTIF(R108:FK108,"F")+(COUNT(R108,W108,AB108,AG108,AL108,AQ108,AV108,BA108,BF108,BK108,BP108,BU108,BZ108,CE108,CJ108,CO108,CT108,CY108,DD108,DI108,DN108,DS108,DX108,EC108,EH108,EM108,ER108,EW108,FB108,FG108)-E108)</f>
@@ -33645,11 +33895,11 @@
       </c>
       <c r="L108" s="38">
         <f t="shared" ref="L108:L139" si="103">+E108+F108+H108+I108+J108+K108</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M108" s="24">
         <f t="shared" ref="M108:M139" si="104">SUMIF($R$11:$FK$11,$M$11,R108:FK108)</f>
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N108" s="24">
         <f t="shared" ref="N108:N139" si="105">SUMIF($R$11:$FK$11,$N$11,R108:FK108)</f>
@@ -33665,7 +33915,7 @@
       </c>
       <c r="Q108" s="35">
         <f t="shared" ref="Q108:Q139" si="108">SUM(M108:P108)</f>
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="R108" s="31">
         <v>1</v>
@@ -33862,7 +34112,7 @@
         <v>1</v>
       </c>
       <c r="EX108" s="32">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="EY108" s="32"/>
       <c r="EZ108" s="33"/>
@@ -33876,13 +34126,15 @@
       <c r="FD108" s="32"/>
       <c r="FE108" s="33"/>
       <c r="FF108" s="34"/>
-      <c r="FG108" s="31"/>
+      <c r="FG108" s="31">
+        <v>1</v>
+      </c>
       <c r="FH108" s="32"/>
       <c r="FI108" s="32"/>
       <c r="FJ108" s="33"/>
       <c r="FK108" s="34"/>
     </row>
-    <row r="109" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
         <v>118</v>
       </c>
@@ -33897,7 +34149,7 @@
       </c>
       <c r="E109" s="37">
         <f t="shared" si="96"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" s="37">
         <f t="shared" si="97"/>
@@ -33925,15 +34177,15 @@
       </c>
       <c r="L109" s="38">
         <f t="shared" si="103"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M109" s="24">
         <f t="shared" si="104"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N109" s="24">
         <f t="shared" si="105"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O109" s="24">
         <f t="shared" si="106"/>
@@ -33941,11 +34193,11 @@
       </c>
       <c r="P109" s="24">
         <f t="shared" si="107"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="Q109" s="35">
         <f t="shared" si="108"/>
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="R109" s="31"/>
       <c r="S109" s="32"/>
@@ -34146,13 +34398,21 @@
       <c r="FD109" s="32"/>
       <c r="FE109" s="33"/>
       <c r="FF109" s="34"/>
-      <c r="FG109" s="31"/>
-      <c r="FH109" s="32"/>
-      <c r="FI109" s="32"/>
+      <c r="FG109" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH109" s="32">
+        <v>2</v>
+      </c>
+      <c r="FI109" s="32">
+        <v>1</v>
+      </c>
       <c r="FJ109" s="33"/>
-      <c r="FK109" s="34"/>
+      <c r="FK109" s="34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="110" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
         <v>119</v>
       </c>
@@ -34167,7 +34427,7 @@
       </c>
       <c r="E110" s="37">
         <f t="shared" si="96"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F110" s="37">
         <f t="shared" si="97"/>
@@ -34195,11 +34455,11 @@
       </c>
       <c r="L110" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M110" s="24">
         <f t="shared" si="104"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N110" s="24">
         <f t="shared" si="105"/>
@@ -34215,7 +34475,7 @@
       </c>
       <c r="Q110" s="35">
         <f t="shared" si="108"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="R110" s="31" t="s">
         <v>475</v>
@@ -34434,13 +34694,17 @@
       <c r="FD110" s="32"/>
       <c r="FE110" s="33"/>
       <c r="FF110" s="34"/>
-      <c r="FG110" s="31"/>
-      <c r="FH110" s="32"/>
+      <c r="FG110" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH110" s="32">
+        <v>0.5</v>
+      </c>
       <c r="FI110" s="32"/>
       <c r="FJ110" s="33"/>
       <c r="FK110" s="34"/>
     </row>
-    <row r="111" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>120</v>
       </c>
@@ -34455,7 +34719,7 @@
       </c>
       <c r="E111" s="37">
         <f t="shared" si="96"/>
-        <v>26.869999999999997</v>
+        <v>27.869999999999997</v>
       </c>
       <c r="F111" s="37">
         <f t="shared" si="97"/>
@@ -34483,11 +34747,11 @@
       </c>
       <c r="L111" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M111" s="24">
         <f t="shared" si="104"/>
-        <v>22.25</v>
+        <v>22.5</v>
       </c>
       <c r="N111" s="24">
         <f t="shared" si="105"/>
@@ -34499,11 +34763,11 @@
       </c>
       <c r="P111" s="24">
         <f t="shared" si="107"/>
-        <v>183.25</v>
+        <v>191.25</v>
       </c>
       <c r="Q111" s="35">
         <f t="shared" si="108"/>
-        <v>215.5</v>
+        <v>223.75</v>
       </c>
       <c r="R111" s="31">
         <v>1</v>
@@ -34796,13 +35060,19 @@
       <c r="FF111" s="34">
         <v>8</v>
       </c>
-      <c r="FG111" s="31"/>
-      <c r="FH111" s="32"/>
+      <c r="FG111" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH111" s="32">
+        <v>0.25</v>
+      </c>
       <c r="FI111" s="32"/>
       <c r="FJ111" s="33"/>
-      <c r="FK111" s="34"/>
+      <c r="FK111" s="34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="112" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
         <v>121</v>
       </c>
@@ -34817,7 +35087,7 @@
       </c>
       <c r="E112" s="37">
         <f t="shared" si="96"/>
-        <v>23.4</v>
+        <v>24.4</v>
       </c>
       <c r="F112" s="37">
         <f t="shared" si="97"/>
@@ -34845,11 +35115,11 @@
       </c>
       <c r="L112" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M112" s="24">
         <f t="shared" si="104"/>
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N112" s="24">
         <f t="shared" si="105"/>
@@ -34865,7 +35135,7 @@
       </c>
       <c r="Q112" s="35">
         <f t="shared" si="108"/>
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R112" s="31">
         <v>1</v>
@@ -35078,13 +35348,17 @@
       <c r="FD112" s="32"/>
       <c r="FE112" s="33"/>
       <c r="FF112" s="34"/>
-      <c r="FG112" s="31"/>
-      <c r="FH112" s="32"/>
+      <c r="FG112" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH112" s="32">
+        <v>0.25</v>
+      </c>
       <c r="FI112" s="32"/>
       <c r="FJ112" s="33"/>
       <c r="FK112" s="34"/>
     </row>
-    <row r="113" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
         <v>122</v>
       </c>
@@ -35099,7 +35373,7 @@
       </c>
       <c r="E113" s="37">
         <f t="shared" si="96"/>
-        <v>26.44</v>
+        <v>27.44</v>
       </c>
       <c r="F113" s="37">
         <f t="shared" si="97"/>
@@ -35127,7 +35401,7 @@
       </c>
       <c r="L113" s="38">
         <f t="shared" si="103"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M113" s="24">
         <f t="shared" si="104"/>
@@ -35358,13 +35632,15 @@
       <c r="FD113" s="32"/>
       <c r="FE113" s="33"/>
       <c r="FF113" s="34"/>
-      <c r="FG113" s="31"/>
+      <c r="FG113" s="31">
+        <v>1</v>
+      </c>
       <c r="FH113" s="32"/>
       <c r="FI113" s="32"/>
       <c r="FJ113" s="33"/>
       <c r="FK113" s="34"/>
     </row>
-    <row r="114" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>123</v>
       </c>
@@ -35399,7 +35675,7 @@
       </c>
       <c r="J114" s="24">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" s="24">
         <f t="shared" si="102"/>
@@ -35407,7 +35683,7 @@
       </c>
       <c r="L114" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M114" s="24">
         <f t="shared" si="104"/>
@@ -35662,13 +35938,15 @@
       <c r="FD114" s="32"/>
       <c r="FE114" s="33"/>
       <c r="FF114" s="34"/>
-      <c r="FG114" s="31"/>
+      <c r="FG114" s="31" t="s">
+        <v>476</v>
+      </c>
       <c r="FH114" s="32"/>
       <c r="FI114" s="32"/>
       <c r="FJ114" s="33"/>
       <c r="FK114" s="34"/>
     </row>
-    <row r="115" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
         <v>124</v>
       </c>
@@ -35683,7 +35961,7 @@
       </c>
       <c r="E115" s="37">
         <f t="shared" si="96"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F115" s="37">
         <f t="shared" si="97"/>
@@ -35711,11 +35989,11 @@
       </c>
       <c r="L115" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M115" s="24">
         <f t="shared" si="104"/>
-        <v>12.25</v>
+        <v>12.75</v>
       </c>
       <c r="N115" s="24">
         <f t="shared" si="105"/>
@@ -35731,7 +36009,7 @@
       </c>
       <c r="Q115" s="35">
         <f t="shared" si="108"/>
-        <v>23.25</v>
+        <v>23.75</v>
       </c>
       <c r="R115" s="31">
         <v>1</v>
@@ -35962,13 +36240,17 @@
       <c r="FD115" s="32"/>
       <c r="FE115" s="33"/>
       <c r="FF115" s="34"/>
-      <c r="FG115" s="31"/>
-      <c r="FH115" s="32"/>
+      <c r="FG115" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH115" s="32">
+        <v>0.5</v>
+      </c>
       <c r="FI115" s="32"/>
       <c r="FJ115" s="33"/>
       <c r="FK115" s="34"/>
     </row>
-    <row r="116" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
         <v>125</v>
       </c>
@@ -35983,7 +36265,7 @@
       </c>
       <c r="E116" s="37">
         <f t="shared" si="96"/>
-        <v>25.63</v>
+        <v>26.63</v>
       </c>
       <c r="F116" s="37">
         <f t="shared" si="97"/>
@@ -36011,7 +36293,7 @@
       </c>
       <c r="L116" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M116" s="24">
         <f t="shared" si="104"/>
@@ -36256,13 +36538,15 @@
       <c r="FD116" s="32"/>
       <c r="FE116" s="33"/>
       <c r="FF116" s="34"/>
-      <c r="FG116" s="31"/>
+      <c r="FG116" s="31">
+        <v>1</v>
+      </c>
       <c r="FH116" s="32"/>
       <c r="FI116" s="32"/>
       <c r="FJ116" s="33"/>
       <c r="FK116" s="34"/>
     </row>
-    <row r="117" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
         <v>126</v>
       </c>
@@ -36277,7 +36561,7 @@
       </c>
       <c r="E117" s="37">
         <f t="shared" si="96"/>
-        <v>28.65</v>
+        <v>29.65</v>
       </c>
       <c r="F117" s="37">
         <f t="shared" si="97"/>
@@ -36305,11 +36589,11 @@
       </c>
       <c r="L117" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M117" s="24">
         <f t="shared" si="104"/>
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N117" s="24">
         <f t="shared" si="105"/>
@@ -36325,7 +36609,7 @@
       </c>
       <c r="Q117" s="35">
         <f t="shared" si="108"/>
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="R117" s="31">
         <v>1</v>
@@ -36542,13 +36826,17 @@
       <c r="FD117" s="32"/>
       <c r="FE117" s="33"/>
       <c r="FF117" s="34"/>
-      <c r="FG117" s="31"/>
-      <c r="FH117" s="32"/>
+      <c r="FG117" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH117" s="32">
+        <v>0.25</v>
+      </c>
       <c r="FI117" s="32"/>
       <c r="FJ117" s="33"/>
       <c r="FK117" s="34"/>
     </row>
-    <row r="118" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="22" t="s">
         <v>127</v>
       </c>
@@ -36563,7 +36851,7 @@
       </c>
       <c r="E118" s="37">
         <f t="shared" si="96"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F118" s="37">
         <f t="shared" si="97"/>
@@ -36591,7 +36879,7 @@
       </c>
       <c r="L118" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M118" s="24">
         <f t="shared" si="104"/>
@@ -36607,11 +36895,11 @@
       </c>
       <c r="P118" s="24">
         <f t="shared" si="107"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q118" s="35">
         <f t="shared" si="108"/>
-        <v>90.25</v>
+        <v>98.25</v>
       </c>
       <c r="R118" s="31">
         <v>1</v>
@@ -36856,13 +37144,17 @@
       <c r="FF118" s="34">
         <v>8</v>
       </c>
-      <c r="FG118" s="31"/>
+      <c r="FG118" s="31">
+        <v>1</v>
+      </c>
       <c r="FH118" s="32"/>
       <c r="FI118" s="32"/>
       <c r="FJ118" s="33"/>
-      <c r="FK118" s="34"/>
+      <c r="FK118" s="34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="119" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
         <v>128</v>
       </c>
@@ -36877,7 +37169,7 @@
       </c>
       <c r="E119" s="37">
         <f t="shared" si="96"/>
-        <v>27.75</v>
+        <v>28.75</v>
       </c>
       <c r="F119" s="37">
         <f t="shared" si="97"/>
@@ -36905,7 +37197,7 @@
       </c>
       <c r="L119" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M119" s="24">
         <f t="shared" si="104"/>
@@ -37136,13 +37428,15 @@
       <c r="FD119" s="32"/>
       <c r="FE119" s="33"/>
       <c r="FF119" s="34"/>
-      <c r="FG119" s="31"/>
+      <c r="FG119" s="31">
+        <v>1</v>
+      </c>
       <c r="FH119" s="32"/>
       <c r="FI119" s="32"/>
       <c r="FJ119" s="33"/>
       <c r="FK119" s="34"/>
     </row>
-    <row r="120" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="22" t="s">
         <v>129</v>
       </c>
@@ -37157,7 +37451,7 @@
       </c>
       <c r="E120" s="37">
         <f t="shared" si="96"/>
-        <v>25.44</v>
+        <v>26.44</v>
       </c>
       <c r="F120" s="37">
         <f t="shared" si="97"/>
@@ -37185,11 +37479,11 @@
       </c>
       <c r="L120" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M120" s="24">
         <f t="shared" si="104"/>
-        <v>12</v>
+        <v>12.25</v>
       </c>
       <c r="N120" s="24">
         <f t="shared" si="105"/>
@@ -37205,7 +37499,7 @@
       </c>
       <c r="Q120" s="35">
         <f t="shared" si="108"/>
-        <v>77.75</v>
+        <v>78</v>
       </c>
       <c r="R120" s="31">
         <v>1</v>
@@ -37450,13 +37744,17 @@
       <c r="FD120" s="32"/>
       <c r="FE120" s="33"/>
       <c r="FF120" s="34"/>
-      <c r="FG120" s="31"/>
-      <c r="FH120" s="32"/>
+      <c r="FG120" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH120" s="32">
+        <v>0.25</v>
+      </c>
       <c r="FI120" s="32"/>
       <c r="FJ120" s="33"/>
       <c r="FK120" s="34"/>
     </row>
-    <row r="121" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="s">
         <v>130</v>
       </c>
@@ -37471,7 +37769,7 @@
       </c>
       <c r="E121" s="37">
         <f t="shared" si="96"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F121" s="37">
         <f t="shared" si="97"/>
@@ -37499,11 +37797,11 @@
       </c>
       <c r="L121" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M121" s="24">
         <f t="shared" si="104"/>
-        <v>12.25</v>
+        <v>13.25</v>
       </c>
       <c r="N121" s="24">
         <f t="shared" si="105"/>
@@ -37519,7 +37817,7 @@
       </c>
       <c r="Q121" s="35">
         <f t="shared" si="108"/>
-        <v>12.25</v>
+        <v>13.25</v>
       </c>
       <c r="R121" s="31">
         <v>1</v>
@@ -37768,13 +38066,17 @@
       <c r="FD121" s="32"/>
       <c r="FE121" s="33"/>
       <c r="FF121" s="34"/>
-      <c r="FG121" s="31"/>
-      <c r="FH121" s="32"/>
+      <c r="FG121" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH121" s="32">
+        <v>1</v>
+      </c>
       <c r="FI121" s="32"/>
       <c r="FJ121" s="33"/>
       <c r="FK121" s="34"/>
     </row>
-    <row r="122" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
         <v>131</v>
       </c>
@@ -37789,7 +38091,7 @@
       </c>
       <c r="E122" s="37">
         <f t="shared" si="96"/>
-        <v>28.65</v>
+        <v>29.65</v>
       </c>
       <c r="F122" s="37">
         <f t="shared" si="97"/>
@@ -37817,11 +38119,11 @@
       </c>
       <c r="L122" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M122" s="24">
         <f t="shared" si="104"/>
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="N122" s="24">
         <f t="shared" si="105"/>
@@ -37837,7 +38139,7 @@
       </c>
       <c r="Q122" s="35">
         <f t="shared" si="108"/>
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="R122" s="31">
         <v>1</v>
@@ -38052,13 +38354,17 @@
       <c r="FD122" s="32"/>
       <c r="FE122" s="33"/>
       <c r="FF122" s="34"/>
-      <c r="FG122" s="31"/>
-      <c r="FH122" s="32"/>
+      <c r="FG122" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH122" s="32">
+        <v>0.25</v>
+      </c>
       <c r="FI122" s="32"/>
       <c r="FJ122" s="33"/>
       <c r="FK122" s="34"/>
     </row>
-    <row r="123" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
         <v>132</v>
       </c>
@@ -38073,7 +38379,7 @@
       </c>
       <c r="E123" s="37">
         <f t="shared" si="96"/>
-        <v>27.75</v>
+        <v>28.75</v>
       </c>
       <c r="F123" s="37">
         <f t="shared" si="97"/>
@@ -38101,7 +38407,7 @@
       </c>
       <c r="L123" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M123" s="24">
         <f t="shared" si="104"/>
@@ -38358,13 +38664,15 @@
       <c r="FD123" s="32"/>
       <c r="FE123" s="33"/>
       <c r="FF123" s="34"/>
-      <c r="FG123" s="31"/>
+      <c r="FG123" s="31">
+        <v>1</v>
+      </c>
       <c r="FH123" s="32"/>
       <c r="FI123" s="32"/>
       <c r="FJ123" s="33"/>
       <c r="FK123" s="34"/>
     </row>
-    <row r="124" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
         <v>133</v>
       </c>
@@ -38379,7 +38687,7 @@
       </c>
       <c r="E124" s="37">
         <f t="shared" si="96"/>
-        <v>27.88</v>
+        <v>28.88</v>
       </c>
       <c r="F124" s="37">
         <f t="shared" si="97"/>
@@ -38407,11 +38715,11 @@
       </c>
       <c r="L124" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M124" s="24">
         <f t="shared" si="104"/>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="N124" s="24">
         <f t="shared" si="105"/>
@@ -38427,7 +38735,7 @@
       </c>
       <c r="Q124" s="35">
         <f t="shared" si="108"/>
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="R124" s="31">
         <v>1</v>
@@ -38656,13 +38964,17 @@
       <c r="FD124" s="32"/>
       <c r="FE124" s="33"/>
       <c r="FF124" s="34"/>
-      <c r="FG124" s="31"/>
-      <c r="FH124" s="32"/>
+      <c r="FG124" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH124" s="32">
+        <v>1</v>
+      </c>
       <c r="FI124" s="32"/>
       <c r="FJ124" s="33"/>
       <c r="FK124" s="34"/>
     </row>
-    <row r="125" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="22" t="s">
         <v>134</v>
       </c>
@@ -38681,11 +38993,11 @@
       </c>
       <c r="F125" s="37">
         <f t="shared" si="97"/>
-        <v>2.120000000000001</v>
+        <v>3.120000000000001</v>
       </c>
       <c r="G125" s="37">
         <f t="shared" si="98"/>
-        <v>0.33333333333333398</v>
+        <v>0.500000000000001</v>
       </c>
       <c r="H125" s="24">
         <f t="shared" si="99"/>
@@ -38705,7 +39017,7 @@
       </c>
       <c r="L125" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M125" s="24">
         <f t="shared" si="104"/>
@@ -38964,13 +39276,15 @@
       <c r="FD125" s="32"/>
       <c r="FE125" s="33"/>
       <c r="FF125" s="34"/>
-      <c r="FG125" s="31"/>
+      <c r="FG125" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="FH125" s="32"/>
       <c r="FI125" s="32"/>
       <c r="FJ125" s="33"/>
       <c r="FK125" s="34"/>
     </row>
-    <row r="126" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="s">
         <v>135</v>
       </c>
@@ -38985,7 +39299,7 @@
       </c>
       <c r="E126" s="37">
         <f t="shared" si="96"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F126" s="37">
         <f t="shared" si="97"/>
@@ -39013,7 +39327,7 @@
       </c>
       <c r="L126" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M126" s="24">
         <f t="shared" si="104"/>
@@ -39029,11 +39343,11 @@
       </c>
       <c r="P126" s="24">
         <f t="shared" si="107"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q126" s="35">
         <f t="shared" si="108"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="R126" s="31">
         <v>1</v>
@@ -39258,13 +39572,17 @@
       <c r="FF126" s="34">
         <v>8</v>
       </c>
-      <c r="FG126" s="31"/>
+      <c r="FG126" s="31">
+        <v>1</v>
+      </c>
       <c r="FH126" s="32"/>
       <c r="FI126" s="32"/>
       <c r="FJ126" s="33"/>
-      <c r="FK126" s="34"/>
+      <c r="FK126" s="34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="127" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
         <v>136</v>
       </c>
@@ -39490,7 +39808,7 @@
       <c r="FJ127" s="33"/>
       <c r="FK127" s="34"/>
     </row>
-    <row r="128" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
         <v>137</v>
       </c>
@@ -39770,7 +40088,7 @@
       <c r="FJ128" s="33"/>
       <c r="FK128" s="34"/>
     </row>
-    <row r="129" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="22" t="s">
         <v>138</v>
       </c>
@@ -39785,11 +40103,11 @@
       </c>
       <c r="E129" s="37">
         <f t="shared" si="96"/>
-        <v>26</v>
+        <v>26.88</v>
       </c>
       <c r="F129" s="37">
         <f t="shared" si="97"/>
-        <v>2</v>
+        <v>2.120000000000001</v>
       </c>
       <c r="G129" s="37">
         <f t="shared" si="98"/>
@@ -39813,7 +40131,7 @@
       </c>
       <c r="L129" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M129" s="24">
         <f t="shared" si="104"/>
@@ -40038,13 +40356,15 @@
       <c r="FD129" s="32"/>
       <c r="FE129" s="33"/>
       <c r="FF129" s="34"/>
-      <c r="FG129" s="31"/>
+      <c r="FG129" s="31">
+        <v>0.88</v>
+      </c>
       <c r="FH129" s="32"/>
       <c r="FI129" s="32"/>
       <c r="FJ129" s="33"/>
       <c r="FK129" s="34"/>
     </row>
-    <row r="130" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="22" t="s">
         <v>139</v>
       </c>
@@ -40059,7 +40379,7 @@
       </c>
       <c r="E130" s="37">
         <f t="shared" si="96"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F130" s="37">
         <f t="shared" si="97"/>
@@ -40087,7 +40407,7 @@
       </c>
       <c r="L130" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M130" s="24">
         <f t="shared" si="104"/>
@@ -40103,11 +40423,11 @@
       </c>
       <c r="P130" s="24">
         <f t="shared" si="107"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q130" s="35">
         <f t="shared" si="108"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="R130" s="31">
         <v>1</v>
@@ -40332,13 +40652,17 @@
       <c r="FF130" s="34">
         <v>8</v>
       </c>
-      <c r="FG130" s="31"/>
+      <c r="FG130" s="31">
+        <v>1</v>
+      </c>
       <c r="FH130" s="32"/>
       <c r="FI130" s="32"/>
       <c r="FJ130" s="33"/>
-      <c r="FK130" s="34"/>
+      <c r="FK130" s="34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="131" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="22" t="s">
         <v>140</v>
       </c>
@@ -40353,7 +40677,7 @@
       </c>
       <c r="E131" s="37">
         <f t="shared" si="96"/>
-        <v>23.869999999999997</v>
+        <v>24.869999999999997</v>
       </c>
       <c r="F131" s="37">
         <f t="shared" si="97"/>
@@ -40381,11 +40705,11 @@
       </c>
       <c r="L131" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M131" s="24">
         <f t="shared" si="104"/>
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N131" s="24">
         <f t="shared" si="105"/>
@@ -40401,7 +40725,7 @@
       </c>
       <c r="Q131" s="35">
         <f t="shared" si="108"/>
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="R131" s="31">
         <v>1</v>
@@ -40610,13 +40934,17 @@
       <c r="FD131" s="32"/>
       <c r="FE131" s="33"/>
       <c r="FF131" s="34"/>
-      <c r="FG131" s="31"/>
-      <c r="FH131" s="32"/>
+      <c r="FG131" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH131" s="32">
+        <v>0.25</v>
+      </c>
       <c r="FI131" s="32"/>
       <c r="FJ131" s="33"/>
       <c r="FK131" s="34"/>
     </row>
-    <row r="132" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="22" t="s">
         <v>143</v>
       </c>
@@ -40631,7 +40959,7 @@
       </c>
       <c r="E132" s="37">
         <f t="shared" si="96"/>
-        <v>10.879999999999999</v>
+        <v>11.879999999999999</v>
       </c>
       <c r="F132" s="37">
         <f t="shared" si="97"/>
@@ -40659,7 +40987,7 @@
       </c>
       <c r="L132" s="38">
         <f t="shared" si="103"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M132" s="24">
         <f t="shared" si="104"/>
@@ -40856,13 +41184,15 @@
       <c r="FD132" s="32"/>
       <c r="FE132" s="33"/>
       <c r="FF132" s="34"/>
-      <c r="FG132" s="31"/>
+      <c r="FG132" s="31">
+        <v>1</v>
+      </c>
       <c r="FH132" s="32"/>
       <c r="FI132" s="32"/>
       <c r="FJ132" s="33"/>
       <c r="FK132" s="34"/>
     </row>
-    <row r="133" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="22" t="s">
         <v>144</v>
       </c>
@@ -40877,7 +41207,7 @@
       </c>
       <c r="E133" s="37">
         <f t="shared" si="96"/>
-        <v>25.97</v>
+        <v>26.97</v>
       </c>
       <c r="F133" s="37">
         <f t="shared" si="97"/>
@@ -40905,15 +41235,15 @@
       </c>
       <c r="L133" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M133" s="24">
         <f t="shared" si="104"/>
-        <v>22.75</v>
+        <v>24.75</v>
       </c>
       <c r="N133" s="24">
         <f t="shared" si="105"/>
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="O133" s="24">
         <f t="shared" si="106"/>
@@ -40921,11 +41251,11 @@
       </c>
       <c r="P133" s="24">
         <f t="shared" si="107"/>
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Q133" s="35">
         <f t="shared" si="108"/>
-        <v>210.25</v>
+        <v>222.25</v>
       </c>
       <c r="R133" s="31">
         <v>1</v>
@@ -41216,13 +41546,21 @@
       <c r="FF133" s="34">
         <v>8</v>
       </c>
-      <c r="FG133" s="31"/>
-      <c r="FH133" s="32"/>
-      <c r="FI133" s="32"/>
+      <c r="FG133" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH133" s="32">
+        <v>2</v>
+      </c>
+      <c r="FI133" s="32">
+        <v>2</v>
+      </c>
       <c r="FJ133" s="33"/>
-      <c r="FK133" s="34"/>
+      <c r="FK133" s="34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="134" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="22" t="s">
         <v>145</v>
       </c>
@@ -41502,7 +41840,7 @@
       <c r="FJ134" s="33"/>
       <c r="FK134" s="34"/>
     </row>
-    <row r="135" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="22" t="s">
         <v>146</v>
       </c>
@@ -41517,7 +41855,7 @@
       </c>
       <c r="E135" s="37">
         <f t="shared" si="96"/>
-        <v>26.75</v>
+        <v>27.75</v>
       </c>
       <c r="F135" s="37">
         <f t="shared" si="97"/>
@@ -41545,11 +41883,11 @@
       </c>
       <c r="L135" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M135" s="24">
         <f t="shared" si="104"/>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N135" s="24">
         <f t="shared" si="105"/>
@@ -41565,7 +41903,7 @@
       </c>
       <c r="Q135" s="35">
         <f t="shared" si="108"/>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R135" s="31" t="s">
         <v>177</v>
@@ -41784,13 +42122,17 @@
       <c r="FD135" s="32"/>
       <c r="FE135" s="33"/>
       <c r="FF135" s="34"/>
-      <c r="FG135" s="31"/>
-      <c r="FH135" s="32"/>
+      <c r="FG135" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH135" s="32">
+        <v>0.5</v>
+      </c>
       <c r="FI135" s="32"/>
       <c r="FJ135" s="33"/>
       <c r="FK135" s="34"/>
     </row>
-    <row r="136" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="22" t="s">
         <v>147</v>
       </c>
@@ -41805,7 +42147,7 @@
       </c>
       <c r="E136" s="37">
         <f t="shared" si="96"/>
-        <v>28.75</v>
+        <v>29.75</v>
       </c>
       <c r="F136" s="37">
         <f t="shared" si="97"/>
@@ -41833,11 +42175,11 @@
       </c>
       <c r="L136" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M136" s="24">
         <f t="shared" si="104"/>
-        <v>30.5</v>
+        <v>31</v>
       </c>
       <c r="N136" s="24">
         <f t="shared" si="105"/>
@@ -41849,11 +42191,11 @@
       </c>
       <c r="P136" s="24">
         <f t="shared" si="107"/>
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q136" s="35">
         <f t="shared" si="108"/>
-        <v>238.5</v>
+        <v>247</v>
       </c>
       <c r="R136" s="31">
         <v>1</v>
@@ -42168,13 +42510,19 @@
       <c r="FF136" s="34">
         <v>8</v>
       </c>
-      <c r="FG136" s="31"/>
-      <c r="FH136" s="32"/>
+      <c r="FG136" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH136" s="32">
+        <v>0.5</v>
+      </c>
       <c r="FI136" s="32"/>
       <c r="FJ136" s="33"/>
-      <c r="FK136" s="34"/>
+      <c r="FK136" s="34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="137" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="22" t="s">
         <v>148</v>
       </c>
@@ -42189,7 +42537,7 @@
       </c>
       <c r="E137" s="37">
         <f t="shared" si="96"/>
-        <v>26.78</v>
+        <v>27.78</v>
       </c>
       <c r="F137" s="37">
         <f t="shared" si="97"/>
@@ -42217,11 +42565,11 @@
       </c>
       <c r="L137" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M137" s="24">
         <f t="shared" si="104"/>
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N137" s="24">
         <f t="shared" si="105"/>
@@ -42237,7 +42585,7 @@
       </c>
       <c r="Q137" s="35">
         <f t="shared" si="108"/>
-        <v>75</v>
+        <v>75.25</v>
       </c>
       <c r="R137" s="31">
         <v>1</v>
@@ -42468,13 +42816,17 @@
       <c r="FD137" s="32"/>
       <c r="FE137" s="33"/>
       <c r="FF137" s="34"/>
-      <c r="FG137" s="31"/>
-      <c r="FH137" s="32"/>
+      <c r="FG137" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH137" s="32">
+        <v>0.25</v>
+      </c>
       <c r="FI137" s="32"/>
       <c r="FJ137" s="33"/>
       <c r="FK137" s="34"/>
     </row>
-    <row r="138" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="22" t="s">
         <v>149</v>
       </c>
@@ -42489,7 +42841,7 @@
       </c>
       <c r="E138" s="37">
         <f t="shared" si="96"/>
-        <v>27.75</v>
+        <v>28.75</v>
       </c>
       <c r="F138" s="37">
         <f t="shared" si="97"/>
@@ -42517,11 +42869,11 @@
       </c>
       <c r="L138" s="38">
         <f t="shared" si="103"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M138" s="24">
         <f t="shared" si="104"/>
-        <v>22.25</v>
+        <v>23.25</v>
       </c>
       <c r="N138" s="24">
         <f t="shared" si="105"/>
@@ -42537,7 +42889,7 @@
       </c>
       <c r="Q138" s="35">
         <f t="shared" si="108"/>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R138" s="31">
         <v>1</v>
@@ -42806,13 +43158,17 @@
       <c r="FD138" s="32"/>
       <c r="FE138" s="33"/>
       <c r="FF138" s="34"/>
-      <c r="FG138" s="31"/>
-      <c r="FH138" s="32"/>
+      <c r="FG138" s="31">
+        <v>1</v>
+      </c>
+      <c r="FH138" s="32">
+        <v>1</v>
+      </c>
       <c r="FI138" s="32"/>
       <c r="FJ138" s="33"/>
       <c r="FK138" s="34"/>
     </row>
-    <row r="139" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="22" t="s">
         <v>150</v>
       </c>
@@ -43022,7 +43378,7 @@
       <c r="FJ139" s="33"/>
       <c r="FK139" s="34"/>
     </row>
-    <row r="140" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="22" t="s">
         <v>151</v>
       </c>
@@ -43232,7 +43588,7 @@
       <c r="FJ140" s="33"/>
       <c r="FK140" s="34"/>
     </row>
-    <row r="141" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="22" t="s">
         <v>152</v>
       </c>
@@ -43442,7 +43798,7 @@
       <c r="FJ141" s="33"/>
       <c r="FK141" s="34"/>
     </row>
-    <row r="142" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="22" t="s">
         <v>153</v>
       </c>
@@ -43652,7 +44008,7 @@
       <c r="FJ142" s="33"/>
       <c r="FK142" s="34"/>
     </row>
-    <row r="143" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="22" t="s">
         <v>154</v>
       </c>
@@ -43862,7 +44218,7 @@
       <c r="FJ143" s="33"/>
       <c r="FK143" s="34"/>
     </row>
-    <row r="144" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="22" t="s">
         <v>155</v>
       </c>
@@ -44072,7 +44428,7 @@
       <c r="FJ144" s="33"/>
       <c r="FK144" s="34"/>
     </row>
-    <row r="145" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="22" t="s">
         <v>156</v>
       </c>
@@ -44282,7 +44638,7 @@
       <c r="FJ145" s="33"/>
       <c r="FK145" s="34"/>
     </row>
-    <row r="146" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="22" t="s">
         <v>157</v>
       </c>
@@ -44492,7 +44848,7 @@
       <c r="FJ146" s="33"/>
       <c r="FK146" s="34"/>
     </row>
-    <row r="147" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="22" t="s">
         <v>158</v>
       </c>
@@ -44702,7 +45058,7 @@
       <c r="FJ147" s="33"/>
       <c r="FK147" s="34"/>
     </row>
-    <row r="148" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="22" t="s">
         <v>159</v>
       </c>
@@ -44912,7 +45268,7 @@
       <c r="FJ148" s="33"/>
       <c r="FK148" s="34"/>
     </row>
-    <row r="149" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="22" t="s">
         <v>160</v>
       </c>
@@ -45122,7 +45478,7 @@
       <c r="FJ149" s="33"/>
       <c r="FK149" s="34"/>
     </row>
-    <row r="150" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="22" t="s">
         <v>161</v>
       </c>
@@ -45332,7 +45688,7 @@
       <c r="FJ150" s="33"/>
       <c r="FK150" s="34"/>
     </row>
-    <row r="151" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="22" t="s">
         <v>162</v>
       </c>
@@ -45542,7 +45898,7 @@
       <c r="FJ151" s="33"/>
       <c r="FK151" s="34"/>
     </row>
-    <row r="152" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="22" t="s">
         <v>163</v>
       </c>
@@ -45752,7 +46108,7 @@
       <c r="FJ152" s="33"/>
       <c r="FK152" s="34"/>
     </row>
-    <row r="153" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="22" t="s">
         <v>164</v>
       </c>
@@ -45962,7 +46318,7 @@
       <c r="FJ153" s="33"/>
       <c r="FK153" s="34"/>
     </row>
-    <row r="154" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="22" t="s">
         <v>165</v>
       </c>
@@ -46172,7 +46528,7 @@
       <c r="FJ154" s="33"/>
       <c r="FK154" s="34"/>
     </row>
-    <row r="155" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="22" t="s">
         <v>166</v>
       </c>
@@ -46382,7 +46738,7 @@
       <c r="FJ155" s="33"/>
       <c r="FK155" s="34"/>
     </row>
-    <row r="156" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="22" t="s">
         <v>167</v>
       </c>
@@ -46592,7 +46948,7 @@
       <c r="FJ156" s="33"/>
       <c r="FK156" s="34"/>
     </row>
-    <row r="157" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="22" t="s">
         <v>168</v>
       </c>
@@ -46802,7 +47158,7 @@
       <c r="FJ157" s="33"/>
       <c r="FK157" s="34"/>
     </row>
-    <row r="158" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="22" t="s">
         <v>169</v>
       </c>
@@ -47012,7 +47368,7 @@
       <c r="FJ158" s="33"/>
       <c r="FK158" s="34"/>
     </row>
-    <row r="159" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="22" t="s">
         <v>170</v>
       </c>
@@ -47222,7 +47578,7 @@
       <c r="FJ159" s="33"/>
       <c r="FK159" s="34"/>
     </row>
-    <row r="160" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="22" t="s">
         <v>171</v>
       </c>
@@ -47432,7 +47788,7 @@
       <c r="FJ160" s="33"/>
       <c r="FK160" s="34"/>
     </row>
-    <row r="161" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="22" t="s">
         <v>172</v>
       </c>
@@ -47642,22 +47998,22 @@
       <c r="FJ161" s="33"/>
       <c r="FK161" s="34"/>
     </row>
-    <row r="162" spans="1:167" s="18" customFormat="1" ht="30.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:167" s="18" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="71"/>
       <c r="B162" s="64"/>
       <c r="C162" s="65"/>
       <c r="D162" s="72"/>
       <c r="E162" s="73">
         <f t="shared" ref="E162:AJ162" si="122">SUM(E12:E161)</f>
-        <v>2657.940000000001</v>
+        <v>2754.7800000000011</v>
       </c>
       <c r="F162" s="73">
         <f t="shared" si="122"/>
-        <v>222.06000000000006</v>
+        <v>226.22000000000003</v>
       </c>
       <c r="G162" s="73">
         <f t="shared" si="122"/>
-        <v>33.000000000000099</v>
+        <v>33.666666666666764</v>
       </c>
       <c r="H162" s="73">
         <f t="shared" si="122"/>
@@ -47669,7 +48025,7 @@
       </c>
       <c r="J162" s="73">
         <f t="shared" si="122"/>
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K162" s="73">
         <f t="shared" si="122"/>
@@ -47677,15 +48033,15 @@
       </c>
       <c r="L162" s="73">
         <f t="shared" si="122"/>
-        <v>3224</v>
+        <v>3327</v>
       </c>
       <c r="M162" s="73">
         <f t="shared" si="122"/>
-        <v>1039.75</v>
+        <v>1089</v>
       </c>
       <c r="N162" s="73">
         <f t="shared" si="122"/>
-        <v>287.25</v>
+        <v>298.75</v>
       </c>
       <c r="O162" s="73">
         <f t="shared" si="122"/>
@@ -47693,11 +48049,11 @@
       </c>
       <c r="P162" s="73">
         <f t="shared" si="122"/>
-        <v>3322.75</v>
+        <v>3468.75</v>
       </c>
       <c r="Q162" s="73">
         <f t="shared" si="122"/>
-        <v>4673.75</v>
+        <v>4880.5</v>
       </c>
       <c r="R162" s="40">
         <f t="shared" si="122"/>
@@ -47989,7 +48345,7 @@
       </c>
       <c r="CL162" s="42">
         <f t="shared" si="124"/>
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="CM162" s="42">
         <f t="shared" si="124"/>
@@ -48081,7 +48437,7 @@
       </c>
       <c r="DI162" s="40">
         <f t="shared" si="125"/>
-        <v>76.789999999999992</v>
+        <v>76.91</v>
       </c>
       <c r="DJ162" s="42">
         <f t="shared" si="125"/>
@@ -48161,7 +48517,7 @@
       </c>
       <c r="EC162" s="40">
         <f t="shared" ref="EC162:FH162" si="126">SUM(EC12:EC161)</f>
-        <v>94.73</v>
+        <v>95.73</v>
       </c>
       <c r="ED162" s="42">
         <f t="shared" si="126"/>
@@ -48245,7 +48601,7 @@
       </c>
       <c r="EX162" s="42">
         <f t="shared" si="126"/>
-        <v>61.25</v>
+        <v>61</v>
       </c>
       <c r="EY162" s="42">
         <f t="shared" si="126"/>
@@ -48261,11 +48617,11 @@
       </c>
       <c r="FB162" s="40">
         <f t="shared" si="126"/>
-        <v>87.33</v>
+        <v>89.33</v>
       </c>
       <c r="FC162" s="42">
         <f t="shared" si="126"/>
-        <v>47.25</v>
+        <v>48.25</v>
       </c>
       <c r="FD162" s="42">
         <f t="shared" si="126"/>
@@ -48281,15 +48637,15 @@
       </c>
       <c r="FG162" s="40">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>93.72</v>
       </c>
       <c r="FH162" s="42">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="FI162" s="42">
         <f t="shared" ref="FI162:FK162" si="127">SUM(FI12:FI161)</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="FJ162" s="42">
         <f t="shared" si="127"/>
@@ -48297,7 +48653,7 @@
       </c>
       <c r="FK162" s="41">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="163" spans="1:167" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -48609,36 +48965,41 @@
       <c r="C167" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:FK162" xr:uid="{C0760EAB-CC3D-40AE-A29A-AB65FF61DEFD}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="AVALOS VEGA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="72">
-    <mergeCell ref="BA10:BE10"/>
-    <mergeCell ref="DI10:DM10"/>
-    <mergeCell ref="BF10:BJ10"/>
-    <mergeCell ref="BK10:BO10"/>
-    <mergeCell ref="BP10:BT10"/>
-    <mergeCell ref="BU10:BY10"/>
-    <mergeCell ref="BZ10:CD10"/>
-    <mergeCell ref="CE10:CI10"/>
-    <mergeCell ref="FG10:FK10"/>
-    <mergeCell ref="DN10:DR10"/>
-    <mergeCell ref="DS10:DW10"/>
-    <mergeCell ref="DX10:EB10"/>
-    <mergeCell ref="EC10:EG10"/>
-    <mergeCell ref="EH10:EL10"/>
-    <mergeCell ref="EM10:EQ10"/>
-    <mergeCell ref="FG9:FK9"/>
-    <mergeCell ref="EC9:EG9"/>
-    <mergeCell ref="EH9:EL9"/>
-    <mergeCell ref="EM9:EQ9"/>
-    <mergeCell ref="ER9:EV9"/>
-    <mergeCell ref="EW9:FA9"/>
-    <mergeCell ref="FB9:FF9"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:D10"/>
+    <mergeCell ref="E8:Q10"/>
+    <mergeCell ref="R8:AZ8"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AQ10:AU10"/>
+    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="BU9:BY9"/>
+    <mergeCell ref="BZ9:CD9"/>
+    <mergeCell ref="ER10:EV10"/>
+    <mergeCell ref="EW10:FA10"/>
+    <mergeCell ref="FB10:FF10"/>
+    <mergeCell ref="CY9:DC9"/>
+    <mergeCell ref="DD9:DH9"/>
+    <mergeCell ref="DI9:DM9"/>
+    <mergeCell ref="DN9:DR9"/>
+    <mergeCell ref="DS9:DW9"/>
+    <mergeCell ref="DX9:EB9"/>
+    <mergeCell ref="CJ10:CN10"/>
+    <mergeCell ref="CO10:CS10"/>
+    <mergeCell ref="CT10:CX10"/>
+    <mergeCell ref="CY10:DC10"/>
+    <mergeCell ref="DD10:DH10"/>
     <mergeCell ref="BA8:FK8"/>
     <mergeCell ref="R9:V9"/>
     <mergeCell ref="W9:AA9"/>
@@ -48655,40 +49016,28 @@
     <mergeCell ref="BF9:BJ9"/>
     <mergeCell ref="BK9:BO9"/>
     <mergeCell ref="BP9:BT9"/>
-    <mergeCell ref="BU9:BY9"/>
-    <mergeCell ref="BZ9:CD9"/>
-    <mergeCell ref="ER10:EV10"/>
-    <mergeCell ref="EW10:FA10"/>
-    <mergeCell ref="FB10:FF10"/>
-    <mergeCell ref="CY9:DC9"/>
-    <mergeCell ref="DD9:DH9"/>
-    <mergeCell ref="DI9:DM9"/>
-    <mergeCell ref="DN9:DR9"/>
-    <mergeCell ref="DS9:DW9"/>
-    <mergeCell ref="DX9:EB9"/>
-    <mergeCell ref="CJ10:CN10"/>
-    <mergeCell ref="CO10:CS10"/>
-    <mergeCell ref="CT10:CX10"/>
-    <mergeCell ref="CY10:DC10"/>
-    <mergeCell ref="DD10:DH10"/>
-    <mergeCell ref="R8:AZ8"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="AQ10:AU10"/>
-    <mergeCell ref="AV10:AZ10"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:Q5"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:D10"/>
-    <mergeCell ref="E8:Q10"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:Q3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="FG9:FK9"/>
+    <mergeCell ref="EC9:EG9"/>
+    <mergeCell ref="EH9:EL9"/>
+    <mergeCell ref="EM9:EQ9"/>
+    <mergeCell ref="ER9:EV9"/>
+    <mergeCell ref="EW9:FA9"/>
+    <mergeCell ref="FB9:FF9"/>
+    <mergeCell ref="FG10:FK10"/>
+    <mergeCell ref="DN10:DR10"/>
+    <mergeCell ref="DS10:DW10"/>
+    <mergeCell ref="DX10:EB10"/>
+    <mergeCell ref="EC10:EG10"/>
+    <mergeCell ref="EH10:EL10"/>
+    <mergeCell ref="EM10:EQ10"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="DI10:DM10"/>
+    <mergeCell ref="BF10:BJ10"/>
+    <mergeCell ref="BK10:BO10"/>
+    <mergeCell ref="BP10:BT10"/>
+    <mergeCell ref="BU10:BY10"/>
+    <mergeCell ref="BZ10:CD10"/>
+    <mergeCell ref="CE10:CI10"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="DS12:EL151 FB12:FK151 ER12:EV151">

--- a/1-CONTROL/2-TAREO/TAREO-JUNIO.xlsx
+++ b/1-CONTROL/2-TAREO/TAREO-JUNIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\1-CONTROL\2-TAREO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0436B4C-4044-4045-B74D-5A1F071B4B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA73EDEA-236C-4C72-AF37-25C176BB6452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{100E3196-77E0-4FB0-BD0A-F462B801CA56}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$11:$FK$162</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2365,31 +2365,22 @@
     <xf numFmtId="2" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2452,23 +2443,32 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3754,10 +3754,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0760EAB-CC3D-40AE-A29A-AB65FF61DEFD}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:FK167"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="H166" sqref="H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3836,25 +3837,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:167" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
       <c r="V1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AF1" s="2"/>
@@ -4039,36 +4040,36 @@
       <c r="FK2" s="2"/>
     </row>
     <row r="3" spans="1:167" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="106"/>
+      <c r="A3" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="77"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="107" t="s">
+      <c r="X3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="108"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="79"/>
       <c r="AA3" s="5">
         <v>30</v>
       </c>
@@ -4237,11 +4238,11 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="107" t="s">
+      <c r="X4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="108"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="79"/>
       <c r="AA4" s="5">
         <v>240</v>
       </c>
@@ -4387,25 +4388,25 @@
       <c r="FK4" s="1"/>
     </row>
     <row r="5" spans="1:167" s="13" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="85"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
@@ -4744,703 +4745,703 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:167" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="94" t="s">
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="80" t="s">
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="100" t="s">
         <v>178</v>
       </c>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="81"/>
-      <c r="V8" s="81"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="81"/>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="81"/>
-      <c r="AB8" s="81"/>
-      <c r="AC8" s="81"/>
-      <c r="AD8" s="81"/>
-      <c r="AE8" s="81"/>
-      <c r="AF8" s="81"/>
-      <c r="AG8" s="81"/>
-      <c r="AH8" s="81"/>
-      <c r="AI8" s="81"/>
-      <c r="AJ8" s="81"/>
-      <c r="AK8" s="81"/>
-      <c r="AL8" s="81"/>
-      <c r="AM8" s="81"/>
-      <c r="AN8" s="81"/>
-      <c r="AO8" s="81"/>
-      <c r="AP8" s="81"/>
-      <c r="AQ8" s="81"/>
-      <c r="AR8" s="81"/>
-      <c r="AS8" s="81"/>
-      <c r="AT8" s="81"/>
-      <c r="AU8" s="81"/>
-      <c r="AV8" s="81"/>
-      <c r="AW8" s="81"/>
-      <c r="AX8" s="81"/>
-      <c r="AY8" s="81"/>
-      <c r="AZ8" s="82"/>
-      <c r="BA8" s="80" t="s">
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="101"/>
+      <c r="AI8" s="101"/>
+      <c r="AJ8" s="101"/>
+      <c r="AK8" s="101"/>
+      <c r="AL8" s="101"/>
+      <c r="AM8" s="101"/>
+      <c r="AN8" s="101"/>
+      <c r="AO8" s="101"/>
+      <c r="AP8" s="101"/>
+      <c r="AQ8" s="101"/>
+      <c r="AR8" s="101"/>
+      <c r="AS8" s="101"/>
+      <c r="AT8" s="101"/>
+      <c r="AU8" s="101"/>
+      <c r="AV8" s="101"/>
+      <c r="AW8" s="101"/>
+      <c r="AX8" s="101"/>
+      <c r="AY8" s="101"/>
+      <c r="AZ8" s="102"/>
+      <c r="BA8" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="BB8" s="81"/>
-      <c r="BC8" s="81"/>
-      <c r="BD8" s="81"/>
-      <c r="BE8" s="81"/>
-      <c r="BF8" s="81"/>
-      <c r="BG8" s="81"/>
-      <c r="BH8" s="81"/>
-      <c r="BI8" s="81"/>
-      <c r="BJ8" s="81"/>
-      <c r="BK8" s="81"/>
-      <c r="BL8" s="81"/>
-      <c r="BM8" s="81"/>
-      <c r="BN8" s="81"/>
-      <c r="BO8" s="81"/>
-      <c r="BP8" s="81"/>
-      <c r="BQ8" s="81"/>
-      <c r="BR8" s="81"/>
-      <c r="BS8" s="81"/>
-      <c r="BT8" s="81"/>
-      <c r="BU8" s="81"/>
-      <c r="BV8" s="81"/>
-      <c r="BW8" s="81"/>
-      <c r="BX8" s="81"/>
-      <c r="BY8" s="81"/>
-      <c r="BZ8" s="81"/>
-      <c r="CA8" s="81"/>
-      <c r="CB8" s="81"/>
-      <c r="CC8" s="81"/>
-      <c r="CD8" s="81"/>
-      <c r="CE8" s="81"/>
-      <c r="CF8" s="81"/>
-      <c r="CG8" s="81"/>
-      <c r="CH8" s="81"/>
-      <c r="CI8" s="81"/>
-      <c r="CJ8" s="81"/>
-      <c r="CK8" s="81"/>
-      <c r="CL8" s="81"/>
-      <c r="CM8" s="81"/>
-      <c r="CN8" s="81"/>
-      <c r="CO8" s="81"/>
-      <c r="CP8" s="81"/>
-      <c r="CQ8" s="81"/>
-      <c r="CR8" s="81"/>
-      <c r="CS8" s="81"/>
-      <c r="CT8" s="81"/>
-      <c r="CU8" s="81"/>
-      <c r="CV8" s="81"/>
-      <c r="CW8" s="81"/>
-      <c r="CX8" s="81"/>
-      <c r="CY8" s="81"/>
-      <c r="CZ8" s="81"/>
-      <c r="DA8" s="81"/>
-      <c r="DB8" s="81"/>
-      <c r="DC8" s="81"/>
-      <c r="DD8" s="81"/>
-      <c r="DE8" s="81"/>
-      <c r="DF8" s="81"/>
-      <c r="DG8" s="81"/>
-      <c r="DH8" s="81"/>
-      <c r="DI8" s="81"/>
-      <c r="DJ8" s="81"/>
-      <c r="DK8" s="81"/>
-      <c r="DL8" s="81"/>
-      <c r="DM8" s="81"/>
-      <c r="DN8" s="81"/>
-      <c r="DO8" s="81"/>
-      <c r="DP8" s="81"/>
-      <c r="DQ8" s="81"/>
-      <c r="DR8" s="81"/>
-      <c r="DS8" s="81"/>
-      <c r="DT8" s="81"/>
-      <c r="DU8" s="81"/>
-      <c r="DV8" s="81"/>
-      <c r="DW8" s="81"/>
-      <c r="DX8" s="81"/>
-      <c r="DY8" s="81"/>
-      <c r="DZ8" s="81"/>
-      <c r="EA8" s="81"/>
-      <c r="EB8" s="81"/>
-      <c r="EC8" s="81"/>
-      <c r="ED8" s="81"/>
-      <c r="EE8" s="81"/>
-      <c r="EF8" s="81"/>
-      <c r="EG8" s="81"/>
-      <c r="EH8" s="81"/>
-      <c r="EI8" s="81"/>
-      <c r="EJ8" s="81"/>
-      <c r="EK8" s="81"/>
-      <c r="EL8" s="81"/>
-      <c r="EM8" s="81"/>
-      <c r="EN8" s="81"/>
-      <c r="EO8" s="81"/>
-      <c r="EP8" s="81"/>
-      <c r="EQ8" s="81"/>
-      <c r="ER8" s="81"/>
-      <c r="ES8" s="81"/>
-      <c r="ET8" s="81"/>
-      <c r="EU8" s="81"/>
-      <c r="EV8" s="81"/>
-      <c r="EW8" s="81"/>
-      <c r="EX8" s="81"/>
-      <c r="EY8" s="81"/>
-      <c r="EZ8" s="81"/>
-      <c r="FA8" s="81"/>
-      <c r="FB8" s="81"/>
-      <c r="FC8" s="81"/>
-      <c r="FD8" s="81"/>
-      <c r="FE8" s="81"/>
-      <c r="FF8" s="81"/>
-      <c r="FG8" s="81"/>
-      <c r="FH8" s="81"/>
-      <c r="FI8" s="81"/>
-      <c r="FJ8" s="81"/>
-      <c r="FK8" s="82"/>
+      <c r="BB8" s="101"/>
+      <c r="BC8" s="101"/>
+      <c r="BD8" s="101"/>
+      <c r="BE8" s="101"/>
+      <c r="BF8" s="101"/>
+      <c r="BG8" s="101"/>
+      <c r="BH8" s="101"/>
+      <c r="BI8" s="101"/>
+      <c r="BJ8" s="101"/>
+      <c r="BK8" s="101"/>
+      <c r="BL8" s="101"/>
+      <c r="BM8" s="101"/>
+      <c r="BN8" s="101"/>
+      <c r="BO8" s="101"/>
+      <c r="BP8" s="101"/>
+      <c r="BQ8" s="101"/>
+      <c r="BR8" s="101"/>
+      <c r="BS8" s="101"/>
+      <c r="BT8" s="101"/>
+      <c r="BU8" s="101"/>
+      <c r="BV8" s="101"/>
+      <c r="BW8" s="101"/>
+      <c r="BX8" s="101"/>
+      <c r="BY8" s="101"/>
+      <c r="BZ8" s="101"/>
+      <c r="CA8" s="101"/>
+      <c r="CB8" s="101"/>
+      <c r="CC8" s="101"/>
+      <c r="CD8" s="101"/>
+      <c r="CE8" s="101"/>
+      <c r="CF8" s="101"/>
+      <c r="CG8" s="101"/>
+      <c r="CH8" s="101"/>
+      <c r="CI8" s="101"/>
+      <c r="CJ8" s="101"/>
+      <c r="CK8" s="101"/>
+      <c r="CL8" s="101"/>
+      <c r="CM8" s="101"/>
+      <c r="CN8" s="101"/>
+      <c r="CO8" s="101"/>
+      <c r="CP8" s="101"/>
+      <c r="CQ8" s="101"/>
+      <c r="CR8" s="101"/>
+      <c r="CS8" s="101"/>
+      <c r="CT8" s="101"/>
+      <c r="CU8" s="101"/>
+      <c r="CV8" s="101"/>
+      <c r="CW8" s="101"/>
+      <c r="CX8" s="101"/>
+      <c r="CY8" s="101"/>
+      <c r="CZ8" s="101"/>
+      <c r="DA8" s="101"/>
+      <c r="DB8" s="101"/>
+      <c r="DC8" s="101"/>
+      <c r="DD8" s="101"/>
+      <c r="DE8" s="101"/>
+      <c r="DF8" s="101"/>
+      <c r="DG8" s="101"/>
+      <c r="DH8" s="101"/>
+      <c r="DI8" s="101"/>
+      <c r="DJ8" s="101"/>
+      <c r="DK8" s="101"/>
+      <c r="DL8" s="101"/>
+      <c r="DM8" s="101"/>
+      <c r="DN8" s="101"/>
+      <c r="DO8" s="101"/>
+      <c r="DP8" s="101"/>
+      <c r="DQ8" s="101"/>
+      <c r="DR8" s="101"/>
+      <c r="DS8" s="101"/>
+      <c r="DT8" s="101"/>
+      <c r="DU8" s="101"/>
+      <c r="DV8" s="101"/>
+      <c r="DW8" s="101"/>
+      <c r="DX8" s="101"/>
+      <c r="DY8" s="101"/>
+      <c r="DZ8" s="101"/>
+      <c r="EA8" s="101"/>
+      <c r="EB8" s="101"/>
+      <c r="EC8" s="101"/>
+      <c r="ED8" s="101"/>
+      <c r="EE8" s="101"/>
+      <c r="EF8" s="101"/>
+      <c r="EG8" s="101"/>
+      <c r="EH8" s="101"/>
+      <c r="EI8" s="101"/>
+      <c r="EJ8" s="101"/>
+      <c r="EK8" s="101"/>
+      <c r="EL8" s="101"/>
+      <c r="EM8" s="101"/>
+      <c r="EN8" s="101"/>
+      <c r="EO8" s="101"/>
+      <c r="EP8" s="101"/>
+      <c r="EQ8" s="101"/>
+      <c r="ER8" s="101"/>
+      <c r="ES8" s="101"/>
+      <c r="ET8" s="101"/>
+      <c r="EU8" s="101"/>
+      <c r="EV8" s="101"/>
+      <c r="EW8" s="101"/>
+      <c r="EX8" s="101"/>
+      <c r="EY8" s="101"/>
+      <c r="EZ8" s="101"/>
+      <c r="FA8" s="101"/>
+      <c r="FB8" s="101"/>
+      <c r="FC8" s="101"/>
+      <c r="FD8" s="101"/>
+      <c r="FE8" s="101"/>
+      <c r="FF8" s="101"/>
+      <c r="FG8" s="101"/>
+      <c r="FH8" s="101"/>
+      <c r="FI8" s="101"/>
+      <c r="FJ8" s="101"/>
+      <c r="FK8" s="102"/>
     </row>
     <row r="9" spans="1:167" s="18" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="87"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="77" t="str">
+      <c r="A9" s="84"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="106" t="str">
         <f>UPPER(TEXT(R10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="S9" s="78"/>
-      <c r="T9" s="78"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="77" t="str">
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="108"/>
+      <c r="W9" s="106" t="str">
         <f t="shared" ref="W9" si="0">UPPER(TEXT(W10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="78"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="77" t="str">
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="106" t="str">
         <f t="shared" ref="AB9" si="1">UPPER(TEXT(AB10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="78"/>
-      <c r="AF9" s="79"/>
-      <c r="AG9" s="77" t="str">
+      <c r="AC9" s="107"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="107"/>
+      <c r="AF9" s="108"/>
+      <c r="AG9" s="106" t="str">
         <f t="shared" ref="AG9" si="2">UPPER(TEXT(AG10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="AH9" s="78"/>
-      <c r="AI9" s="78"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="79"/>
-      <c r="AL9" s="77" t="str">
+      <c r="AH9" s="107"/>
+      <c r="AI9" s="107"/>
+      <c r="AJ9" s="107"/>
+      <c r="AK9" s="108"/>
+      <c r="AL9" s="106" t="str">
         <f t="shared" ref="AL9" si="3">UPPER(TEXT(AL10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="AM9" s="78"/>
-      <c r="AN9" s="78"/>
-      <c r="AO9" s="78"/>
-      <c r="AP9" s="79"/>
-      <c r="AQ9" s="77" t="str">
+      <c r="AM9" s="107"/>
+      <c r="AN9" s="107"/>
+      <c r="AO9" s="107"/>
+      <c r="AP9" s="108"/>
+      <c r="AQ9" s="106" t="str">
         <f t="shared" ref="AQ9" si="4">UPPER(TEXT(AQ10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="AR9" s="78"/>
-      <c r="AS9" s="78"/>
-      <c r="AT9" s="78"/>
-      <c r="AU9" s="79"/>
-      <c r="AV9" s="77" t="str">
+      <c r="AR9" s="107"/>
+      <c r="AS9" s="107"/>
+      <c r="AT9" s="107"/>
+      <c r="AU9" s="108"/>
+      <c r="AV9" s="106" t="str">
         <f t="shared" ref="AV9" si="5">UPPER(TEXT(AV10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="AW9" s="78"/>
-      <c r="AX9" s="78"/>
-      <c r="AY9" s="78"/>
-      <c r="AZ9" s="79"/>
-      <c r="BA9" s="77" t="str">
+      <c r="AW9" s="107"/>
+      <c r="AX9" s="107"/>
+      <c r="AY9" s="107"/>
+      <c r="AZ9" s="108"/>
+      <c r="BA9" s="106" t="str">
         <f t="shared" ref="BA9" si="6">UPPER(TEXT(BA10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="BB9" s="78"/>
-      <c r="BC9" s="78"/>
-      <c r="BD9" s="78"/>
-      <c r="BE9" s="79"/>
-      <c r="BF9" s="77" t="str">
+      <c r="BB9" s="107"/>
+      <c r="BC9" s="107"/>
+      <c r="BD9" s="107"/>
+      <c r="BE9" s="108"/>
+      <c r="BF9" s="106" t="str">
         <f t="shared" ref="BF9" si="7">UPPER(TEXT(BF10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="BG9" s="78"/>
-      <c r="BH9" s="78"/>
-      <c r="BI9" s="78"/>
-      <c r="BJ9" s="79"/>
-      <c r="BK9" s="77" t="str">
+      <c r="BG9" s="107"/>
+      <c r="BH9" s="107"/>
+      <c r="BI9" s="107"/>
+      <c r="BJ9" s="108"/>
+      <c r="BK9" s="106" t="str">
         <f t="shared" ref="BK9" si="8">UPPER(TEXT(BK10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="BL9" s="78"/>
-      <c r="BM9" s="78"/>
-      <c r="BN9" s="78"/>
-      <c r="BO9" s="79"/>
-      <c r="BP9" s="77" t="str">
+      <c r="BL9" s="107"/>
+      <c r="BM9" s="107"/>
+      <c r="BN9" s="107"/>
+      <c r="BO9" s="108"/>
+      <c r="BP9" s="106" t="str">
         <f t="shared" ref="BP9" si="9">UPPER(TEXT(BP10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="BQ9" s="78"/>
-      <c r="BR9" s="78"/>
-      <c r="BS9" s="78"/>
-      <c r="BT9" s="79"/>
-      <c r="BU9" s="77" t="str">
+      <c r="BQ9" s="107"/>
+      <c r="BR9" s="107"/>
+      <c r="BS9" s="107"/>
+      <c r="BT9" s="108"/>
+      <c r="BU9" s="106" t="str">
         <f t="shared" ref="BU9" si="10">UPPER(TEXT(BU10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="BV9" s="78"/>
-      <c r="BW9" s="78"/>
-      <c r="BX9" s="78"/>
-      <c r="BY9" s="79"/>
-      <c r="BZ9" s="77" t="str">
+      <c r="BV9" s="107"/>
+      <c r="BW9" s="107"/>
+      <c r="BX9" s="107"/>
+      <c r="BY9" s="108"/>
+      <c r="BZ9" s="106" t="str">
         <f t="shared" ref="BZ9" si="11">UPPER(TEXT(BZ10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="CA9" s="78"/>
-      <c r="CB9" s="78"/>
-      <c r="CC9" s="78"/>
-      <c r="CD9" s="79"/>
-      <c r="CE9" s="77" t="str">
+      <c r="CA9" s="107"/>
+      <c r="CB9" s="107"/>
+      <c r="CC9" s="107"/>
+      <c r="CD9" s="108"/>
+      <c r="CE9" s="106" t="str">
         <f t="shared" ref="CE9" si="12">UPPER(TEXT(CE10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="CF9" s="78"/>
-      <c r="CG9" s="78"/>
-      <c r="CH9" s="78"/>
-      <c r="CI9" s="79"/>
-      <c r="CJ9" s="77" t="str">
+      <c r="CF9" s="107"/>
+      <c r="CG9" s="107"/>
+      <c r="CH9" s="107"/>
+      <c r="CI9" s="108"/>
+      <c r="CJ9" s="106" t="str">
         <f t="shared" ref="CJ9" si="13">UPPER(TEXT(CJ10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="CK9" s="78"/>
-      <c r="CL9" s="78"/>
-      <c r="CM9" s="78"/>
-      <c r="CN9" s="79"/>
-      <c r="CO9" s="77" t="str">
+      <c r="CK9" s="107"/>
+      <c r="CL9" s="107"/>
+      <c r="CM9" s="107"/>
+      <c r="CN9" s="108"/>
+      <c r="CO9" s="106" t="str">
         <f t="shared" ref="CO9" si="14">UPPER(TEXT(CO10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="CP9" s="78"/>
-      <c r="CQ9" s="78"/>
-      <c r="CR9" s="78"/>
-      <c r="CS9" s="79"/>
-      <c r="CT9" s="77" t="str">
+      <c r="CP9" s="107"/>
+      <c r="CQ9" s="107"/>
+      <c r="CR9" s="107"/>
+      <c r="CS9" s="108"/>
+      <c r="CT9" s="106" t="str">
         <f t="shared" ref="CT9" si="15">UPPER(TEXT(CT10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="CU9" s="78"/>
-      <c r="CV9" s="78"/>
-      <c r="CW9" s="78"/>
-      <c r="CX9" s="79"/>
-      <c r="CY9" s="77" t="str">
+      <c r="CU9" s="107"/>
+      <c r="CV9" s="107"/>
+      <c r="CW9" s="107"/>
+      <c r="CX9" s="108"/>
+      <c r="CY9" s="106" t="str">
         <f t="shared" ref="CY9" si="16">UPPER(TEXT(CY10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="CZ9" s="78"/>
-      <c r="DA9" s="78"/>
-      <c r="DB9" s="78"/>
-      <c r="DC9" s="79"/>
-      <c r="DD9" s="77" t="str">
+      <c r="CZ9" s="107"/>
+      <c r="DA9" s="107"/>
+      <c r="DB9" s="107"/>
+      <c r="DC9" s="108"/>
+      <c r="DD9" s="106" t="str">
         <f t="shared" ref="DD9" si="17">UPPER(TEXT(DD10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="DE9" s="78"/>
-      <c r="DF9" s="78"/>
-      <c r="DG9" s="78"/>
-      <c r="DH9" s="79"/>
-      <c r="DI9" s="77" t="str">
+      <c r="DE9" s="107"/>
+      <c r="DF9" s="107"/>
+      <c r="DG9" s="107"/>
+      <c r="DH9" s="108"/>
+      <c r="DI9" s="106" t="str">
         <f t="shared" ref="DI9" si="18">UPPER(TEXT(DI10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="DJ9" s="78"/>
-      <c r="DK9" s="78"/>
-      <c r="DL9" s="78"/>
-      <c r="DM9" s="79"/>
-      <c r="DN9" s="77" t="str">
+      <c r="DJ9" s="107"/>
+      <c r="DK9" s="107"/>
+      <c r="DL9" s="107"/>
+      <c r="DM9" s="108"/>
+      <c r="DN9" s="106" t="str">
         <f t="shared" ref="DN9" si="19">UPPER(TEXT(DN10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="DO9" s="78"/>
-      <c r="DP9" s="78"/>
-      <c r="DQ9" s="78"/>
-      <c r="DR9" s="79"/>
-      <c r="DS9" s="77" t="str">
+      <c r="DO9" s="107"/>
+      <c r="DP9" s="107"/>
+      <c r="DQ9" s="107"/>
+      <c r="DR9" s="108"/>
+      <c r="DS9" s="106" t="str">
         <f t="shared" ref="DS9" si="20">UPPER(TEXT(DS10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="DT9" s="78"/>
-      <c r="DU9" s="78"/>
-      <c r="DV9" s="78"/>
-      <c r="DW9" s="79"/>
-      <c r="DX9" s="77" t="str">
+      <c r="DT9" s="107"/>
+      <c r="DU9" s="107"/>
+      <c r="DV9" s="107"/>
+      <c r="DW9" s="108"/>
+      <c r="DX9" s="106" t="str">
         <f t="shared" ref="DX9" si="21">UPPER(TEXT(DX10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="DY9" s="78"/>
-      <c r="DZ9" s="78"/>
-      <c r="EA9" s="78"/>
-      <c r="EB9" s="79"/>
-      <c r="EC9" s="77" t="str">
+      <c r="DY9" s="107"/>
+      <c r="DZ9" s="107"/>
+      <c r="EA9" s="107"/>
+      <c r="EB9" s="108"/>
+      <c r="EC9" s="106" t="str">
         <f t="shared" ref="EC9" si="22">UPPER(TEXT(EC10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="ED9" s="78"/>
-      <c r="EE9" s="78"/>
-      <c r="EF9" s="78"/>
-      <c r="EG9" s="79"/>
-      <c r="EH9" s="77" t="str">
+      <c r="ED9" s="107"/>
+      <c r="EE9" s="107"/>
+      <c r="EF9" s="107"/>
+      <c r="EG9" s="108"/>
+      <c r="EH9" s="106" t="str">
         <f t="shared" ref="EH9" si="23">UPPER(TEXT(EH10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="EI9" s="78"/>
-      <c r="EJ9" s="78"/>
-      <c r="EK9" s="78"/>
-      <c r="EL9" s="79"/>
-      <c r="EM9" s="77" t="str">
+      <c r="EI9" s="107"/>
+      <c r="EJ9" s="107"/>
+      <c r="EK9" s="107"/>
+      <c r="EL9" s="108"/>
+      <c r="EM9" s="106" t="str">
         <f t="shared" ref="EM9" si="24">UPPER(TEXT(EM10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="EN9" s="78"/>
-      <c r="EO9" s="78"/>
-      <c r="EP9" s="78"/>
-      <c r="EQ9" s="79"/>
-      <c r="ER9" s="77" t="str">
+      <c r="EN9" s="107"/>
+      <c r="EO9" s="107"/>
+      <c r="EP9" s="107"/>
+      <c r="EQ9" s="108"/>
+      <c r="ER9" s="106" t="str">
         <f t="shared" ref="ER9" si="25">UPPER(TEXT(ER10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="ES9" s="78"/>
-      <c r="ET9" s="78"/>
-      <c r="EU9" s="78"/>
-      <c r="EV9" s="79"/>
-      <c r="EW9" s="77" t="str">
+      <c r="ES9" s="107"/>
+      <c r="ET9" s="107"/>
+      <c r="EU9" s="107"/>
+      <c r="EV9" s="108"/>
+      <c r="EW9" s="106" t="str">
         <f t="shared" ref="EW9" si="26">UPPER(TEXT(EW10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="EX9" s="78"/>
-      <c r="EY9" s="78"/>
-      <c r="EZ9" s="78"/>
-      <c r="FA9" s="79"/>
-      <c r="FB9" s="77" t="str">
+      <c r="EX9" s="107"/>
+      <c r="EY9" s="107"/>
+      <c r="EZ9" s="107"/>
+      <c r="FA9" s="108"/>
+      <c r="FB9" s="106" t="str">
         <f t="shared" ref="FB9" si="27">UPPER(TEXT(FB10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="FC9" s="78"/>
-      <c r="FD9" s="78"/>
-      <c r="FE9" s="78"/>
-      <c r="FF9" s="79"/>
-      <c r="FG9" s="77" t="str">
+      <c r="FC9" s="107"/>
+      <c r="FD9" s="107"/>
+      <c r="FE9" s="107"/>
+      <c r="FF9" s="108"/>
+      <c r="FG9" s="106" t="str">
         <f t="shared" ref="FG9" si="28">UPPER(TEXT(FG10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="FH9" s="78"/>
-      <c r="FI9" s="78"/>
-      <c r="FJ9" s="78"/>
-      <c r="FK9" s="79"/>
+      <c r="FH9" s="107"/>
+      <c r="FI9" s="107"/>
+      <c r="FJ9" s="107"/>
+      <c r="FK9" s="108"/>
     </row>
     <row r="10" spans="1:167" s="12" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="87"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="74">
+      <c r="A10" s="84"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="103">
         <v>44706</v>
       </c>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="74">
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="105"/>
+      <c r="W10" s="103">
         <f>+R10+1</f>
         <v>44707</v>
       </c>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="74">
+      <c r="X10" s="104"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="104"/>
+      <c r="AA10" s="105"/>
+      <c r="AB10" s="103">
         <f t="shared" ref="AB10" si="29">+W10+1</f>
         <v>44708</v>
       </c>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="74">
+      <c r="AC10" s="104"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="104"/>
+      <c r="AF10" s="105"/>
+      <c r="AG10" s="103">
         <f t="shared" ref="AG10" si="30">+AB10+1</f>
         <v>44709</v>
       </c>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="75"/>
-      <c r="AK10" s="76"/>
-      <c r="AL10" s="74">
+      <c r="AH10" s="104"/>
+      <c r="AI10" s="104"/>
+      <c r="AJ10" s="104"/>
+      <c r="AK10" s="105"/>
+      <c r="AL10" s="103">
         <f t="shared" ref="AL10" si="31">+AG10+1</f>
         <v>44710</v>
       </c>
-      <c r="AM10" s="75"/>
-      <c r="AN10" s="75"/>
-      <c r="AO10" s="75"/>
-      <c r="AP10" s="76"/>
-      <c r="AQ10" s="74">
+      <c r="AM10" s="104"/>
+      <c r="AN10" s="104"/>
+      <c r="AO10" s="104"/>
+      <c r="AP10" s="105"/>
+      <c r="AQ10" s="103">
         <f t="shared" ref="AQ10" si="32">+AL10+1</f>
         <v>44711</v>
       </c>
-      <c r="AR10" s="75"/>
-      <c r="AS10" s="75"/>
-      <c r="AT10" s="75"/>
-      <c r="AU10" s="76"/>
-      <c r="AV10" s="74">
+      <c r="AR10" s="104"/>
+      <c r="AS10" s="104"/>
+      <c r="AT10" s="104"/>
+      <c r="AU10" s="105"/>
+      <c r="AV10" s="103">
         <f t="shared" ref="AV10" si="33">+AQ10+1</f>
         <v>44712</v>
       </c>
-      <c r="AW10" s="75"/>
-      <c r="AX10" s="75"/>
-      <c r="AY10" s="75"/>
-      <c r="AZ10" s="76"/>
-      <c r="BA10" s="74">
+      <c r="AW10" s="104"/>
+      <c r="AX10" s="104"/>
+      <c r="AY10" s="104"/>
+      <c r="AZ10" s="105"/>
+      <c r="BA10" s="103">
         <f t="shared" ref="BA10" si="34">+AV10+1</f>
         <v>44713</v>
       </c>
-      <c r="BB10" s="75"/>
-      <c r="BC10" s="75"/>
-      <c r="BD10" s="75"/>
-      <c r="BE10" s="76"/>
-      <c r="BF10" s="74">
+      <c r="BB10" s="104"/>
+      <c r="BC10" s="104"/>
+      <c r="BD10" s="104"/>
+      <c r="BE10" s="105"/>
+      <c r="BF10" s="103">
         <f t="shared" ref="BF10" si="35">+BA10+1</f>
         <v>44714</v>
       </c>
-      <c r="BG10" s="75"/>
-      <c r="BH10" s="75"/>
-      <c r="BI10" s="75"/>
-      <c r="BJ10" s="76"/>
-      <c r="BK10" s="74">
+      <c r="BG10" s="104"/>
+      <c r="BH10" s="104"/>
+      <c r="BI10" s="104"/>
+      <c r="BJ10" s="105"/>
+      <c r="BK10" s="103">
         <f t="shared" ref="BK10" si="36">+BF10+1</f>
         <v>44715</v>
       </c>
-      <c r="BL10" s="75"/>
-      <c r="BM10" s="75"/>
-      <c r="BN10" s="75"/>
-      <c r="BO10" s="76"/>
-      <c r="BP10" s="74">
+      <c r="BL10" s="104"/>
+      <c r="BM10" s="104"/>
+      <c r="BN10" s="104"/>
+      <c r="BO10" s="105"/>
+      <c r="BP10" s="103">
         <f t="shared" ref="BP10" si="37">+BK10+1</f>
         <v>44716</v>
       </c>
-      <c r="BQ10" s="75"/>
-      <c r="BR10" s="75"/>
-      <c r="BS10" s="75"/>
-      <c r="BT10" s="76"/>
-      <c r="BU10" s="74">
+      <c r="BQ10" s="104"/>
+      <c r="BR10" s="104"/>
+      <c r="BS10" s="104"/>
+      <c r="BT10" s="105"/>
+      <c r="BU10" s="103">
         <f t="shared" ref="BU10" si="38">+BP10+1</f>
         <v>44717</v>
       </c>
-      <c r="BV10" s="75"/>
-      <c r="BW10" s="75"/>
-      <c r="BX10" s="75"/>
-      <c r="BY10" s="76"/>
-      <c r="BZ10" s="74">
+      <c r="BV10" s="104"/>
+      <c r="BW10" s="104"/>
+      <c r="BX10" s="104"/>
+      <c r="BY10" s="105"/>
+      <c r="BZ10" s="103">
         <f t="shared" ref="BZ10" si="39">+BU10+1</f>
         <v>44718</v>
       </c>
-      <c r="CA10" s="75"/>
-      <c r="CB10" s="75"/>
-      <c r="CC10" s="75"/>
-      <c r="CD10" s="76"/>
-      <c r="CE10" s="74">
+      <c r="CA10" s="104"/>
+      <c r="CB10" s="104"/>
+      <c r="CC10" s="104"/>
+      <c r="CD10" s="105"/>
+      <c r="CE10" s="103">
         <f t="shared" ref="CE10" si="40">+BZ10+1</f>
         <v>44719</v>
       </c>
-      <c r="CF10" s="75"/>
-      <c r="CG10" s="75"/>
-      <c r="CH10" s="75"/>
-      <c r="CI10" s="76"/>
-      <c r="CJ10" s="74">
+      <c r="CF10" s="104"/>
+      <c r="CG10" s="104"/>
+      <c r="CH10" s="104"/>
+      <c r="CI10" s="105"/>
+      <c r="CJ10" s="103">
         <f t="shared" ref="CJ10" si="41">+CE10+1</f>
         <v>44720</v>
       </c>
-      <c r="CK10" s="75"/>
-      <c r="CL10" s="75"/>
-      <c r="CM10" s="75"/>
-      <c r="CN10" s="76"/>
-      <c r="CO10" s="74">
+      <c r="CK10" s="104"/>
+      <c r="CL10" s="104"/>
+      <c r="CM10" s="104"/>
+      <c r="CN10" s="105"/>
+      <c r="CO10" s="103">
         <f t="shared" ref="CO10" si="42">+CJ10+1</f>
         <v>44721</v>
       </c>
-      <c r="CP10" s="75"/>
-      <c r="CQ10" s="75"/>
-      <c r="CR10" s="75"/>
-      <c r="CS10" s="76"/>
-      <c r="CT10" s="74">
+      <c r="CP10" s="104"/>
+      <c r="CQ10" s="104"/>
+      <c r="CR10" s="104"/>
+      <c r="CS10" s="105"/>
+      <c r="CT10" s="103">
         <f t="shared" ref="CT10" si="43">+CO10+1</f>
         <v>44722</v>
       </c>
-      <c r="CU10" s="75"/>
-      <c r="CV10" s="75"/>
-      <c r="CW10" s="75"/>
-      <c r="CX10" s="76"/>
-      <c r="CY10" s="74">
+      <c r="CU10" s="104"/>
+      <c r="CV10" s="104"/>
+      <c r="CW10" s="104"/>
+      <c r="CX10" s="105"/>
+      <c r="CY10" s="103">
         <f t="shared" ref="CY10" si="44">+CT10+1</f>
         <v>44723</v>
       </c>
-      <c r="CZ10" s="75"/>
-      <c r="DA10" s="75"/>
-      <c r="DB10" s="75"/>
-      <c r="DC10" s="76"/>
-      <c r="DD10" s="74">
+      <c r="CZ10" s="104"/>
+      <c r="DA10" s="104"/>
+      <c r="DB10" s="104"/>
+      <c r="DC10" s="105"/>
+      <c r="DD10" s="103">
         <f t="shared" ref="DD10" si="45">+CY10+1</f>
         <v>44724</v>
       </c>
-      <c r="DE10" s="75"/>
-      <c r="DF10" s="75"/>
-      <c r="DG10" s="75"/>
-      <c r="DH10" s="76"/>
-      <c r="DI10" s="74">
+      <c r="DE10" s="104"/>
+      <c r="DF10" s="104"/>
+      <c r="DG10" s="104"/>
+      <c r="DH10" s="105"/>
+      <c r="DI10" s="103">
         <f t="shared" ref="DI10" si="46">+DD10+1</f>
         <v>44725</v>
       </c>
-      <c r="DJ10" s="75"/>
-      <c r="DK10" s="75"/>
-      <c r="DL10" s="75"/>
-      <c r="DM10" s="76"/>
-      <c r="DN10" s="74">
+      <c r="DJ10" s="104"/>
+      <c r="DK10" s="104"/>
+      <c r="DL10" s="104"/>
+      <c r="DM10" s="105"/>
+      <c r="DN10" s="103">
         <f t="shared" ref="DN10" si="47">+DI10+1</f>
         <v>44726</v>
       </c>
-      <c r="DO10" s="75"/>
-      <c r="DP10" s="75"/>
-      <c r="DQ10" s="75"/>
-      <c r="DR10" s="76"/>
-      <c r="DS10" s="74">
+      <c r="DO10" s="104"/>
+      <c r="DP10" s="104"/>
+      <c r="DQ10" s="104"/>
+      <c r="DR10" s="105"/>
+      <c r="DS10" s="103">
         <f t="shared" ref="DS10" si="48">+DN10+1</f>
         <v>44727</v>
       </c>
-      <c r="DT10" s="75"/>
-      <c r="DU10" s="75"/>
-      <c r="DV10" s="75"/>
-      <c r="DW10" s="76"/>
-      <c r="DX10" s="74">
+      <c r="DT10" s="104"/>
+      <c r="DU10" s="104"/>
+      <c r="DV10" s="104"/>
+      <c r="DW10" s="105"/>
+      <c r="DX10" s="103">
         <f t="shared" ref="DX10" si="49">+DS10+1</f>
         <v>44728</v>
       </c>
-      <c r="DY10" s="75"/>
-      <c r="DZ10" s="75"/>
-      <c r="EA10" s="75"/>
-      <c r="EB10" s="76"/>
-      <c r="EC10" s="74">
+      <c r="DY10" s="104"/>
+      <c r="DZ10" s="104"/>
+      <c r="EA10" s="104"/>
+      <c r="EB10" s="105"/>
+      <c r="EC10" s="103">
         <f t="shared" ref="EC10" si="50">+DX10+1</f>
         <v>44729</v>
       </c>
-      <c r="ED10" s="75"/>
-      <c r="EE10" s="75"/>
-      <c r="EF10" s="75"/>
-      <c r="EG10" s="76"/>
-      <c r="EH10" s="74">
+      <c r="ED10" s="104"/>
+      <c r="EE10" s="104"/>
+      <c r="EF10" s="104"/>
+      <c r="EG10" s="105"/>
+      <c r="EH10" s="103">
         <f t="shared" ref="EH10" si="51">+EC10+1</f>
         <v>44730</v>
       </c>
-      <c r="EI10" s="75"/>
-      <c r="EJ10" s="75"/>
-      <c r="EK10" s="75"/>
-      <c r="EL10" s="76"/>
-      <c r="EM10" s="74">
+      <c r="EI10" s="104"/>
+      <c r="EJ10" s="104"/>
+      <c r="EK10" s="104"/>
+      <c r="EL10" s="105"/>
+      <c r="EM10" s="103">
         <f t="shared" ref="EM10" si="52">+EH10+1</f>
         <v>44731</v>
       </c>
-      <c r="EN10" s="75"/>
-      <c r="EO10" s="75"/>
-      <c r="EP10" s="75"/>
-      <c r="EQ10" s="76"/>
-      <c r="ER10" s="74">
+      <c r="EN10" s="104"/>
+      <c r="EO10" s="104"/>
+      <c r="EP10" s="104"/>
+      <c r="EQ10" s="105"/>
+      <c r="ER10" s="103">
         <f t="shared" ref="ER10" si="53">+EM10+1</f>
         <v>44732</v>
       </c>
-      <c r="ES10" s="75"/>
-      <c r="ET10" s="75"/>
-      <c r="EU10" s="75"/>
-      <c r="EV10" s="76"/>
-      <c r="EW10" s="74">
+      <c r="ES10" s="104"/>
+      <c r="ET10" s="104"/>
+      <c r="EU10" s="104"/>
+      <c r="EV10" s="105"/>
+      <c r="EW10" s="103">
         <f t="shared" ref="EW10" si="54">+ER10+1</f>
         <v>44733</v>
       </c>
-      <c r="EX10" s="75"/>
-      <c r="EY10" s="75"/>
-      <c r="EZ10" s="75"/>
-      <c r="FA10" s="76"/>
-      <c r="FB10" s="74">
+      <c r="EX10" s="104"/>
+      <c r="EY10" s="104"/>
+      <c r="EZ10" s="104"/>
+      <c r="FA10" s="105"/>
+      <c r="FB10" s="103">
         <f t="shared" ref="FB10" si="55">+EW10+1</f>
         <v>44734</v>
       </c>
-      <c r="FC10" s="75"/>
-      <c r="FD10" s="75"/>
-      <c r="FE10" s="75"/>
-      <c r="FF10" s="76"/>
-      <c r="FG10" s="74">
+      <c r="FC10" s="104"/>
+      <c r="FD10" s="104"/>
+      <c r="FE10" s="104"/>
+      <c r="FF10" s="105"/>
+      <c r="FG10" s="103">
         <f t="shared" ref="FG10" si="56">+FB10+1</f>
         <v>44735</v>
       </c>
-      <c r="FH10" s="75"/>
-      <c r="FI10" s="75"/>
-      <c r="FJ10" s="75"/>
-      <c r="FK10" s="76"/>
+      <c r="FH10" s="104"/>
+      <c r="FI10" s="104"/>
+      <c r="FJ10" s="104"/>
+      <c r="FK10" s="105"/>
     </row>
     <row r="11" spans="1:167" s="21" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="87"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="44" t="s">
         <v>173</v>
       </c>
@@ -5940,7 +5941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
@@ -6224,7 +6225,7 @@
       <c r="FJ12" s="33"/>
       <c r="FK12" s="34"/>
     </row>
-    <row r="13" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>17</v>
       </c>
@@ -6504,7 +6505,7 @@
       <c r="FJ13" s="33"/>
       <c r="FK13" s="34"/>
     </row>
-    <row r="14" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>18</v>
       </c>
@@ -6784,7 +6785,7 @@
       <c r="FJ14" s="33"/>
       <c r="FK14" s="34"/>
     </row>
-    <row r="15" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
@@ -7074,7 +7075,7 @@
       <c r="FJ15" s="33"/>
       <c r="FK15" s="34"/>
     </row>
-    <row r="16" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>20</v>
       </c>
@@ -7358,7 +7359,7 @@
       <c r="FJ16" s="33"/>
       <c r="FK16" s="34"/>
     </row>
-    <row r="17" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>21</v>
       </c>
@@ -7644,7 +7645,7 @@
       <c r="FJ17" s="33"/>
       <c r="FK17" s="34"/>
     </row>
-    <row r="18" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>22</v>
       </c>
@@ -7928,7 +7929,7 @@
       <c r="FJ18" s="33"/>
       <c r="FK18" s="34"/>
     </row>
-    <row r="19" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>23</v>
       </c>
@@ -8218,7 +8219,7 @@
       <c r="FJ19" s="33"/>
       <c r="FK19" s="34"/>
     </row>
-    <row r="20" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>24</v>
       </c>
@@ -8460,7 +8461,7 @@
       <c r="FJ20" s="33"/>
       <c r="FK20" s="34"/>
     </row>
-    <row r="21" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>25</v>
       </c>
@@ -8704,7 +8705,7 @@
       <c r="FJ21" s="33"/>
       <c r="FK21" s="34"/>
     </row>
-    <row r="22" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>26</v>
       </c>
@@ -9002,7 +9003,7 @@
       <c r="FJ22" s="33"/>
       <c r="FK22" s="34"/>
     </row>
-    <row r="23" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>27</v>
       </c>
@@ -9284,7 +9285,7 @@
       <c r="FJ23" s="33"/>
       <c r="FK23" s="34"/>
     </row>
-    <row r="24" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>28</v>
       </c>
@@ -9590,7 +9591,7 @@
       <c r="FJ24" s="33"/>
       <c r="FK24" s="34"/>
     </row>
-    <row r="25" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>29</v>
       </c>
@@ -9894,7 +9895,7 @@
       <c r="FJ25" s="33"/>
       <c r="FK25" s="34"/>
     </row>
-    <row r="26" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>30</v>
       </c>
@@ -10240,7 +10241,7 @@
       <c r="FJ26" s="33"/>
       <c r="FK26" s="34"/>
     </row>
-    <row r="27" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>31</v>
       </c>
@@ -10520,7 +10521,7 @@
       <c r="FJ27" s="33"/>
       <c r="FK27" s="34"/>
     </row>
-    <row r="28" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>32</v>
       </c>
@@ -10738,7 +10739,7 @@
       <c r="FJ28" s="33"/>
       <c r="FK28" s="34"/>
     </row>
-    <row r="29" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>33</v>
       </c>
@@ -11106,7 +11107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>34</v>
       </c>
@@ -11350,7 +11351,7 @@
       <c r="FJ30" s="33"/>
       <c r="FK30" s="34"/>
     </row>
-    <row r="31" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>35</v>
       </c>
@@ -12050,7 +12051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>37</v>
       </c>
@@ -12354,7 +12355,7 @@
       <c r="FJ33" s="33"/>
       <c r="FK33" s="34"/>
     </row>
-    <row r="34" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>38</v>
       </c>
@@ -12648,7 +12649,7 @@
       <c r="FJ34" s="33"/>
       <c r="FK34" s="34"/>
     </row>
-    <row r="35" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>39</v>
       </c>
@@ -13020,7 +13021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>40</v>
       </c>
@@ -13306,7 +13307,7 @@
       <c r="FJ36" s="33"/>
       <c r="FK36" s="34"/>
     </row>
-    <row r="37" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>41</v>
       </c>
@@ -13586,7 +13587,7 @@
       <c r="FJ37" s="33"/>
       <c r="FK37" s="34"/>
     </row>
-    <row r="38" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>42</v>
       </c>
@@ -13916,7 +13917,7 @@
       <c r="FJ38" s="33"/>
       <c r="FK38" s="34"/>
     </row>
-    <row r="39" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>43</v>
       </c>
@@ -14198,7 +14199,7 @@
       <c r="FJ39" s="33"/>
       <c r="FK39" s="34"/>
     </row>
-    <row r="40" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>44</v>
       </c>
@@ -14522,7 +14523,7 @@
       <c r="FJ40" s="33"/>
       <c r="FK40" s="34"/>
     </row>
-    <row r="41" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>45</v>
       </c>
@@ -14810,7 +14811,7 @@
       <c r="FJ41" s="33"/>
       <c r="FK41" s="34"/>
     </row>
-    <row r="42" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>46</v>
       </c>
@@ -15048,7 +15049,7 @@
       <c r="FJ42" s="33"/>
       <c r="FK42" s="34"/>
     </row>
-    <row r="43" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>47</v>
       </c>
@@ -15280,7 +15281,7 @@
       <c r="FJ43" s="33"/>
       <c r="FK43" s="34"/>
     </row>
-    <row r="44" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>48</v>
       </c>
@@ -15586,7 +15587,7 @@
       <c r="FJ44" s="33"/>
       <c r="FK44" s="34"/>
     </row>
-    <row r="45" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>49</v>
       </c>
@@ -15890,7 +15891,7 @@
       <c r="FJ45" s="33"/>
       <c r="FK45" s="34"/>
     </row>
-    <row r="46" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>50</v>
       </c>
@@ -16140,7 +16141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>51</v>
       </c>
@@ -16426,7 +16427,7 @@
       <c r="FJ47" s="33"/>
       <c r="FK47" s="34"/>
     </row>
-    <row r="48" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>52</v>
       </c>
@@ -16644,7 +16645,7 @@
       <c r="FJ48" s="33"/>
       <c r="FK48" s="34"/>
     </row>
-    <row r="49" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>53</v>
       </c>
@@ -16938,7 +16939,7 @@
       <c r="FJ49" s="33"/>
       <c r="FK49" s="34"/>
     </row>
-    <row r="50" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>54</v>
       </c>
@@ -17254,7 +17255,7 @@
       <c r="FJ50" s="33"/>
       <c r="FK50" s="34"/>
     </row>
-    <row r="51" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>55</v>
       </c>
@@ -17608,7 +17609,7 @@
       <c r="FJ51" s="33"/>
       <c r="FK51" s="34"/>
     </row>
-    <row r="52" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>56</v>
       </c>
@@ -17888,7 +17889,7 @@
       <c r="FJ52" s="33"/>
       <c r="FK52" s="34"/>
     </row>
-    <row r="53" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>57</v>
       </c>
@@ -18176,7 +18177,7 @@
       <c r="FJ53" s="33"/>
       <c r="FK53" s="34"/>
     </row>
-    <row r="54" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>58</v>
       </c>
@@ -18458,7 +18459,7 @@
       <c r="FJ54" s="33"/>
       <c r="FK54" s="34"/>
     </row>
-    <row r="55" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>59</v>
       </c>
@@ -18750,7 +18751,7 @@
       <c r="FJ55" s="33"/>
       <c r="FK55" s="34"/>
     </row>
-    <row r="56" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>60</v>
       </c>
@@ -19026,7 +19027,7 @@
       <c r="FJ56" s="33"/>
       <c r="FK56" s="34"/>
     </row>
-    <row r="57" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>61</v>
       </c>
@@ -19330,7 +19331,7 @@
       <c r="FJ57" s="33"/>
       <c r="FK57" s="34"/>
     </row>
-    <row r="58" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>62</v>
       </c>
@@ -19610,7 +19611,7 @@
       <c r="FJ58" s="33"/>
       <c r="FK58" s="34"/>
     </row>
-    <row r="59" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>63</v>
       </c>
@@ -19890,7 +19891,7 @@
       <c r="FJ59" s="33"/>
       <c r="FK59" s="34"/>
     </row>
-    <row r="60" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>64</v>
       </c>
@@ -20134,7 +20135,7 @@
       <c r="FJ60" s="33"/>
       <c r="FK60" s="34"/>
     </row>
-    <row r="61" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>65</v>
       </c>
@@ -20416,7 +20417,7 @@
       <c r="FJ61" s="33"/>
       <c r="FK61" s="34"/>
     </row>
-    <row r="62" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>66</v>
       </c>
@@ -20696,7 +20697,7 @@
       <c r="FJ62" s="33"/>
       <c r="FK62" s="34"/>
     </row>
-    <row r="63" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>67</v>
       </c>
@@ -20980,7 +20981,7 @@
       <c r="FJ63" s="33"/>
       <c r="FK63" s="34"/>
     </row>
-    <row r="64" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>68</v>
       </c>
@@ -21266,7 +21267,7 @@
       <c r="FJ64" s="33"/>
       <c r="FK64" s="34"/>
     </row>
-    <row r="65" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>69</v>
       </c>
@@ -21492,7 +21493,7 @@
       <c r="FJ65" s="33"/>
       <c r="FK65" s="34"/>
     </row>
-    <row r="66" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>70</v>
       </c>
@@ -21726,7 +21727,7 @@
       <c r="FJ66" s="33"/>
       <c r="FK66" s="34"/>
     </row>
-    <row r="67" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>71</v>
       </c>
@@ -22020,7 +22021,7 @@
       <c r="FJ67" s="33"/>
       <c r="FK67" s="34"/>
     </row>
-    <row r="68" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>72</v>
       </c>
@@ -22252,7 +22253,7 @@
       <c r="FJ68" s="33"/>
       <c r="FK68" s="34"/>
     </row>
-    <row r="69" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>73</v>
       </c>
@@ -22498,7 +22499,7 @@
       <c r="FJ69" s="33"/>
       <c r="FK69" s="34"/>
     </row>
-    <row r="70" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>74</v>
       </c>
@@ -22788,7 +22789,7 @@
       <c r="FJ70" s="33"/>
       <c r="FK70" s="34"/>
     </row>
-    <row r="71" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>75</v>
       </c>
@@ -23068,7 +23069,7 @@
       <c r="FJ71" s="33"/>
       <c r="FK71" s="34"/>
     </row>
-    <row r="72" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>76</v>
       </c>
@@ -23370,7 +23371,7 @@
       <c r="FJ72" s="33"/>
       <c r="FK72" s="34"/>
     </row>
-    <row r="73" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>77</v>
       </c>
@@ -23666,7 +23667,7 @@
       <c r="FJ73" s="33"/>
       <c r="FK73" s="34"/>
     </row>
-    <row r="74" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>78</v>
       </c>
@@ -23950,7 +23951,7 @@
       <c r="FJ74" s="33"/>
       <c r="FK74" s="34"/>
     </row>
-    <row r="75" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>79</v>
       </c>
@@ -24242,7 +24243,7 @@
       <c r="FJ75" s="33"/>
       <c r="FK75" s="34"/>
     </row>
-    <row r="76" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>80</v>
       </c>
@@ -24482,7 +24483,7 @@
       <c r="FJ76" s="33"/>
       <c r="FK76" s="34"/>
     </row>
-    <row r="77" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>81</v>
       </c>
@@ -24786,7 +24787,7 @@
       <c r="FJ77" s="33"/>
       <c r="FK77" s="34"/>
     </row>
-    <row r="78" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>82</v>
       </c>
@@ -25070,7 +25071,7 @@
       <c r="FJ78" s="33"/>
       <c r="FK78" s="34"/>
     </row>
-    <row r="79" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>83</v>
       </c>
@@ -25386,7 +25387,7 @@
       <c r="FJ79" s="33"/>
       <c r="FK79" s="34"/>
     </row>
-    <row r="80" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>84</v>
       </c>
@@ -25680,7 +25681,7 @@
       <c r="FJ80" s="33"/>
       <c r="FK80" s="34"/>
     </row>
-    <row r="81" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>85</v>
       </c>
@@ -26056,7 +26057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>91</v>
       </c>
@@ -26372,7 +26373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>92</v>
       </c>
@@ -26658,7 +26659,7 @@
       <c r="FJ83" s="33"/>
       <c r="FK83" s="34"/>
     </row>
-    <row r="84" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>93</v>
       </c>
@@ -26960,7 +26961,7 @@
       <c r="FJ84" s="33"/>
       <c r="FK84" s="34"/>
     </row>
-    <row r="85" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
         <v>94</v>
       </c>
@@ -27190,7 +27191,7 @@
       <c r="FJ85" s="33"/>
       <c r="FK85" s="34"/>
     </row>
-    <row r="86" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>95</v>
       </c>
@@ -27494,7 +27495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>96</v>
       </c>
@@ -27816,7 +27817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
         <v>97</v>
       </c>
@@ -28138,7 +28139,7 @@
       <c r="FJ88" s="33"/>
       <c r="FK88" s="34"/>
     </row>
-    <row r="89" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
         <v>98</v>
       </c>
@@ -28466,7 +28467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
         <v>99</v>
       </c>
@@ -28796,7 +28797,7 @@
       <c r="FJ90" s="33"/>
       <c r="FK90" s="34"/>
     </row>
-    <row r="91" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
         <v>100</v>
       </c>
@@ -29022,7 +29023,7 @@
       <c r="FJ91" s="33"/>
       <c r="FK91" s="34"/>
     </row>
-    <row r="92" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
         <v>101</v>
       </c>
@@ -29382,7 +29383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>102</v>
       </c>
@@ -29706,7 +29707,7 @@
       <c r="FJ93" s="33"/>
       <c r="FK93" s="34"/>
     </row>
-    <row r="94" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
         <v>103</v>
       </c>
@@ -30030,7 +30031,7 @@
       <c r="FJ94" s="33"/>
       <c r="FK94" s="34"/>
     </row>
-    <row r="95" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
         <v>104</v>
       </c>
@@ -30424,7 +30425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
         <v>105</v>
       </c>
@@ -30720,7 +30721,7 @@
       <c r="FJ96" s="33"/>
       <c r="FK96" s="34"/>
     </row>
-    <row r="97" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
         <v>106</v>
       </c>
@@ -31012,7 +31013,7 @@
       <c r="FJ97" s="33"/>
       <c r="FK97" s="34"/>
     </row>
-    <row r="98" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
         <v>107</v>
       </c>
@@ -31304,7 +31305,7 @@
       <c r="FJ98" s="33"/>
       <c r="FK98" s="34"/>
     </row>
-    <row r="99" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
         <v>108</v>
       </c>
@@ -31548,7 +31549,7 @@
       <c r="FJ99" s="33"/>
       <c r="FK99" s="34"/>
     </row>
-    <row r="100" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
         <v>109</v>
       </c>
@@ -31838,7 +31839,7 @@
       <c r="FJ100" s="33"/>
       <c r="FK100" s="34"/>
     </row>
-    <row r="101" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
         <v>110</v>
       </c>
@@ -32134,7 +32135,7 @@
       <c r="FJ101" s="33"/>
       <c r="FK101" s="34"/>
     </row>
-    <row r="102" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
         <v>111</v>
       </c>
@@ -32498,7 +32499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
         <v>112</v>
       </c>
@@ -32776,7 +32777,7 @@
       <c r="FJ103" s="33"/>
       <c r="FK103" s="34"/>
     </row>
-    <row r="104" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
         <v>113</v>
       </c>
@@ -33070,7 +33071,7 @@
       <c r="FJ104" s="33"/>
       <c r="FK104" s="34"/>
     </row>
-    <row r="105" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
         <v>114</v>
       </c>
@@ -33314,7 +33315,7 @@
       <c r="FJ105" s="33"/>
       <c r="FK105" s="34"/>
     </row>
-    <row r="106" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
         <v>115</v>
       </c>
@@ -33602,7 +33603,7 @@
       <c r="FJ106" s="33"/>
       <c r="FK106" s="34"/>
     </row>
-    <row r="107" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
         <v>116</v>
       </c>
@@ -33852,7 +33853,7 @@
       <c r="FJ107" s="33"/>
       <c r="FK107" s="34"/>
     </row>
-    <row r="108" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>117</v>
       </c>
@@ -34134,7 +34135,7 @@
       <c r="FJ108" s="33"/>
       <c r="FK108" s="34"/>
     </row>
-    <row r="109" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
         <v>118</v>
       </c>
@@ -34412,7 +34413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
         <v>119</v>
       </c>
@@ -34704,7 +34705,7 @@
       <c r="FJ110" s="33"/>
       <c r="FK110" s="34"/>
     </row>
-    <row r="111" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>120</v>
       </c>
@@ -35072,7 +35073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
         <v>121</v>
       </c>
@@ -35358,7 +35359,7 @@
       <c r="FJ112" s="33"/>
       <c r="FK112" s="34"/>
     </row>
-    <row r="113" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
         <v>122</v>
       </c>
@@ -35640,7 +35641,7 @@
       <c r="FJ113" s="33"/>
       <c r="FK113" s="34"/>
     </row>
-    <row r="114" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>123</v>
       </c>
@@ -35946,7 +35947,7 @@
       <c r="FJ114" s="33"/>
       <c r="FK114" s="34"/>
     </row>
-    <row r="115" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
         <v>124</v>
       </c>
@@ -36250,7 +36251,7 @@
       <c r="FJ115" s="33"/>
       <c r="FK115" s="34"/>
     </row>
-    <row r="116" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
         <v>125</v>
       </c>
@@ -36546,7 +36547,7 @@
       <c r="FJ116" s="33"/>
       <c r="FK116" s="34"/>
     </row>
-    <row r="117" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
         <v>126</v>
       </c>
@@ -36836,7 +36837,7 @@
       <c r="FJ117" s="33"/>
       <c r="FK117" s="34"/>
     </row>
-    <row r="118" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="22" t="s">
         <v>127</v>
       </c>
@@ -37154,7 +37155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
         <v>128</v>
       </c>
@@ -37436,7 +37437,7 @@
       <c r="FJ119" s="33"/>
       <c r="FK119" s="34"/>
     </row>
-    <row r="120" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="22" t="s">
         <v>129</v>
       </c>
@@ -37754,7 +37755,7 @@
       <c r="FJ120" s="33"/>
       <c r="FK120" s="34"/>
     </row>
-    <row r="121" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="s">
         <v>130</v>
       </c>
@@ -38076,7 +38077,7 @@
       <c r="FJ121" s="33"/>
       <c r="FK121" s="34"/>
     </row>
-    <row r="122" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
         <v>131</v>
       </c>
@@ -38364,7 +38365,7 @@
       <c r="FJ122" s="33"/>
       <c r="FK122" s="34"/>
     </row>
-    <row r="123" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
         <v>132</v>
       </c>
@@ -38672,7 +38673,7 @@
       <c r="FJ123" s="33"/>
       <c r="FK123" s="34"/>
     </row>
-    <row r="124" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
         <v>133</v>
       </c>
@@ -38974,7 +38975,7 @@
       <c r="FJ124" s="33"/>
       <c r="FK124" s="34"/>
     </row>
-    <row r="125" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="22" t="s">
         <v>134</v>
       </c>
@@ -39284,7 +39285,7 @@
       <c r="FJ125" s="33"/>
       <c r="FK125" s="34"/>
     </row>
-    <row r="126" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="s">
         <v>135</v>
       </c>
@@ -39582,7 +39583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
         <v>136</v>
       </c>
@@ -39808,7 +39809,7 @@
       <c r="FJ127" s="33"/>
       <c r="FK127" s="34"/>
     </row>
-    <row r="128" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
         <v>137</v>
       </c>
@@ -40088,7 +40089,7 @@
       <c r="FJ128" s="33"/>
       <c r="FK128" s="34"/>
     </row>
-    <row r="129" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="22" t="s">
         <v>138</v>
       </c>
@@ -40364,7 +40365,7 @@
       <c r="FJ129" s="33"/>
       <c r="FK129" s="34"/>
     </row>
-    <row r="130" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="22" t="s">
         <v>139</v>
       </c>
@@ -40662,7 +40663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="22" t="s">
         <v>140</v>
       </c>
@@ -40944,7 +40945,7 @@
       <c r="FJ131" s="33"/>
       <c r="FK131" s="34"/>
     </row>
-    <row r="132" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="22" t="s">
         <v>143</v>
       </c>
@@ -41192,7 +41193,7 @@
       <c r="FJ132" s="33"/>
       <c r="FK132" s="34"/>
     </row>
-    <row r="133" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="22" t="s">
         <v>144</v>
       </c>
@@ -41560,7 +41561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="22" t="s">
         <v>145</v>
       </c>
@@ -41840,7 +41841,7 @@
       <c r="FJ134" s="33"/>
       <c r="FK134" s="34"/>
     </row>
-    <row r="135" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="22" t="s">
         <v>146</v>
       </c>
@@ -42132,7 +42133,7 @@
       <c r="FJ135" s="33"/>
       <c r="FK135" s="34"/>
     </row>
-    <row r="136" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="22" t="s">
         <v>147</v>
       </c>
@@ -42522,7 +42523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="22" t="s">
         <v>148</v>
       </c>
@@ -42826,7 +42827,7 @@
       <c r="FJ137" s="33"/>
       <c r="FK137" s="34"/>
     </row>
-    <row r="138" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="22" t="s">
         <v>149</v>
       </c>
@@ -43168,7 +43169,7 @@
       <c r="FJ138" s="33"/>
       <c r="FK138" s="34"/>
     </row>
-    <row r="139" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="22" t="s">
         <v>150</v>
       </c>
@@ -43378,7 +43379,7 @@
       <c r="FJ139" s="33"/>
       <c r="FK139" s="34"/>
     </row>
-    <row r="140" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="22" t="s">
         <v>151</v>
       </c>
@@ -43588,7 +43589,7 @@
       <c r="FJ140" s="33"/>
       <c r="FK140" s="34"/>
     </row>
-    <row r="141" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="22" t="s">
         <v>152</v>
       </c>
@@ -43798,7 +43799,7 @@
       <c r="FJ141" s="33"/>
       <c r="FK141" s="34"/>
     </row>
-    <row r="142" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="22" t="s">
         <v>153</v>
       </c>
@@ -44008,7 +44009,7 @@
       <c r="FJ142" s="33"/>
       <c r="FK142" s="34"/>
     </row>
-    <row r="143" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="22" t="s">
         <v>154</v>
       </c>
@@ -44218,7 +44219,7 @@
       <c r="FJ143" s="33"/>
       <c r="FK143" s="34"/>
     </row>
-    <row r="144" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="22" t="s">
         <v>155</v>
       </c>
@@ -44428,7 +44429,7 @@
       <c r="FJ144" s="33"/>
       <c r="FK144" s="34"/>
     </row>
-    <row r="145" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="22" t="s">
         <v>156</v>
       </c>
@@ -44638,7 +44639,7 @@
       <c r="FJ145" s="33"/>
       <c r="FK145" s="34"/>
     </row>
-    <row r="146" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="22" t="s">
         <v>157</v>
       </c>
@@ -44848,7 +44849,7 @@
       <c r="FJ146" s="33"/>
       <c r="FK146" s="34"/>
     </row>
-    <row r="147" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="22" t="s">
         <v>158</v>
       </c>
@@ -45058,7 +45059,7 @@
       <c r="FJ147" s="33"/>
       <c r="FK147" s="34"/>
     </row>
-    <row r="148" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="22" t="s">
         <v>159</v>
       </c>
@@ -45268,7 +45269,7 @@
       <c r="FJ148" s="33"/>
       <c r="FK148" s="34"/>
     </row>
-    <row r="149" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="22" t="s">
         <v>160</v>
       </c>
@@ -45478,7 +45479,7 @@
       <c r="FJ149" s="33"/>
       <c r="FK149" s="34"/>
     </row>
-    <row r="150" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="22" t="s">
         <v>161</v>
       </c>
@@ -45688,7 +45689,7 @@
       <c r="FJ150" s="33"/>
       <c r="FK150" s="34"/>
     </row>
-    <row r="151" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="22" t="s">
         <v>162</v>
       </c>
@@ -45898,7 +45899,7 @@
       <c r="FJ151" s="33"/>
       <c r="FK151" s="34"/>
     </row>
-    <row r="152" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="22" t="s">
         <v>163</v>
       </c>
@@ -46108,7 +46109,7 @@
       <c r="FJ152" s="33"/>
       <c r="FK152" s="34"/>
     </row>
-    <row r="153" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="22" t="s">
         <v>164</v>
       </c>
@@ -46318,7 +46319,7 @@
       <c r="FJ153" s="33"/>
       <c r="FK153" s="34"/>
     </row>
-    <row r="154" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="22" t="s">
         <v>165</v>
       </c>
@@ -46528,7 +46529,7 @@
       <c r="FJ154" s="33"/>
       <c r="FK154" s="34"/>
     </row>
-    <row r="155" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="22" t="s">
         <v>166</v>
       </c>
@@ -46738,7 +46739,7 @@
       <c r="FJ155" s="33"/>
       <c r="FK155" s="34"/>
     </row>
-    <row r="156" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="22" t="s">
         <v>167</v>
       </c>
@@ -46948,7 +46949,7 @@
       <c r="FJ156" s="33"/>
       <c r="FK156" s="34"/>
     </row>
-    <row r="157" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="22" t="s">
         <v>168</v>
       </c>
@@ -47158,7 +47159,7 @@
       <c r="FJ157" s="33"/>
       <c r="FK157" s="34"/>
     </row>
-    <row r="158" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="22" t="s">
         <v>169</v>
       </c>
@@ -47368,7 +47369,7 @@
       <c r="FJ158" s="33"/>
       <c r="FK158" s="34"/>
     </row>
-    <row r="159" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="22" t="s">
         <v>170</v>
       </c>
@@ -47578,7 +47579,7 @@
       <c r="FJ159" s="33"/>
       <c r="FK159" s="34"/>
     </row>
-    <row r="160" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="22" t="s">
         <v>171</v>
       </c>
@@ -47788,7 +47789,7 @@
       <c r="FJ160" s="33"/>
       <c r="FK160" s="34"/>
     </row>
-    <row r="161" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="22" t="s">
         <v>172</v>
       </c>
@@ -47998,7 +47999,7 @@
       <c r="FJ161" s="33"/>
       <c r="FK161" s="34"/>
     </row>
-    <row r="162" spans="1:167" s="18" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:167" s="18" customFormat="1" ht="30.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="71"/>
       <c r="B162" s="64"/>
       <c r="C162" s="65"/>
@@ -48965,25 +48966,52 @@
       <c r="C167" s="25"/>
     </row>
   </sheetData>
+  <autoFilter ref="A11:FK162" xr:uid="{C0760EAB-CC3D-40AE-A29A-AB65FF61DEFD}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="CALVAY CASTRO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="72">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:Q3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:Q5"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:D10"/>
-    <mergeCell ref="E8:Q10"/>
-    <mergeCell ref="R8:AZ8"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="AQ10:AU10"/>
-    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="DI10:DM10"/>
+    <mergeCell ref="BF10:BJ10"/>
+    <mergeCell ref="BK10:BO10"/>
+    <mergeCell ref="BP10:BT10"/>
+    <mergeCell ref="BU10:BY10"/>
+    <mergeCell ref="BZ10:CD10"/>
+    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="FG10:FK10"/>
+    <mergeCell ref="DN10:DR10"/>
+    <mergeCell ref="DS10:DW10"/>
+    <mergeCell ref="DX10:EB10"/>
+    <mergeCell ref="EC10:EG10"/>
+    <mergeCell ref="EH10:EL10"/>
+    <mergeCell ref="EM10:EQ10"/>
+    <mergeCell ref="FG9:FK9"/>
+    <mergeCell ref="EC9:EG9"/>
+    <mergeCell ref="EH9:EL9"/>
+    <mergeCell ref="EM9:EQ9"/>
+    <mergeCell ref="ER9:EV9"/>
+    <mergeCell ref="EW9:FA9"/>
+    <mergeCell ref="FB9:FF9"/>
+    <mergeCell ref="BA8:FK8"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="AL9:AP9"/>
+    <mergeCell ref="CE9:CI9"/>
+    <mergeCell ref="CJ9:CN9"/>
+    <mergeCell ref="CO9:CS9"/>
+    <mergeCell ref="CT9:CX9"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BA9:BE9"/>
+    <mergeCell ref="BF9:BJ9"/>
+    <mergeCell ref="BK9:BO9"/>
+    <mergeCell ref="BP9:BT9"/>
     <mergeCell ref="BU9:BY9"/>
     <mergeCell ref="BZ9:CD9"/>
     <mergeCell ref="ER10:EV10"/>
@@ -49000,44 +49028,24 @@
     <mergeCell ref="CT10:CX10"/>
     <mergeCell ref="CY10:DC10"/>
     <mergeCell ref="DD10:DH10"/>
-    <mergeCell ref="BA8:FK8"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="W9:AA9"/>
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="AL9:AP9"/>
-    <mergeCell ref="CE9:CI9"/>
-    <mergeCell ref="CJ9:CN9"/>
-    <mergeCell ref="CO9:CS9"/>
-    <mergeCell ref="CT9:CX9"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BA9:BE9"/>
-    <mergeCell ref="BF9:BJ9"/>
-    <mergeCell ref="BK9:BO9"/>
-    <mergeCell ref="BP9:BT9"/>
-    <mergeCell ref="FG9:FK9"/>
-    <mergeCell ref="EC9:EG9"/>
-    <mergeCell ref="EH9:EL9"/>
-    <mergeCell ref="EM9:EQ9"/>
-    <mergeCell ref="ER9:EV9"/>
-    <mergeCell ref="EW9:FA9"/>
-    <mergeCell ref="FB9:FF9"/>
-    <mergeCell ref="FG10:FK10"/>
-    <mergeCell ref="DN10:DR10"/>
-    <mergeCell ref="DS10:DW10"/>
-    <mergeCell ref="DX10:EB10"/>
-    <mergeCell ref="EC10:EG10"/>
-    <mergeCell ref="EH10:EL10"/>
-    <mergeCell ref="EM10:EQ10"/>
-    <mergeCell ref="BA10:BE10"/>
-    <mergeCell ref="DI10:DM10"/>
-    <mergeCell ref="BF10:BJ10"/>
-    <mergeCell ref="BK10:BO10"/>
-    <mergeCell ref="BP10:BT10"/>
-    <mergeCell ref="BU10:BY10"/>
-    <mergeCell ref="BZ10:CD10"/>
-    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="R8:AZ8"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AQ10:AU10"/>
+    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:D10"/>
+    <mergeCell ref="E8:Q10"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="X4:Z4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="DS12:EL151 FB12:FK151 ER12:EV151">

--- a/1-CONTROL/2-TAREO/TAREO-JUNIO.xlsx
+++ b/1-CONTROL/2-TAREO/TAREO-JUNIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\1-CONTROL\2-TAREO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA73EDEA-236C-4C72-AF37-25C176BB6452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1A94A2-515E-45F7-957D-016F69F29876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{100E3196-77E0-4FB0-BD0A-F462B801CA56}"/>
   </bookViews>
@@ -3758,7 +3758,7 @@
   <dimension ref="A1:FK167"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H166" sqref="H166"/>
+      <selection activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11697,7 +11697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>36</v>
       </c>
@@ -13587,7 +13587,7 @@
       <c r="FJ37" s="33"/>
       <c r="FK37" s="34"/>
     </row>
-    <row r="38" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>42</v>
       </c>
@@ -48969,7 +48969,7 @@
   <autoFilter ref="A11:FK162" xr:uid="{C0760EAB-CC3D-40AE-A29A-AB65FF61DEFD}">
     <filterColumn colId="1">
       <filters>
-        <filter val="CALVAY CASTRO"/>
+        <filter val="CARDENAS LAVAGGE"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/1-CONTROL/2-TAREO/TAREO-JUNIO.xlsx
+++ b/1-CONTROL/2-TAREO/TAREO-JUNIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\1-CONTROL\2-TAREO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1A94A2-515E-45F7-957D-016F69F29876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137BC77C-4F48-4657-939C-57BC92A9772B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{100E3196-77E0-4FB0-BD0A-F462B801CA56}"/>
   </bookViews>
@@ -3758,7 +3758,7 @@
   <dimension ref="A1:FK167"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G170" sqref="G170"/>
+      <selection activeCell="I170" sqref="I170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12355,7 +12355,7 @@
       <c r="FJ33" s="33"/>
       <c r="FK33" s="34"/>
     </row>
-    <row r="34" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>38</v>
       </c>
@@ -13587,7 +13587,7 @@
       <c r="FJ37" s="33"/>
       <c r="FK37" s="34"/>
     </row>
-    <row r="38" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>42</v>
       </c>
@@ -48969,7 +48969,7 @@
   <autoFilter ref="A11:FK162" xr:uid="{C0760EAB-CC3D-40AE-A29A-AB65FF61DEFD}">
     <filterColumn colId="1">
       <filters>
-        <filter val="CARDENAS LAVAGGE"/>
+        <filter val="CAMPOS ASIN"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/1-CONTROL/2-TAREO/TAREO-JUNIO.xlsx
+++ b/1-CONTROL/2-TAREO/TAREO-JUNIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\1-CONTROL\2-TAREO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137BC77C-4F48-4657-939C-57BC92A9772B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC0C115-2E67-4A96-9298-826B21DC534E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{100E3196-77E0-4FB0-BD0A-F462B801CA56}"/>
   </bookViews>
@@ -2365,22 +2365,31 @@
     <xf numFmtId="2" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2443,32 +2452,23 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3757,8 +3757,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:FK167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I170" sqref="I170"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="DS1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="FF170" sqref="FF170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3837,25 +3837,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:167" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
       <c r="V1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AF1" s="2"/>
@@ -4040,36 +4040,36 @@
       <c r="FK2" s="2"/>
     </row>
     <row r="3" spans="1:167" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="77"/>
+      <c r="A3" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="106"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="78" t="s">
+      <c r="X3" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="79"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="108"/>
       <c r="AA3" s="5">
         <v>30</v>
       </c>
@@ -4238,11 +4238,11 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="78" t="s">
+      <c r="X4" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="79"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="108"/>
       <c r="AA4" s="5">
         <v>240</v>
       </c>
@@ -4388,25 +4388,25 @@
       <c r="FK4" s="1"/>
     </row>
     <row r="5" spans="1:167" s="13" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="85"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
@@ -4745,703 +4745,703 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:167" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="91" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="100" t="s">
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="101"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="101"/>
-      <c r="Y8" s="101"/>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="101"/>
-      <c r="AB8" s="101"/>
-      <c r="AC8" s="101"/>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="101"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="101"/>
-      <c r="AI8" s="101"/>
-      <c r="AJ8" s="101"/>
-      <c r="AK8" s="101"/>
-      <c r="AL8" s="101"/>
-      <c r="AM8" s="101"/>
-      <c r="AN8" s="101"/>
-      <c r="AO8" s="101"/>
-      <c r="AP8" s="101"/>
-      <c r="AQ8" s="101"/>
-      <c r="AR8" s="101"/>
-      <c r="AS8" s="101"/>
-      <c r="AT8" s="101"/>
-      <c r="AU8" s="101"/>
-      <c r="AV8" s="101"/>
-      <c r="AW8" s="101"/>
-      <c r="AX8" s="101"/>
-      <c r="AY8" s="101"/>
-      <c r="AZ8" s="102"/>
-      <c r="BA8" s="100" t="s">
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="81"/>
+      <c r="AC8" s="81"/>
+      <c r="AD8" s="81"/>
+      <c r="AE8" s="81"/>
+      <c r="AF8" s="81"/>
+      <c r="AG8" s="81"/>
+      <c r="AH8" s="81"/>
+      <c r="AI8" s="81"/>
+      <c r="AJ8" s="81"/>
+      <c r="AK8" s="81"/>
+      <c r="AL8" s="81"/>
+      <c r="AM8" s="81"/>
+      <c r="AN8" s="81"/>
+      <c r="AO8" s="81"/>
+      <c r="AP8" s="81"/>
+      <c r="AQ8" s="81"/>
+      <c r="AR8" s="81"/>
+      <c r="AS8" s="81"/>
+      <c r="AT8" s="81"/>
+      <c r="AU8" s="81"/>
+      <c r="AV8" s="81"/>
+      <c r="AW8" s="81"/>
+      <c r="AX8" s="81"/>
+      <c r="AY8" s="81"/>
+      <c r="AZ8" s="82"/>
+      <c r="BA8" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="BB8" s="101"/>
-      <c r="BC8" s="101"/>
-      <c r="BD8" s="101"/>
-      <c r="BE8" s="101"/>
-      <c r="BF8" s="101"/>
-      <c r="BG8" s="101"/>
-      <c r="BH8" s="101"/>
-      <c r="BI8" s="101"/>
-      <c r="BJ8" s="101"/>
-      <c r="BK8" s="101"/>
-      <c r="BL8" s="101"/>
-      <c r="BM8" s="101"/>
-      <c r="BN8" s="101"/>
-      <c r="BO8" s="101"/>
-      <c r="BP8" s="101"/>
-      <c r="BQ8" s="101"/>
-      <c r="BR8" s="101"/>
-      <c r="BS8" s="101"/>
-      <c r="BT8" s="101"/>
-      <c r="BU8" s="101"/>
-      <c r="BV8" s="101"/>
-      <c r="BW8" s="101"/>
-      <c r="BX8" s="101"/>
-      <c r="BY8" s="101"/>
-      <c r="BZ8" s="101"/>
-      <c r="CA8" s="101"/>
-      <c r="CB8" s="101"/>
-      <c r="CC8" s="101"/>
-      <c r="CD8" s="101"/>
-      <c r="CE8" s="101"/>
-      <c r="CF8" s="101"/>
-      <c r="CG8" s="101"/>
-      <c r="CH8" s="101"/>
-      <c r="CI8" s="101"/>
-      <c r="CJ8" s="101"/>
-      <c r="CK8" s="101"/>
-      <c r="CL8" s="101"/>
-      <c r="CM8" s="101"/>
-      <c r="CN8" s="101"/>
-      <c r="CO8" s="101"/>
-      <c r="CP8" s="101"/>
-      <c r="CQ8" s="101"/>
-      <c r="CR8" s="101"/>
-      <c r="CS8" s="101"/>
-      <c r="CT8" s="101"/>
-      <c r="CU8" s="101"/>
-      <c r="CV8" s="101"/>
-      <c r="CW8" s="101"/>
-      <c r="CX8" s="101"/>
-      <c r="CY8" s="101"/>
-      <c r="CZ8" s="101"/>
-      <c r="DA8" s="101"/>
-      <c r="DB8" s="101"/>
-      <c r="DC8" s="101"/>
-      <c r="DD8" s="101"/>
-      <c r="DE8" s="101"/>
-      <c r="DF8" s="101"/>
-      <c r="DG8" s="101"/>
-      <c r="DH8" s="101"/>
-      <c r="DI8" s="101"/>
-      <c r="DJ8" s="101"/>
-      <c r="DK8" s="101"/>
-      <c r="DL8" s="101"/>
-      <c r="DM8" s="101"/>
-      <c r="DN8" s="101"/>
-      <c r="DO8" s="101"/>
-      <c r="DP8" s="101"/>
-      <c r="DQ8" s="101"/>
-      <c r="DR8" s="101"/>
-      <c r="DS8" s="101"/>
-      <c r="DT8" s="101"/>
-      <c r="DU8" s="101"/>
-      <c r="DV8" s="101"/>
-      <c r="DW8" s="101"/>
-      <c r="DX8" s="101"/>
-      <c r="DY8" s="101"/>
-      <c r="DZ8" s="101"/>
-      <c r="EA8" s="101"/>
-      <c r="EB8" s="101"/>
-      <c r="EC8" s="101"/>
-      <c r="ED8" s="101"/>
-      <c r="EE8" s="101"/>
-      <c r="EF8" s="101"/>
-      <c r="EG8" s="101"/>
-      <c r="EH8" s="101"/>
-      <c r="EI8" s="101"/>
-      <c r="EJ8" s="101"/>
-      <c r="EK8" s="101"/>
-      <c r="EL8" s="101"/>
-      <c r="EM8" s="101"/>
-      <c r="EN8" s="101"/>
-      <c r="EO8" s="101"/>
-      <c r="EP8" s="101"/>
-      <c r="EQ8" s="101"/>
-      <c r="ER8" s="101"/>
-      <c r="ES8" s="101"/>
-      <c r="ET8" s="101"/>
-      <c r="EU8" s="101"/>
-      <c r="EV8" s="101"/>
-      <c r="EW8" s="101"/>
-      <c r="EX8" s="101"/>
-      <c r="EY8" s="101"/>
-      <c r="EZ8" s="101"/>
-      <c r="FA8" s="101"/>
-      <c r="FB8" s="101"/>
-      <c r="FC8" s="101"/>
-      <c r="FD8" s="101"/>
-      <c r="FE8" s="101"/>
-      <c r="FF8" s="101"/>
-      <c r="FG8" s="101"/>
-      <c r="FH8" s="101"/>
-      <c r="FI8" s="101"/>
-      <c r="FJ8" s="101"/>
-      <c r="FK8" s="102"/>
+      <c r="BB8" s="81"/>
+      <c r="BC8" s="81"/>
+      <c r="BD8" s="81"/>
+      <c r="BE8" s="81"/>
+      <c r="BF8" s="81"/>
+      <c r="BG8" s="81"/>
+      <c r="BH8" s="81"/>
+      <c r="BI8" s="81"/>
+      <c r="BJ8" s="81"/>
+      <c r="BK8" s="81"/>
+      <c r="BL8" s="81"/>
+      <c r="BM8" s="81"/>
+      <c r="BN8" s="81"/>
+      <c r="BO8" s="81"/>
+      <c r="BP8" s="81"/>
+      <c r="BQ8" s="81"/>
+      <c r="BR8" s="81"/>
+      <c r="BS8" s="81"/>
+      <c r="BT8" s="81"/>
+      <c r="BU8" s="81"/>
+      <c r="BV8" s="81"/>
+      <c r="BW8" s="81"/>
+      <c r="BX8" s="81"/>
+      <c r="BY8" s="81"/>
+      <c r="BZ8" s="81"/>
+      <c r="CA8" s="81"/>
+      <c r="CB8" s="81"/>
+      <c r="CC8" s="81"/>
+      <c r="CD8" s="81"/>
+      <c r="CE8" s="81"/>
+      <c r="CF8" s="81"/>
+      <c r="CG8" s="81"/>
+      <c r="CH8" s="81"/>
+      <c r="CI8" s="81"/>
+      <c r="CJ8" s="81"/>
+      <c r="CK8" s="81"/>
+      <c r="CL8" s="81"/>
+      <c r="CM8" s="81"/>
+      <c r="CN8" s="81"/>
+      <c r="CO8" s="81"/>
+      <c r="CP8" s="81"/>
+      <c r="CQ8" s="81"/>
+      <c r="CR8" s="81"/>
+      <c r="CS8" s="81"/>
+      <c r="CT8" s="81"/>
+      <c r="CU8" s="81"/>
+      <c r="CV8" s="81"/>
+      <c r="CW8" s="81"/>
+      <c r="CX8" s="81"/>
+      <c r="CY8" s="81"/>
+      <c r="CZ8" s="81"/>
+      <c r="DA8" s="81"/>
+      <c r="DB8" s="81"/>
+      <c r="DC8" s="81"/>
+      <c r="DD8" s="81"/>
+      <c r="DE8" s="81"/>
+      <c r="DF8" s="81"/>
+      <c r="DG8" s="81"/>
+      <c r="DH8" s="81"/>
+      <c r="DI8" s="81"/>
+      <c r="DJ8" s="81"/>
+      <c r="DK8" s="81"/>
+      <c r="DL8" s="81"/>
+      <c r="DM8" s="81"/>
+      <c r="DN8" s="81"/>
+      <c r="DO8" s="81"/>
+      <c r="DP8" s="81"/>
+      <c r="DQ8" s="81"/>
+      <c r="DR8" s="81"/>
+      <c r="DS8" s="81"/>
+      <c r="DT8" s="81"/>
+      <c r="DU8" s="81"/>
+      <c r="DV8" s="81"/>
+      <c r="DW8" s="81"/>
+      <c r="DX8" s="81"/>
+      <c r="DY8" s="81"/>
+      <c r="DZ8" s="81"/>
+      <c r="EA8" s="81"/>
+      <c r="EB8" s="81"/>
+      <c r="EC8" s="81"/>
+      <c r="ED8" s="81"/>
+      <c r="EE8" s="81"/>
+      <c r="EF8" s="81"/>
+      <c r="EG8" s="81"/>
+      <c r="EH8" s="81"/>
+      <c r="EI8" s="81"/>
+      <c r="EJ8" s="81"/>
+      <c r="EK8" s="81"/>
+      <c r="EL8" s="81"/>
+      <c r="EM8" s="81"/>
+      <c r="EN8" s="81"/>
+      <c r="EO8" s="81"/>
+      <c r="EP8" s="81"/>
+      <c r="EQ8" s="81"/>
+      <c r="ER8" s="81"/>
+      <c r="ES8" s="81"/>
+      <c r="ET8" s="81"/>
+      <c r="EU8" s="81"/>
+      <c r="EV8" s="81"/>
+      <c r="EW8" s="81"/>
+      <c r="EX8" s="81"/>
+      <c r="EY8" s="81"/>
+      <c r="EZ8" s="81"/>
+      <c r="FA8" s="81"/>
+      <c r="FB8" s="81"/>
+      <c r="FC8" s="81"/>
+      <c r="FD8" s="81"/>
+      <c r="FE8" s="81"/>
+      <c r="FF8" s="81"/>
+      <c r="FG8" s="81"/>
+      <c r="FH8" s="81"/>
+      <c r="FI8" s="81"/>
+      <c r="FJ8" s="81"/>
+      <c r="FK8" s="82"/>
     </row>
     <row r="9" spans="1:167" s="18" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="106" t="str">
+      <c r="A9" s="87"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="77" t="str">
         <f>UPPER(TEXT(R10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="106" t="str">
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="77" t="str">
         <f t="shared" ref="W9" si="0">UPPER(TEXT(W10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="108"/>
-      <c r="AB9" s="106" t="str">
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="77" t="str">
         <f t="shared" ref="AB9" si="1">UPPER(TEXT(AB10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="107"/>
-      <c r="AF9" s="108"/>
-      <c r="AG9" s="106" t="str">
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="78"/>
+      <c r="AF9" s="79"/>
+      <c r="AG9" s="77" t="str">
         <f t="shared" ref="AG9" si="2">UPPER(TEXT(AG10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="AH9" s="107"/>
-      <c r="AI9" s="107"/>
-      <c r="AJ9" s="107"/>
-      <c r="AK9" s="108"/>
-      <c r="AL9" s="106" t="str">
+      <c r="AH9" s="78"/>
+      <c r="AI9" s="78"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="79"/>
+      <c r="AL9" s="77" t="str">
         <f t="shared" ref="AL9" si="3">UPPER(TEXT(AL10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="AM9" s="107"/>
-      <c r="AN9" s="107"/>
-      <c r="AO9" s="107"/>
-      <c r="AP9" s="108"/>
-      <c r="AQ9" s="106" t="str">
+      <c r="AM9" s="78"/>
+      <c r="AN9" s="78"/>
+      <c r="AO9" s="78"/>
+      <c r="AP9" s="79"/>
+      <c r="AQ9" s="77" t="str">
         <f t="shared" ref="AQ9" si="4">UPPER(TEXT(AQ10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="AR9" s="107"/>
-      <c r="AS9" s="107"/>
-      <c r="AT9" s="107"/>
-      <c r="AU9" s="108"/>
-      <c r="AV9" s="106" t="str">
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="78"/>
+      <c r="AT9" s="78"/>
+      <c r="AU9" s="79"/>
+      <c r="AV9" s="77" t="str">
         <f t="shared" ref="AV9" si="5">UPPER(TEXT(AV10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="AW9" s="107"/>
-      <c r="AX9" s="107"/>
-      <c r="AY9" s="107"/>
-      <c r="AZ9" s="108"/>
-      <c r="BA9" s="106" t="str">
+      <c r="AW9" s="78"/>
+      <c r="AX9" s="78"/>
+      <c r="AY9" s="78"/>
+      <c r="AZ9" s="79"/>
+      <c r="BA9" s="77" t="str">
         <f t="shared" ref="BA9" si="6">UPPER(TEXT(BA10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="BB9" s="107"/>
-      <c r="BC9" s="107"/>
-      <c r="BD9" s="107"/>
-      <c r="BE9" s="108"/>
-      <c r="BF9" s="106" t="str">
+      <c r="BB9" s="78"/>
+      <c r="BC9" s="78"/>
+      <c r="BD9" s="78"/>
+      <c r="BE9" s="79"/>
+      <c r="BF9" s="77" t="str">
         <f t="shared" ref="BF9" si="7">UPPER(TEXT(BF10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="BG9" s="107"/>
-      <c r="BH9" s="107"/>
-      <c r="BI9" s="107"/>
-      <c r="BJ9" s="108"/>
-      <c r="BK9" s="106" t="str">
+      <c r="BG9" s="78"/>
+      <c r="BH9" s="78"/>
+      <c r="BI9" s="78"/>
+      <c r="BJ9" s="79"/>
+      <c r="BK9" s="77" t="str">
         <f t="shared" ref="BK9" si="8">UPPER(TEXT(BK10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="BL9" s="107"/>
-      <c r="BM9" s="107"/>
-      <c r="BN9" s="107"/>
-      <c r="BO9" s="108"/>
-      <c r="BP9" s="106" t="str">
+      <c r="BL9" s="78"/>
+      <c r="BM9" s="78"/>
+      <c r="BN9" s="78"/>
+      <c r="BO9" s="79"/>
+      <c r="BP9" s="77" t="str">
         <f t="shared" ref="BP9" si="9">UPPER(TEXT(BP10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="BQ9" s="107"/>
-      <c r="BR9" s="107"/>
-      <c r="BS9" s="107"/>
-      <c r="BT9" s="108"/>
-      <c r="BU9" s="106" t="str">
+      <c r="BQ9" s="78"/>
+      <c r="BR9" s="78"/>
+      <c r="BS9" s="78"/>
+      <c r="BT9" s="79"/>
+      <c r="BU9" s="77" t="str">
         <f t="shared" ref="BU9" si="10">UPPER(TEXT(BU10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="BV9" s="107"/>
-      <c r="BW9" s="107"/>
-      <c r="BX9" s="107"/>
-      <c r="BY9" s="108"/>
-      <c r="BZ9" s="106" t="str">
+      <c r="BV9" s="78"/>
+      <c r="BW9" s="78"/>
+      <c r="BX9" s="78"/>
+      <c r="BY9" s="79"/>
+      <c r="BZ9" s="77" t="str">
         <f t="shared" ref="BZ9" si="11">UPPER(TEXT(BZ10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="CA9" s="107"/>
-      <c r="CB9" s="107"/>
-      <c r="CC9" s="107"/>
-      <c r="CD9" s="108"/>
-      <c r="CE9" s="106" t="str">
+      <c r="CA9" s="78"/>
+      <c r="CB9" s="78"/>
+      <c r="CC9" s="78"/>
+      <c r="CD9" s="79"/>
+      <c r="CE9" s="77" t="str">
         <f t="shared" ref="CE9" si="12">UPPER(TEXT(CE10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="CF9" s="107"/>
-      <c r="CG9" s="107"/>
-      <c r="CH9" s="107"/>
-      <c r="CI9" s="108"/>
-      <c r="CJ9" s="106" t="str">
+      <c r="CF9" s="78"/>
+      <c r="CG9" s="78"/>
+      <c r="CH9" s="78"/>
+      <c r="CI9" s="79"/>
+      <c r="CJ9" s="77" t="str">
         <f t="shared" ref="CJ9" si="13">UPPER(TEXT(CJ10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="CK9" s="107"/>
-      <c r="CL9" s="107"/>
-      <c r="CM9" s="107"/>
-      <c r="CN9" s="108"/>
-      <c r="CO9" s="106" t="str">
+      <c r="CK9" s="78"/>
+      <c r="CL9" s="78"/>
+      <c r="CM9" s="78"/>
+      <c r="CN9" s="79"/>
+      <c r="CO9" s="77" t="str">
         <f t="shared" ref="CO9" si="14">UPPER(TEXT(CO10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="CP9" s="107"/>
-      <c r="CQ9" s="107"/>
-      <c r="CR9" s="107"/>
-      <c r="CS9" s="108"/>
-      <c r="CT9" s="106" t="str">
+      <c r="CP9" s="78"/>
+      <c r="CQ9" s="78"/>
+      <c r="CR9" s="78"/>
+      <c r="CS9" s="79"/>
+      <c r="CT9" s="77" t="str">
         <f t="shared" ref="CT9" si="15">UPPER(TEXT(CT10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="CU9" s="107"/>
-      <c r="CV9" s="107"/>
-      <c r="CW9" s="107"/>
-      <c r="CX9" s="108"/>
-      <c r="CY9" s="106" t="str">
+      <c r="CU9" s="78"/>
+      <c r="CV9" s="78"/>
+      <c r="CW9" s="78"/>
+      <c r="CX9" s="79"/>
+      <c r="CY9" s="77" t="str">
         <f t="shared" ref="CY9" si="16">UPPER(TEXT(CY10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="CZ9" s="107"/>
-      <c r="DA9" s="107"/>
-      <c r="DB9" s="107"/>
-      <c r="DC9" s="108"/>
-      <c r="DD9" s="106" t="str">
+      <c r="CZ9" s="78"/>
+      <c r="DA9" s="78"/>
+      <c r="DB9" s="78"/>
+      <c r="DC9" s="79"/>
+      <c r="DD9" s="77" t="str">
         <f t="shared" ref="DD9" si="17">UPPER(TEXT(DD10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="DE9" s="107"/>
-      <c r="DF9" s="107"/>
-      <c r="DG9" s="107"/>
-      <c r="DH9" s="108"/>
-      <c r="DI9" s="106" t="str">
+      <c r="DE9" s="78"/>
+      <c r="DF9" s="78"/>
+      <c r="DG9" s="78"/>
+      <c r="DH9" s="79"/>
+      <c r="DI9" s="77" t="str">
         <f t="shared" ref="DI9" si="18">UPPER(TEXT(DI10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="DJ9" s="107"/>
-      <c r="DK9" s="107"/>
-      <c r="DL9" s="107"/>
-      <c r="DM9" s="108"/>
-      <c r="DN9" s="106" t="str">
+      <c r="DJ9" s="78"/>
+      <c r="DK9" s="78"/>
+      <c r="DL9" s="78"/>
+      <c r="DM9" s="79"/>
+      <c r="DN9" s="77" t="str">
         <f t="shared" ref="DN9" si="19">UPPER(TEXT(DN10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="DO9" s="107"/>
-      <c r="DP9" s="107"/>
-      <c r="DQ9" s="107"/>
-      <c r="DR9" s="108"/>
-      <c r="DS9" s="106" t="str">
+      <c r="DO9" s="78"/>
+      <c r="DP9" s="78"/>
+      <c r="DQ9" s="78"/>
+      <c r="DR9" s="79"/>
+      <c r="DS9" s="77" t="str">
         <f t="shared" ref="DS9" si="20">UPPER(TEXT(DS10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="DT9" s="107"/>
-      <c r="DU9" s="107"/>
-      <c r="DV9" s="107"/>
-      <c r="DW9" s="108"/>
-      <c r="DX9" s="106" t="str">
+      <c r="DT9" s="78"/>
+      <c r="DU9" s="78"/>
+      <c r="DV9" s="78"/>
+      <c r="DW9" s="79"/>
+      <c r="DX9" s="77" t="str">
         <f t="shared" ref="DX9" si="21">UPPER(TEXT(DX10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="DY9" s="107"/>
-      <c r="DZ9" s="107"/>
-      <c r="EA9" s="107"/>
-      <c r="EB9" s="108"/>
-      <c r="EC9" s="106" t="str">
+      <c r="DY9" s="78"/>
+      <c r="DZ9" s="78"/>
+      <c r="EA9" s="78"/>
+      <c r="EB9" s="79"/>
+      <c r="EC9" s="77" t="str">
         <f t="shared" ref="EC9" si="22">UPPER(TEXT(EC10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="ED9" s="107"/>
-      <c r="EE9" s="107"/>
-      <c r="EF9" s="107"/>
-      <c r="EG9" s="108"/>
-      <c r="EH9" s="106" t="str">
+      <c r="ED9" s="78"/>
+      <c r="EE9" s="78"/>
+      <c r="EF9" s="78"/>
+      <c r="EG9" s="79"/>
+      <c r="EH9" s="77" t="str">
         <f t="shared" ref="EH9" si="23">UPPER(TEXT(EH10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="EI9" s="107"/>
-      <c r="EJ9" s="107"/>
-      <c r="EK9" s="107"/>
-      <c r="EL9" s="108"/>
-      <c r="EM9" s="106" t="str">
+      <c r="EI9" s="78"/>
+      <c r="EJ9" s="78"/>
+      <c r="EK9" s="78"/>
+      <c r="EL9" s="79"/>
+      <c r="EM9" s="77" t="str">
         <f t="shared" ref="EM9" si="24">UPPER(TEXT(EM10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="EN9" s="107"/>
-      <c r="EO9" s="107"/>
-      <c r="EP9" s="107"/>
-      <c r="EQ9" s="108"/>
-      <c r="ER9" s="106" t="str">
+      <c r="EN9" s="78"/>
+      <c r="EO9" s="78"/>
+      <c r="EP9" s="78"/>
+      <c r="EQ9" s="79"/>
+      <c r="ER9" s="77" t="str">
         <f t="shared" ref="ER9" si="25">UPPER(TEXT(ER10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="ES9" s="107"/>
-      <c r="ET9" s="107"/>
-      <c r="EU9" s="107"/>
-      <c r="EV9" s="108"/>
-      <c r="EW9" s="106" t="str">
+      <c r="ES9" s="78"/>
+      <c r="ET9" s="78"/>
+      <c r="EU9" s="78"/>
+      <c r="EV9" s="79"/>
+      <c r="EW9" s="77" t="str">
         <f t="shared" ref="EW9" si="26">UPPER(TEXT(EW10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="EX9" s="107"/>
-      <c r="EY9" s="107"/>
-      <c r="EZ9" s="107"/>
-      <c r="FA9" s="108"/>
-      <c r="FB9" s="106" t="str">
+      <c r="EX9" s="78"/>
+      <c r="EY9" s="78"/>
+      <c r="EZ9" s="78"/>
+      <c r="FA9" s="79"/>
+      <c r="FB9" s="77" t="str">
         <f t="shared" ref="FB9" si="27">UPPER(TEXT(FB10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="FC9" s="107"/>
-      <c r="FD9" s="107"/>
-      <c r="FE9" s="107"/>
-      <c r="FF9" s="108"/>
-      <c r="FG9" s="106" t="str">
+      <c r="FC9" s="78"/>
+      <c r="FD9" s="78"/>
+      <c r="FE9" s="78"/>
+      <c r="FF9" s="79"/>
+      <c r="FG9" s="77" t="str">
         <f t="shared" ref="FG9" si="28">UPPER(TEXT(FG10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="FH9" s="107"/>
-      <c r="FI9" s="107"/>
-      <c r="FJ9" s="107"/>
-      <c r="FK9" s="108"/>
+      <c r="FH9" s="78"/>
+      <c r="FI9" s="78"/>
+      <c r="FJ9" s="78"/>
+      <c r="FK9" s="79"/>
     </row>
     <row r="10" spans="1:167" s="12" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="103">
+      <c r="A10" s="87"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="74">
         <v>44706</v>
       </c>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="105"/>
-      <c r="W10" s="103">
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="74">
         <f>+R10+1</f>
         <v>44707</v>
       </c>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="105"/>
-      <c r="AB10" s="103">
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="74">
         <f t="shared" ref="AB10" si="29">+W10+1</f>
         <v>44708</v>
       </c>
-      <c r="AC10" s="104"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="104"/>
-      <c r="AF10" s="105"/>
-      <c r="AG10" s="103">
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="74">
         <f t="shared" ref="AG10" si="30">+AB10+1</f>
         <v>44709</v>
       </c>
-      <c r="AH10" s="104"/>
-      <c r="AI10" s="104"/>
-      <c r="AJ10" s="104"/>
-      <c r="AK10" s="105"/>
-      <c r="AL10" s="103">
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="76"/>
+      <c r="AL10" s="74">
         <f t="shared" ref="AL10" si="31">+AG10+1</f>
         <v>44710</v>
       </c>
-      <c r="AM10" s="104"/>
-      <c r="AN10" s="104"/>
-      <c r="AO10" s="104"/>
-      <c r="AP10" s="105"/>
-      <c r="AQ10" s="103">
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="74">
         <f t="shared" ref="AQ10" si="32">+AL10+1</f>
         <v>44711</v>
       </c>
-      <c r="AR10" s="104"/>
-      <c r="AS10" s="104"/>
-      <c r="AT10" s="104"/>
-      <c r="AU10" s="105"/>
-      <c r="AV10" s="103">
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="75"/>
+      <c r="AU10" s="76"/>
+      <c r="AV10" s="74">
         <f t="shared" ref="AV10" si="33">+AQ10+1</f>
         <v>44712</v>
       </c>
-      <c r="AW10" s="104"/>
-      <c r="AX10" s="104"/>
-      <c r="AY10" s="104"/>
-      <c r="AZ10" s="105"/>
-      <c r="BA10" s="103">
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="75"/>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="76"/>
+      <c r="BA10" s="74">
         <f t="shared" ref="BA10" si="34">+AV10+1</f>
         <v>44713</v>
       </c>
-      <c r="BB10" s="104"/>
-      <c r="BC10" s="104"/>
-      <c r="BD10" s="104"/>
-      <c r="BE10" s="105"/>
-      <c r="BF10" s="103">
+      <c r="BB10" s="75"/>
+      <c r="BC10" s="75"/>
+      <c r="BD10" s="75"/>
+      <c r="BE10" s="76"/>
+      <c r="BF10" s="74">
         <f t="shared" ref="BF10" si="35">+BA10+1</f>
         <v>44714</v>
       </c>
-      <c r="BG10" s="104"/>
-      <c r="BH10" s="104"/>
-      <c r="BI10" s="104"/>
-      <c r="BJ10" s="105"/>
-      <c r="BK10" s="103">
+      <c r="BG10" s="75"/>
+      <c r="BH10" s="75"/>
+      <c r="BI10" s="75"/>
+      <c r="BJ10" s="76"/>
+      <c r="BK10" s="74">
         <f t="shared" ref="BK10" si="36">+BF10+1</f>
         <v>44715</v>
       </c>
-      <c r="BL10" s="104"/>
-      <c r="BM10" s="104"/>
-      <c r="BN10" s="104"/>
-      <c r="BO10" s="105"/>
-      <c r="BP10" s="103">
+      <c r="BL10" s="75"/>
+      <c r="BM10" s="75"/>
+      <c r="BN10" s="75"/>
+      <c r="BO10" s="76"/>
+      <c r="BP10" s="74">
         <f t="shared" ref="BP10" si="37">+BK10+1</f>
         <v>44716</v>
       </c>
-      <c r="BQ10" s="104"/>
-      <c r="BR10" s="104"/>
-      <c r="BS10" s="104"/>
-      <c r="BT10" s="105"/>
-      <c r="BU10" s="103">
+      <c r="BQ10" s="75"/>
+      <c r="BR10" s="75"/>
+      <c r="BS10" s="75"/>
+      <c r="BT10" s="76"/>
+      <c r="BU10" s="74">
         <f t="shared" ref="BU10" si="38">+BP10+1</f>
         <v>44717</v>
       </c>
-      <c r="BV10" s="104"/>
-      <c r="BW10" s="104"/>
-      <c r="BX10" s="104"/>
-      <c r="BY10" s="105"/>
-      <c r="BZ10" s="103">
+      <c r="BV10" s="75"/>
+      <c r="BW10" s="75"/>
+      <c r="BX10" s="75"/>
+      <c r="BY10" s="76"/>
+      <c r="BZ10" s="74">
         <f t="shared" ref="BZ10" si="39">+BU10+1</f>
         <v>44718</v>
       </c>
-      <c r="CA10" s="104"/>
-      <c r="CB10" s="104"/>
-      <c r="CC10" s="104"/>
-      <c r="CD10" s="105"/>
-      <c r="CE10" s="103">
+      <c r="CA10" s="75"/>
+      <c r="CB10" s="75"/>
+      <c r="CC10" s="75"/>
+      <c r="CD10" s="76"/>
+      <c r="CE10" s="74">
         <f t="shared" ref="CE10" si="40">+BZ10+1</f>
         <v>44719</v>
       </c>
-      <c r="CF10" s="104"/>
-      <c r="CG10" s="104"/>
-      <c r="CH10" s="104"/>
-      <c r="CI10" s="105"/>
-      <c r="CJ10" s="103">
+      <c r="CF10" s="75"/>
+      <c r="CG10" s="75"/>
+      <c r="CH10" s="75"/>
+      <c r="CI10" s="76"/>
+      <c r="CJ10" s="74">
         <f t="shared" ref="CJ10" si="41">+CE10+1</f>
         <v>44720</v>
       </c>
-      <c r="CK10" s="104"/>
-      <c r="CL10" s="104"/>
-      <c r="CM10" s="104"/>
-      <c r="CN10" s="105"/>
-      <c r="CO10" s="103">
+      <c r="CK10" s="75"/>
+      <c r="CL10" s="75"/>
+      <c r="CM10" s="75"/>
+      <c r="CN10" s="76"/>
+      <c r="CO10" s="74">
         <f t="shared" ref="CO10" si="42">+CJ10+1</f>
         <v>44721</v>
       </c>
-      <c r="CP10" s="104"/>
-      <c r="CQ10" s="104"/>
-      <c r="CR10" s="104"/>
-      <c r="CS10" s="105"/>
-      <c r="CT10" s="103">
+      <c r="CP10" s="75"/>
+      <c r="CQ10" s="75"/>
+      <c r="CR10" s="75"/>
+      <c r="CS10" s="76"/>
+      <c r="CT10" s="74">
         <f t="shared" ref="CT10" si="43">+CO10+1</f>
         <v>44722</v>
       </c>
-      <c r="CU10" s="104"/>
-      <c r="CV10" s="104"/>
-      <c r="CW10" s="104"/>
-      <c r="CX10" s="105"/>
-      <c r="CY10" s="103">
+      <c r="CU10" s="75"/>
+      <c r="CV10" s="75"/>
+      <c r="CW10" s="75"/>
+      <c r="CX10" s="76"/>
+      <c r="CY10" s="74">
         <f t="shared" ref="CY10" si="44">+CT10+1</f>
         <v>44723</v>
       </c>
-      <c r="CZ10" s="104"/>
-      <c r="DA10" s="104"/>
-      <c r="DB10" s="104"/>
-      <c r="DC10" s="105"/>
-      <c r="DD10" s="103">
+      <c r="CZ10" s="75"/>
+      <c r="DA10" s="75"/>
+      <c r="DB10" s="75"/>
+      <c r="DC10" s="76"/>
+      <c r="DD10" s="74">
         <f t="shared" ref="DD10" si="45">+CY10+1</f>
         <v>44724</v>
       </c>
-      <c r="DE10" s="104"/>
-      <c r="DF10" s="104"/>
-      <c r="DG10" s="104"/>
-      <c r="DH10" s="105"/>
-      <c r="DI10" s="103">
+      <c r="DE10" s="75"/>
+      <c r="DF10" s="75"/>
+      <c r="DG10" s="75"/>
+      <c r="DH10" s="76"/>
+      <c r="DI10" s="74">
         <f t="shared" ref="DI10" si="46">+DD10+1</f>
         <v>44725</v>
       </c>
-      <c r="DJ10" s="104"/>
-      <c r="DK10" s="104"/>
-      <c r="DL10" s="104"/>
-      <c r="DM10" s="105"/>
-      <c r="DN10" s="103">
+      <c r="DJ10" s="75"/>
+      <c r="DK10" s="75"/>
+      <c r="DL10" s="75"/>
+      <c r="DM10" s="76"/>
+      <c r="DN10" s="74">
         <f t="shared" ref="DN10" si="47">+DI10+1</f>
         <v>44726</v>
       </c>
-      <c r="DO10" s="104"/>
-      <c r="DP10" s="104"/>
-      <c r="DQ10" s="104"/>
-      <c r="DR10" s="105"/>
-      <c r="DS10" s="103">
+      <c r="DO10" s="75"/>
+      <c r="DP10" s="75"/>
+      <c r="DQ10" s="75"/>
+      <c r="DR10" s="76"/>
+      <c r="DS10" s="74">
         <f t="shared" ref="DS10" si="48">+DN10+1</f>
         <v>44727</v>
       </c>
-      <c r="DT10" s="104"/>
-      <c r="DU10" s="104"/>
-      <c r="DV10" s="104"/>
-      <c r="DW10" s="105"/>
-      <c r="DX10" s="103">
+      <c r="DT10" s="75"/>
+      <c r="DU10" s="75"/>
+      <c r="DV10" s="75"/>
+      <c r="DW10" s="76"/>
+      <c r="DX10" s="74">
         <f t="shared" ref="DX10" si="49">+DS10+1</f>
         <v>44728</v>
       </c>
-      <c r="DY10" s="104"/>
-      <c r="DZ10" s="104"/>
-      <c r="EA10" s="104"/>
-      <c r="EB10" s="105"/>
-      <c r="EC10" s="103">
+      <c r="DY10" s="75"/>
+      <c r="DZ10" s="75"/>
+      <c r="EA10" s="75"/>
+      <c r="EB10" s="76"/>
+      <c r="EC10" s="74">
         <f t="shared" ref="EC10" si="50">+DX10+1</f>
         <v>44729</v>
       </c>
-      <c r="ED10" s="104"/>
-      <c r="EE10" s="104"/>
-      <c r="EF10" s="104"/>
-      <c r="EG10" s="105"/>
-      <c r="EH10" s="103">
+      <c r="ED10" s="75"/>
+      <c r="EE10" s="75"/>
+      <c r="EF10" s="75"/>
+      <c r="EG10" s="76"/>
+      <c r="EH10" s="74">
         <f t="shared" ref="EH10" si="51">+EC10+1</f>
         <v>44730</v>
       </c>
-      <c r="EI10" s="104"/>
-      <c r="EJ10" s="104"/>
-      <c r="EK10" s="104"/>
-      <c r="EL10" s="105"/>
-      <c r="EM10" s="103">
+      <c r="EI10" s="75"/>
+      <c r="EJ10" s="75"/>
+      <c r="EK10" s="75"/>
+      <c r="EL10" s="76"/>
+      <c r="EM10" s="74">
         <f t="shared" ref="EM10" si="52">+EH10+1</f>
         <v>44731</v>
       </c>
-      <c r="EN10" s="104"/>
-      <c r="EO10" s="104"/>
-      <c r="EP10" s="104"/>
-      <c r="EQ10" s="105"/>
-      <c r="ER10" s="103">
+      <c r="EN10" s="75"/>
+      <c r="EO10" s="75"/>
+      <c r="EP10" s="75"/>
+      <c r="EQ10" s="76"/>
+      <c r="ER10" s="74">
         <f t="shared" ref="ER10" si="53">+EM10+1</f>
         <v>44732</v>
       </c>
-      <c r="ES10" s="104"/>
-      <c r="ET10" s="104"/>
-      <c r="EU10" s="104"/>
-      <c r="EV10" s="105"/>
-      <c r="EW10" s="103">
+      <c r="ES10" s="75"/>
+      <c r="ET10" s="75"/>
+      <c r="EU10" s="75"/>
+      <c r="EV10" s="76"/>
+      <c r="EW10" s="74">
         <f t="shared" ref="EW10" si="54">+ER10+1</f>
         <v>44733</v>
       </c>
-      <c r="EX10" s="104"/>
-      <c r="EY10" s="104"/>
-      <c r="EZ10" s="104"/>
-      <c r="FA10" s="105"/>
-      <c r="FB10" s="103">
+      <c r="EX10" s="75"/>
+      <c r="EY10" s="75"/>
+      <c r="EZ10" s="75"/>
+      <c r="FA10" s="76"/>
+      <c r="FB10" s="74">
         <f t="shared" ref="FB10" si="55">+EW10+1</f>
         <v>44734</v>
       </c>
-      <c r="FC10" s="104"/>
-      <c r="FD10" s="104"/>
-      <c r="FE10" s="104"/>
-      <c r="FF10" s="105"/>
-      <c r="FG10" s="103">
+      <c r="FC10" s="75"/>
+      <c r="FD10" s="75"/>
+      <c r="FE10" s="75"/>
+      <c r="FF10" s="76"/>
+      <c r="FG10" s="74">
         <f t="shared" ref="FG10" si="56">+FB10+1</f>
         <v>44735</v>
       </c>
-      <c r="FH10" s="104"/>
-      <c r="FI10" s="104"/>
-      <c r="FJ10" s="104"/>
-      <c r="FK10" s="105"/>
+      <c r="FH10" s="75"/>
+      <c r="FI10" s="75"/>
+      <c r="FJ10" s="75"/>
+      <c r="FK10" s="76"/>
     </row>
     <row r="11" spans="1:167" s="21" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="44" t="s">
         <v>173</v>
       </c>
@@ -12355,7 +12355,7 @@
       <c r="FJ33" s="33"/>
       <c r="FK33" s="34"/>
     </row>
-    <row r="34" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>38</v>
       </c>
@@ -38077,7 +38077,7 @@
       <c r="FJ121" s="33"/>
       <c r="FK121" s="34"/>
     </row>
-    <row r="122" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
         <v>131</v>
       </c>
@@ -48969,33 +48969,45 @@
   <autoFilter ref="A11:FK162" xr:uid="{C0760EAB-CC3D-40AE-A29A-AB65FF61DEFD}">
     <filterColumn colId="1">
       <filters>
-        <filter val="CAMPOS ASIN"/>
+        <filter val="TAQUIRI SOLIS"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="72">
-    <mergeCell ref="BA10:BE10"/>
-    <mergeCell ref="DI10:DM10"/>
-    <mergeCell ref="BF10:BJ10"/>
-    <mergeCell ref="BK10:BO10"/>
-    <mergeCell ref="BP10:BT10"/>
-    <mergeCell ref="BU10:BY10"/>
-    <mergeCell ref="BZ10:CD10"/>
-    <mergeCell ref="CE10:CI10"/>
-    <mergeCell ref="FG10:FK10"/>
-    <mergeCell ref="DN10:DR10"/>
-    <mergeCell ref="DS10:DW10"/>
-    <mergeCell ref="DX10:EB10"/>
-    <mergeCell ref="EC10:EG10"/>
-    <mergeCell ref="EH10:EL10"/>
-    <mergeCell ref="EM10:EQ10"/>
-    <mergeCell ref="FG9:FK9"/>
-    <mergeCell ref="EC9:EG9"/>
-    <mergeCell ref="EH9:EL9"/>
-    <mergeCell ref="EM9:EQ9"/>
-    <mergeCell ref="ER9:EV9"/>
-    <mergeCell ref="EW9:FA9"/>
-    <mergeCell ref="FB9:FF9"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:D10"/>
+    <mergeCell ref="E8:Q10"/>
+    <mergeCell ref="R8:AZ8"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AQ10:AU10"/>
+    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="BU9:BY9"/>
+    <mergeCell ref="BZ9:CD9"/>
+    <mergeCell ref="ER10:EV10"/>
+    <mergeCell ref="EW10:FA10"/>
+    <mergeCell ref="FB10:FF10"/>
+    <mergeCell ref="CY9:DC9"/>
+    <mergeCell ref="DD9:DH9"/>
+    <mergeCell ref="DI9:DM9"/>
+    <mergeCell ref="DN9:DR9"/>
+    <mergeCell ref="DS9:DW9"/>
+    <mergeCell ref="DX9:EB9"/>
+    <mergeCell ref="CJ10:CN10"/>
+    <mergeCell ref="CO10:CS10"/>
+    <mergeCell ref="CT10:CX10"/>
+    <mergeCell ref="CY10:DC10"/>
+    <mergeCell ref="DD10:DH10"/>
     <mergeCell ref="BA8:FK8"/>
     <mergeCell ref="R9:V9"/>
     <mergeCell ref="W9:AA9"/>
@@ -49012,40 +49024,28 @@
     <mergeCell ref="BF9:BJ9"/>
     <mergeCell ref="BK9:BO9"/>
     <mergeCell ref="BP9:BT9"/>
-    <mergeCell ref="BU9:BY9"/>
-    <mergeCell ref="BZ9:CD9"/>
-    <mergeCell ref="ER10:EV10"/>
-    <mergeCell ref="EW10:FA10"/>
-    <mergeCell ref="FB10:FF10"/>
-    <mergeCell ref="CY9:DC9"/>
-    <mergeCell ref="DD9:DH9"/>
-    <mergeCell ref="DI9:DM9"/>
-    <mergeCell ref="DN9:DR9"/>
-    <mergeCell ref="DS9:DW9"/>
-    <mergeCell ref="DX9:EB9"/>
-    <mergeCell ref="CJ10:CN10"/>
-    <mergeCell ref="CO10:CS10"/>
-    <mergeCell ref="CT10:CX10"/>
-    <mergeCell ref="CY10:DC10"/>
-    <mergeCell ref="DD10:DH10"/>
-    <mergeCell ref="R8:AZ8"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="AQ10:AU10"/>
-    <mergeCell ref="AV10:AZ10"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:Q5"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:D10"/>
-    <mergeCell ref="E8:Q10"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:Q3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="FG9:FK9"/>
+    <mergeCell ref="EC9:EG9"/>
+    <mergeCell ref="EH9:EL9"/>
+    <mergeCell ref="EM9:EQ9"/>
+    <mergeCell ref="ER9:EV9"/>
+    <mergeCell ref="EW9:FA9"/>
+    <mergeCell ref="FB9:FF9"/>
+    <mergeCell ref="FG10:FK10"/>
+    <mergeCell ref="DN10:DR10"/>
+    <mergeCell ref="DS10:DW10"/>
+    <mergeCell ref="DX10:EB10"/>
+    <mergeCell ref="EC10:EG10"/>
+    <mergeCell ref="EH10:EL10"/>
+    <mergeCell ref="EM10:EQ10"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="DI10:DM10"/>
+    <mergeCell ref="BF10:BJ10"/>
+    <mergeCell ref="BK10:BO10"/>
+    <mergeCell ref="BP10:BT10"/>
+    <mergeCell ref="BU10:BY10"/>
+    <mergeCell ref="BZ10:CD10"/>
+    <mergeCell ref="CE10:CI10"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="DS12:EL151 FB12:FK151 ER12:EV151">
